--- a/phpTamilTabUniFont/TAB to Unicode Tamil Character Mapping.xlsx
+++ b/phpTamilTabUniFont/TAB to Unicode Tamil Character Mapping.xlsx
@@ -12,6 +12,7 @@
     <sheet name="References" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Unicode-Tab Table'!$A$3:$F$317</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Workings!$F$1:$F$139</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="667">
   <si>
     <t>ªó£</t>
   </si>
@@ -1999,6 +2000,27 @@
   </si>
   <si>
     <t>è¢û§</t>
+  </si>
+  <si>
+    <t>®</t>
+  </si>
+  <si>
+    <t>Æ</t>
+  </si>
+  <si>
+    <t>É</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Å</t>
+  </si>
+  <si>
+    <t>Ç</t>
+  </si>
+  <si>
+    <t>);</t>
   </si>
 </sst>
 </file>
@@ -2008,7 +2030,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-9000449]0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2030,6 +2052,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2187,10 +2216,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2223,8 +2256,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2519,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE192"/>
   <sheetViews>
-    <sheetView topLeftCell="K16" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2829,7 +2865,9 @@
         <f>$F17&amp;$F$44</f>
         <v>ஙூ</v>
       </c>
-      <c r="S17" s="6"/>
+      <c r="S17" s="6" t="s">
+        <v>663</v>
+      </c>
       <c r="T17" s="10" t="str">
         <f>$F17&amp;$F$45</f>
         <v>ஙெ</v>
@@ -2929,7 +2967,9 @@
         <f>$F18&amp;$F$44</f>
         <v>சூ</v>
       </c>
-      <c r="S18" s="6"/>
+      <c r="S18" s="6" t="s">
+        <v>664</v>
+      </c>
       <c r="T18" s="10" t="str">
         <f t="shared" ref="T18:T38" si="19">$F18&amp;$F$45</f>
         <v>செ</v>
@@ -3131,7 +3171,9 @@
         <f t="shared" ref="R20:R38" si="21">$F20&amp;$F$44</f>
         <v>ஞூ</v>
       </c>
-      <c r="S20" s="6"/>
+      <c r="S20" s="6" t="s">
+        <v>661</v>
+      </c>
       <c r="T20" s="10" t="str">
         <f t="shared" si="19"/>
         <v>ஞெ</v>
@@ -3231,7 +3273,9 @@
         <f t="shared" si="21"/>
         <v>டூ</v>
       </c>
-      <c r="S21" s="6"/>
+      <c r="S21" s="6" t="s">
+        <v>665</v>
+      </c>
       <c r="T21" s="10" t="str">
         <f t="shared" si="19"/>
         <v>டெ</v>
@@ -3433,7 +3477,9 @@
         <f t="shared" si="21"/>
         <v>தூ</v>
       </c>
-      <c r="S23" s="6"/>
+      <c r="S23" s="6" t="s">
+        <v>662</v>
+      </c>
       <c r="T23" s="10" t="str">
         <f t="shared" si="19"/>
         <v>தெ</v>
@@ -5330,7 +5376,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F316"/>
+  <dimension ref="A1:F317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5387,15 +5433,15 @@
         <v>133</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D67" si="0">LEN(C4)</f>
+        <f>LEN(C4)</f>
         <v>5</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E67" si="1">"'"&amp;C4&amp;"' =&gt; '"&amp;B4&amp;"',"</f>
+        <f>"'"&amp;C4&amp;"' =&gt; '"&amp;B4&amp;"',"</f>
         <v>'è¢«û£' =&gt; 'க்ஷோ',</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F67" si="2">"'"&amp;B4&amp;"' =&gt; '"&amp;C4&amp;"',"</f>
+        <f>"'"&amp;B4&amp;"' =&gt; '"&amp;C4&amp;"',"</f>
         <v>'க்ஷோ' =&gt; 'è¢«û£',</v>
       </c>
     </row>
@@ -5410,15 +5456,15 @@
         <v>134</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>LEN(C5)</f>
         <v>5</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E5:E68" si="0">"'"&amp;C5&amp;"' =&gt; '"&amp;B5&amp;"',"</f>
         <v>'è¢ªû÷' =&gt; 'க்ஷௌ',</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F5:F68" si="1">"'"&amp;B5&amp;"' =&gt; '"&amp;C5&amp;"',"</f>
         <v>'க்ஷௌ' =&gt; 'è¢ªû÷',</v>
       </c>
     </row>
@@ -5433,15 +5479,15 @@
         <v>132</v>
       </c>
       <c r="D6">
+        <f>LEN(C6)</f>
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E6" t="str">
+        <v>'è¢ªû£' =&gt; 'க்ஷொ',</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>'è¢ªû£' =&gt; 'க்ஷொ',</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="2"/>
         <v>'க்ஷொ' =&gt; 'è¢ªû£',</v>
       </c>
     </row>
@@ -5456,15 +5502,15 @@
         <v>131</v>
       </c>
       <c r="D7">
+        <f>LEN(C7)</f>
+        <v>4</v>
+      </c>
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E7" t="str">
+        <v>'è¢«û' =&gt; 'க்ஷே',</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>'è¢«û' =&gt; 'க்ஷே',</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="2"/>
         <v>'க்ஷே' =&gt; 'è¢«û',</v>
       </c>
     </row>
@@ -5479,15 +5525,15 @@
         <v>129</v>
       </c>
       <c r="D8">
+        <f>LEN(C8)</f>
+        <v>4</v>
+      </c>
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E8" t="str">
+        <v>'è¢¬û' =&gt; 'க்ஷை',</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>'è¢¬û' =&gt; 'க்ஷை',</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="2"/>
         <v>'க்ஷை' =&gt; 'è¢¬û',</v>
       </c>
     </row>
@@ -5502,15 +5548,15 @@
         <v>130</v>
       </c>
       <c r="D9">
+        <f>LEN(C9)</f>
+        <v>4</v>
+      </c>
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E9" t="str">
+        <v>'è¢ªû' =&gt; 'க்ஷெ',</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>'è¢ªû' =&gt; 'க்ஷெ',</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="2"/>
         <v>'க்ஷெ' =&gt; 'è¢ªû',</v>
       </c>
     </row>
@@ -5525,15 +5571,15 @@
         <v>616</v>
       </c>
       <c r="D10">
+        <f>LEN(C10)</f>
+        <v>4</v>
+      </c>
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E10" t="str">
+        <v>'è¢û¦' =&gt; 'க்ஷீ',</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>'è¢û¦' =&gt; 'க்ஷீ',</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="2"/>
         <v>'க்ஷீ' =&gt; 'è¢û¦',</v>
       </c>
     </row>
@@ -5548,15 +5594,15 @@
         <v>135</v>
       </c>
       <c r="D11">
+        <f>LEN(C11)</f>
+        <v>4</v>
+      </c>
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E11" t="str">
+        <v>'è¢û¨' =&gt; 'க்ஷூ',</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>'è¢û¨' =&gt; 'க்ஷூ',</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="2"/>
         <v>'க்ஷூ' =&gt; 'è¢û¨',</v>
       </c>
     </row>
@@ -5571,15 +5617,15 @@
         <v>128</v>
       </c>
       <c r="D12">
+        <f>LEN(C12)</f>
+        <v>4</v>
+      </c>
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E12" t="str">
+        <v>'è¢û¢' =&gt; 'க்ஷ்',</v>
+      </c>
+      <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>'è¢û¢' =&gt; 'க்ஷ்',</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="2"/>
         <v>'க்ஷ்' =&gt; 'è¢û¢',</v>
       </c>
     </row>
@@ -5594,15 +5640,15 @@
         <v>612</v>
       </c>
       <c r="D13">
+        <f>LEN(C13)</f>
+        <v>4</v>
+      </c>
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E13" t="str">
+        <v>'è¢û£' =&gt; 'க்ஷா',</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>'è¢û£' =&gt; 'க்ஷா',</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="2"/>
         <v>'க்ஷா' =&gt; 'è¢û£',</v>
       </c>
     </row>
@@ -5617,15 +5663,15 @@
         <v>614</v>
       </c>
       <c r="D14">
+        <f>LEN(C14)</f>
+        <v>4</v>
+      </c>
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E14" t="str">
+        <v>'è¢û¤' =&gt; 'க்ஷி',</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>'è¢û¤' =&gt; 'க்ஷி',</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="2"/>
         <v>'க்ஷி' =&gt; 'è¢û¤',</v>
       </c>
     </row>
@@ -5640,15 +5686,15 @@
         <v>659</v>
       </c>
       <c r="D15">
+        <f>LEN(C15)</f>
+        <v>4</v>
+      </c>
+      <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E15" t="str">
+        <v>'è¢û§' =&gt; 'க்ஷு',</v>
+      </c>
+      <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>'è¢û§' =&gt; 'க்ஷு',</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="2"/>
         <v>'க்ஷு' =&gt; 'è¢û§',</v>
       </c>
     </row>
@@ -5663,15 +5709,15 @@
         <v>498</v>
       </c>
       <c r="D16">
+        <f>LEN(C16)</f>
+        <v>3</v>
+      </c>
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E16" t="str">
+        <v>'«÷£' =&gt; 'ளோ',</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>'«÷£' =&gt; 'ளோ',</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="2"/>
         <v>'ளோ' =&gt; '«÷£',</v>
       </c>
     </row>
@@ -5686,15 +5732,15 @@
         <v>370</v>
       </c>
       <c r="D17">
+        <f>LEN(C17)</f>
+        <v>3</v>
+      </c>
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E17" t="str">
+        <v>'«ð£' =&gt; 'போ',</v>
+      </c>
+      <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>'«ð£' =&gt; 'போ',</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="2"/>
         <v>'போ' =&gt; '«ð£',</v>
       </c>
     </row>
@@ -5709,15 +5755,15 @@
         <v>172</v>
       </c>
       <c r="D18">
+        <f>LEN(C18)</f>
+        <v>3</v>
+      </c>
+      <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E18" t="str">
+        <v>'«é£' =&gt; 'ஙோ',</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>'«é£' =&gt; 'ஙோ',</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="2"/>
         <v>'ஙோ' =&gt; '«é£',</v>
       </c>
     </row>
@@ -5732,15 +5778,15 @@
         <v>150</v>
       </c>
       <c r="D19">
+        <f>LEN(C19)</f>
+        <v>3</v>
+      </c>
+      <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E19" t="str">
+        <v>'«è£' =&gt; 'கோ',</v>
+      </c>
+      <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>'«è£' =&gt; 'கோ',</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="2"/>
         <v>'கோ' =&gt; '«è£',</v>
       </c>
     </row>
@@ -5755,15 +5801,15 @@
         <v>194</v>
       </c>
       <c r="D20">
+        <f>LEN(C20)</f>
+        <v>3</v>
+      </c>
+      <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E20" t="str">
+        <v>'«ê£' =&gt; 'சோ',</v>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>'«ê£' =&gt; 'சோ',</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="2"/>
         <v>'சோ' =&gt; '«ê£',</v>
       </c>
     </row>
@@ -5778,15 +5824,15 @@
         <v>238</v>
       </c>
       <c r="D21">
+        <f>LEN(C21)</f>
+        <v>3</v>
+      </c>
+      <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E21" t="str">
+        <v>'«ë£' =&gt; 'ஞோ',</v>
+      </c>
+      <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>'«ë£' =&gt; 'ஞோ',</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="2"/>
         <v>'ஞோ' =&gt; '«ë£',</v>
       </c>
     </row>
@@ -5801,15 +5847,15 @@
         <v>282</v>
       </c>
       <c r="D22">
+        <f>LEN(C22)</f>
+        <v>3</v>
+      </c>
+      <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E22" t="str">
+        <v>'«í£' =&gt; 'ணோ',</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>'«í£' =&gt; 'ணோ',</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="2"/>
         <v>'ணோ' =&gt; '«í£',</v>
       </c>
     </row>
@@ -5824,15 +5870,15 @@
         <v>260</v>
       </c>
       <c r="D23">
+        <f>LEN(C23)</f>
+        <v>3</v>
+      </c>
+      <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E23" t="str">
+        <v>'«ì£' =&gt; 'டோ',</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>'«ì£' =&gt; 'டோ',</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="2"/>
         <v>'டோ' =&gt; '«ì£',</v>
       </c>
     </row>
@@ -5847,15 +5893,15 @@
         <v>304</v>
       </c>
       <c r="D24">
+        <f>LEN(C24)</f>
+        <v>3</v>
+      </c>
+      <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E24" t="str">
+        <v>'«î£' =&gt; 'தோ',</v>
+      </c>
+      <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>'«î£' =&gt; 'தோ',</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="2"/>
         <v>'தோ' =&gt; '«î£',</v>
       </c>
     </row>
@@ -5870,15 +5916,15 @@
         <v>326</v>
       </c>
       <c r="D25">
+        <f>LEN(C25)</f>
+        <v>3</v>
+      </c>
+      <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E25" t="str">
+        <v>'«ï£' =&gt; 'நோ',</v>
+      </c>
+      <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>'«ï£' =&gt; 'நோ',</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="2"/>
         <v>'நோ' =&gt; '«ï£',</v>
       </c>
     </row>
@@ -5893,15 +5939,15 @@
         <v>390</v>
       </c>
       <c r="D26">
+        <f>LEN(C26)</f>
+        <v>3</v>
+      </c>
+      <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E26" t="str">
+        <v>'«ñ£' =&gt; 'மோ',</v>
+      </c>
+      <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>'«ñ£' =&gt; 'மோ',</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="2"/>
         <v>'மோ' =&gt; '«ñ£',</v>
       </c>
     </row>
@@ -5916,15 +5962,15 @@
         <v>432</v>
       </c>
       <c r="D27">
+        <f>LEN(C27)</f>
+        <v>3</v>
+      </c>
+      <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E27" t="str">
+        <v>'«ó£' =&gt; 'ரோ',</v>
+      </c>
+      <c r="F27" t="str">
         <f t="shared" si="1"/>
-        <v>'«ó£' =&gt; 'ரோ',</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="2"/>
         <v>'ரோ' =&gt; '«ó£',</v>
       </c>
     </row>
@@ -5939,15 +5985,15 @@
         <v>412</v>
       </c>
       <c r="D28">
+        <f>LEN(C28)</f>
+        <v>3</v>
+      </c>
+      <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E28" t="str">
+        <v>'«ò£' =&gt; 'யோ',</v>
+      </c>
+      <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>'«ò£' =&gt; 'யோ',</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="2"/>
         <v>'யோ' =&gt; '«ò£',</v>
       </c>
     </row>
@@ -5962,15 +6008,15 @@
         <v>476</v>
       </c>
       <c r="D29">
+        <f>LEN(C29)</f>
+        <v>3</v>
+      </c>
+      <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E29" t="str">
+        <v>'«ô£' =&gt; 'லோ',</v>
+      </c>
+      <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>'«ô£' =&gt; 'லோ',</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="2"/>
         <v>'லோ' =&gt; '«ô£',</v>
       </c>
     </row>
@@ -5985,15 +6031,15 @@
         <v>520</v>
       </c>
       <c r="D30">
+        <f>LEN(C30)</f>
+        <v>3</v>
+      </c>
+      <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E30" t="str">
+        <v>'«ö£' =&gt; 'ழோ',</v>
+      </c>
+      <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>'«ö£' =&gt; 'ழோ',</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="2"/>
         <v>'ழோ' =&gt; '«ö£',</v>
       </c>
     </row>
@@ -6008,15 +6054,15 @@
         <v>542</v>
       </c>
       <c r="D31">
+        <f>LEN(C31)</f>
+        <v>3</v>
+      </c>
+      <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E31" t="str">
+        <v>'«õ£' =&gt; 'வோ',</v>
+      </c>
+      <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>'«õ£' =&gt; 'வோ',</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="2"/>
         <v>'வோ' =&gt; '«õ£',</v>
       </c>
     </row>
@@ -6031,15 +6077,15 @@
         <v>454</v>
       </c>
       <c r="D32">
+        <f>LEN(C32)</f>
+        <v>3</v>
+      </c>
+      <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E32" t="str">
+        <v>'«ø£' =&gt; 'றோ',</v>
+      </c>
+      <c r="F32" t="str">
         <f t="shared" si="1"/>
-        <v>'«ø£' =&gt; 'றோ',</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="2"/>
         <v>'றோ' =&gt; '«ø£',</v>
       </c>
     </row>
@@ -6054,15 +6100,15 @@
         <v>586</v>
       </c>
       <c r="D33">
+        <f>LEN(C33)</f>
+        <v>3</v>
+      </c>
+      <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E33" t="str">
+        <v>'«ú£' =&gt; 'ஸோ',</v>
+      </c>
+      <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>'«ú£' =&gt; 'ஸோ',</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="2"/>
         <v>'ஸோ' =&gt; '«ú£',</v>
       </c>
     </row>
@@ -6077,15 +6123,15 @@
         <v>348</v>
       </c>
       <c r="D34">
+        <f>LEN(C34)</f>
+        <v>3</v>
+      </c>
+      <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E34" t="str">
+        <v>'«ù£' =&gt; 'னோ',</v>
+      </c>
+      <c r="F34" t="str">
         <f t="shared" si="1"/>
-        <v>'«ù£' =&gt; 'னோ',</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="2"/>
         <v>'னோ' =&gt; '«ù£',</v>
       </c>
     </row>
@@ -6100,15 +6146,15 @@
         <v>564</v>
       </c>
       <c r="D35">
+        <f>LEN(C35)</f>
+        <v>3</v>
+      </c>
+      <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E35" t="str">
+        <v>'«û£' =&gt; 'ஷோ',</v>
+      </c>
+      <c r="F35" t="str">
         <f t="shared" si="1"/>
-        <v>'«û£' =&gt; 'ஷோ',</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="2"/>
         <v>'ஷோ' =&gt; '«û£',</v>
       </c>
     </row>
@@ -6123,15 +6169,15 @@
         <v>216</v>
       </c>
       <c r="D36">
+        <f>LEN(C36)</f>
+        <v>3</v>
+      </c>
+      <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E36" t="str">
+        <v>'«ü£' =&gt; 'ஜோ',</v>
+      </c>
+      <c r="F36" t="str">
         <f t="shared" si="1"/>
-        <v>'«ü£' =&gt; 'ஜோ',</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="2"/>
         <v>'ஜோ' =&gt; '«ü£',</v>
       </c>
     </row>
@@ -6146,15 +6192,15 @@
         <v>608</v>
       </c>
       <c r="D37">
+        <f>LEN(C37)</f>
+        <v>3</v>
+      </c>
+      <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E37" t="str">
+        <v>'«ý£' =&gt; 'ஹோ',</v>
+      </c>
+      <c r="F37" t="str">
         <f t="shared" si="1"/>
-        <v>'«ý£' =&gt; 'ஹோ',</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="2"/>
         <v>'ஹோ' =&gt; '«ý£',</v>
       </c>
     </row>
@@ -6169,15 +6215,15 @@
         <v>500</v>
       </c>
       <c r="D38">
+        <f>LEN(C38)</f>
+        <v>3</v>
+      </c>
+      <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E38" t="str">
+        <v>'ª÷÷' =&gt; 'ளௌ',</v>
+      </c>
+      <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v>'ª÷÷' =&gt; 'ளௌ',</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="2"/>
         <v>'ளௌ' =&gt; 'ª÷÷',</v>
       </c>
     </row>
@@ -6192,15 +6238,15 @@
         <v>496</v>
       </c>
       <c r="D39">
+        <f>LEN(C39)</f>
+        <v>3</v>
+      </c>
+      <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E39" t="str">
+        <v>'ª÷£' =&gt; 'ளொ',</v>
+      </c>
+      <c r="F39" t="str">
         <f t="shared" si="1"/>
-        <v>'ª÷£' =&gt; 'ளொ',</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="2"/>
         <v>'ளொ' =&gt; 'ª÷£',</v>
       </c>
     </row>
@@ -6215,15 +6261,15 @@
         <v>372</v>
       </c>
       <c r="D40">
+        <f>LEN(C40)</f>
+        <v>3</v>
+      </c>
+      <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E40" t="str">
+        <v>'ªð÷' =&gt; 'பௌ',</v>
+      </c>
+      <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>'ªð÷' =&gt; 'பௌ',</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="2"/>
         <v>'பௌ' =&gt; 'ªð÷',</v>
       </c>
     </row>
@@ -6238,15 +6284,15 @@
         <v>368</v>
       </c>
       <c r="D41">
+        <f>LEN(C41)</f>
+        <v>3</v>
+      </c>
+      <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E41" t="str">
+        <v>'ªð£' =&gt; 'பொ',</v>
+      </c>
+      <c r="F41" t="str">
         <f t="shared" si="1"/>
-        <v>'ªð£' =&gt; 'பொ',</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="2"/>
         <v>'பொ' =&gt; 'ªð£',</v>
       </c>
     </row>
@@ -6261,15 +6307,15 @@
         <v>174</v>
       </c>
       <c r="D42">
+        <f>LEN(C42)</f>
+        <v>3</v>
+      </c>
+      <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E42" t="str">
+        <v>'ªé÷' =&gt; 'ஙௌ',</v>
+      </c>
+      <c r="F42" t="str">
         <f t="shared" si="1"/>
-        <v>'ªé÷' =&gt; 'ஙௌ',</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="2"/>
         <v>'ஙௌ' =&gt; 'ªé÷',</v>
       </c>
     </row>
@@ -6284,15 +6330,15 @@
         <v>152</v>
       </c>
       <c r="D43">
+        <f>LEN(C43)</f>
+        <v>3</v>
+      </c>
+      <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E43" t="str">
+        <v>'ªè÷' =&gt; 'கௌ',</v>
+      </c>
+      <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v>'ªè÷' =&gt; 'கௌ',</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="2"/>
         <v>'கௌ' =&gt; 'ªè÷',</v>
       </c>
     </row>
@@ -6307,15 +6353,15 @@
         <v>196</v>
       </c>
       <c r="D44">
+        <f>LEN(C44)</f>
+        <v>3</v>
+      </c>
+      <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E44" t="str">
+        <v>'ªê÷' =&gt; 'சௌ',</v>
+      </c>
+      <c r="F44" t="str">
         <f t="shared" si="1"/>
-        <v>'ªê÷' =&gt; 'சௌ',</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="2"/>
         <v>'சௌ' =&gt; 'ªê÷',</v>
       </c>
     </row>
@@ -6330,15 +6376,15 @@
         <v>240</v>
       </c>
       <c r="D45">
+        <f>LEN(C45)</f>
+        <v>3</v>
+      </c>
+      <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E45" t="str">
+        <v>'ªë÷' =&gt; 'ஞௌ',</v>
+      </c>
+      <c r="F45" t="str">
         <f t="shared" si="1"/>
-        <v>'ªë÷' =&gt; 'ஞௌ',</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="2"/>
         <v>'ஞௌ' =&gt; 'ªë÷',</v>
       </c>
     </row>
@@ -6353,15 +6399,15 @@
         <v>170</v>
       </c>
       <c r="D46">
+        <f>LEN(C46)</f>
+        <v>3</v>
+      </c>
+      <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E46" t="str">
+        <v>'ªé£' =&gt; 'ஙொ',</v>
+      </c>
+      <c r="F46" t="str">
         <f t="shared" si="1"/>
-        <v>'ªé£' =&gt; 'ஙொ',</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="2"/>
         <v>'ஙொ' =&gt; 'ªé£',</v>
       </c>
     </row>
@@ -6376,15 +6422,15 @@
         <v>124</v>
       </c>
       <c r="D47">
+        <f>LEN(C47)</f>
+        <v>3</v>
+      </c>
+      <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E47" t="str">
+        <v>'ªè£' =&gt; 'கொ',</v>
+      </c>
+      <c r="F47" t="str">
         <f t="shared" si="1"/>
-        <v>'ªè£' =&gt; 'கொ',</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="2"/>
         <v>'கொ' =&gt; 'ªè£',</v>
       </c>
     </row>
@@ -6399,15 +6445,15 @@
         <v>192</v>
       </c>
       <c r="D48">
+        <f>LEN(C48)</f>
+        <v>3</v>
+      </c>
+      <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E48" t="str">
+        <v>'ªê£' =&gt; 'சொ',</v>
+      </c>
+      <c r="F48" t="str">
         <f t="shared" si="1"/>
-        <v>'ªê£' =&gt; 'சொ',</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="2"/>
         <v>'சொ' =&gt; 'ªê£',</v>
       </c>
     </row>
@@ -6422,15 +6468,15 @@
         <v>236</v>
       </c>
       <c r="D49">
+        <f>LEN(C49)</f>
+        <v>3</v>
+      </c>
+      <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E49" t="str">
+        <v>'ªë£' =&gt; 'ஞொ',</v>
+      </c>
+      <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v>'ªë£' =&gt; 'ஞொ',</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="2"/>
         <v>'ஞொ' =&gt; 'ªë£',</v>
       </c>
     </row>
@@ -6445,15 +6491,15 @@
         <v>284</v>
       </c>
       <c r="D50">
+        <f>LEN(C50)</f>
+        <v>3</v>
+      </c>
+      <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E50" t="str">
+        <v>'ªí÷' =&gt; 'ணௌ',</v>
+      </c>
+      <c r="F50" t="str">
         <f t="shared" si="1"/>
-        <v>'ªí÷' =&gt; 'ணௌ',</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="2"/>
         <v>'ணௌ' =&gt; 'ªí÷',</v>
       </c>
     </row>
@@ -6468,15 +6514,15 @@
         <v>262</v>
       </c>
       <c r="D51">
+        <f>LEN(C51)</f>
+        <v>3</v>
+      </c>
+      <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E51" t="str">
+        <v>'ªì÷' =&gt; 'டௌ',</v>
+      </c>
+      <c r="F51" t="str">
         <f t="shared" si="1"/>
-        <v>'ªì÷' =&gt; 'டௌ',</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="2"/>
         <v>'டௌ' =&gt; 'ªì÷',</v>
       </c>
     </row>
@@ -6491,15 +6537,15 @@
         <v>306</v>
       </c>
       <c r="D52">
+        <f>LEN(C52)</f>
+        <v>3</v>
+      </c>
+      <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E52" t="str">
+        <v>'ªî÷' =&gt; 'தௌ',</v>
+      </c>
+      <c r="F52" t="str">
         <f t="shared" si="1"/>
-        <v>'ªî÷' =&gt; 'தௌ',</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="2"/>
         <v>'தௌ' =&gt; 'ªî÷',</v>
       </c>
     </row>
@@ -6514,15 +6560,15 @@
         <v>328</v>
       </c>
       <c r="D53">
+        <f>LEN(C53)</f>
+        <v>3</v>
+      </c>
+      <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E53" t="str">
+        <v>'ªï÷' =&gt; 'நௌ',</v>
+      </c>
+      <c r="F53" t="str">
         <f t="shared" si="1"/>
-        <v>'ªï÷' =&gt; 'நௌ',</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="2"/>
         <v>'நௌ' =&gt; 'ªï÷',</v>
       </c>
     </row>
@@ -6537,15 +6583,15 @@
         <v>280</v>
       </c>
       <c r="D54">
+        <f>LEN(C54)</f>
+        <v>3</v>
+      </c>
+      <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E54" t="str">
+        <v>'ªí£' =&gt; 'ணொ',</v>
+      </c>
+      <c r="F54" t="str">
         <f t="shared" si="1"/>
-        <v>'ªí£' =&gt; 'ணொ',</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="2"/>
         <v>'ணொ' =&gt; 'ªí£',</v>
       </c>
     </row>
@@ -6560,15 +6606,15 @@
         <v>258</v>
       </c>
       <c r="D55">
+        <f>LEN(C55)</f>
+        <v>3</v>
+      </c>
+      <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E55" t="str">
+        <v>'ªì£' =&gt; 'டொ',</v>
+      </c>
+      <c r="F55" t="str">
         <f t="shared" si="1"/>
-        <v>'ªì£' =&gt; 'டொ',</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="2"/>
         <v>'டொ' =&gt; 'ªì£',</v>
       </c>
     </row>
@@ -6583,15 +6629,15 @@
         <v>302</v>
       </c>
       <c r="D56">
+        <f>LEN(C56)</f>
+        <v>3</v>
+      </c>
+      <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E56" t="str">
+        <v>'ªî£' =&gt; 'தொ',</v>
+      </c>
+      <c r="F56" t="str">
         <f t="shared" si="1"/>
-        <v>'ªî£' =&gt; 'தொ',</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="2"/>
         <v>'தொ' =&gt; 'ªî£',</v>
       </c>
     </row>
@@ -6606,15 +6652,15 @@
         <v>324</v>
       </c>
       <c r="D57">
+        <f>LEN(C57)</f>
+        <v>3</v>
+      </c>
+      <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E57" t="str">
+        <v>'ªï£' =&gt; 'நொ',</v>
+      </c>
+      <c r="F57" t="str">
         <f t="shared" si="1"/>
-        <v>'ªï£' =&gt; 'நொ',</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="2"/>
         <v>'நொ' =&gt; 'ªï£',</v>
       </c>
     </row>
@@ -6629,15 +6675,15 @@
         <v>392</v>
       </c>
       <c r="D58">
+        <f>LEN(C58)</f>
+        <v>3</v>
+      </c>
+      <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E58" t="str">
+        <v>'ªñ÷' =&gt; 'மௌ',</v>
+      </c>
+      <c r="F58" t="str">
         <f t="shared" si="1"/>
-        <v>'ªñ÷' =&gt; 'மௌ',</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="2"/>
         <v>'மௌ' =&gt; 'ªñ÷',</v>
       </c>
     </row>
@@ -6652,15 +6698,15 @@
         <v>388</v>
       </c>
       <c r="D59">
+        <f>LEN(C59)</f>
+        <v>3</v>
+      </c>
+      <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E59" t="str">
+        <v>'ªñ£' =&gt; 'மொ',</v>
+      </c>
+      <c r="F59" t="str">
         <f t="shared" si="1"/>
-        <v>'ªñ£' =&gt; 'மொ',</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="2"/>
         <v>'மொ' =&gt; 'ªñ£',</v>
       </c>
     </row>
@@ -6675,15 +6721,15 @@
         <v>434</v>
       </c>
       <c r="D60">
+        <f>LEN(C60)</f>
+        <v>3</v>
+      </c>
+      <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E60" t="str">
+        <v>'ªó÷' =&gt; 'ரௌ',</v>
+      </c>
+      <c r="F60" t="str">
         <f t="shared" si="1"/>
-        <v>'ªó÷' =&gt; 'ரௌ',</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="2"/>
         <v>'ரௌ' =&gt; 'ªó÷',</v>
       </c>
     </row>
@@ -6698,15 +6744,15 @@
         <v>414</v>
       </c>
       <c r="D61">
+        <f>LEN(C61)</f>
+        <v>3</v>
+      </c>
+      <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E61" t="str">
+        <v>'ªò÷' =&gt; 'யௌ',</v>
+      </c>
+      <c r="F61" t="str">
         <f t="shared" si="1"/>
-        <v>'ªò÷' =&gt; 'யௌ',</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="2"/>
         <v>'யௌ' =&gt; 'ªò÷',</v>
       </c>
     </row>
@@ -6721,15 +6767,15 @@
         <v>478</v>
       </c>
       <c r="D62">
+        <f>LEN(C62)</f>
+        <v>3</v>
+      </c>
+      <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E62" t="str">
+        <v>'ªô÷' =&gt; 'லௌ',</v>
+      </c>
+      <c r="F62" t="str">
         <f t="shared" si="1"/>
-        <v>'ªô÷' =&gt; 'லௌ',</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="2"/>
         <v>'லௌ' =&gt; 'ªô÷',</v>
       </c>
     </row>
@@ -6744,15 +6790,15 @@
         <v>522</v>
       </c>
       <c r="D63">
+        <f>LEN(C63)</f>
+        <v>3</v>
+      </c>
+      <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E63" t="str">
+        <v>'ªö÷' =&gt; 'ழௌ',</v>
+      </c>
+      <c r="F63" t="str">
         <f t="shared" si="1"/>
-        <v>'ªö÷' =&gt; 'ழௌ',</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="2"/>
         <v>'ழௌ' =&gt; 'ªö÷',</v>
       </c>
     </row>
@@ -6767,15 +6813,15 @@
         <v>544</v>
       </c>
       <c r="D64">
+        <f>LEN(C64)</f>
+        <v>3</v>
+      </c>
+      <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E64" t="str">
+        <v>'ªõ÷' =&gt; 'வௌ',</v>
+      </c>
+      <c r="F64" t="str">
         <f t="shared" si="1"/>
-        <v>'ªõ÷' =&gt; 'வௌ',</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="2"/>
         <v>'வௌ' =&gt; 'ªõ÷',</v>
       </c>
     </row>
@@ -6790,15 +6836,15 @@
         <v>456</v>
       </c>
       <c r="D65">
+        <f>LEN(C65)</f>
+        <v>3</v>
+      </c>
+      <c r="E65" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E65" t="str">
+        <v>'ªø÷' =&gt; 'றௌ',</v>
+      </c>
+      <c r="F65" t="str">
         <f t="shared" si="1"/>
-        <v>'ªø÷' =&gt; 'றௌ',</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="2"/>
         <v>'றௌ' =&gt; 'ªø÷',</v>
       </c>
     </row>
@@ -6813,15 +6859,15 @@
         <v>0</v>
       </c>
       <c r="D66">
+        <f>LEN(C66)</f>
+        <v>3</v>
+      </c>
+      <c r="E66" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E66" t="str">
+        <v>'ªó£' =&gt; 'ரொ',</v>
+      </c>
+      <c r="F66" t="str">
         <f t="shared" si="1"/>
-        <v>'ªó£' =&gt; 'ரொ',</v>
-      </c>
-      <c r="F66" t="str">
-        <f t="shared" si="2"/>
         <v>'ரொ' =&gt; 'ªó£',</v>
       </c>
     </row>
@@ -6836,15 +6882,15 @@
         <v>410</v>
       </c>
       <c r="D67">
+        <f>LEN(C67)</f>
+        <v>3</v>
+      </c>
+      <c r="E67" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E67" t="str">
+        <v>'ªò£' =&gt; 'யொ',</v>
+      </c>
+      <c r="F67" t="str">
         <f t="shared" si="1"/>
-        <v>'ªò£' =&gt; 'யொ',</v>
-      </c>
-      <c r="F67" t="str">
-        <f t="shared" si="2"/>
         <v>'யொ' =&gt; 'ªò£',</v>
       </c>
     </row>
@@ -6859,15 +6905,15 @@
         <v>474</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D131" si="3">LEN(C68)</f>
+        <f>LEN(C68)</f>
         <v>3</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" ref="E68:E131" si="4">"'"&amp;C68&amp;"' =&gt; '"&amp;B68&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'ªô£' =&gt; 'லொ',</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" ref="F68:F131" si="5">"'"&amp;B68&amp;"' =&gt; '"&amp;C68&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'லொ' =&gt; 'ªô£',</v>
       </c>
     </row>
@@ -6882,15 +6928,15 @@
         <v>518</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f>LEN(C69)</f>
         <v>3</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E69:E132" si="2">"'"&amp;C69&amp;"' =&gt; '"&amp;B69&amp;"',"</f>
         <v>'ªö£' =&gt; 'ழொ',</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F69:F132" si="3">"'"&amp;B69&amp;"' =&gt; '"&amp;C69&amp;"',"</f>
         <v>'ழொ' =&gt; 'ªö£',</v>
       </c>
     </row>
@@ -6905,15 +6951,15 @@
         <v>540</v>
       </c>
       <c r="D70">
+        <f>LEN(C70)</f>
+        <v>3</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
+        <v>'ªõ£' =&gt; 'வொ',</v>
+      </c>
+      <c r="F70" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="4"/>
-        <v>'ªõ£' =&gt; 'வொ',</v>
-      </c>
-      <c r="F70" t="str">
-        <f t="shared" si="5"/>
         <v>'வொ' =&gt; 'ªõ£',</v>
       </c>
     </row>
@@ -6928,15 +6974,15 @@
         <v>452</v>
       </c>
       <c r="D71">
+        <f>LEN(C71)</f>
+        <v>3</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="2"/>
+        <v>'ªø£' =&gt; 'றொ',</v>
+      </c>
+      <c r="F71" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="4"/>
-        <v>'ªø£' =&gt; 'றொ',</v>
-      </c>
-      <c r="F71" t="str">
-        <f t="shared" si="5"/>
         <v>'றொ' =&gt; 'ªø£',</v>
       </c>
     </row>
@@ -6951,15 +6997,15 @@
         <v>588</v>
       </c>
       <c r="D72">
+        <f>LEN(C72)</f>
+        <v>3</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="2"/>
+        <v>'ªú÷' =&gt; 'ஸௌ',</v>
+      </c>
+      <c r="F72" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="4"/>
-        <v>'ªú÷' =&gt; 'ஸௌ',</v>
-      </c>
-      <c r="F72" t="str">
-        <f t="shared" si="5"/>
         <v>'ஸௌ' =&gt; 'ªú÷',</v>
       </c>
     </row>
@@ -6974,15 +7020,15 @@
         <v>350</v>
       </c>
       <c r="D73">
+        <f>LEN(C73)</f>
+        <v>3</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="2"/>
+        <v>'ªù÷' =&gt; 'னௌ',</v>
+      </c>
+      <c r="F73" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="4"/>
-        <v>'ªù÷' =&gt; 'னௌ',</v>
-      </c>
-      <c r="F73" t="str">
-        <f t="shared" si="5"/>
         <v>'னௌ' =&gt; 'ªù÷',</v>
       </c>
     </row>
@@ -6997,15 +7043,15 @@
         <v>566</v>
       </c>
       <c r="D74">
+        <f>LEN(C74)</f>
+        <v>3</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="2"/>
+        <v>'ªû÷' =&gt; 'ஷௌ',</v>
+      </c>
+      <c r="F74" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="4"/>
-        <v>'ªû÷' =&gt; 'ஷௌ',</v>
-      </c>
-      <c r="F74" t="str">
-        <f t="shared" si="5"/>
         <v>'ஷௌ' =&gt; 'ªû÷',</v>
       </c>
     </row>
@@ -7020,15 +7066,15 @@
         <v>218</v>
       </c>
       <c r="D75">
+        <f>LEN(C75)</f>
+        <v>3</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="2"/>
+        <v>'ªü÷' =&gt; 'ஜௌ',</v>
+      </c>
+      <c r="F75" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="4"/>
-        <v>'ªü÷' =&gt; 'ஜௌ',</v>
-      </c>
-      <c r="F75" t="str">
-        <f t="shared" si="5"/>
         <v>'ஜௌ' =&gt; 'ªü÷',</v>
       </c>
     </row>
@@ -7043,15 +7089,15 @@
         <v>584</v>
       </c>
       <c r="D76">
+        <f>LEN(C76)</f>
+        <v>3</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="2"/>
+        <v>'ªú£' =&gt; 'ஸொ',</v>
+      </c>
+      <c r="F76" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="4"/>
-        <v>'ªú£' =&gt; 'ஸொ',</v>
-      </c>
-      <c r="F76" t="str">
-        <f t="shared" si="5"/>
         <v>'ஸொ' =&gt; 'ªú£',</v>
       </c>
     </row>
@@ -7066,15 +7112,15 @@
         <v>346</v>
       </c>
       <c r="D77">
+        <f>LEN(C77)</f>
+        <v>3</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="2"/>
+        <v>'ªù£' =&gt; 'னொ',</v>
+      </c>
+      <c r="F77" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="4"/>
-        <v>'ªù£' =&gt; 'னொ',</v>
-      </c>
-      <c r="F77" t="str">
-        <f t="shared" si="5"/>
         <v>'னொ' =&gt; 'ªù£',</v>
       </c>
     </row>
@@ -7089,15 +7135,15 @@
         <v>562</v>
       </c>
       <c r="D78">
+        <f>LEN(C78)</f>
+        <v>3</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="2"/>
+        <v>'ªû£' =&gt; 'ஷொ',</v>
+      </c>
+      <c r="F78" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="4"/>
-        <v>'ªû£' =&gt; 'ஷொ',</v>
-      </c>
-      <c r="F78" t="str">
-        <f t="shared" si="5"/>
         <v>'ஷொ' =&gt; 'ªû£',</v>
       </c>
     </row>
@@ -7112,15 +7158,15 @@
         <v>214</v>
       </c>
       <c r="D79">
+        <f>LEN(C79)</f>
+        <v>3</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="2"/>
+        <v>'ªü£' =&gt; 'ஜொ',</v>
+      </c>
+      <c r="F79" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="4"/>
-        <v>'ªü£' =&gt; 'ஜொ',</v>
-      </c>
-      <c r="F79" t="str">
-        <f t="shared" si="5"/>
         <v>'ஜொ' =&gt; 'ªü£',</v>
       </c>
     </row>
@@ -7135,15 +7181,15 @@
         <v>610</v>
       </c>
       <c r="D80">
+        <f>LEN(C80)</f>
+        <v>3</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="2"/>
+        <v>'ªý÷' =&gt; 'ஹௌ',</v>
+      </c>
+      <c r="F80" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="4"/>
-        <v>'ªý÷' =&gt; 'ஹௌ',</v>
-      </c>
-      <c r="F80" t="str">
-        <f t="shared" si="5"/>
         <v>'ஹௌ' =&gt; 'ªý÷',</v>
       </c>
     </row>
@@ -7158,15 +7204,15 @@
         <v>606</v>
       </c>
       <c r="D81">
+        <f>LEN(C81)</f>
+        <v>3</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="2"/>
+        <v>'ªý£' =&gt; 'ஹொ',</v>
+      </c>
+      <c r="F81" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="4"/>
-        <v>'ªý£' =&gt; 'ஹொ',</v>
-      </c>
-      <c r="F81" t="str">
-        <f t="shared" si="5"/>
         <v>'ஹொ' =&gt; 'ªý£',</v>
       </c>
     </row>
@@ -7181,15 +7227,15 @@
         <v>127</v>
       </c>
       <c r="D82">
+        <f>LEN(C82)</f>
+        <v>3</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="2"/>
+        <v>'è¢û' =&gt; 'க்ஷ',</v>
+      </c>
+      <c r="F82" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="4"/>
-        <v>'è¢û' =&gt; 'க்ஷ',</v>
-      </c>
-      <c r="F82" t="str">
-        <f t="shared" si="5"/>
         <v>'க்ஷ' =&gt; 'è¢û',</v>
       </c>
     </row>
@@ -7204,15 +7250,15 @@
         <v>492</v>
       </c>
       <c r="D83">
+        <f>LEN(C83)</f>
+        <v>2</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="2"/>
+        <v>'«÷' =&gt; 'ளே',</v>
+      </c>
+      <c r="F83" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E83" t="str">
-        <f t="shared" si="4"/>
-        <v>'«÷' =&gt; 'ளே',</v>
-      </c>
-      <c r="F83" t="str">
-        <f t="shared" si="5"/>
         <v>'ளே' =&gt; '«÷',</v>
       </c>
     </row>
@@ -7227,15 +7273,15 @@
         <v>364</v>
       </c>
       <c r="D84">
+        <f>LEN(C84)</f>
+        <v>2</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ð' =&gt; 'பே',</v>
+      </c>
+      <c r="F84" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ð' =&gt; 'பே',</v>
-      </c>
-      <c r="F84" t="str">
-        <f t="shared" si="5"/>
         <v>'பே' =&gt; '«ð',</v>
       </c>
     </row>
@@ -7250,15 +7296,15 @@
         <v>166</v>
       </c>
       <c r="D85">
+        <f>LEN(C85)</f>
+        <v>2</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="2"/>
+        <v>'«é' =&gt; 'ஙே',</v>
+      </c>
+      <c r="F85" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="4"/>
-        <v>'«é' =&gt; 'ஙே',</v>
-      </c>
-      <c r="F85" t="str">
-        <f t="shared" si="5"/>
         <v>'ஙே' =&gt; '«é',</v>
       </c>
     </row>
@@ -7273,15 +7319,15 @@
         <v>145</v>
       </c>
       <c r="D86">
+        <f>LEN(C86)</f>
+        <v>2</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="2"/>
+        <v>'«è' =&gt; 'கே',</v>
+      </c>
+      <c r="F86" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="4"/>
-        <v>'«è' =&gt; 'கே',</v>
-      </c>
-      <c r="F86" t="str">
-        <f t="shared" si="5"/>
         <v>'கே' =&gt; '«è',</v>
       </c>
     </row>
@@ -7296,15 +7342,15 @@
         <v>188</v>
       </c>
       <c r="D87">
+        <f>LEN(C87)</f>
+        <v>2</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ê' =&gt; 'சே',</v>
+      </c>
+      <c r="F87" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E87" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ê' =&gt; 'சே',</v>
-      </c>
-      <c r="F87" t="str">
-        <f t="shared" si="5"/>
         <v>'சே' =&gt; '«ê',</v>
       </c>
     </row>
@@ -7319,15 +7365,15 @@
         <v>232</v>
       </c>
       <c r="D88">
+        <f>LEN(C88)</f>
+        <v>2</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ë' =&gt; 'ஞே',</v>
+      </c>
+      <c r="F88" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E88" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ë' =&gt; 'ஞே',</v>
-      </c>
-      <c r="F88" t="str">
-        <f t="shared" si="5"/>
         <v>'ஞே' =&gt; '«ë',</v>
       </c>
     </row>
@@ -7342,15 +7388,15 @@
         <v>276</v>
       </c>
       <c r="D89">
+        <f>LEN(C89)</f>
+        <v>2</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="2"/>
+        <v>'«í' =&gt; 'ணே',</v>
+      </c>
+      <c r="F89" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E89" t="str">
-        <f t="shared" si="4"/>
-        <v>'«í' =&gt; 'ணே',</v>
-      </c>
-      <c r="F89" t="str">
-        <f t="shared" si="5"/>
         <v>'ணே' =&gt; '«í',</v>
       </c>
     </row>
@@ -7365,15 +7411,15 @@
         <v>254</v>
       </c>
       <c r="D90">
+        <f>LEN(C90)</f>
+        <v>2</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ì' =&gt; 'டே',</v>
+      </c>
+      <c r="F90" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E90" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ì' =&gt; 'டே',</v>
-      </c>
-      <c r="F90" t="str">
-        <f t="shared" si="5"/>
         <v>'டே' =&gt; '«ì',</v>
       </c>
     </row>
@@ -7388,15 +7434,15 @@
         <v>298</v>
       </c>
       <c r="D91">
+        <f>LEN(C91)</f>
+        <v>2</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="2"/>
+        <v>'«î' =&gt; 'தே',</v>
+      </c>
+      <c r="F91" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E91" t="str">
-        <f t="shared" si="4"/>
-        <v>'«î' =&gt; 'தே',</v>
-      </c>
-      <c r="F91" t="str">
-        <f t="shared" si="5"/>
         <v>'தே' =&gt; '«î',</v>
       </c>
     </row>
@@ -7411,15 +7457,15 @@
         <v>320</v>
       </c>
       <c r="D92">
+        <f>LEN(C92)</f>
+        <v>2</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ï' =&gt; 'நே',</v>
+      </c>
+      <c r="F92" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E92" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ï' =&gt; 'நே',</v>
-      </c>
-      <c r="F92" t="str">
-        <f t="shared" si="5"/>
         <v>'நே' =&gt; '«ï',</v>
       </c>
     </row>
@@ -7434,15 +7480,15 @@
         <v>384</v>
       </c>
       <c r="D93">
+        <f>LEN(C93)</f>
+        <v>2</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ñ' =&gt; 'மே',</v>
+      </c>
+      <c r="F93" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E93" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ñ' =&gt; 'மே',</v>
-      </c>
-      <c r="F93" t="str">
-        <f t="shared" si="5"/>
         <v>'மே' =&gt; '«ñ',</v>
       </c>
     </row>
@@ -7457,15 +7503,15 @@
         <v>428</v>
       </c>
       <c r="D94">
+        <f>LEN(C94)</f>
+        <v>2</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ó' =&gt; 'ரே',</v>
+      </c>
+      <c r="F94" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E94" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ó' =&gt; 'ரே',</v>
-      </c>
-      <c r="F94" t="str">
-        <f t="shared" si="5"/>
         <v>'ரே' =&gt; '«ó',</v>
       </c>
     </row>
@@ -7480,15 +7526,15 @@
         <v>406</v>
       </c>
       <c r="D95">
+        <f>LEN(C95)</f>
+        <v>2</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ò' =&gt; 'யே',</v>
+      </c>
+      <c r="F95" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E95" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ò' =&gt; 'யே',</v>
-      </c>
-      <c r="F95" t="str">
-        <f t="shared" si="5"/>
         <v>'யே' =&gt; '«ò',</v>
       </c>
     </row>
@@ -7503,15 +7549,15 @@
         <v>470</v>
       </c>
       <c r="D96">
+        <f>LEN(C96)</f>
+        <v>2</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ô' =&gt; 'லே',</v>
+      </c>
+      <c r="F96" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E96" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ô' =&gt; 'லே',</v>
-      </c>
-      <c r="F96" t="str">
-        <f t="shared" si="5"/>
         <v>'லே' =&gt; '«ô',</v>
       </c>
     </row>
@@ -7526,15 +7572,15 @@
         <v>514</v>
       </c>
       <c r="D97">
+        <f>LEN(C97)</f>
+        <v>2</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ö' =&gt; 'ழே',</v>
+      </c>
+      <c r="F97" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E97" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ö' =&gt; 'ழே',</v>
-      </c>
-      <c r="F97" t="str">
-        <f t="shared" si="5"/>
         <v>'ழே' =&gt; '«ö',</v>
       </c>
     </row>
@@ -7549,15 +7595,15 @@
         <v>536</v>
       </c>
       <c r="D98">
+        <f>LEN(C98)</f>
+        <v>2</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="2"/>
+        <v>'«õ' =&gt; 'வே',</v>
+      </c>
+      <c r="F98" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E98" t="str">
-        <f t="shared" si="4"/>
-        <v>'«õ' =&gt; 'வே',</v>
-      </c>
-      <c r="F98" t="str">
-        <f t="shared" si="5"/>
         <v>'வே' =&gt; '«õ',</v>
       </c>
     </row>
@@ -7572,15 +7618,15 @@
         <v>448</v>
       </c>
       <c r="D99">
+        <f>LEN(C99)</f>
+        <v>2</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ø' =&gt; 'றே',</v>
+      </c>
+      <c r="F99" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E99" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ø' =&gt; 'றே',</v>
-      </c>
-      <c r="F99" t="str">
-        <f t="shared" si="5"/>
         <v>'றே' =&gt; '«ø',</v>
       </c>
     </row>
@@ -7595,15 +7641,15 @@
         <v>580</v>
       </c>
       <c r="D100">
+        <f>LEN(C100)</f>
+        <v>2</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ú' =&gt; 'ஸே',</v>
+      </c>
+      <c r="F100" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E100" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ú' =&gt; 'ஸே',</v>
-      </c>
-      <c r="F100" t="str">
-        <f t="shared" si="5"/>
         <v>'ஸே' =&gt; '«ú',</v>
       </c>
     </row>
@@ -7618,15 +7664,15 @@
         <v>342</v>
       </c>
       <c r="D101">
+        <f>LEN(C101)</f>
+        <v>2</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ù' =&gt; 'னே',</v>
+      </c>
+      <c r="F101" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E101" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ù' =&gt; 'னே',</v>
-      </c>
-      <c r="F101" t="str">
-        <f t="shared" si="5"/>
         <v>'னே' =&gt; '«ù',</v>
       </c>
     </row>
@@ -7641,15 +7687,15 @@
         <v>558</v>
       </c>
       <c r="D102">
+        <f>LEN(C102)</f>
+        <v>2</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="2"/>
+        <v>'«û' =&gt; 'ஷே',</v>
+      </c>
+      <c r="F102" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E102" t="str">
-        <f t="shared" si="4"/>
-        <v>'«û' =&gt; 'ஷே',</v>
-      </c>
-      <c r="F102" t="str">
-        <f t="shared" si="5"/>
         <v>'ஷே' =&gt; '«û',</v>
       </c>
     </row>
@@ -7664,15 +7710,15 @@
         <v>210</v>
       </c>
       <c r="D103">
+        <f>LEN(C103)</f>
+        <v>2</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ü' =&gt; 'ஜே',</v>
+      </c>
+      <c r="F103" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E103" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ü' =&gt; 'ஜே',</v>
-      </c>
-      <c r="F103" t="str">
-        <f t="shared" si="5"/>
         <v>'ஜே' =&gt; '«ü',</v>
       </c>
     </row>
@@ -7687,15 +7733,15 @@
         <v>602</v>
       </c>
       <c r="D104">
+        <f>LEN(C104)</f>
+        <v>2</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="2"/>
+        <v>'«ý' =&gt; 'ஹே',</v>
+      </c>
+      <c r="F104" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E104" t="str">
-        <f t="shared" si="4"/>
-        <v>'«ý' =&gt; 'ஹே',</v>
-      </c>
-      <c r="F104" t="str">
-        <f t="shared" si="5"/>
         <v>'ஹே' =&gt; '«ý',</v>
       </c>
     </row>
@@ -7710,15 +7756,15 @@
         <v>486</v>
       </c>
       <c r="D105">
+        <f>LEN(C105)</f>
+        <v>2</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="2"/>
+        <v>'÷¦' =&gt; 'ளீ',</v>
+      </c>
+      <c r="F105" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E105" t="str">
-        <f t="shared" si="4"/>
-        <v>'÷¦' =&gt; 'ளீ',</v>
-      </c>
-      <c r="F105" t="str">
-        <f t="shared" si="5"/>
         <v>'ளீ' =&gt; '÷¦',</v>
       </c>
     </row>
@@ -7733,15 +7779,15 @@
         <v>480</v>
       </c>
       <c r="D106">
+        <f>LEN(C106)</f>
+        <v>2</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="2"/>
+        <v>'÷¢' =&gt; 'ள்',</v>
+      </c>
+      <c r="F106" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E106" t="str">
-        <f t="shared" si="4"/>
-        <v>'÷¢' =&gt; 'ள்',</v>
-      </c>
-      <c r="F106" t="str">
-        <f t="shared" si="5"/>
         <v>'ள்' =&gt; '÷¢',</v>
       </c>
     </row>
@@ -7756,15 +7802,15 @@
         <v>482</v>
       </c>
       <c r="D107">
+        <f>LEN(C107)</f>
+        <v>2</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="2"/>
+        <v>'÷£' =&gt; 'ளா',</v>
+      </c>
+      <c r="F107" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E107" t="str">
-        <f t="shared" si="4"/>
-        <v>'÷£' =&gt; 'ளா',</v>
-      </c>
-      <c r="F107" t="str">
-        <f t="shared" si="5"/>
         <v>'ளா' =&gt; '÷£',</v>
       </c>
     </row>
@@ -7779,15 +7825,15 @@
         <v>484</v>
       </c>
       <c r="D108">
+        <f>LEN(C108)</f>
+        <v>2</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="2"/>
+        <v>'÷¤' =&gt; 'ளி',</v>
+      </c>
+      <c r="F108" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E108" t="str">
-        <f t="shared" si="4"/>
-        <v>'÷¤' =&gt; 'ளி',</v>
-      </c>
-      <c r="F108" t="str">
-        <f t="shared" si="5"/>
         <v>'ளி' =&gt; '÷¤',</v>
       </c>
     </row>
@@ -7802,15 +7848,15 @@
         <v>494</v>
       </c>
       <c r="D109">
+        <f>LEN(C109)</f>
+        <v>2</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬÷' =&gt; 'ளை',</v>
+      </c>
+      <c r="F109" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E109" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬÷' =&gt; 'ளை',</v>
-      </c>
-      <c r="F109" t="str">
-        <f t="shared" si="5"/>
         <v>'ளை' =&gt; '¬÷',</v>
       </c>
     </row>
@@ -7825,15 +7871,15 @@
         <v>366</v>
       </c>
       <c r="D110">
+        <f>LEN(C110)</f>
+        <v>2</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ð' =&gt; 'பை',</v>
+      </c>
+      <c r="F110" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E110" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ð' =&gt; 'பை',</v>
-      </c>
-      <c r="F110" t="str">
-        <f t="shared" si="5"/>
         <v>'பை' =&gt; '¬ð',</v>
       </c>
     </row>
@@ -7848,15 +7894,15 @@
         <v>168</v>
       </c>
       <c r="D111">
+        <f>LEN(C111)</f>
+        <v>2</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬é' =&gt; 'ஙை',</v>
+      </c>
+      <c r="F111" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E111" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬é' =&gt; 'ஙை',</v>
-      </c>
-      <c r="F111" t="str">
-        <f t="shared" si="5"/>
         <v>'ஙை' =&gt; '¬é',</v>
       </c>
     </row>
@@ -7871,15 +7917,15 @@
         <v>147</v>
       </c>
       <c r="D112">
+        <f>LEN(C112)</f>
+        <v>2</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬è' =&gt; 'கை',</v>
+      </c>
+      <c r="F112" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E112" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬è' =&gt; 'கை',</v>
-      </c>
-      <c r="F112" t="str">
-        <f t="shared" si="5"/>
         <v>'கை' =&gt; '¬è',</v>
       </c>
     </row>
@@ -7894,15 +7940,15 @@
         <v>190</v>
       </c>
       <c r="D113">
+        <f>LEN(C113)</f>
+        <v>2</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ê' =&gt; 'சை',</v>
+      </c>
+      <c r="F113" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E113" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ê' =&gt; 'சை',</v>
-      </c>
-      <c r="F113" t="str">
-        <f t="shared" si="5"/>
         <v>'சை' =&gt; '¬ê',</v>
       </c>
     </row>
@@ -7917,15 +7963,15 @@
         <v>234</v>
       </c>
       <c r="D114">
+        <f>LEN(C114)</f>
+        <v>2</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ë' =&gt; 'ஞை',</v>
+      </c>
+      <c r="F114" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E114" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ë' =&gt; 'ஞை',</v>
-      </c>
-      <c r="F114" t="str">
-        <f t="shared" si="5"/>
         <v>'ஞை' =&gt; '¬ë',</v>
       </c>
     </row>
@@ -7940,15 +7986,15 @@
         <v>278</v>
       </c>
       <c r="D115">
+        <f>LEN(C115)</f>
+        <v>2</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬í' =&gt; 'ணை',</v>
+      </c>
+      <c r="F115" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E115" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬í' =&gt; 'ணை',</v>
-      </c>
-      <c r="F115" t="str">
-        <f t="shared" si="5"/>
         <v>'ணை' =&gt; '¬í',</v>
       </c>
     </row>
@@ -7963,15 +8009,15 @@
         <v>256</v>
       </c>
       <c r="D116">
+        <f>LEN(C116)</f>
+        <v>2</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ì' =&gt; 'டை',</v>
+      </c>
+      <c r="F116" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E116" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ì' =&gt; 'டை',</v>
-      </c>
-      <c r="F116" t="str">
-        <f t="shared" si="5"/>
         <v>'டை' =&gt; '¬ì',</v>
       </c>
     </row>
@@ -7986,15 +8032,15 @@
         <v>300</v>
       </c>
       <c r="D117">
+        <f>LEN(C117)</f>
+        <v>2</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬î' =&gt; 'தை',</v>
+      </c>
+      <c r="F117" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E117" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬î' =&gt; 'தை',</v>
-      </c>
-      <c r="F117" t="str">
-        <f t="shared" si="5"/>
         <v>'தை' =&gt; '¬î',</v>
       </c>
     </row>
@@ -8009,15 +8055,15 @@
         <v>322</v>
       </c>
       <c r="D118">
+        <f>LEN(C118)</f>
+        <v>2</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ï' =&gt; 'நை',</v>
+      </c>
+      <c r="F118" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E118" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ï' =&gt; 'நை',</v>
-      </c>
-      <c r="F118" t="str">
-        <f t="shared" si="5"/>
         <v>'நை' =&gt; '¬ï',</v>
       </c>
     </row>
@@ -8032,15 +8078,15 @@
         <v>386</v>
       </c>
       <c r="D119">
+        <f>LEN(C119)</f>
+        <v>2</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ñ' =&gt; 'மை',</v>
+      </c>
+      <c r="F119" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E119" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ñ' =&gt; 'மை',</v>
-      </c>
-      <c r="F119" t="str">
-        <f t="shared" si="5"/>
         <v>'மை' =&gt; '¬ñ',</v>
       </c>
     </row>
@@ -8055,15 +8101,15 @@
         <v>430</v>
       </c>
       <c r="D120">
+        <f>LEN(C120)</f>
+        <v>2</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ó' =&gt; 'ரை',</v>
+      </c>
+      <c r="F120" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E120" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ó' =&gt; 'ரை',</v>
-      </c>
-      <c r="F120" t="str">
-        <f t="shared" si="5"/>
         <v>'ரை' =&gt; '¬ó',</v>
       </c>
     </row>
@@ -8078,15 +8124,15 @@
         <v>408</v>
       </c>
       <c r="D121">
+        <f>LEN(C121)</f>
+        <v>2</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ò' =&gt; 'யை',</v>
+      </c>
+      <c r="F121" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E121" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ò' =&gt; 'யை',</v>
-      </c>
-      <c r="F121" t="str">
-        <f t="shared" si="5"/>
         <v>'யை' =&gt; '¬ò',</v>
       </c>
     </row>
@@ -8101,15 +8147,15 @@
         <v>472</v>
       </c>
       <c r="D122">
+        <f>LEN(C122)</f>
+        <v>2</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ô' =&gt; 'லை',</v>
+      </c>
+      <c r="F122" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E122" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ô' =&gt; 'லை',</v>
-      </c>
-      <c r="F122" t="str">
-        <f t="shared" si="5"/>
         <v>'லை' =&gt; '¬ô',</v>
       </c>
     </row>
@@ -8124,15 +8170,15 @@
         <v>516</v>
       </c>
       <c r="D123">
+        <f>LEN(C123)</f>
+        <v>2</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ö' =&gt; 'ழை',</v>
+      </c>
+      <c r="F123" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E123" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ö' =&gt; 'ழை',</v>
-      </c>
-      <c r="F123" t="str">
-        <f t="shared" si="5"/>
         <v>'ழை' =&gt; '¬ö',</v>
       </c>
     </row>
@@ -8147,15 +8193,15 @@
         <v>538</v>
       </c>
       <c r="D124">
+        <f>LEN(C124)</f>
+        <v>2</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬õ' =&gt; 'வை',</v>
+      </c>
+      <c r="F124" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E124" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬õ' =&gt; 'வை',</v>
-      </c>
-      <c r="F124" t="str">
-        <f t="shared" si="5"/>
         <v>'வை' =&gt; '¬õ',</v>
       </c>
     </row>
@@ -8170,15 +8216,15 @@
         <v>450</v>
       </c>
       <c r="D125">
+        <f>LEN(C125)</f>
+        <v>2</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ø' =&gt; 'றை',</v>
+      </c>
+      <c r="F125" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E125" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ø' =&gt; 'றை',</v>
-      </c>
-      <c r="F125" t="str">
-        <f t="shared" si="5"/>
         <v>'றை' =&gt; '¬ø',</v>
       </c>
     </row>
@@ -8193,15 +8239,15 @@
         <v>582</v>
       </c>
       <c r="D126">
+        <f>LEN(C126)</f>
+        <v>2</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ú' =&gt; 'ஸை',</v>
+      </c>
+      <c r="F126" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E126" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ú' =&gt; 'ஸை',</v>
-      </c>
-      <c r="F126" t="str">
-        <f t="shared" si="5"/>
         <v>'ஸை' =&gt; '¬ú',</v>
       </c>
     </row>
@@ -8216,15 +8262,15 @@
         <v>344</v>
       </c>
       <c r="D127">
+        <f>LEN(C127)</f>
+        <v>2</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ù' =&gt; 'னை',</v>
+      </c>
+      <c r="F127" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E127" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ù' =&gt; 'னை',</v>
-      </c>
-      <c r="F127" t="str">
-        <f t="shared" si="5"/>
         <v>'னை' =&gt; '¬ù',</v>
       </c>
     </row>
@@ -8239,15 +8285,15 @@
         <v>560</v>
       </c>
       <c r="D128">
+        <f>LEN(C128)</f>
+        <v>2</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬û' =&gt; 'ஷை',</v>
+      </c>
+      <c r="F128" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E128" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬û' =&gt; 'ஷை',</v>
-      </c>
-      <c r="F128" t="str">
-        <f t="shared" si="5"/>
         <v>'ஷை' =&gt; '¬û',</v>
       </c>
     </row>
@@ -8262,15 +8308,15 @@
         <v>212</v>
       </c>
       <c r="D129">
+        <f>LEN(C129)</f>
+        <v>2</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ü' =&gt; 'ஜை',</v>
+      </c>
+      <c r="F129" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E129" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ü' =&gt; 'ஜை',</v>
-      </c>
-      <c r="F129" t="str">
-        <f t="shared" si="5"/>
         <v>'ஜை' =&gt; '¬ü',</v>
       </c>
     </row>
@@ -8285,15 +8331,15 @@
         <v>604</v>
       </c>
       <c r="D130">
+        <f>LEN(C130)</f>
+        <v>2</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="2"/>
+        <v>'¬ý' =&gt; 'ஹை',</v>
+      </c>
+      <c r="F130" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E130" t="str">
-        <f t="shared" si="4"/>
-        <v>'¬ý' =&gt; 'ஹை',</v>
-      </c>
-      <c r="F130" t="str">
-        <f t="shared" si="5"/>
         <v>'ஹை' =&gt; '¬ý',</v>
       </c>
     </row>
@@ -8308,15 +8354,15 @@
         <v>490</v>
       </c>
       <c r="D131">
+        <f>LEN(C131)</f>
+        <v>2</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="2"/>
+        <v>'ª÷' =&gt; 'ளெ',</v>
+      </c>
+      <c r="F131" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E131" t="str">
-        <f t="shared" si="4"/>
-        <v>'ª÷' =&gt; 'ளெ',</v>
-      </c>
-      <c r="F131" t="str">
-        <f t="shared" si="5"/>
         <v>'ளெ' =&gt; 'ª÷',</v>
       </c>
     </row>
@@ -8331,15 +8377,15 @@
         <v>74</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D195" si="6">LEN(C132)</f>
+        <f>LEN(C132)</f>
         <v>2</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" ref="E132:E195" si="7">"'"&amp;C132&amp;"' =&gt; '"&amp;B132&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'å÷' =&gt; 'ஔ',</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" ref="F132:F195" si="8">"'"&amp;B132&amp;"' =&gt; '"&amp;C132&amp;"',"</f>
+        <f t="shared" si="3"/>
         <v>'ஔ' =&gt; 'å÷',</v>
       </c>
     </row>
@@ -8354,15 +8400,15 @@
         <v>362</v>
       </c>
       <c r="D133">
-        <f t="shared" si="6"/>
+        <f>LEN(C133)</f>
         <v>2</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E133:E196" si="4">"'"&amp;C133&amp;"' =&gt; '"&amp;B133&amp;"',"</f>
         <v>'ªð' =&gt; 'பெ',</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F133:F186" si="5">"'"&amp;B133&amp;"' =&gt; '"&amp;C133&amp;"',"</f>
         <v>'பெ' =&gt; 'ªð',</v>
       </c>
     </row>
@@ -8377,15 +8423,15 @@
         <v>164</v>
       </c>
       <c r="D134">
-        <f t="shared" si="6"/>
+        <f>LEN(C134)</f>
         <v>2</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªé' =&gt; 'ஙெ',</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ஙெ' =&gt; 'ªé',</v>
       </c>
     </row>
@@ -8400,15 +8446,15 @@
         <v>106</v>
       </c>
       <c r="D135">
-        <f t="shared" si="6"/>
+        <f>LEN(C135)</f>
         <v>2</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªè' =&gt; 'கெ',</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'கெ' =&gt; 'ªè',</v>
       </c>
     </row>
@@ -8423,15 +8469,15 @@
         <v>186</v>
       </c>
       <c r="D136">
-        <f t="shared" si="6"/>
+        <f>LEN(C136)</f>
         <v>2</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªê' =&gt; 'செ',</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'செ' =&gt; 'ªê',</v>
       </c>
     </row>
@@ -8446,15 +8492,15 @@
         <v>230</v>
       </c>
       <c r="D137">
-        <f t="shared" si="6"/>
+        <f>LEN(C137)</f>
         <v>2</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªë' =&gt; 'ஞெ',</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ஞெ' =&gt; 'ªë',</v>
       </c>
     </row>
@@ -8469,15 +8515,15 @@
         <v>274</v>
       </c>
       <c r="D138">
-        <f t="shared" si="6"/>
+        <f>LEN(C138)</f>
         <v>2</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªí' =&gt; 'ணெ',</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ணெ' =&gt; 'ªí',</v>
       </c>
     </row>
@@ -8492,15 +8538,15 @@
         <v>252</v>
       </c>
       <c r="D139">
-        <f t="shared" si="6"/>
+        <f>LEN(C139)</f>
         <v>2</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªì' =&gt; 'டெ',</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'டெ' =&gt; 'ªì',</v>
       </c>
     </row>
@@ -8515,15 +8561,15 @@
         <v>296</v>
       </c>
       <c r="D140">
-        <f t="shared" si="6"/>
+        <f>LEN(C140)</f>
         <v>2</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªî' =&gt; 'தெ',</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'தெ' =&gt; 'ªî',</v>
       </c>
     </row>
@@ -8538,15 +8584,15 @@
         <v>318</v>
       </c>
       <c r="D141">
-        <f t="shared" si="6"/>
+        <f>LEN(C141)</f>
         <v>2</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªï' =&gt; 'நெ',</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'நெ' =&gt; 'ªï',</v>
       </c>
     </row>
@@ -8561,15 +8607,15 @@
         <v>382</v>
       </c>
       <c r="D142">
-        <f t="shared" si="6"/>
+        <f>LEN(C142)</f>
         <v>2</v>
       </c>
       <c r="E142" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªñ' =&gt; 'மெ',</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'மெ' =&gt; 'ªñ',</v>
       </c>
     </row>
@@ -8584,15 +8630,15 @@
         <v>426</v>
       </c>
       <c r="D143">
-        <f t="shared" si="6"/>
+        <f>LEN(C143)</f>
         <v>2</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªó' =&gt; 'ரெ',</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ரெ' =&gt; 'ªó',</v>
       </c>
     </row>
@@ -8607,15 +8653,15 @@
         <v>404</v>
       </c>
       <c r="D144">
-        <f t="shared" si="6"/>
+        <f>LEN(C144)</f>
         <v>2</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªò' =&gt; 'யெ',</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'யெ' =&gt; 'ªò',</v>
       </c>
     </row>
@@ -8630,15 +8676,15 @@
         <v>468</v>
       </c>
       <c r="D145">
-        <f t="shared" si="6"/>
+        <f>LEN(C145)</f>
         <v>2</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªô' =&gt; 'லெ',</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'லெ' =&gt; 'ªô',</v>
       </c>
     </row>
@@ -8653,15 +8699,15 @@
         <v>512</v>
       </c>
       <c r="D146">
-        <f t="shared" si="6"/>
+        <f>LEN(C146)</f>
         <v>2</v>
       </c>
       <c r="E146" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªö' =&gt; 'ழெ',</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ழெ' =&gt; 'ªö',</v>
       </c>
     </row>
@@ -8676,15 +8722,15 @@
         <v>534</v>
       </c>
       <c r="D147">
-        <f t="shared" si="6"/>
+        <f>LEN(C147)</f>
         <v>2</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªõ' =&gt; 'வெ',</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'வெ' =&gt; 'ªõ',</v>
       </c>
     </row>
@@ -8699,15 +8745,15 @@
         <v>446</v>
       </c>
       <c r="D148">
-        <f t="shared" si="6"/>
+        <f>LEN(C148)</f>
         <v>2</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªø' =&gt; 'றெ',</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'றெ' =&gt; 'ªø',</v>
       </c>
     </row>
@@ -8722,15 +8768,15 @@
         <v>578</v>
       </c>
       <c r="D149">
-        <f t="shared" si="6"/>
+        <f>LEN(C149)</f>
         <v>2</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªú' =&gt; 'ஸெ',</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ஸெ' =&gt; 'ªú',</v>
       </c>
     </row>
@@ -8745,15 +8791,15 @@
         <v>340</v>
       </c>
       <c r="D150">
-        <f t="shared" si="6"/>
+        <f>LEN(C150)</f>
         <v>2</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªù' =&gt; 'னெ',</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'னெ' =&gt; 'ªù',</v>
       </c>
     </row>
@@ -8768,15 +8814,15 @@
         <v>556</v>
       </c>
       <c r="D151">
-        <f t="shared" si="6"/>
+        <f>LEN(C151)</f>
         <v>2</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªû' =&gt; 'ஷெ',</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ஷெ' =&gt; 'ªû',</v>
       </c>
     </row>
@@ -8791,15 +8837,15 @@
         <v>208</v>
       </c>
       <c r="D152">
-        <f t="shared" si="6"/>
+        <f>LEN(C152)</f>
         <v>2</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªü' =&gt; 'ஜெ',</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ஜெ' =&gt; 'ªü',</v>
       </c>
     </row>
@@ -8814,15 +8860,15 @@
         <v>600</v>
       </c>
       <c r="D153">
-        <f t="shared" si="6"/>
+        <f>LEN(C153)</f>
         <v>2</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ªý' =&gt; 'ஹெ',</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ஹெ' =&gt; 'ªý',</v>
       </c>
     </row>
@@ -8837,15 +8883,15 @@
         <v>358</v>
       </c>
       <c r="D154">
-        <f t="shared" si="6"/>
+        <f>LEN(C154)</f>
         <v>2</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ð¦' =&gt; 'பீ',</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'பீ' =&gt; 'ð¦',</v>
       </c>
     </row>
@@ -8860,15 +8906,15 @@
         <v>352</v>
       </c>
       <c r="D155">
-        <f t="shared" si="6"/>
+        <f>LEN(C155)</f>
         <v>2</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ð¢' =&gt; 'ப்',</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ப்' =&gt; 'ð¢',</v>
       </c>
     </row>
@@ -8883,15 +8929,15 @@
         <v>354</v>
       </c>
       <c r="D156">
-        <f t="shared" si="6"/>
+        <f>LEN(C156)</f>
         <v>2</v>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ð£' =&gt; 'பா',</v>
       </c>
       <c r="F156" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'பா' =&gt; 'ð£',</v>
       </c>
     </row>
@@ -8906,15 +8952,15 @@
         <v>356</v>
       </c>
       <c r="D157">
-        <f t="shared" si="6"/>
+        <f>LEN(C157)</f>
         <v>2</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ð¤' =&gt; 'பி',</v>
       </c>
       <c r="F157" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'பி' =&gt; 'ð¤',</v>
       </c>
     </row>
@@ -8929,15 +8975,15 @@
         <v>160</v>
       </c>
       <c r="D158">
-        <f t="shared" si="6"/>
+        <f>LEN(C158)</f>
         <v>2</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'é¦' =&gt; 'ஙீ',</v>
       </c>
       <c r="F158" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ஙீ' =&gt; 'é¦',</v>
       </c>
     </row>
@@ -8952,15 +8998,15 @@
         <v>140</v>
       </c>
       <c r="D159">
-        <f t="shared" si="6"/>
+        <f>LEN(C159)</f>
         <v>2</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'è¦' =&gt; 'கீ',</v>
       </c>
       <c r="F159" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'கீ' =&gt; 'è¦',</v>
       </c>
     </row>
@@ -8975,15 +9021,15 @@
         <v>182</v>
       </c>
       <c r="D160">
-        <f t="shared" si="6"/>
+        <f>LEN(C160)</f>
         <v>2</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ê¦' =&gt; 'சீ',</v>
       </c>
       <c r="F160" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'சீ' =&gt; 'ê¦',</v>
       </c>
     </row>
@@ -8998,15 +9044,15 @@
         <v>226</v>
       </c>
       <c r="D161">
-        <f t="shared" si="6"/>
+        <f>LEN(C161)</f>
         <v>2</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ë¦' =&gt; 'ஞீ',</v>
       </c>
       <c r="F161" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ஞீ' =&gt; 'ë¦',</v>
       </c>
     </row>
@@ -9021,15 +9067,15 @@
         <v>154</v>
       </c>
       <c r="D162">
-        <f t="shared" si="6"/>
+        <f>LEN(C162)</f>
         <v>2</v>
       </c>
       <c r="E162" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'é¢' =&gt; 'ங்',</v>
       </c>
       <c r="F162" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ங்' =&gt; 'é¢',</v>
       </c>
     </row>
@@ -9044,15 +9090,15 @@
         <v>2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="6"/>
+        <f>LEN(C163)</f>
         <v>2</v>
       </c>
       <c r="E163" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'è¢' =&gt; 'க்',</v>
       </c>
       <c r="F163" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'க்' =&gt; 'è¢',</v>
       </c>
     </row>
@@ -9067,15 +9113,15 @@
         <v>176</v>
       </c>
       <c r="D164">
-        <f t="shared" si="6"/>
+        <f>LEN(C164)</f>
         <v>2</v>
       </c>
       <c r="E164" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ê¢' =&gt; 'ச்',</v>
       </c>
       <c r="F164" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ச்' =&gt; 'ê¢',</v>
       </c>
     </row>
@@ -9090,15 +9136,15 @@
         <v>220</v>
       </c>
       <c r="D165">
-        <f t="shared" si="6"/>
+        <f>LEN(C165)</f>
         <v>2</v>
       </c>
       <c r="E165" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ë¢' =&gt; 'ஞ்',</v>
       </c>
       <c r="F165" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ஞ்' =&gt; 'ë¢',</v>
       </c>
     </row>
@@ -9113,15 +9159,15 @@
         <v>156</v>
       </c>
       <c r="D166">
-        <f t="shared" si="6"/>
+        <f>LEN(C166)</f>
         <v>2</v>
       </c>
       <c r="E166" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'é£' =&gt; 'ஙா',</v>
       </c>
       <c r="F166" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ஙா' =&gt; 'é£',</v>
       </c>
     </row>
@@ -9136,15 +9182,15 @@
         <v>97</v>
       </c>
       <c r="D167">
-        <f t="shared" si="6"/>
+        <f>LEN(C167)</f>
         <v>2</v>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'è£' =&gt; 'கா',</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'கா' =&gt; 'è£',</v>
       </c>
     </row>
@@ -9159,15 +9205,15 @@
         <v>178</v>
       </c>
       <c r="D168">
-        <f t="shared" si="6"/>
+        <f>LEN(C168)</f>
         <v>2</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ê£' =&gt; 'சா',</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'சா' =&gt; 'ê£',</v>
       </c>
     </row>
@@ -9182,15 +9228,15 @@
         <v>222</v>
       </c>
       <c r="D169">
-        <f t="shared" si="6"/>
+        <f>LEN(C169)</f>
         <v>2</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ë£' =&gt; 'ஞா',</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ஞா' =&gt; 'ë£',</v>
       </c>
     </row>
@@ -9205,15 +9251,15 @@
         <v>158</v>
       </c>
       <c r="D170">
-        <f t="shared" si="6"/>
+        <f>LEN(C170)</f>
         <v>2</v>
       </c>
       <c r="E170" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'é¤' =&gt; 'ஙி',</v>
       </c>
       <c r="F170" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ஙி' =&gt; 'é¤',</v>
       </c>
     </row>
@@ -9228,15 +9274,15 @@
         <v>138</v>
       </c>
       <c r="D171">
-        <f t="shared" si="6"/>
+        <f>LEN(C171)</f>
         <v>2</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'è¤' =&gt; 'கி',</v>
       </c>
       <c r="F171" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'கி' =&gt; 'è¤',</v>
       </c>
     </row>
@@ -9251,15 +9297,15 @@
         <v>180</v>
       </c>
       <c r="D172">
-        <f t="shared" si="6"/>
+        <f>LEN(C172)</f>
         <v>2</v>
       </c>
       <c r="E172" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ê¤' =&gt; 'சி',</v>
       </c>
       <c r="F172" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'சி' =&gt; 'ê¤',</v>
       </c>
     </row>
@@ -9274,15 +9320,15 @@
         <v>224</v>
       </c>
       <c r="D173">
-        <f t="shared" si="6"/>
+        <f>LEN(C173)</f>
         <v>2</v>
       </c>
       <c r="E173" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ë¤' =&gt; 'ஞி',</v>
       </c>
       <c r="F173" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ஞி' =&gt; 'ë¤',</v>
       </c>
     </row>
@@ -9297,15 +9343,15 @@
         <v>270</v>
       </c>
       <c r="D174">
-        <f t="shared" si="6"/>
+        <f>LEN(C174)</f>
         <v>2</v>
       </c>
       <c r="E174" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'í¦' =&gt; 'ணீ',</v>
       </c>
       <c r="F174" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ணீ' =&gt; 'í¦',</v>
       </c>
     </row>
@@ -9320,15 +9366,15 @@
         <v>248</v>
       </c>
       <c r="D175">
-        <f t="shared" si="6"/>
+        <f>LEN(C175)</f>
         <v>2</v>
       </c>
       <c r="E175" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ì¦' =&gt; 'டீ',</v>
       </c>
       <c r="F175" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'டீ' =&gt; 'ì¦',</v>
       </c>
     </row>
@@ -9343,15 +9389,15 @@
         <v>292</v>
       </c>
       <c r="D176">
-        <f t="shared" si="6"/>
+        <f>LEN(C176)</f>
         <v>2</v>
       </c>
       <c r="E176" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'î¦' =&gt; 'தீ',</v>
       </c>
       <c r="F176" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'தீ' =&gt; 'î¦',</v>
       </c>
     </row>
@@ -9366,15 +9412,15 @@
         <v>314</v>
       </c>
       <c r="D177">
-        <f t="shared" si="6"/>
+        <f>LEN(C177)</f>
         <v>2</v>
       </c>
       <c r="E177" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ï¦' =&gt; 'நீ',</v>
       </c>
       <c r="F177" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'நீ' =&gt; 'ï¦',</v>
       </c>
     </row>
@@ -9389,15 +9435,15 @@
         <v>264</v>
       </c>
       <c r="D178">
-        <f t="shared" si="6"/>
+        <f>LEN(C178)</f>
         <v>2</v>
       </c>
       <c r="E178" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'í¢' =&gt; 'ண்',</v>
       </c>
       <c r="F178" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ண்' =&gt; 'í¢',</v>
       </c>
     </row>
@@ -9412,15 +9458,15 @@
         <v>242</v>
       </c>
       <c r="D179">
-        <f t="shared" si="6"/>
+        <f>LEN(C179)</f>
         <v>2</v>
       </c>
       <c r="E179" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ì¢' =&gt; 'ட்',</v>
       </c>
       <c r="F179" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ட்' =&gt; 'ì¢',</v>
       </c>
     </row>
@@ -9435,15 +9481,15 @@
         <v>286</v>
       </c>
       <c r="D180">
-        <f t="shared" si="6"/>
+        <f>LEN(C180)</f>
         <v>2</v>
       </c>
       <c r="E180" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'î¢' =&gt; 'த்',</v>
       </c>
       <c r="F180" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'த்' =&gt; 'î¢',</v>
       </c>
     </row>
@@ -9458,15 +9504,15 @@
         <v>308</v>
       </c>
       <c r="D181">
-        <f t="shared" si="6"/>
+        <f>LEN(C181)</f>
         <v>2</v>
       </c>
       <c r="E181" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ï¢' =&gt; 'ந்',</v>
       </c>
       <c r="F181" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ந்' =&gt; 'ï¢',</v>
       </c>
     </row>
@@ -9481,15 +9527,15 @@
         <v>266</v>
       </c>
       <c r="D182">
-        <f t="shared" si="6"/>
+        <f>LEN(C182)</f>
         <v>2</v>
       </c>
       <c r="E182" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'í£' =&gt; 'ணா',</v>
       </c>
       <c r="F182" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ணா' =&gt; 'í£',</v>
       </c>
     </row>
@@ -9504,15 +9550,15 @@
         <v>244</v>
       </c>
       <c r="D183">
-        <f t="shared" si="6"/>
+        <f>LEN(C183)</f>
         <v>2</v>
       </c>
       <c r="E183" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ì£' =&gt; 'டா',</v>
       </c>
       <c r="F183" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'டா' =&gt; 'ì£',</v>
       </c>
     </row>
@@ -9527,15 +9573,15 @@
         <v>288</v>
       </c>
       <c r="D184">
-        <f t="shared" si="6"/>
+        <f>LEN(C184)</f>
         <v>2</v>
       </c>
       <c r="E184" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'î£' =&gt; 'தா',</v>
       </c>
       <c r="F184" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'தா' =&gt; 'î£',</v>
       </c>
     </row>
@@ -9550,15 +9596,15 @@
         <v>310</v>
       </c>
       <c r="D185">
-        <f t="shared" si="6"/>
+        <f>LEN(C185)</f>
         <v>2</v>
       </c>
       <c r="E185" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ï£' =&gt; 'நா',</v>
       </c>
       <c r="F185" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'நா' =&gt; 'ï£',</v>
       </c>
     </row>
@@ -9573,40 +9619,34 @@
         <v>268</v>
       </c>
       <c r="D186">
-        <f t="shared" si="6"/>
+        <f>LEN(C186)</f>
         <v>2</v>
       </c>
       <c r="E186" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'í¤' =&gt; 'ணி',</v>
       </c>
       <c r="F186" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>'ணி' =&gt; 'í¤',</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187">
-        <v>82</v>
-      </c>
-      <c r="B187" t="s">
+      <c r="B187" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="D187">
-        <f t="shared" si="6"/>
+      <c r="D187" s="31">
+        <f>LEN(C187)</f>
         <v>2</v>
       </c>
       <c r="E187" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ì¤' =&gt; 'டி',</v>
       </c>
-      <c r="F187" t="str">
-        <f t="shared" si="8"/>
-        <v>'டி' =&gt; 'ì¤',</v>
-      </c>
+      <c r="F187" s="31"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
@@ -9619,15 +9659,15 @@
         <v>290</v>
       </c>
       <c r="D188">
-        <f t="shared" si="6"/>
+        <f>LEN(C188)</f>
         <v>2</v>
       </c>
       <c r="E188" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'î¤' =&gt; 'தி',</v>
       </c>
       <c r="F188" t="str">
-        <f t="shared" si="8"/>
+        <f>"'"&amp;B188&amp;"' =&gt; '"&amp;C188&amp;"',"</f>
         <v>'தி' =&gt; 'î¤',</v>
       </c>
     </row>
@@ -9642,15 +9682,15 @@
         <v>312</v>
       </c>
       <c r="D189">
-        <f t="shared" si="6"/>
+        <f>LEN(C189)</f>
         <v>2</v>
       </c>
       <c r="E189" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ï¤' =&gt; 'நி',</v>
       </c>
       <c r="F189" t="str">
-        <f t="shared" si="8"/>
+        <f>"'"&amp;B189&amp;"' =&gt; '"&amp;C189&amp;"',"</f>
         <v>'நி' =&gt; 'ï¤',</v>
       </c>
     </row>
@@ -9665,15 +9705,15 @@
         <v>378</v>
       </c>
       <c r="D190">
-        <f t="shared" si="6"/>
+        <f>LEN(C190)</f>
         <v>2</v>
       </c>
       <c r="E190" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ñ¦' =&gt; 'மீ',</v>
       </c>
       <c r="F190" t="str">
-        <f t="shared" si="8"/>
+        <f>"'"&amp;B190&amp;"' =&gt; '"&amp;C190&amp;"',"</f>
         <v>'மீ' =&gt; 'ñ¦',</v>
       </c>
     </row>
@@ -9688,15 +9728,15 @@
         <v>6</v>
       </c>
       <c r="D191">
-        <f t="shared" si="6"/>
+        <f>LEN(C191)</f>
         <v>2</v>
       </c>
       <c r="E191" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ñ¢' =&gt; 'ம்',</v>
       </c>
       <c r="F191" t="str">
-        <f t="shared" si="8"/>
+        <f>"'"&amp;B191&amp;"' =&gt; '"&amp;C191&amp;"',"</f>
         <v>'ம்' =&gt; 'ñ¢',</v>
       </c>
     </row>
@@ -9711,15 +9751,15 @@
         <v>374</v>
       </c>
       <c r="D192">
-        <f t="shared" si="6"/>
+        <f>LEN(C192)</f>
         <v>2</v>
       </c>
       <c r="E192" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ñ£' =&gt; 'மா',</v>
       </c>
       <c r="F192" t="str">
-        <f t="shared" si="8"/>
+        <f>"'"&amp;B192&amp;"' =&gt; '"&amp;C192&amp;"',"</f>
         <v>'மா' =&gt; 'ñ£',</v>
       </c>
     </row>
@@ -9734,15 +9774,15 @@
         <v>376</v>
       </c>
       <c r="D193">
-        <f t="shared" si="6"/>
+        <f>LEN(C193)</f>
         <v>2</v>
       </c>
       <c r="E193" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ñ¤' =&gt; 'மி',</v>
       </c>
       <c r="F193" t="str">
-        <f t="shared" si="8"/>
+        <f>"'"&amp;B193&amp;"' =&gt; '"&amp;C193&amp;"',"</f>
         <v>'மி' =&gt; 'ñ¤',</v>
       </c>
     </row>
@@ -9757,15 +9797,15 @@
         <v>422</v>
       </c>
       <c r="D194">
-        <f t="shared" si="6"/>
+        <f>LEN(C194)</f>
         <v>2</v>
       </c>
       <c r="E194" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ó¦' =&gt; 'ரீ',</v>
       </c>
       <c r="F194" t="str">
-        <f t="shared" si="8"/>
+        <f>"'"&amp;B194&amp;"' =&gt; '"&amp;C194&amp;"',"</f>
         <v>'ரீ' =&gt; 'ó¦',</v>
       </c>
     </row>
@@ -9780,15 +9820,15 @@
         <v>400</v>
       </c>
       <c r="D195">
-        <f t="shared" si="6"/>
+        <f>LEN(C195)</f>
         <v>2</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>'ò¦' =&gt; 'யீ',</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" si="8"/>
+        <f>"'"&amp;B195&amp;"' =&gt; '"&amp;C195&amp;"',"</f>
         <v>'யீ' =&gt; 'ò¦',</v>
       </c>
     </row>
@@ -9803,15 +9843,15 @@
         <v>464</v>
       </c>
       <c r="D196">
-        <f t="shared" ref="D196:D259" si="9">LEN(C196)</f>
+        <f>LEN(C196)</f>
         <v>2</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" ref="E196:E259" si="10">"'"&amp;C196&amp;"' =&gt; '"&amp;B196&amp;"',"</f>
+        <f t="shared" si="4"/>
         <v>'ô¦' =&gt; 'லீ',</v>
       </c>
       <c r="F196" t="str">
-        <f t="shared" ref="F196:F259" si="11">"'"&amp;B196&amp;"' =&gt; '"&amp;C196&amp;"',"</f>
+        <f>"'"&amp;B196&amp;"' =&gt; '"&amp;C196&amp;"',"</f>
         <v>'லீ' =&gt; 'ô¦',</v>
       </c>
     </row>
@@ -9826,15 +9866,15 @@
         <v>508</v>
       </c>
       <c r="D197">
-        <f t="shared" si="9"/>
+        <f>LEN(C197)</f>
         <v>2</v>
       </c>
       <c r="E197" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E197:E260" si="6">"'"&amp;C197&amp;"' =&gt; '"&amp;B197&amp;"',"</f>
         <v>'ö¦' =&gt; 'ழீ',</v>
       </c>
       <c r="F197" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B197&amp;"' =&gt; '"&amp;C197&amp;"',"</f>
         <v>'ழீ' =&gt; 'ö¦',</v>
       </c>
     </row>
@@ -9849,15 +9889,15 @@
         <v>530</v>
       </c>
       <c r="D198">
-        <f t="shared" si="9"/>
+        <f>LEN(C198)</f>
         <v>2</v>
       </c>
       <c r="E198" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'õ¦' =&gt; 'வீ',</v>
       </c>
       <c r="F198" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B198&amp;"' =&gt; '"&amp;C198&amp;"',"</f>
         <v>'வீ' =&gt; 'õ¦',</v>
       </c>
     </row>
@@ -9872,15 +9912,15 @@
         <v>442</v>
       </c>
       <c r="D199">
-        <f t="shared" si="9"/>
+        <f>LEN(C199)</f>
         <v>2</v>
       </c>
       <c r="E199" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ø¦' =&gt; 'றீ',</v>
       </c>
       <c r="F199" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B199&amp;"' =&gt; '"&amp;C199&amp;"',"</f>
         <v>'றீ' =&gt; 'ø¦',</v>
       </c>
     </row>
@@ -9895,15 +9935,15 @@
         <v>416</v>
       </c>
       <c r="D200">
-        <f t="shared" si="9"/>
+        <f>LEN(C200)</f>
         <v>2</v>
       </c>
       <c r="E200" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ó¢' =&gt; 'ர்',</v>
       </c>
       <c r="F200" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B200&amp;"' =&gt; '"&amp;C200&amp;"',"</f>
         <v>'ர்' =&gt; 'ó¢',</v>
       </c>
     </row>
@@ -9918,15 +9958,15 @@
         <v>394</v>
       </c>
       <c r="D201">
-        <f t="shared" si="9"/>
+        <f>LEN(C201)</f>
         <v>2</v>
       </c>
       <c r="E201" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ò¢' =&gt; 'ய்',</v>
       </c>
       <c r="F201" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B201&amp;"' =&gt; '"&amp;C201&amp;"',"</f>
         <v>'ய்' =&gt; 'ò¢',</v>
       </c>
     </row>
@@ -9941,15 +9981,15 @@
         <v>458</v>
       </c>
       <c r="D202">
-        <f t="shared" si="9"/>
+        <f>LEN(C202)</f>
         <v>2</v>
       </c>
       <c r="E202" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ô¢' =&gt; 'ல்',</v>
       </c>
       <c r="F202" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B202&amp;"' =&gt; '"&amp;C202&amp;"',"</f>
         <v>'ல்' =&gt; 'ô¢',</v>
       </c>
     </row>
@@ -9964,15 +10004,15 @@
         <v>502</v>
       </c>
       <c r="D203">
-        <f t="shared" si="9"/>
+        <f>LEN(C203)</f>
         <v>2</v>
       </c>
       <c r="E203" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ö¢' =&gt; 'ழ்',</v>
       </c>
       <c r="F203" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B203&amp;"' =&gt; '"&amp;C203&amp;"',"</f>
         <v>'ழ்' =&gt; 'ö¢',</v>
       </c>
     </row>
@@ -9987,15 +10027,15 @@
         <v>524</v>
       </c>
       <c r="D204">
-        <f t="shared" si="9"/>
+        <f>LEN(C204)</f>
         <v>2</v>
       </c>
       <c r="E204" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'õ¢' =&gt; 'வ்',</v>
       </c>
       <c r="F204" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B204&amp;"' =&gt; '"&amp;C204&amp;"',"</f>
         <v>'வ்' =&gt; 'õ¢',</v>
       </c>
     </row>
@@ -10010,15 +10050,15 @@
         <v>436</v>
       </c>
       <c r="D205">
-        <f t="shared" si="9"/>
+        <f>LEN(C205)</f>
         <v>2</v>
       </c>
       <c r="E205" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ø¢' =&gt; 'ற்',</v>
       </c>
       <c r="F205" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B205&amp;"' =&gt; '"&amp;C205&amp;"',"</f>
         <v>'ற்' =&gt; 'ø¢',</v>
       </c>
     </row>
@@ -10033,15 +10073,15 @@
         <v>418</v>
       </c>
       <c r="D206">
-        <f t="shared" si="9"/>
+        <f>LEN(C206)</f>
         <v>2</v>
       </c>
       <c r="E206" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ó£' =&gt; 'ரா',</v>
       </c>
       <c r="F206" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B206&amp;"' =&gt; '"&amp;C206&amp;"',"</f>
         <v>'ரா' =&gt; 'ó£',</v>
       </c>
     </row>
@@ -10056,15 +10096,15 @@
         <v>396</v>
       </c>
       <c r="D207">
-        <f t="shared" si="9"/>
+        <f>LEN(C207)</f>
         <v>2</v>
       </c>
       <c r="E207" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ò£' =&gt; 'யா',</v>
       </c>
       <c r="F207" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B207&amp;"' =&gt; '"&amp;C207&amp;"',"</f>
         <v>'யா' =&gt; 'ò£',</v>
       </c>
     </row>
@@ -10079,15 +10119,15 @@
         <v>460</v>
       </c>
       <c r="D208">
-        <f t="shared" si="9"/>
+        <f>LEN(C208)</f>
         <v>2</v>
       </c>
       <c r="E208" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ô£' =&gt; 'லா',</v>
       </c>
       <c r="F208" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B208&amp;"' =&gt; '"&amp;C208&amp;"',"</f>
         <v>'லா' =&gt; 'ô£',</v>
       </c>
     </row>
@@ -10102,15 +10142,15 @@
         <v>504</v>
       </c>
       <c r="D209">
-        <f t="shared" si="9"/>
+        <f>LEN(C209)</f>
         <v>2</v>
       </c>
       <c r="E209" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ö£' =&gt; 'ழா',</v>
       </c>
       <c r="F209" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B209&amp;"' =&gt; '"&amp;C209&amp;"',"</f>
         <v>'ழா' =&gt; 'ö£',</v>
       </c>
     </row>
@@ -10125,15 +10165,15 @@
         <v>526</v>
       </c>
       <c r="D210">
-        <f t="shared" si="9"/>
+        <f>LEN(C210)</f>
         <v>2</v>
       </c>
       <c r="E210" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'õ£' =&gt; 'வா',</v>
       </c>
       <c r="F210" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B210&amp;"' =&gt; '"&amp;C210&amp;"',"</f>
         <v>'வா' =&gt; 'õ£',</v>
       </c>
     </row>
@@ -10148,15 +10188,15 @@
         <v>438</v>
       </c>
       <c r="D211">
-        <f t="shared" si="9"/>
+        <f>LEN(C211)</f>
         <v>2</v>
       </c>
       <c r="E211" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ø£' =&gt; 'றா',</v>
       </c>
       <c r="F211" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B211&amp;"' =&gt; '"&amp;C211&amp;"',"</f>
         <v>'றா' =&gt; 'ø£',</v>
       </c>
     </row>
@@ -10171,15 +10211,15 @@
         <v>420</v>
       </c>
       <c r="D212">
-        <f t="shared" si="9"/>
+        <f>LEN(C212)</f>
         <v>2</v>
       </c>
       <c r="E212" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ó¤' =&gt; 'ரி',</v>
       </c>
       <c r="F212" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B212&amp;"' =&gt; '"&amp;C212&amp;"',"</f>
         <v>'ரி' =&gt; 'ó¤',</v>
       </c>
     </row>
@@ -10194,15 +10234,15 @@
         <v>398</v>
       </c>
       <c r="D213">
-        <f t="shared" si="9"/>
+        <f>LEN(C213)</f>
         <v>2</v>
       </c>
       <c r="E213" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ò¤' =&gt; 'யி',</v>
       </c>
       <c r="F213" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B213&amp;"' =&gt; '"&amp;C213&amp;"',"</f>
         <v>'யி' =&gt; 'ò¤',</v>
       </c>
     </row>
@@ -10217,15 +10257,15 @@
         <v>462</v>
       </c>
       <c r="D214">
-        <f t="shared" si="9"/>
+        <f>LEN(C214)</f>
         <v>2</v>
       </c>
       <c r="E214" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ô¤' =&gt; 'லி',</v>
       </c>
       <c r="F214" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B214&amp;"' =&gt; '"&amp;C214&amp;"',"</f>
         <v>'லி' =&gt; 'ô¤',</v>
       </c>
     </row>
@@ -10240,15 +10280,15 @@
         <v>506</v>
       </c>
       <c r="D215">
-        <f t="shared" si="9"/>
+        <f>LEN(C215)</f>
         <v>2</v>
       </c>
       <c r="E215" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ö¤' =&gt; 'ழி',</v>
       </c>
       <c r="F215" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B215&amp;"' =&gt; '"&amp;C215&amp;"',"</f>
         <v>'ழி' =&gt; 'ö¤',</v>
       </c>
     </row>
@@ -10263,15 +10303,15 @@
         <v>528</v>
       </c>
       <c r="D216">
-        <f t="shared" si="9"/>
+        <f>LEN(C216)</f>
         <v>2</v>
       </c>
       <c r="E216" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'õ¤' =&gt; 'வி',</v>
       </c>
       <c r="F216" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B216&amp;"' =&gt; '"&amp;C216&amp;"',"</f>
         <v>'வி' =&gt; 'õ¤',</v>
       </c>
     </row>
@@ -10286,15 +10326,15 @@
         <v>440</v>
       </c>
       <c r="D217">
-        <f t="shared" si="9"/>
+        <f>LEN(C217)</f>
         <v>2</v>
       </c>
       <c r="E217" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ø¤' =&gt; 'றி',</v>
       </c>
       <c r="F217" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B217&amp;"' =&gt; '"&amp;C217&amp;"',"</f>
         <v>'றி' =&gt; 'ø¤',</v>
       </c>
     </row>
@@ -10309,15 +10349,15 @@
         <v>574</v>
       </c>
       <c r="D218">
-        <f t="shared" si="9"/>
+        <f>LEN(C218)</f>
         <v>2</v>
       </c>
       <c r="E218" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ú¦' =&gt; 'ஸீ',</v>
       </c>
       <c r="F218" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B218&amp;"' =&gt; '"&amp;C218&amp;"',"</f>
         <v>'ஸீ' =&gt; 'ú¦',</v>
       </c>
     </row>
@@ -10332,15 +10372,15 @@
         <v>336</v>
       </c>
       <c r="D219">
-        <f t="shared" si="9"/>
+        <f>LEN(C219)</f>
         <v>2</v>
       </c>
       <c r="E219" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ù¦' =&gt; 'னீ',</v>
       </c>
       <c r="F219" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B219&amp;"' =&gt; '"&amp;C219&amp;"',"</f>
         <v>'னீ' =&gt; 'ù¦',</v>
       </c>
     </row>
@@ -10355,15 +10395,15 @@
         <v>552</v>
       </c>
       <c r="D220">
-        <f t="shared" si="9"/>
+        <f>LEN(C220)</f>
         <v>2</v>
       </c>
       <c r="E220" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'û¦' =&gt; 'ஷீ',</v>
       </c>
       <c r="F220" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B220&amp;"' =&gt; '"&amp;C220&amp;"',"</f>
         <v>'ஷீ' =&gt; 'û¦',</v>
       </c>
     </row>
@@ -10378,15 +10418,15 @@
         <v>204</v>
       </c>
       <c r="D221">
-        <f t="shared" si="9"/>
+        <f>LEN(C221)</f>
         <v>2</v>
       </c>
       <c r="E221" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ü¦' =&gt; 'ஜீ',</v>
       </c>
       <c r="F221" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B221&amp;"' =&gt; '"&amp;C221&amp;"',"</f>
         <v>'ஜீ' =&gt; 'ü¦',</v>
       </c>
     </row>
@@ -10401,15 +10441,15 @@
         <v>120</v>
       </c>
       <c r="D222">
-        <f t="shared" si="9"/>
+        <f>LEN(C222)</f>
         <v>2</v>
       </c>
       <c r="E222" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ú¨' =&gt; 'ஸூ',</v>
       </c>
       <c r="F222" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B222&amp;"' =&gt; '"&amp;C222&amp;"',"</f>
         <v>'ஸூ' =&gt; 'ú¨',</v>
       </c>
     </row>
@@ -10424,15 +10464,15 @@
         <v>119</v>
       </c>
       <c r="D223">
-        <f t="shared" si="9"/>
+        <f>LEN(C223)</f>
         <v>2</v>
       </c>
       <c r="E223" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'û¨' =&gt; 'ஷூ',</v>
       </c>
       <c r="F223" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B223&amp;"' =&gt; '"&amp;C223&amp;"',"</f>
         <v>'ஷூ' =&gt; 'û¨',</v>
       </c>
     </row>
@@ -10447,15 +10487,15 @@
         <v>104</v>
       </c>
       <c r="D224">
-        <f t="shared" si="9"/>
+        <f>LEN(C224)</f>
         <v>2</v>
       </c>
       <c r="E224" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ü¨' =&gt; 'ஜூ',</v>
       </c>
       <c r="F224" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B224&amp;"' =&gt; '"&amp;C224&amp;"',"</f>
         <v>'ஜூ' =&gt; 'ü¨',</v>
       </c>
     </row>
@@ -10470,15 +10510,15 @@
         <v>568</v>
       </c>
       <c r="D225">
-        <f t="shared" si="9"/>
+        <f>LEN(C225)</f>
         <v>2</v>
       </c>
       <c r="E225" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ú¢' =&gt; 'ஸ்',</v>
       </c>
       <c r="F225" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B225&amp;"' =&gt; '"&amp;C225&amp;"',"</f>
         <v>'ஸ்' =&gt; 'ú¢',</v>
       </c>
     </row>
@@ -10493,15 +10533,15 @@
         <v>330</v>
       </c>
       <c r="D226">
-        <f t="shared" si="9"/>
+        <f>LEN(C226)</f>
         <v>2</v>
       </c>
       <c r="E226" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ù¢' =&gt; 'ன்',</v>
       </c>
       <c r="F226" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B226&amp;"' =&gt; '"&amp;C226&amp;"',"</f>
         <v>'ன்' =&gt; 'ù¢',</v>
       </c>
     </row>
@@ -10516,15 +10556,15 @@
         <v>546</v>
       </c>
       <c r="D227">
-        <f t="shared" si="9"/>
+        <f>LEN(C227)</f>
         <v>2</v>
       </c>
       <c r="E227" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'û¢' =&gt; 'ஷ்',</v>
       </c>
       <c r="F227" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B227&amp;"' =&gt; '"&amp;C227&amp;"',"</f>
         <v>'ஷ்' =&gt; 'û¢',</v>
       </c>
     </row>
@@ -10539,15 +10579,15 @@
         <v>198</v>
       </c>
       <c r="D228">
-        <f t="shared" si="9"/>
+        <f>LEN(C228)</f>
         <v>2</v>
       </c>
       <c r="E228" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ü¢' =&gt; 'ஜ்',</v>
       </c>
       <c r="F228" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B228&amp;"' =&gt; '"&amp;C228&amp;"',"</f>
         <v>'ஜ்' =&gt; 'ü¢',</v>
       </c>
     </row>
@@ -10562,15 +10602,15 @@
         <v>570</v>
       </c>
       <c r="D229">
-        <f t="shared" si="9"/>
+        <f>LEN(C229)</f>
         <v>2</v>
       </c>
       <c r="E229" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ú£' =&gt; 'ஸா',</v>
       </c>
       <c r="F229" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B229&amp;"' =&gt; '"&amp;C229&amp;"',"</f>
         <v>'ஸா' =&gt; 'ú£',</v>
       </c>
     </row>
@@ -10585,15 +10625,15 @@
         <v>332</v>
       </c>
       <c r="D230">
-        <f t="shared" si="9"/>
+        <f>LEN(C230)</f>
         <v>2</v>
       </c>
       <c r="E230" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ù£' =&gt; 'னா',</v>
       </c>
       <c r="F230" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B230&amp;"' =&gt; '"&amp;C230&amp;"',"</f>
         <v>'னா' =&gt; 'ù£',</v>
       </c>
     </row>
@@ -10608,15 +10648,15 @@
         <v>548</v>
       </c>
       <c r="D231">
-        <f t="shared" si="9"/>
+        <f>LEN(C231)</f>
         <v>2</v>
       </c>
       <c r="E231" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'û£' =&gt; 'ஷா',</v>
       </c>
       <c r="F231" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B231&amp;"' =&gt; '"&amp;C231&amp;"',"</f>
         <v>'ஷா' =&gt; 'û£',</v>
       </c>
     </row>
@@ -10631,15 +10671,15 @@
         <v>200</v>
       </c>
       <c r="D232">
-        <f t="shared" si="9"/>
+        <f>LEN(C232)</f>
         <v>2</v>
       </c>
       <c r="E232" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ü£' =&gt; 'ஜா',</v>
       </c>
       <c r="F232" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B232&amp;"' =&gt; '"&amp;C232&amp;"',"</f>
         <v>'ஜா' =&gt; 'ü£',</v>
       </c>
     </row>
@@ -10654,15 +10694,15 @@
         <v>572</v>
       </c>
       <c r="D233">
-        <f t="shared" si="9"/>
+        <f>LEN(C233)</f>
         <v>2</v>
       </c>
       <c r="E233" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ú¤' =&gt; 'ஸி',</v>
       </c>
       <c r="F233" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B233&amp;"' =&gt; '"&amp;C233&amp;"',"</f>
         <v>'ஸி' =&gt; 'ú¤',</v>
       </c>
     </row>
@@ -10677,15 +10717,15 @@
         <v>334</v>
       </c>
       <c r="D234">
-        <f t="shared" si="9"/>
+        <f>LEN(C234)</f>
         <v>2</v>
       </c>
       <c r="E234" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ù¤' =&gt; 'னி',</v>
       </c>
       <c r="F234" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B234&amp;"' =&gt; '"&amp;C234&amp;"',"</f>
         <v>'னி' =&gt; 'ù¤',</v>
       </c>
     </row>
@@ -10700,15 +10740,15 @@
         <v>550</v>
       </c>
       <c r="D235">
-        <f t="shared" si="9"/>
+        <f>LEN(C235)</f>
         <v>2</v>
       </c>
       <c r="E235" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'û¤' =&gt; 'ஷி',</v>
       </c>
       <c r="F235" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B235&amp;"' =&gt; '"&amp;C235&amp;"',"</f>
         <v>'ஷி' =&gt; 'û¤',</v>
       </c>
     </row>
@@ -10723,15 +10763,15 @@
         <v>202</v>
       </c>
       <c r="D236">
-        <f t="shared" si="9"/>
+        <f>LEN(C236)</f>
         <v>2</v>
       </c>
       <c r="E236" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ü¤' =&gt; 'ஜி',</v>
       </c>
       <c r="F236" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B236&amp;"' =&gt; '"&amp;C236&amp;"',"</f>
         <v>'ஜி' =&gt; 'ü¤',</v>
       </c>
     </row>
@@ -10746,15 +10786,15 @@
         <v>657</v>
       </c>
       <c r="D237">
-        <f t="shared" si="9"/>
+        <f>LEN(C237)</f>
         <v>2</v>
       </c>
       <c r="E237" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ú§' =&gt; 'ஸு',</v>
       </c>
       <c r="F237" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B237&amp;"' =&gt; '"&amp;C237&amp;"',"</f>
         <v>'ஸு' =&gt; 'ú§',</v>
       </c>
     </row>
@@ -10769,15 +10809,15 @@
         <v>656</v>
       </c>
       <c r="D238">
-        <f t="shared" si="9"/>
+        <f>LEN(C238)</f>
         <v>2</v>
       </c>
       <c r="E238" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'û§' =&gt; 'ஷு',</v>
       </c>
       <c r="F238" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B238&amp;"' =&gt; '"&amp;C238&amp;"',"</f>
         <v>'ஷு' =&gt; 'û§',</v>
       </c>
     </row>
@@ -10792,15 +10832,15 @@
         <v>641</v>
       </c>
       <c r="D239">
-        <f t="shared" si="9"/>
+        <f>LEN(C239)</f>
         <v>2</v>
       </c>
       <c r="E239" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ü§' =&gt; 'ஜு',</v>
       </c>
       <c r="F239" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B239&amp;"' =&gt; '"&amp;C239&amp;"',"</f>
         <v>'ஜு' =&gt; 'ü§',</v>
       </c>
     </row>
@@ -10815,15 +10855,15 @@
         <v>596</v>
       </c>
       <c r="D240">
-        <f t="shared" si="9"/>
+        <f>LEN(C240)</f>
         <v>2</v>
       </c>
       <c r="E240" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ý¦' =&gt; 'ஹீ',</v>
       </c>
       <c r="F240" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B240&amp;"' =&gt; '"&amp;C240&amp;"',"</f>
         <v>'ஹீ' =&gt; 'ý¦',</v>
       </c>
     </row>
@@ -10838,15 +10878,15 @@
         <v>121</v>
       </c>
       <c r="D241">
-        <f t="shared" si="9"/>
+        <f>LEN(C241)</f>
         <v>2</v>
       </c>
       <c r="E241" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ý¨' =&gt; 'ஹூ',</v>
       </c>
       <c r="F241" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B241&amp;"' =&gt; '"&amp;C241&amp;"',"</f>
         <v>'ஹூ' =&gt; 'ý¨',</v>
       </c>
     </row>
@@ -10861,15 +10901,15 @@
         <v>590</v>
       </c>
       <c r="D242">
-        <f t="shared" si="9"/>
+        <f>LEN(C242)</f>
         <v>2</v>
       </c>
       <c r="E242" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ý¢' =&gt; 'ஹ்',</v>
       </c>
       <c r="F242" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B242&amp;"' =&gt; '"&amp;C242&amp;"',"</f>
         <v>'ஹ்' =&gt; 'ý¢',</v>
       </c>
     </row>
@@ -10884,15 +10924,15 @@
         <v>592</v>
       </c>
       <c r="D243">
-        <f t="shared" si="9"/>
+        <f>LEN(C243)</f>
         <v>2</v>
       </c>
       <c r="E243" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ý£' =&gt; 'ஹா',</v>
       </c>
       <c r="F243" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B243&amp;"' =&gt; '"&amp;C243&amp;"',"</f>
         <v>'ஹா' =&gt; 'ý£',</v>
       </c>
     </row>
@@ -10907,15 +10947,15 @@
         <v>594</v>
       </c>
       <c r="D244">
-        <f t="shared" si="9"/>
+        <f>LEN(C244)</f>
         <v>2</v>
       </c>
       <c r="E244" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ý¤' =&gt; 'ஹி',</v>
       </c>
       <c r="F244" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B244&amp;"' =&gt; '"&amp;C244&amp;"',"</f>
         <v>'ஹி' =&gt; 'ý¤',</v>
       </c>
     </row>
@@ -10930,15 +10970,15 @@
         <v>658</v>
       </c>
       <c r="D245">
-        <f t="shared" si="9"/>
+        <f>LEN(C245)</f>
         <v>2</v>
       </c>
       <c r="E245" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'ý§' =&gt; 'ஹு',</v>
       </c>
       <c r="F245" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B245&amp;"' =&gt; '"&amp;C245&amp;"',"</f>
         <v>'ஹு' =&gt; 'ý§',</v>
       </c>
     </row>
@@ -10953,15 +10993,15 @@
         <v>643</v>
       </c>
       <c r="D246">
-        <f t="shared" si="9"/>
+        <f>LEN(C246)</f>
         <v>1</v>
       </c>
       <c r="E246" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'´' =&gt; 'டு',</v>
       </c>
       <c r="F246" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B246&amp;"' =&gt; '"&amp;C246&amp;"',"</f>
         <v>'டு' =&gt; '´',</v>
       </c>
     </row>
@@ -10976,15 +11016,15 @@
         <v>646</v>
       </c>
       <c r="D247">
-        <f t="shared" si="9"/>
+        <f>LEN(C247)</f>
         <v>1</v>
       </c>
       <c r="E247" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'¸' =&gt; 'நு',</v>
       </c>
       <c r="F247" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B247&amp;"' =&gt; '"&amp;C247&amp;"',"</f>
         <v>'நு' =&gt; '¸',</v>
       </c>
     </row>
@@ -10999,15 +11039,15 @@
         <v>654</v>
       </c>
       <c r="D248">
-        <f t="shared" si="9"/>
+        <f>LEN(C248)</f>
         <v>1</v>
       </c>
       <c r="E248" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'¿' =&gt; 'ழு',</v>
       </c>
       <c r="F248" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B248&amp;"' =&gt; '"&amp;C248&amp;"',"</f>
         <v>'ழு' =&gt; '¿',</v>
       </c>
     </row>
@@ -11022,15 +11062,15 @@
         <v>102</v>
       </c>
       <c r="D249">
-        <f t="shared" si="9"/>
+        <f>LEN(C249)</f>
         <v>1</v>
       </c>
       <c r="E249" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'±' =&gt; 'ஙு',</v>
       </c>
       <c r="F249" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B249&amp;"' =&gt; '"&amp;C249&amp;"',"</f>
         <v>'ஙு' =&gt; '±',</v>
       </c>
     </row>
@@ -11045,15 +11085,15 @@
         <v>649</v>
       </c>
       <c r="D250">
-        <f t="shared" si="9"/>
+        <f>LEN(C250)</f>
         <v>1</v>
       </c>
       <c r="E250" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'»' =&gt; 'யு',</v>
       </c>
       <c r="F250" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B250&amp;"' =&gt; '"&amp;C250&amp;"',"</f>
         <v>'யு' =&gt; '»',</v>
       </c>
     </row>
@@ -11068,15 +11108,15 @@
         <v>118</v>
       </c>
       <c r="D251">
-        <f t="shared" si="9"/>
+        <f>LEN(C251)</f>
         <v>1</v>
       </c>
       <c r="E251" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'×' =&gt; 'வூ',</v>
       </c>
       <c r="F251" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B251&amp;"' =&gt; '"&amp;C251&amp;"',"</f>
         <v>'வூ' =&gt; '×',</v>
       </c>
     </row>
@@ -11091,1451 +11131,1503 @@
         <v>90</v>
       </c>
       <c r="D252">
-        <f t="shared" si="9"/>
+        <f>LEN(C252)</f>
         <v>1</v>
       </c>
       <c r="E252" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>'÷' =&gt; 'ள',</v>
       </c>
       <c r="F252" t="str">
-        <f t="shared" si="11"/>
+        <f>"'"&amp;B252&amp;"' =&gt; '"&amp;C252&amp;"',"</f>
         <v>'ள' =&gt; '÷',</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>19</v>
-      </c>
-      <c r="B253" t="s">
-        <v>141</v>
+        <v>82</v>
+      </c>
+      <c r="B253" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="C253" t="s">
-        <v>101</v>
+        <v>660</v>
       </c>
       <c r="D253">
-        <f t="shared" si="9"/>
+        <f>LEN(C253)</f>
         <v>1</v>
       </c>
       <c r="E253" t="str">
-        <f t="shared" si="10"/>
-        <v>'°' =&gt; 'கு',</v>
+        <f t="shared" si="6"/>
+        <v>'®' =&gt; 'டி',</v>
       </c>
       <c r="F253" t="str">
-        <f t="shared" si="11"/>
-        <v>'கு' =&gt; '°',</v>
+        <f>"'"&amp;B253&amp;"' =&gt; '"&amp;C253&amp;"',"</f>
+        <v>'டி' =&gt; '®',</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B254" t="s">
-        <v>271</v>
+        <v>141</v>
       </c>
       <c r="C254" t="s">
-        <v>644</v>
+        <v>101</v>
       </c>
       <c r="D254">
-        <f t="shared" si="9"/>
+        <f>LEN(C254)</f>
         <v>1</v>
       </c>
       <c r="E254" t="str">
-        <f t="shared" si="10"/>
-        <v>'µ' =&gt; 'ணு',</v>
+        <f t="shared" si="6"/>
+        <v>'°' =&gt; 'கு',</v>
       </c>
       <c r="F254" t="str">
-        <f t="shared" si="11"/>
-        <v>'ணு' =&gt; 'µ',</v>
+        <f>"'"&amp;B254&amp;"' =&gt; '"&amp;C254&amp;"',"</f>
+        <v>'கு' =&gt; '°',</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B255" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C255" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D255">
-        <f t="shared" si="9"/>
+        <f>LEN(C255)</f>
         <v>1</v>
       </c>
       <c r="E255" t="str">
-        <f t="shared" si="10"/>
-        <v>'¶' =&gt; 'து',</v>
+        <f t="shared" si="6"/>
+        <v>'µ' =&gt; 'ணு',</v>
       </c>
       <c r="F255" t="str">
-        <f t="shared" si="11"/>
-        <v>'து' =&gt; '¶',</v>
+        <f>"'"&amp;B255&amp;"' =&gt; '"&amp;C255&amp;"',"</f>
+        <v>'ணு' =&gt; 'µ',</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="B256" t="s">
-        <v>423</v>
+        <v>293</v>
       </c>
       <c r="C256" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D256">
-        <f t="shared" si="9"/>
+        <f>LEN(C256)</f>
         <v>1</v>
       </c>
       <c r="E256" t="str">
-        <f t="shared" si="10"/>
-        <v>'¼' =&gt; 'ரு',</v>
+        <f t="shared" si="6"/>
+        <v>'¶' =&gt; 'து',</v>
       </c>
       <c r="F256" t="str">
-        <f t="shared" si="11"/>
-        <v>'ரு' =&gt; '¼',</v>
+        <f>"'"&amp;B256&amp;"' =&gt; '"&amp;C256&amp;"',"</f>
+        <v>'து' =&gt; '¶',</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B257" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="C257" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D257">
-        <f t="shared" si="9"/>
+        <f>LEN(C257)</f>
         <v>1</v>
       </c>
       <c r="E257" t="str">
-        <f t="shared" si="10"/>
-        <v>'½' =&gt; 'லு',</v>
+        <f t="shared" si="6"/>
+        <v>'¼' =&gt; 'ரு',</v>
       </c>
       <c r="F257" t="str">
-        <f t="shared" si="11"/>
-        <v>'லு' =&gt; '½',</v>
+        <f>"'"&amp;B257&amp;"' =&gt; '"&amp;C257&amp;"',"</f>
+        <v>'ரு' =&gt; '¼',</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B258" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="C258" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D258">
-        <f t="shared" si="9"/>
+        <f>LEN(C258)</f>
         <v>1</v>
       </c>
       <c r="E258" t="str">
-        <f t="shared" si="10"/>
-        <v>'¾' =&gt; 'வு',</v>
+        <f t="shared" si="6"/>
+        <v>'½' =&gt; 'லு',</v>
       </c>
       <c r="F258" t="str">
-        <f t="shared" si="11"/>
-        <v>'வு' =&gt; '¾',</v>
+        <f>"'"&amp;B258&amp;"' =&gt; '"&amp;C258&amp;"',"</f>
+        <v>'லு' =&gt; '½',</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="B259" t="s">
-        <v>359</v>
+        <v>531</v>
       </c>
       <c r="C259" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="D259">
-        <f t="shared" si="9"/>
+        <f>LEN(C259)</f>
         <v>1</v>
       </c>
       <c r="E259" t="str">
-        <f t="shared" si="10"/>
-        <v>'¹' =&gt; 'பு',</v>
+        <f t="shared" si="6"/>
+        <v>'¾' =&gt; 'வு',</v>
       </c>
       <c r="F259" t="str">
-        <f t="shared" si="11"/>
-        <v>'பு' =&gt; '¹',</v>
+        <f>"'"&amp;B259&amp;"' =&gt; '"&amp;C259&amp;"',"</f>
+        <v>'வு' =&gt; '¾',</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="B260" t="s">
-        <v>183</v>
+        <v>359</v>
       </c>
       <c r="C260" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D260">
-        <f t="shared" ref="D260:D323" si="12">LEN(C260)</f>
+        <f>LEN(C260)</f>
         <v>1</v>
       </c>
       <c r="E260" t="str">
-        <f t="shared" ref="E260:E309" si="13">"'"&amp;C260&amp;"' =&gt; '"&amp;B260&amp;"',"</f>
-        <v>'²' =&gt; 'சு',</v>
+        <f t="shared" si="6"/>
+        <v>'¹' =&gt; 'பு',</v>
       </c>
       <c r="F260" t="str">
-        <f t="shared" ref="F260:F314" si="14">"'"&amp;B260&amp;"' =&gt; '"&amp;C260&amp;"',"</f>
-        <v>'சு' =&gt; '²',</v>
+        <f>"'"&amp;B260&amp;"' =&gt; '"&amp;C260&amp;"',"</f>
+        <v>'பு' =&gt; '¹',</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B261" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="C261" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D261">
-        <f t="shared" si="12"/>
+        <f>LEN(C261)</f>
         <v>1</v>
       </c>
       <c r="E261" t="str">
-        <f t="shared" si="13"/>
-        <v>'³' =&gt; 'ஞு',</v>
+        <f t="shared" ref="E261:E317" si="7">"'"&amp;C261&amp;"' =&gt; '"&amp;B261&amp;"',"</f>
+        <v>'²' =&gt; 'சு',</v>
       </c>
       <c r="F261" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஞு' =&gt; '³',</v>
+        <f>"'"&amp;B261&amp;"' =&gt; '"&amp;C261&amp;"',"</f>
+        <v>'சு' =&gt; '²',</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B262" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="C262" t="s">
-        <v>68</v>
+        <v>642</v>
       </c>
       <c r="D262">
-        <f t="shared" si="12"/>
+        <f>LEN(C262)</f>
         <v>1</v>
       </c>
       <c r="E262" t="str">
-        <f t="shared" si="13"/>
-        <v>'á' =&gt; 'ஊ',</v>
+        <f t="shared" si="7"/>
+        <v>'³' =&gt; 'ஞு',</v>
       </c>
       <c r="F262" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஊ' =&gt; 'á',</v>
+        <f>"'"&amp;B262&amp;"' =&gt; '"&amp;C262&amp;"',"</f>
+        <v>'ஞு' =&gt; '³',</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="B263" t="s">
-        <v>443</v>
+        <v>16</v>
       </c>
       <c r="C263" t="s">
-        <v>651</v>
+        <v>68</v>
       </c>
       <c r="D263">
-        <f t="shared" si="12"/>
+        <f>LEN(C263)</f>
         <v>1</v>
       </c>
       <c r="E263" t="str">
-        <f t="shared" si="13"/>
-        <v>'Á' =&gt; 'று',</v>
+        <f t="shared" si="7"/>
+        <v>'á' =&gt; 'ஊ',</v>
       </c>
       <c r="F263" t="str">
-        <f t="shared" si="14"/>
-        <v>'று' =&gt; 'Á',</v>
+        <f>"'"&amp;B263&amp;"' =&gt; '"&amp;C263&amp;"',"</f>
+        <v>'ஊ' =&gt; 'á',</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>443</v>
       </c>
       <c r="C264" t="s">
-        <v>67</v>
+        <v>651</v>
       </c>
       <c r="D264">
-        <f t="shared" si="12"/>
+        <f>LEN(C264)</f>
         <v>1</v>
       </c>
       <c r="E264" t="str">
-        <f t="shared" si="13"/>
-        <v>'à' =&gt; 'உ',</v>
+        <f t="shared" si="7"/>
+        <v>'Á' =&gt; 'று',</v>
       </c>
       <c r="F264" t="str">
-        <f t="shared" si="14"/>
-        <v>'உ' =&gt; 'à',</v>
+        <f>"'"&amp;B264&amp;"' =&gt; '"&amp;C264&amp;"',"</f>
+        <v>'று' =&gt; 'Á',</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>227</v>
+        <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>487</v>
+        <v>15</v>
       </c>
       <c r="C265" t="s">
-        <v>653</v>
+        <v>67</v>
       </c>
       <c r="D265">
-        <f t="shared" si="12"/>
+        <f>LEN(C265)</f>
         <v>1</v>
       </c>
       <c r="E265" t="str">
-        <f t="shared" si="13"/>
-        <v>'À' =&gt; 'ளு',</v>
+        <f t="shared" si="7"/>
+        <v>'à' =&gt; 'உ',</v>
       </c>
       <c r="F265" t="str">
-        <f t="shared" si="14"/>
-        <v>'ளு' =&gt; 'À',</v>
+        <f>"'"&amp;B265&amp;"' =&gt; '"&amp;C265&amp;"',"</f>
+        <v>'உ' =&gt; 'à',</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="B266" t="s">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="C266" t="s">
-        <v>69</v>
+        <v>653</v>
       </c>
       <c r="D266">
-        <f t="shared" si="12"/>
+        <f>LEN(C266)</f>
         <v>1</v>
       </c>
       <c r="E266" t="str">
-        <f t="shared" si="13"/>
-        <v>'â' =&gt; 'எ',</v>
+        <f t="shared" si="7"/>
+        <v>'À' =&gt; 'ளு',</v>
       </c>
       <c r="F266" t="str">
-        <f t="shared" si="14"/>
-        <v>'எ' =&gt; 'â',</v>
+        <f>"'"&amp;B266&amp;"' =&gt; '"&amp;C266&amp;"',"</f>
+        <v>'ளு' =&gt; 'À',</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>253</v>
+        <v>8</v>
       </c>
       <c r="B267" t="s">
-        <v>337</v>
+        <v>17</v>
       </c>
       <c r="C267" t="s">
-        <v>647</v>
+        <v>69</v>
       </c>
       <c r="D267">
-        <f t="shared" si="12"/>
+        <f>LEN(C267)</f>
         <v>1</v>
       </c>
       <c r="E267" t="str">
-        <f t="shared" si="13"/>
-        <v>'Â' =&gt; 'னு',</v>
+        <f t="shared" si="7"/>
+        <v>'â' =&gt; 'எ',</v>
       </c>
       <c r="F267" t="str">
-        <f t="shared" si="14"/>
-        <v>'னு' =&gt; 'Â',</v>
+        <f>"'"&amp;B267&amp;"' =&gt; '"&amp;C267&amp;"',"</f>
+        <v>'எ' =&gt; 'â',</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="B268" t="s">
-        <v>19</v>
+        <v>337</v>
       </c>
       <c r="C268" t="s">
-        <v>71</v>
+        <v>647</v>
       </c>
       <c r="D268">
-        <f t="shared" si="12"/>
+        <f>LEN(C268)</f>
         <v>1</v>
       </c>
       <c r="E268" t="str">
-        <f t="shared" si="13"/>
-        <v>'ä' =&gt; 'ஐ',</v>
+        <f t="shared" si="7"/>
+        <v>'Â' =&gt; 'னு',</v>
       </c>
       <c r="F268" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஐ' =&gt; 'ä',</v>
+        <f>"'"&amp;B268&amp;"' =&gt; '"&amp;C268&amp;"',"</f>
+        <v>'னு' =&gt; 'Â',</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B269" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C269" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D269">
-        <f t="shared" si="12"/>
+        <f>LEN(C269)</f>
         <v>1</v>
       </c>
       <c r="E269" t="str">
-        <f t="shared" si="13"/>
-        <v>'ã' =&gt; 'ஏ',</v>
+        <f t="shared" si="7"/>
+        <v>'ä' =&gt; 'ஐ',</v>
       </c>
       <c r="F269" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஏ' =&gt; 'ã',</v>
+        <f>"'"&amp;B269&amp;"' =&gt; '"&amp;C269&amp;"',"</f>
+        <v>'ஐ' =&gt; 'ä',</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>20</v>
-      </c>
-      <c r="B270" t="s">
-        <v>142</v>
-      </c>
-      <c r="C270" t="s">
-        <v>103</v>
+        <v>46</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>663</v>
       </c>
       <c r="D270">
-        <f t="shared" si="12"/>
+        <f>LEN(C270)</f>
         <v>1</v>
       </c>
       <c r="E270" t="str">
-        <f t="shared" si="13"/>
-        <v>'Ã' =&gt; 'கூ',</v>
+        <f t="shared" si="7"/>
+        <v>'Ä' =&gt; 'ஙூ',</v>
       </c>
       <c r="F270" t="str">
-        <f t="shared" si="14"/>
-        <v>'கூ' =&gt; 'Ã',</v>
+        <f>"'"&amp;B270&amp;"' =&gt; '"&amp;C270&amp;"',"</f>
+        <v>'ஙூ' =&gt; 'Ä',</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C271" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D271">
-        <f t="shared" si="12"/>
+        <f>LEN(C271)</f>
         <v>1</v>
       </c>
       <c r="E271" t="str">
-        <f t="shared" si="13"/>
-        <v>'å' =&gt; 'ஒ',</v>
+        <f t="shared" si="7"/>
+        <v>'ã' =&gt; 'ஏ',</v>
       </c>
       <c r="F271" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஒ' =&gt; 'å',</v>
+        <f>"'"&amp;B271&amp;"' =&gt; '"&amp;C271&amp;"',"</f>
+        <v>'ஏ' =&gt; 'ã',</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B272" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="C272" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D272">
-        <f t="shared" si="12"/>
+        <f>LEN(C272)</f>
         <v>1</v>
       </c>
       <c r="E272" t="str">
-        <f t="shared" si="13"/>
-        <v>'æ' =&gt; 'ஓ',</v>
+        <f t="shared" si="7"/>
+        <v>'Ã' =&gt; 'கூ',</v>
       </c>
       <c r="F272" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஓ' =&gt; 'æ',</v>
+        <f>"'"&amp;B272&amp;"' =&gt; '"&amp;C272&amp;"',"</f>
+        <v>'கூ' =&gt; 'Ã',</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
+        <v>11</v>
+      </c>
+      <c r="B273" t="s">
+        <v>20</v>
+      </c>
+      <c r="C273" t="s">
+        <v>72</v>
+      </c>
+      <c r="D273">
+        <f>LEN(C273)</f>
         <v>1</v>
       </c>
-      <c r="B273" t="s">
-        <v>10</v>
-      </c>
-      <c r="C273" t="s">
-        <v>62</v>
-      </c>
-      <c r="D273">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
       <c r="E273" t="str">
-        <f t="shared" si="13"/>
-        <v>'ç' =&gt; 'ஃ',</v>
+        <f t="shared" si="7"/>
+        <v>'å' =&gt; 'ஒ',</v>
       </c>
       <c r="F273" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஃ' =&gt; 'ç',</v>
+        <f>"'"&amp;B273&amp;"' =&gt; '"&amp;C273&amp;"',"</f>
+        <v>'ஒ' =&gt; 'å',</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274">
-        <v>131</v>
-      </c>
-      <c r="B274" t="s">
-        <v>32</v>
-      </c>
-      <c r="C274" t="s">
-        <v>84</v>
+        <v>59</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>664</v>
       </c>
       <c r="D274">
-        <f t="shared" si="12"/>
+        <f>LEN(C274)</f>
         <v>1</v>
       </c>
       <c r="E274" t="str">
-        <f t="shared" si="13"/>
-        <v>'ð' =&gt; 'ப',</v>
+        <f t="shared" si="7"/>
+        <v>'Å' =&gt; 'சூ',</v>
       </c>
       <c r="F274" t="str">
-        <f t="shared" si="14"/>
-        <v>'ப' =&gt; 'ð',</v>
+        <f>"'"&amp;B274&amp;"' =&gt; '"&amp;C274&amp;"',"</f>
+        <v>'சூ' =&gt; 'Å',</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B275" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C275" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D275">
-        <f t="shared" si="12"/>
+        <f>LEN(C275)</f>
         <v>1</v>
       </c>
       <c r="E275" t="str">
-        <f t="shared" si="13"/>
-        <v>'é' =&gt; 'ங',</v>
+        <f t="shared" si="7"/>
+        <v>'æ' =&gt; 'ஓ',</v>
       </c>
       <c r="F275" t="str">
-        <f t="shared" si="14"/>
-        <v>'ங' =&gt; 'é',</v>
+        <f>"'"&amp;B275&amp;"' =&gt; '"&amp;C275&amp;"',"</f>
+        <v>'ஓ' =&gt; 'æ',</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276">
-        <v>14</v>
-      </c>
-      <c r="B276" t="s">
-        <v>5</v>
-      </c>
-      <c r="C276" t="s">
-        <v>4</v>
+        <v>72</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>661</v>
       </c>
       <c r="D276">
-        <f t="shared" si="12"/>
+        <f>LEN(C276)</f>
         <v>1</v>
       </c>
       <c r="E276" t="str">
-        <f t="shared" si="13"/>
-        <v>'è' =&gt; 'க',</v>
+        <f t="shared" si="7"/>
+        <v>'Æ' =&gt; 'ஞூ',</v>
       </c>
       <c r="F276" t="str">
-        <f t="shared" si="14"/>
-        <v>'க' =&gt; 'è',</v>
+        <f>"'"&amp;B276&amp;"' =&gt; '"&amp;C276&amp;"',"</f>
+        <v>'ஞூ' =&gt; 'Æ',</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="B277" t="s">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="C277" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="D277">
-        <f t="shared" si="12"/>
+        <f>LEN(C277)</f>
         <v>1</v>
       </c>
       <c r="E277" t="str">
-        <f t="shared" si="13"/>
-        <v>'È' =&gt; 'ணூ',</v>
+        <f t="shared" si="7"/>
+        <v>'ç' =&gt; 'ஃ',</v>
       </c>
       <c r="F277" t="str">
-        <f t="shared" si="14"/>
-        <v>'ணூ' =&gt; 'È',</v>
+        <f>"'"&amp;B277&amp;"' =&gt; '"&amp;C277&amp;"',"</f>
+        <v>'ஃ' =&gt; 'ç',</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278">
-        <v>53</v>
-      </c>
-      <c r="B278" t="s">
-        <v>24</v>
-      </c>
-      <c r="C278" t="s">
-        <v>76</v>
+        <v>85</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>665</v>
       </c>
       <c r="D278">
-        <f t="shared" si="12"/>
+        <f>LEN(C278)</f>
         <v>1</v>
       </c>
       <c r="E278" t="str">
-        <f t="shared" si="13"/>
-        <v>'ê' =&gt; 'ச',</v>
+        <f t="shared" si="7"/>
+        <v>'Ç' =&gt; 'டூ',</v>
       </c>
       <c r="F278" t="str">
-        <f t="shared" si="14"/>
-        <v>'ச' =&gt; 'ê',</v>
+        <f>"'"&amp;B278&amp;"' =&gt; '"&amp;C278&amp;"',"</f>
+        <v>'டூ' =&gt; 'Ç',</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="B279" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C279" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D279">
-        <f t="shared" si="12"/>
+        <f>LEN(C279)</f>
         <v>1</v>
       </c>
       <c r="E279" t="str">
-        <f t="shared" si="13"/>
-        <v>'ë' =&gt; 'ஞ',</v>
+        <f t="shared" si="7"/>
+        <v>'ð' =&gt; 'ப',</v>
       </c>
       <c r="F279" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஞ' =&gt; 'ë',</v>
+        <f>"'"&amp;B279&amp;"' =&gt; '"&amp;C279&amp;"',"</f>
+        <v>'ப' =&gt; 'ð',</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="B280" t="s">
-        <v>316</v>
+        <v>23</v>
       </c>
       <c r="C280" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D280">
-        <f t="shared" si="12"/>
+        <f>LEN(C280)</f>
         <v>1</v>
       </c>
       <c r="E280" t="str">
-        <f t="shared" si="13"/>
-        <v>'Ë' =&gt; 'நூ',</v>
+        <f t="shared" si="7"/>
+        <v>'é' =&gt; 'ங',</v>
       </c>
       <c r="F280" t="str">
-        <f t="shared" si="14"/>
-        <v>'நூ' =&gt; 'Ë',</v>
+        <f>"'"&amp;B280&amp;"' =&gt; '"&amp;C280&amp;"',"</f>
+        <v>'ங' =&gt; 'é',</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281">
-        <v>92</v>
-      </c>
-      <c r="B281" t="s">
-        <v>28</v>
-      </c>
-      <c r="C281" t="s">
-        <v>80</v>
+        <v>111</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>662</v>
       </c>
       <c r="D281">
-        <f t="shared" si="12"/>
+        <f>LEN(C281)</f>
         <v>1</v>
       </c>
       <c r="E281" t="str">
-        <f t="shared" si="13"/>
-        <v>'í' =&gt; 'ண',</v>
+        <f t="shared" si="7"/>
+        <v>'É' =&gt; 'தூ',</v>
       </c>
       <c r="F281" t="str">
-        <f t="shared" si="14"/>
-        <v>'ண' =&gt; 'í',</v>
+        <f>"'"&amp;B281&amp;"' =&gt; '"&amp;C281&amp;"',"</f>
+        <v>'தூ' =&gt; 'É',</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="B282" t="s">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="C282" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="D282">
-        <f t="shared" si="12"/>
+        <f>LEN(C282)</f>
         <v>1</v>
       </c>
       <c r="E282" t="str">
-        <f t="shared" si="13"/>
-        <v>'Í' =&gt; 'மூ',</v>
+        <f t="shared" si="7"/>
+        <v>'è' =&gt; 'க',</v>
       </c>
       <c r="F282" t="str">
-        <f t="shared" si="14"/>
-        <v>'மூ' =&gt; 'Í',</v>
+        <f>"'"&amp;B282&amp;"' =&gt; '"&amp;C282&amp;"',"</f>
+        <v>'க' =&gt; 'è',</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B283" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="C283" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D283">
-        <f t="shared" si="12"/>
+        <f>LEN(C283)</f>
         <v>1</v>
       </c>
       <c r="E283" t="str">
-        <f t="shared" si="13"/>
-        <v>'ì' =&gt; 'ட',</v>
+        <f t="shared" si="7"/>
+        <v>'È' =&gt; 'ணூ',</v>
       </c>
       <c r="F283" t="str">
-        <f t="shared" si="14"/>
-        <v>'ட' =&gt; 'ì',</v>
+        <f>"'"&amp;B283&amp;"' =&gt; '"&amp;C283&amp;"',"</f>
+        <v>'ணூ' =&gt; 'È',</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="B284" t="s">
-        <v>360</v>
+        <v>24</v>
       </c>
       <c r="C284" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D284">
-        <f t="shared" si="12"/>
+        <f>LEN(C284)</f>
         <v>1</v>
       </c>
       <c r="E284" t="str">
-        <f t="shared" si="13"/>
-        <v>'Ì' =&gt; 'பூ',</v>
+        <f t="shared" si="7"/>
+        <v>'ê' =&gt; 'ச',</v>
       </c>
       <c r="F284" t="str">
-        <f t="shared" si="14"/>
-        <v>'பூ' =&gt; 'Ì',</v>
+        <f>"'"&amp;B284&amp;"' =&gt; '"&amp;C284&amp;"',"</f>
+        <v>'ச' =&gt; 'ê',</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="B285" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C285" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D285">
-        <f t="shared" si="12"/>
+        <f>LEN(C285)</f>
         <v>1</v>
       </c>
       <c r="E285" t="str">
-        <f t="shared" si="13"/>
-        <v>'î' =&gt; 'த',</v>
+        <f t="shared" si="7"/>
+        <v>'ë' =&gt; 'ஞ',</v>
       </c>
       <c r="F285" t="str">
-        <f t="shared" si="14"/>
-        <v>'த' =&gt; 'î',</v>
+        <f>"'"&amp;B285&amp;"' =&gt; '"&amp;C285&amp;"',"</f>
+        <v>'ஞ' =&gt; 'ë',</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B286" t="s">
-        <v>402</v>
+        <v>316</v>
       </c>
       <c r="C286" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D286">
-        <f t="shared" si="12"/>
+        <f>LEN(C286)</f>
         <v>1</v>
       </c>
       <c r="E286" t="str">
-        <f t="shared" si="13"/>
-        <v>'Î' =&gt; 'யூ',</v>
+        <f t="shared" si="7"/>
+        <v>'Ë' =&gt; 'நூ',</v>
       </c>
       <c r="F286" t="str">
-        <f t="shared" si="14"/>
-        <v>'யூ' =&gt; 'Î',</v>
+        <f>"'"&amp;B286&amp;"' =&gt; '"&amp;C286&amp;"',"</f>
+        <v>'நூ' =&gt; 'Ë',</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="B287" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C287" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D287">
-        <f t="shared" si="12"/>
+        <f>LEN(C287)</f>
         <v>1</v>
       </c>
       <c r="E287" t="str">
-        <f t="shared" si="13"/>
-        <v>'ï' =&gt; 'ந',</v>
+        <f t="shared" si="7"/>
+        <v>'í' =&gt; 'ண',</v>
       </c>
       <c r="F287" t="str">
-        <f t="shared" si="14"/>
-        <v>'ந' =&gt; 'ï',</v>
+        <f>"'"&amp;B287&amp;"' =&gt; '"&amp;C287&amp;"',"</f>
+        <v>'ண' =&gt; 'í',</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B288" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="C288" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D288">
-        <f t="shared" si="12"/>
+        <f>LEN(C288)</f>
         <v>1</v>
       </c>
       <c r="E288" t="str">
-        <f t="shared" si="13"/>
-        <v>'Ï' =&gt; 'ரூ',</v>
+        <f t="shared" si="7"/>
+        <v>'Í' =&gt; 'மூ',</v>
       </c>
       <c r="F288" t="str">
-        <f t="shared" si="14"/>
-        <v>'ரூ' =&gt; 'Ï',</v>
+        <f>"'"&amp;B288&amp;"' =&gt; '"&amp;C288&amp;"',"</f>
+        <v>'மூ' =&gt; 'Í',</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="B289" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C289" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D289">
-        <f t="shared" si="12"/>
+        <f>LEN(C289)</f>
         <v>1</v>
       </c>
       <c r="E289" t="str">
-        <f t="shared" si="13"/>
-        <v>'ñ' =&gt; 'ம',</v>
+        <f t="shared" si="7"/>
+        <v>'ì' =&gt; 'ட',</v>
       </c>
       <c r="F289" t="str">
-        <f t="shared" si="14"/>
-        <v>'ம' =&gt; 'ñ',</v>
+        <f>"'"&amp;B289&amp;"' =&gt; '"&amp;C289&amp;"',"</f>
+        <v>'ட' =&gt; 'ì',</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B290" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="C290" t="s">
-        <v>648</v>
+        <v>110</v>
       </c>
       <c r="D290">
-        <f t="shared" si="12"/>
+        <f>LEN(C290)</f>
         <v>1</v>
       </c>
       <c r="E290" t="str">
-        <f t="shared" si="13"/>
-        <v>'º' =&gt; 'மு',</v>
+        <f t="shared" si="7"/>
+        <v>'Ì' =&gt; 'பூ',</v>
       </c>
       <c r="F290" t="str">
-        <f t="shared" si="14"/>
-        <v>'மு' =&gt; 'º',</v>
+        <f>"'"&amp;B290&amp;"' =&gt; '"&amp;C290&amp;"',"</f>
+        <v>'பூ' =&gt; 'Ì',</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="B291" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C291" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D291">
-        <f t="shared" si="12"/>
+        <f>LEN(C291)</f>
         <v>1</v>
       </c>
       <c r="E291" t="str">
-        <f t="shared" si="13"/>
-        <v>'ó' =&gt; 'ர',</v>
+        <f t="shared" si="7"/>
+        <v>'î' =&gt; 'த',</v>
       </c>
       <c r="F291" t="str">
-        <f t="shared" si="14"/>
-        <v>'ர' =&gt; 'ó',</v>
+        <f>"'"&amp;B291&amp;"' =&gt; '"&amp;C291&amp;"',"</f>
+        <v>'த' =&gt; 'î',</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B292" t="s">
-        <v>34</v>
+        <v>402</v>
       </c>
       <c r="C292" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D292">
-        <f t="shared" si="12"/>
+        <f>LEN(C292)</f>
         <v>1</v>
       </c>
       <c r="E292" t="str">
-        <f t="shared" si="13"/>
-        <v>'ò' =&gt; 'ய',</v>
+        <f t="shared" si="7"/>
+        <v>'Î' =&gt; 'யூ',</v>
       </c>
       <c r="F292" t="str">
-        <f t="shared" si="14"/>
-        <v>'ய' =&gt; 'ò',</v>
+        <f>"'"&amp;B292&amp;"' =&gt; '"&amp;C292&amp;"',"</f>
+        <v>'யூ' =&gt; 'Î',</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="B293" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C293" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D293">
-        <f t="shared" si="12"/>
+        <f>LEN(C293)</f>
         <v>1</v>
       </c>
       <c r="E293" t="str">
-        <f t="shared" si="13"/>
-        <v>'ô' =&gt; 'ல',</v>
+        <f t="shared" si="7"/>
+        <v>'ï' =&gt; 'ந',</v>
       </c>
       <c r="F293" t="str">
-        <f t="shared" si="14"/>
-        <v>'ல' =&gt; 'ô',</v>
+        <f>"'"&amp;B293&amp;"' =&gt; '"&amp;C293&amp;"',"</f>
+        <v>'ந' =&gt; 'ï',</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B294" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="C294" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D294">
-        <f t="shared" si="12"/>
+        <f>LEN(C294)</f>
         <v>1</v>
       </c>
       <c r="E294" t="str">
-        <f t="shared" si="13"/>
-        <v>'Ö' =&gt; 'லூ',</v>
+        <f t="shared" si="7"/>
+        <v>'Ï' =&gt; 'ரூ',</v>
       </c>
       <c r="F294" t="str">
-        <f t="shared" si="14"/>
-        <v>'லூ' =&gt; 'Ö',</v>
+        <f>"'"&amp;B294&amp;"' =&gt; '"&amp;C294&amp;"',"</f>
+        <v>'ரூ' =&gt; 'Ï',</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="B295" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C295" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D295">
-        <f t="shared" si="12"/>
+        <f>LEN(C295)</f>
         <v>1</v>
       </c>
       <c r="E295" t="str">
-        <f t="shared" si="13"/>
-        <v>'ö' =&gt; 'ழ',</v>
+        <f t="shared" si="7"/>
+        <v>'ñ' =&gt; 'ம',</v>
       </c>
       <c r="F295" t="str">
-        <f t="shared" si="14"/>
-        <v>'ழ' =&gt; 'ö',</v>
+        <f>"'"&amp;B295&amp;"' =&gt; '"&amp;C295&amp;"',"</f>
+        <v>'ம' =&gt; 'ñ',</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="B296" t="s">
-        <v>40</v>
+        <v>379</v>
       </c>
       <c r="C296" t="s">
-        <v>92</v>
+        <v>648</v>
       </c>
       <c r="D296">
-        <f t="shared" si="12"/>
+        <f>LEN(C296)</f>
         <v>1</v>
       </c>
       <c r="E296" t="str">
-        <f t="shared" si="13"/>
-        <v>'õ' =&gt; 'வ',</v>
+        <f t="shared" si="7"/>
+        <v>'º' =&gt; 'மு',</v>
       </c>
       <c r="F296" t="str">
-        <f t="shared" si="14"/>
-        <v>'வ' =&gt; 'õ',</v>
+        <f>"'"&amp;B296&amp;"' =&gt; '"&amp;C296&amp;"',"</f>
+        <v>'மு' =&gt; 'º',</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B297" t="s">
-        <v>510</v>
+        <v>35</v>
       </c>
       <c r="C297" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D297">
-        <f t="shared" si="12"/>
+        <f>LEN(C297)</f>
         <v>1</v>
       </c>
       <c r="E297" t="str">
-        <f t="shared" si="13"/>
-        <v>'Ø' =&gt; 'ழூ',</v>
+        <f t="shared" si="7"/>
+        <v>'ó' =&gt; 'ர',</v>
       </c>
       <c r="F297" t="str">
-        <f t="shared" si="14"/>
-        <v>'ழூ' =&gt; 'Ø',</v>
+        <f>"'"&amp;B297&amp;"' =&gt; '"&amp;C297&amp;"',"</f>
+        <v>'ர' =&gt; 'ó',</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="B298" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C298" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D298">
-        <f t="shared" si="12"/>
+        <f>LEN(C298)</f>
         <v>1</v>
       </c>
       <c r="E298" t="str">
-        <f t="shared" si="13"/>
-        <v>'ø' =&gt; 'ற',</v>
+        <f t="shared" si="7"/>
+        <v>'ò' =&gt; 'ய',</v>
       </c>
       <c r="F298" t="str">
-        <f t="shared" si="14"/>
-        <v>'ற' =&gt; 'ø',</v>
+        <f>"'"&amp;B298&amp;"' =&gt; '"&amp;C298&amp;"',"</f>
+        <v>'ய' =&gt; 'ò',</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="B299" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C299" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D299">
-        <f t="shared" si="12"/>
+        <f>LEN(C299)</f>
         <v>1</v>
       </c>
       <c r="E299" t="str">
-        <f t="shared" si="13"/>
-        <v>'ß' =&gt; 'ஈ',</v>
+        <f t="shared" si="7"/>
+        <v>'ô' =&gt; 'ல',</v>
       </c>
       <c r="F299" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஈ' =&gt; 'ß',</v>
+        <f>"'"&amp;B299&amp;"' =&gt; '"&amp;C299&amp;"',"</f>
+        <v>'ல' =&gt; 'ô',</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="B300" t="s">
-        <v>13</v>
+        <v>466</v>
       </c>
       <c r="C300" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D300">
-        <f t="shared" si="12"/>
+        <f>LEN(C300)</f>
         <v>1</v>
       </c>
       <c r="E300" t="str">
-        <f t="shared" si="13"/>
-        <v>'Þ' =&gt; 'இ',</v>
+        <f t="shared" si="7"/>
+        <v>'Ö' =&gt; 'லூ',</v>
       </c>
       <c r="F300" t="str">
-        <f t="shared" si="14"/>
-        <v>'இ' =&gt; 'Þ',</v>
+        <f>"'"&amp;B300&amp;"' =&gt; '"&amp;C300&amp;"',"</f>
+        <v>'லூ' =&gt; 'Ö',</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B301" t="s">
-        <v>444</v>
+        <v>39</v>
       </c>
       <c r="C301" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D301">
-        <f t="shared" si="12"/>
+        <f>LEN(C301)</f>
         <v>1</v>
       </c>
       <c r="E301" t="str">
-        <f t="shared" si="13"/>
-        <v>'Ú' =&gt; 'றூ',</v>
+        <f t="shared" si="7"/>
+        <v>'ö' =&gt; 'ழ',</v>
       </c>
       <c r="F301" t="str">
-        <f t="shared" si="14"/>
-        <v>'றூ' =&gt; 'Ú',</v>
+        <f>"'"&amp;B301&amp;"' =&gt; '"&amp;C301&amp;"',"</f>
+        <v>'ழ' =&gt; 'ö',</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="B302" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C302" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D302">
-        <f t="shared" si="12"/>
+        <f>LEN(C302)</f>
         <v>1</v>
       </c>
       <c r="E302" t="str">
-        <f t="shared" si="13"/>
-        <v>'ú' =&gt; 'ஸ',</v>
+        <f t="shared" si="7"/>
+        <v>'õ' =&gt; 'வ',</v>
       </c>
       <c r="F302" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஸ' =&gt; 'ú',</v>
+        <f>"'"&amp;B302&amp;"' =&gt; '"&amp;C302&amp;"',"</f>
+        <v>'வ' =&gt; 'õ',</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B303" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="C303" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D303">
-        <f t="shared" si="12"/>
+        <f>LEN(C303)</f>
         <v>1</v>
       </c>
       <c r="E303" t="str">
-        <f t="shared" si="13"/>
-        <v>'Ù' =&gt; 'ளூ',</v>
+        <f t="shared" si="7"/>
+        <v>'Ø' =&gt; 'ழூ',</v>
       </c>
       <c r="F303" t="str">
-        <f t="shared" si="14"/>
-        <v>'ளூ' =&gt; 'Ù',</v>
+        <f>"'"&amp;B303&amp;"' =&gt; '"&amp;C303&amp;"',"</f>
+        <v>'ழூ' =&gt; 'Ø',</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B304" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C304" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D304">
-        <f t="shared" si="12"/>
+        <f>LEN(C304)</f>
         <v>1</v>
       </c>
       <c r="E304" t="str">
-        <f t="shared" si="13"/>
-        <v>'ù' =&gt; 'ன',</v>
+        <f t="shared" si="7"/>
+        <v>'ø' =&gt; 'ற',</v>
       </c>
       <c r="F304" t="str">
-        <f t="shared" si="14"/>
-        <v>'ன' =&gt; 'ù',</v>
+        <f>"'"&amp;B304&amp;"' =&gt; '"&amp;C304&amp;"',"</f>
+        <v>'ற' =&gt; 'ø',</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="B305" t="s">
-        <v>338</v>
+        <v>14</v>
       </c>
       <c r="C305" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="D305">
-        <f t="shared" si="12"/>
+        <f>LEN(C305)</f>
         <v>1</v>
       </c>
       <c r="E305" t="str">
-        <f t="shared" si="13"/>
-        <v>'Û' =&gt; 'னூ',</v>
+        <f t="shared" si="7"/>
+        <v>'ß' =&gt; 'ஈ',</v>
       </c>
       <c r="F305" t="str">
-        <f t="shared" si="14"/>
-        <v>'னூ' =&gt; 'Û',</v>
+        <f>"'"&amp;B305&amp;"' =&gt; '"&amp;C305&amp;"',"</f>
+        <v>'ஈ' =&gt; 'ß',</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306">
-        <v>287</v>
+        <v>4</v>
       </c>
       <c r="B306" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C306" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D306">
-        <f t="shared" si="12"/>
+        <f>LEN(C306)</f>
         <v>1</v>
       </c>
       <c r="E306" t="str">
-        <f t="shared" si="13"/>
-        <v>'û' =&gt; 'ஷ',</v>
+        <f t="shared" si="7"/>
+        <v>'Þ' =&gt; 'இ',</v>
       </c>
       <c r="F306" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஷ' =&gt; 'û',</v>
+        <f>"'"&amp;B306&amp;"' =&gt; '"&amp;C306&amp;"',"</f>
+        <v>'இ' =&gt; 'Þ',</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="B307" t="s">
-        <v>11</v>
+        <v>444</v>
       </c>
       <c r="C307" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="D307">
-        <f t="shared" si="12"/>
+        <f>LEN(C307)</f>
         <v>1</v>
       </c>
       <c r="E307" t="str">
-        <f t="shared" si="13"/>
-        <v>'Ü' =&gt; 'அ',</v>
+        <f t="shared" si="7"/>
+        <v>'Ú' =&gt; 'றூ',</v>
       </c>
       <c r="F307" t="str">
-        <f t="shared" si="14"/>
-        <v>'அ' =&gt; 'Ü',</v>
+        <f>"'"&amp;B307&amp;"' =&gt; '"&amp;C307&amp;"',"</f>
+        <v>'றூ' =&gt; 'Ú',</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B308" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C308" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D308">
-        <f t="shared" si="12"/>
+        <f>LEN(C308)</f>
         <v>1</v>
       </c>
       <c r="E308" t="str">
-        <f t="shared" si="13"/>
-        <v>'ü' =&gt; 'ஜ',</v>
+        <f t="shared" si="7"/>
+        <v>'ú' =&gt; 'ஸ',</v>
       </c>
       <c r="F308" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஜ' =&gt; 'ü',</v>
+        <f>"'"&amp;B308&amp;"' =&gt; '"&amp;C308&amp;"',"</f>
+        <v>'ஸ' =&gt; 'ú',</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="B309" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="C309" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="D309">
-        <f t="shared" si="12"/>
+        <f>LEN(C309)</f>
         <v>1</v>
       </c>
       <c r="E309" t="str">
-        <f t="shared" si="13"/>
-        <v>'Ý' =&gt; 'ஆ',</v>
+        <f t="shared" si="7"/>
+        <v>'Ù' =&gt; 'ளூ',</v>
       </c>
       <c r="F309" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஆ' =&gt; 'Ý',</v>
+        <f>"'"&amp;B309&amp;"' =&gt; '"&amp;C309&amp;"',"</f>
+        <v>'ளூ' =&gt; 'Ù',</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="B310" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C310" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D310">
-        <f t="shared" si="12"/>
+        <f>LEN(C310)</f>
         <v>1</v>
       </c>
       <c r="E310" t="str">
-        <f>"'"&amp;C310&amp;"' =&gt; '"&amp;B310&amp;"'"</f>
-        <v>'ý' =&gt; 'ஹ'</v>
+        <f t="shared" si="7"/>
+        <v>'ù' =&gt; 'ன',</v>
       </c>
       <c r="F310" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஹ' =&gt; 'ý',</v>
+        <f>"'"&amp;B310&amp;"' =&gt; '"&amp;C310&amp;"',"</f>
+        <v>'ன' =&gt; 'ù',</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311">
-        <v>46</v>
-      </c>
-      <c r="B311" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C311" s="4"/>
+        <v>254</v>
+      </c>
+      <c r="B311" t="s">
+        <v>338</v>
+      </c>
+      <c r="C311" t="s">
+        <v>109</v>
+      </c>
       <c r="D311">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>LEN(C311)</f>
+        <v>1</v>
       </c>
       <c r="E311" t="str">
+        <f t="shared" si="7"/>
+        <v>'Û' =&gt; 'னூ',</v>
+      </c>
+      <c r="F311" t="str">
+        <f>"'"&amp;B311&amp;"' =&gt; '"&amp;C311&amp;"',"</f>
+        <v>'னூ' =&gt; 'Û',</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312">
+        <v>287</v>
+      </c>
+      <c r="B312" t="s">
+        <v>41</v>
+      </c>
+      <c r="C312" t="s">
+        <v>93</v>
+      </c>
+      <c r="D312">
+        <f>LEN(C312)</f>
+        <v>1</v>
+      </c>
+      <c r="E312" t="str">
+        <f t="shared" si="7"/>
+        <v>'û' =&gt; 'ஷ',</v>
+      </c>
+      <c r="F312" t="str">
+        <f>"'"&amp;B312&amp;"' =&gt; '"&amp;C312&amp;"',"</f>
+        <v>'ஷ' =&gt; 'û',</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313">
+        <v>2</v>
+      </c>
+      <c r="B313" t="s">
+        <v>11</v>
+      </c>
+      <c r="C313" t="s">
+        <v>63</v>
+      </c>
+      <c r="D313">
+        <f>LEN(C313)</f>
+        <v>1</v>
+      </c>
+      <c r="E313" t="str">
+        <f t="shared" si="7"/>
+        <v>'Ü' =&gt; 'அ',</v>
+      </c>
+      <c r="F313" t="str">
+        <f>"'"&amp;B313&amp;"' =&gt; '"&amp;C313&amp;"',"</f>
+        <v>'அ' =&gt; 'Ü',</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314">
+        <v>261</v>
+      </c>
+      <c r="B314" t="s">
+        <v>25</v>
+      </c>
+      <c r="C314" t="s">
+        <v>77</v>
+      </c>
+      <c r="D314">
+        <f>LEN(C314)</f>
+        <v>1</v>
+      </c>
+      <c r="E314" t="str">
+        <f t="shared" si="7"/>
+        <v>'ü' =&gt; 'ஜ',</v>
+      </c>
+      <c r="F314" t="str">
+        <f>"'"&amp;B314&amp;"' =&gt; '"&amp;C314&amp;"',"</f>
+        <v>'ஜ' =&gt; 'ü',</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315">
+        <v>3</v>
+      </c>
+      <c r="B315" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315" t="s">
+        <v>64</v>
+      </c>
+      <c r="D315">
+        <f>LEN(C315)</f>
+        <v>1</v>
+      </c>
+      <c r="E315" t="str">
+        <f t="shared" si="7"/>
+        <v>'Ý' =&gt; 'ஆ',</v>
+      </c>
+      <c r="F315" t="str">
+        <f>"'"&amp;B315&amp;"' =&gt; '"&amp;C315&amp;"',"</f>
+        <v>'ஆ' =&gt; 'Ý',</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316">
+        <v>300</v>
+      </c>
+      <c r="B316" t="s">
+        <v>43</v>
+      </c>
+      <c r="C316" t="s">
+        <v>95</v>
+      </c>
+      <c r="D316">
+        <f>LEN(C316)</f>
+        <v>1</v>
+      </c>
+      <c r="E316" t="str">
+        <f>"'"&amp;C316&amp;"' =&gt; '"&amp;B316&amp;"'"</f>
+        <v>'ý' =&gt; 'ஹ'</v>
+      </c>
+      <c r="F316" t="str">
+        <f>"'"&amp;B316&amp;"' =&gt; '"&amp;C316&amp;"'"</f>
+        <v>'ஹ' =&gt; 'ý'</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="E317" t="s">
+        <v>666</v>
+      </c>
+      <c r="F317" t="str">
         <f>");"</f>
         <v>);</v>
       </c>
-      <c r="F311" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஙூ' =&gt; '',</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
-      <c r="A312">
-        <v>59</v>
-      </c>
-      <c r="B312" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C312" s="4"/>
-      <c r="D312">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F312" t="str">
-        <f t="shared" si="14"/>
-        <v>'சூ' =&gt; '',</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
-      <c r="A313">
-        <v>72</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C313" s="4"/>
-      <c r="D313">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F313" t="str">
-        <f t="shared" si="14"/>
-        <v>'ஞூ' =&gt; '',</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
-      <c r="A314">
-        <v>85</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C314" s="4"/>
-      <c r="D314">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F314" t="str">
-        <f t="shared" si="14"/>
-        <v>'டூ' =&gt; '',</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
-      <c r="A315">
-        <v>111</v>
-      </c>
-      <c r="B315" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C315" s="4"/>
-      <c r="D315">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F315" t="str">
-        <f>"'"&amp;B315&amp;"' =&gt; '"&amp;C315&amp;"'"</f>
-        <v>'தூ' =&gt; ''</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
-      <c r="F316" t="str">
-        <f>");"</f>
-        <v>);</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A4:F316">
-    <sortCondition descending="1" ref="D4:D316"/>
-    <sortCondition ref="C4:C316"/>
+  <sortState ref="A4:F317">
+    <sortCondition descending="1" ref="D4:D317"/>
+    <sortCondition ref="C4:C317"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12546,7 +12638,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12562,7 +12654,7 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="30" t="s">
         <v>636</v>
       </c>
     </row>
@@ -12577,6 +12669,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/phpTamilTabUniFont/TAB to Unicode Tamil Character Mapping.xlsx
+++ b/phpTamilTabUniFont/TAB to Unicode Tamil Character Mapping.xlsx
@@ -12,7 +12,7 @@
     <sheet name="References" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Unicode-Tab Table'!$A$3:$F$317</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Unicode-Tab Table'!$A$3:$F$319</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Workings!$F$1:$F$139</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="670">
   <si>
     <t>ªó£</t>
   </si>
@@ -2021,6 +2021,15 @@
   </si>
   <si>
     <t>);</t>
+  </si>
+  <si>
+    <t>ÿ</t>
+  </si>
+  <si>
+    <t>ஸ்ரீ</t>
+  </si>
+  <si>
+    <t>ÿ¢</t>
   </si>
 </sst>
 </file>
@@ -5376,7 +5385,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F317"/>
+  <dimension ref="A1:F319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5460,11 +5469,11 @@
         <v>5</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ref="E5:E68" si="0">"'"&amp;C5&amp;"' =&gt; '"&amp;B5&amp;"',"</f>
+        <f>"'"&amp;C5&amp;"' =&gt; '"&amp;B5&amp;"',"</f>
         <v>'è¢ªû÷' =&gt; 'க்ஷௌ',</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F68" si="1">"'"&amp;B5&amp;"' =&gt; '"&amp;C5&amp;"',"</f>
+        <f>"'"&amp;B5&amp;"' =&gt; '"&amp;C5&amp;"',"</f>
         <v>'க்ஷௌ' =&gt; 'è¢ªû÷',</v>
       </c>
     </row>
@@ -5483,11 +5492,11 @@
         <v>5</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C6&amp;"' =&gt; '"&amp;B6&amp;"',"</f>
         <v>'è¢ªû£' =&gt; 'க்ஷொ',</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B6&amp;"' =&gt; '"&amp;C6&amp;"',"</f>
         <v>'க்ஷொ' =&gt; 'è¢ªû£',</v>
       </c>
     </row>
@@ -5506,11 +5515,11 @@
         <v>4</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C7&amp;"' =&gt; '"&amp;B7&amp;"',"</f>
         <v>'è¢«û' =&gt; 'க்ஷே',</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B7&amp;"' =&gt; '"&amp;C7&amp;"',"</f>
         <v>'க்ஷே' =&gt; 'è¢«û',</v>
       </c>
     </row>
@@ -5529,11 +5538,11 @@
         <v>4</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C8&amp;"' =&gt; '"&amp;B8&amp;"',"</f>
         <v>'è¢¬û' =&gt; 'க்ஷை',</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B8&amp;"' =&gt; '"&amp;C8&amp;"',"</f>
         <v>'க்ஷை' =&gt; 'è¢¬û',</v>
       </c>
     </row>
@@ -5552,11 +5561,11 @@
         <v>4</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C9&amp;"' =&gt; '"&amp;B9&amp;"',"</f>
         <v>'è¢ªû' =&gt; 'க்ஷெ',</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B9&amp;"' =&gt; '"&amp;C9&amp;"',"</f>
         <v>'க்ஷெ' =&gt; 'è¢ªû',</v>
       </c>
     </row>
@@ -5575,11 +5584,11 @@
         <v>4</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C10&amp;"' =&gt; '"&amp;B10&amp;"',"</f>
         <v>'è¢û¦' =&gt; 'க்ஷீ',</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B10&amp;"' =&gt; '"&amp;C10&amp;"',"</f>
         <v>'க்ஷீ' =&gt; 'è¢û¦',</v>
       </c>
     </row>
@@ -5598,11 +5607,11 @@
         <v>4</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C11&amp;"' =&gt; '"&amp;B11&amp;"',"</f>
         <v>'è¢û¨' =&gt; 'க்ஷூ',</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B11&amp;"' =&gt; '"&amp;C11&amp;"',"</f>
         <v>'க்ஷூ' =&gt; 'è¢û¨',</v>
       </c>
     </row>
@@ -5621,11 +5630,11 @@
         <v>4</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C12&amp;"' =&gt; '"&amp;B12&amp;"',"</f>
         <v>'è¢û¢' =&gt; 'க்ஷ்',</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B12&amp;"' =&gt; '"&amp;C12&amp;"',"</f>
         <v>'க்ஷ்' =&gt; 'è¢û¢',</v>
       </c>
     </row>
@@ -5644,11 +5653,11 @@
         <v>4</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C13&amp;"' =&gt; '"&amp;B13&amp;"',"</f>
         <v>'è¢û£' =&gt; 'க்ஷா',</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B13&amp;"' =&gt; '"&amp;C13&amp;"',"</f>
         <v>'க்ஷா' =&gt; 'è¢û£',</v>
       </c>
     </row>
@@ -5667,11 +5676,11 @@
         <v>4</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C14&amp;"' =&gt; '"&amp;B14&amp;"',"</f>
         <v>'è¢û¤' =&gt; 'க்ஷி',</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B14&amp;"' =&gt; '"&amp;C14&amp;"',"</f>
         <v>'க்ஷி' =&gt; 'è¢û¤',</v>
       </c>
     </row>
@@ -5690,11 +5699,11 @@
         <v>4</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C15&amp;"' =&gt; '"&amp;B15&amp;"',"</f>
         <v>'è¢û§' =&gt; 'க்ஷு',</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B15&amp;"' =&gt; '"&amp;C15&amp;"',"</f>
         <v>'க்ஷு' =&gt; 'è¢û§',</v>
       </c>
     </row>
@@ -5713,11 +5722,11 @@
         <v>3</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C16&amp;"' =&gt; '"&amp;B16&amp;"',"</f>
         <v>'«÷£' =&gt; 'ளோ',</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B16&amp;"' =&gt; '"&amp;C16&amp;"',"</f>
         <v>'ளோ' =&gt; '«÷£',</v>
       </c>
     </row>
@@ -5736,11 +5745,11 @@
         <v>3</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C17&amp;"' =&gt; '"&amp;B17&amp;"',"</f>
         <v>'«ð£' =&gt; 'போ',</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B17&amp;"' =&gt; '"&amp;C17&amp;"',"</f>
         <v>'போ' =&gt; '«ð£',</v>
       </c>
     </row>
@@ -5759,11 +5768,11 @@
         <v>3</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C18&amp;"' =&gt; '"&amp;B18&amp;"',"</f>
         <v>'«é£' =&gt; 'ஙோ',</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B18&amp;"' =&gt; '"&amp;C18&amp;"',"</f>
         <v>'ஙோ' =&gt; '«é£',</v>
       </c>
     </row>
@@ -5782,11 +5791,11 @@
         <v>3</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C19&amp;"' =&gt; '"&amp;B19&amp;"',"</f>
         <v>'«è£' =&gt; 'கோ',</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B19&amp;"' =&gt; '"&amp;C19&amp;"',"</f>
         <v>'கோ' =&gt; '«è£',</v>
       </c>
     </row>
@@ -5805,11 +5814,11 @@
         <v>3</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C20&amp;"' =&gt; '"&amp;B20&amp;"',"</f>
         <v>'«ê£' =&gt; 'சோ',</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B20&amp;"' =&gt; '"&amp;C20&amp;"',"</f>
         <v>'சோ' =&gt; '«ê£',</v>
       </c>
     </row>
@@ -5828,11 +5837,11 @@
         <v>3</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C21&amp;"' =&gt; '"&amp;B21&amp;"',"</f>
         <v>'«ë£' =&gt; 'ஞோ',</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B21&amp;"' =&gt; '"&amp;C21&amp;"',"</f>
         <v>'ஞோ' =&gt; '«ë£',</v>
       </c>
     </row>
@@ -5851,11 +5860,11 @@
         <v>3</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C22&amp;"' =&gt; '"&amp;B22&amp;"',"</f>
         <v>'«í£' =&gt; 'ணோ',</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B22&amp;"' =&gt; '"&amp;C22&amp;"',"</f>
         <v>'ணோ' =&gt; '«í£',</v>
       </c>
     </row>
@@ -5874,11 +5883,11 @@
         <v>3</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C23&amp;"' =&gt; '"&amp;B23&amp;"',"</f>
         <v>'«ì£' =&gt; 'டோ',</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B23&amp;"' =&gt; '"&amp;C23&amp;"',"</f>
         <v>'டோ' =&gt; '«ì£',</v>
       </c>
     </row>
@@ -5897,11 +5906,11 @@
         <v>3</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C24&amp;"' =&gt; '"&amp;B24&amp;"',"</f>
         <v>'«î£' =&gt; 'தோ',</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B24&amp;"' =&gt; '"&amp;C24&amp;"',"</f>
         <v>'தோ' =&gt; '«î£',</v>
       </c>
     </row>
@@ -5920,11 +5929,11 @@
         <v>3</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C25&amp;"' =&gt; '"&amp;B25&amp;"',"</f>
         <v>'«ï£' =&gt; 'நோ',</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B25&amp;"' =&gt; '"&amp;C25&amp;"',"</f>
         <v>'நோ' =&gt; '«ï£',</v>
       </c>
     </row>
@@ -5943,11 +5952,11 @@
         <v>3</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C26&amp;"' =&gt; '"&amp;B26&amp;"',"</f>
         <v>'«ñ£' =&gt; 'மோ',</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B26&amp;"' =&gt; '"&amp;C26&amp;"',"</f>
         <v>'மோ' =&gt; '«ñ£',</v>
       </c>
     </row>
@@ -5966,11 +5975,11 @@
         <v>3</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C27&amp;"' =&gt; '"&amp;B27&amp;"',"</f>
         <v>'«ó£' =&gt; 'ரோ',</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B27&amp;"' =&gt; '"&amp;C27&amp;"',"</f>
         <v>'ரோ' =&gt; '«ó£',</v>
       </c>
     </row>
@@ -5989,11 +5998,11 @@
         <v>3</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C28&amp;"' =&gt; '"&amp;B28&amp;"',"</f>
         <v>'«ò£' =&gt; 'யோ',</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B28&amp;"' =&gt; '"&amp;C28&amp;"',"</f>
         <v>'யோ' =&gt; '«ò£',</v>
       </c>
     </row>
@@ -6012,11 +6021,11 @@
         <v>3</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C29&amp;"' =&gt; '"&amp;B29&amp;"',"</f>
         <v>'«ô£' =&gt; 'லோ',</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B29&amp;"' =&gt; '"&amp;C29&amp;"',"</f>
         <v>'லோ' =&gt; '«ô£',</v>
       </c>
     </row>
@@ -6035,11 +6044,11 @@
         <v>3</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C30&amp;"' =&gt; '"&amp;B30&amp;"',"</f>
         <v>'«ö£' =&gt; 'ழோ',</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B30&amp;"' =&gt; '"&amp;C30&amp;"',"</f>
         <v>'ழோ' =&gt; '«ö£',</v>
       </c>
     </row>
@@ -6058,11 +6067,11 @@
         <v>3</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C31&amp;"' =&gt; '"&amp;B31&amp;"',"</f>
         <v>'«õ£' =&gt; 'வோ',</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B31&amp;"' =&gt; '"&amp;C31&amp;"',"</f>
         <v>'வோ' =&gt; '«õ£',</v>
       </c>
     </row>
@@ -6081,11 +6090,11 @@
         <v>3</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C32&amp;"' =&gt; '"&amp;B32&amp;"',"</f>
         <v>'«ø£' =&gt; 'றோ',</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B32&amp;"' =&gt; '"&amp;C32&amp;"',"</f>
         <v>'றோ' =&gt; '«ø£',</v>
       </c>
     </row>
@@ -6104,11 +6113,11 @@
         <v>3</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C33&amp;"' =&gt; '"&amp;B33&amp;"',"</f>
         <v>'«ú£' =&gt; 'ஸோ',</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B33&amp;"' =&gt; '"&amp;C33&amp;"',"</f>
         <v>'ஸோ' =&gt; '«ú£',</v>
       </c>
     </row>
@@ -6127,11 +6136,11 @@
         <v>3</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C34&amp;"' =&gt; '"&amp;B34&amp;"',"</f>
         <v>'«ù£' =&gt; 'னோ',</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B34&amp;"' =&gt; '"&amp;C34&amp;"',"</f>
         <v>'னோ' =&gt; '«ù£',</v>
       </c>
     </row>
@@ -6150,11 +6159,11 @@
         <v>3</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C35&amp;"' =&gt; '"&amp;B35&amp;"',"</f>
         <v>'«û£' =&gt; 'ஷோ',</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B35&amp;"' =&gt; '"&amp;C35&amp;"',"</f>
         <v>'ஷோ' =&gt; '«û£',</v>
       </c>
     </row>
@@ -6173,11 +6182,11 @@
         <v>3</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C36&amp;"' =&gt; '"&amp;B36&amp;"',"</f>
         <v>'«ü£' =&gt; 'ஜோ',</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B36&amp;"' =&gt; '"&amp;C36&amp;"',"</f>
         <v>'ஜோ' =&gt; '«ü£',</v>
       </c>
     </row>
@@ -6196,11 +6205,11 @@
         <v>3</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C37&amp;"' =&gt; '"&amp;B37&amp;"',"</f>
         <v>'«ý£' =&gt; 'ஹோ',</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B37&amp;"' =&gt; '"&amp;C37&amp;"',"</f>
         <v>'ஹோ' =&gt; '«ý£',</v>
       </c>
     </row>
@@ -6219,11 +6228,11 @@
         <v>3</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C38&amp;"' =&gt; '"&amp;B38&amp;"',"</f>
         <v>'ª÷÷' =&gt; 'ளௌ',</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B38&amp;"' =&gt; '"&amp;C38&amp;"',"</f>
         <v>'ளௌ' =&gt; 'ª÷÷',</v>
       </c>
     </row>
@@ -6242,11 +6251,11 @@
         <v>3</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C39&amp;"' =&gt; '"&amp;B39&amp;"',"</f>
         <v>'ª÷£' =&gt; 'ளொ',</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B39&amp;"' =&gt; '"&amp;C39&amp;"',"</f>
         <v>'ளொ' =&gt; 'ª÷£',</v>
       </c>
     </row>
@@ -6265,11 +6274,11 @@
         <v>3</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C40&amp;"' =&gt; '"&amp;B40&amp;"',"</f>
         <v>'ªð÷' =&gt; 'பௌ',</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B40&amp;"' =&gt; '"&amp;C40&amp;"',"</f>
         <v>'பௌ' =&gt; 'ªð÷',</v>
       </c>
     </row>
@@ -6288,11 +6297,11 @@
         <v>3</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C41&amp;"' =&gt; '"&amp;B41&amp;"',"</f>
         <v>'ªð£' =&gt; 'பொ',</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B41&amp;"' =&gt; '"&amp;C41&amp;"',"</f>
         <v>'பொ' =&gt; 'ªð£',</v>
       </c>
     </row>
@@ -6311,11 +6320,11 @@
         <v>3</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C42&amp;"' =&gt; '"&amp;B42&amp;"',"</f>
         <v>'ªé÷' =&gt; 'ஙௌ',</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B42&amp;"' =&gt; '"&amp;C42&amp;"',"</f>
         <v>'ஙௌ' =&gt; 'ªé÷',</v>
       </c>
     </row>
@@ -6334,11 +6343,11 @@
         <v>3</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C43&amp;"' =&gt; '"&amp;B43&amp;"',"</f>
         <v>'ªè÷' =&gt; 'கௌ',</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B43&amp;"' =&gt; '"&amp;C43&amp;"',"</f>
         <v>'கௌ' =&gt; 'ªè÷',</v>
       </c>
     </row>
@@ -6357,11 +6366,11 @@
         <v>3</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C44&amp;"' =&gt; '"&amp;B44&amp;"',"</f>
         <v>'ªê÷' =&gt; 'சௌ',</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B44&amp;"' =&gt; '"&amp;C44&amp;"',"</f>
         <v>'சௌ' =&gt; 'ªê÷',</v>
       </c>
     </row>
@@ -6380,11 +6389,11 @@
         <v>3</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C45&amp;"' =&gt; '"&amp;B45&amp;"',"</f>
         <v>'ªë÷' =&gt; 'ஞௌ',</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B45&amp;"' =&gt; '"&amp;C45&amp;"',"</f>
         <v>'ஞௌ' =&gt; 'ªë÷',</v>
       </c>
     </row>
@@ -6403,11 +6412,11 @@
         <v>3</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C46&amp;"' =&gt; '"&amp;B46&amp;"',"</f>
         <v>'ªé£' =&gt; 'ஙொ',</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B46&amp;"' =&gt; '"&amp;C46&amp;"',"</f>
         <v>'ஙொ' =&gt; 'ªé£',</v>
       </c>
     </row>
@@ -6426,11 +6435,11 @@
         <v>3</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C47&amp;"' =&gt; '"&amp;B47&amp;"',"</f>
         <v>'ªè£' =&gt; 'கொ',</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B47&amp;"' =&gt; '"&amp;C47&amp;"',"</f>
         <v>'கொ' =&gt; 'ªè£',</v>
       </c>
     </row>
@@ -6449,11 +6458,11 @@
         <v>3</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C48&amp;"' =&gt; '"&amp;B48&amp;"',"</f>
         <v>'ªê£' =&gt; 'சொ',</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B48&amp;"' =&gt; '"&amp;C48&amp;"',"</f>
         <v>'சொ' =&gt; 'ªê£',</v>
       </c>
     </row>
@@ -6472,11 +6481,11 @@
         <v>3</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C49&amp;"' =&gt; '"&amp;B49&amp;"',"</f>
         <v>'ªë£' =&gt; 'ஞொ',</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B49&amp;"' =&gt; '"&amp;C49&amp;"',"</f>
         <v>'ஞொ' =&gt; 'ªë£',</v>
       </c>
     </row>
@@ -6495,11 +6504,11 @@
         <v>3</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C50&amp;"' =&gt; '"&amp;B50&amp;"',"</f>
         <v>'ªí÷' =&gt; 'ணௌ',</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B50&amp;"' =&gt; '"&amp;C50&amp;"',"</f>
         <v>'ணௌ' =&gt; 'ªí÷',</v>
       </c>
     </row>
@@ -6518,11 +6527,11 @@
         <v>3</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C51&amp;"' =&gt; '"&amp;B51&amp;"',"</f>
         <v>'ªì÷' =&gt; 'டௌ',</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B51&amp;"' =&gt; '"&amp;C51&amp;"',"</f>
         <v>'டௌ' =&gt; 'ªì÷',</v>
       </c>
     </row>
@@ -6541,11 +6550,11 @@
         <v>3</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C52&amp;"' =&gt; '"&amp;B52&amp;"',"</f>
         <v>'ªî÷' =&gt; 'தௌ',</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B52&amp;"' =&gt; '"&amp;C52&amp;"',"</f>
         <v>'தௌ' =&gt; 'ªî÷',</v>
       </c>
     </row>
@@ -6564,11 +6573,11 @@
         <v>3</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C53&amp;"' =&gt; '"&amp;B53&amp;"',"</f>
         <v>'ªï÷' =&gt; 'நௌ',</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B53&amp;"' =&gt; '"&amp;C53&amp;"',"</f>
         <v>'நௌ' =&gt; 'ªï÷',</v>
       </c>
     </row>
@@ -6587,11 +6596,11 @@
         <v>3</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C54&amp;"' =&gt; '"&amp;B54&amp;"',"</f>
         <v>'ªí£' =&gt; 'ணொ',</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B54&amp;"' =&gt; '"&amp;C54&amp;"',"</f>
         <v>'ணொ' =&gt; 'ªí£',</v>
       </c>
     </row>
@@ -6610,11 +6619,11 @@
         <v>3</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C55&amp;"' =&gt; '"&amp;B55&amp;"',"</f>
         <v>'ªì£' =&gt; 'டொ',</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B55&amp;"' =&gt; '"&amp;C55&amp;"',"</f>
         <v>'டொ' =&gt; 'ªì£',</v>
       </c>
     </row>
@@ -6633,11 +6642,11 @@
         <v>3</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C56&amp;"' =&gt; '"&amp;B56&amp;"',"</f>
         <v>'ªî£' =&gt; 'தொ',</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B56&amp;"' =&gt; '"&amp;C56&amp;"',"</f>
         <v>'தொ' =&gt; 'ªî£',</v>
       </c>
     </row>
@@ -6656,11 +6665,11 @@
         <v>3</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C57&amp;"' =&gt; '"&amp;B57&amp;"',"</f>
         <v>'ªï£' =&gt; 'நொ',</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B57&amp;"' =&gt; '"&amp;C57&amp;"',"</f>
         <v>'நொ' =&gt; 'ªï£',</v>
       </c>
     </row>
@@ -6679,11 +6688,11 @@
         <v>3</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C58&amp;"' =&gt; '"&amp;B58&amp;"',"</f>
         <v>'ªñ÷' =&gt; 'மௌ',</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B58&amp;"' =&gt; '"&amp;C58&amp;"',"</f>
         <v>'மௌ' =&gt; 'ªñ÷',</v>
       </c>
     </row>
@@ -6702,11 +6711,11 @@
         <v>3</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C59&amp;"' =&gt; '"&amp;B59&amp;"',"</f>
         <v>'ªñ£' =&gt; 'மொ',</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B59&amp;"' =&gt; '"&amp;C59&amp;"',"</f>
         <v>'மொ' =&gt; 'ªñ£',</v>
       </c>
     </row>
@@ -6725,11 +6734,11 @@
         <v>3</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C60&amp;"' =&gt; '"&amp;B60&amp;"',"</f>
         <v>'ªó÷' =&gt; 'ரௌ',</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B60&amp;"' =&gt; '"&amp;C60&amp;"',"</f>
         <v>'ரௌ' =&gt; 'ªó÷',</v>
       </c>
     </row>
@@ -6748,11 +6757,11 @@
         <v>3</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C61&amp;"' =&gt; '"&amp;B61&amp;"',"</f>
         <v>'ªò÷' =&gt; 'யௌ',</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B61&amp;"' =&gt; '"&amp;C61&amp;"',"</f>
         <v>'யௌ' =&gt; 'ªò÷',</v>
       </c>
     </row>
@@ -6771,11 +6780,11 @@
         <v>3</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C62&amp;"' =&gt; '"&amp;B62&amp;"',"</f>
         <v>'ªô÷' =&gt; 'லௌ',</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B62&amp;"' =&gt; '"&amp;C62&amp;"',"</f>
         <v>'லௌ' =&gt; 'ªô÷',</v>
       </c>
     </row>
@@ -6794,11 +6803,11 @@
         <v>3</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C63&amp;"' =&gt; '"&amp;B63&amp;"',"</f>
         <v>'ªö÷' =&gt; 'ழௌ',</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B63&amp;"' =&gt; '"&amp;C63&amp;"',"</f>
         <v>'ழௌ' =&gt; 'ªö÷',</v>
       </c>
     </row>
@@ -6817,11 +6826,11 @@
         <v>3</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C64&amp;"' =&gt; '"&amp;B64&amp;"',"</f>
         <v>'ªõ÷' =&gt; 'வௌ',</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B64&amp;"' =&gt; '"&amp;C64&amp;"',"</f>
         <v>'வௌ' =&gt; 'ªõ÷',</v>
       </c>
     </row>
@@ -6840,11 +6849,11 @@
         <v>3</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C65&amp;"' =&gt; '"&amp;B65&amp;"',"</f>
         <v>'ªø÷' =&gt; 'றௌ',</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B65&amp;"' =&gt; '"&amp;C65&amp;"',"</f>
         <v>'றௌ' =&gt; 'ªø÷',</v>
       </c>
     </row>
@@ -6863,11 +6872,11 @@
         <v>3</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C66&amp;"' =&gt; '"&amp;B66&amp;"',"</f>
         <v>'ªó£' =&gt; 'ரொ',</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B66&amp;"' =&gt; '"&amp;C66&amp;"',"</f>
         <v>'ரொ' =&gt; 'ªó£',</v>
       </c>
     </row>
@@ -6886,11 +6895,11 @@
         <v>3</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C67&amp;"' =&gt; '"&amp;B67&amp;"',"</f>
         <v>'ªò£' =&gt; 'யொ',</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B67&amp;"' =&gt; '"&amp;C67&amp;"',"</f>
         <v>'யொ' =&gt; 'ªò£',</v>
       </c>
     </row>
@@ -6909,11 +6918,11 @@
         <v>3</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="0"/>
+        <f>"'"&amp;C68&amp;"' =&gt; '"&amp;B68&amp;"',"</f>
         <v>'ªô£' =&gt; 'லொ',</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B68&amp;"' =&gt; '"&amp;C68&amp;"',"</f>
         <v>'லொ' =&gt; 'ªô£',</v>
       </c>
     </row>
@@ -6932,11 +6941,11 @@
         <v>3</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" ref="E69:E132" si="2">"'"&amp;C69&amp;"' =&gt; '"&amp;B69&amp;"',"</f>
+        <f>"'"&amp;C69&amp;"' =&gt; '"&amp;B69&amp;"',"</f>
         <v>'ªö£' =&gt; 'ழொ',</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" ref="F69:F132" si="3">"'"&amp;B69&amp;"' =&gt; '"&amp;C69&amp;"',"</f>
+        <f>"'"&amp;B69&amp;"' =&gt; '"&amp;C69&amp;"',"</f>
         <v>'ழொ' =&gt; 'ªö£',</v>
       </c>
     </row>
@@ -6955,11 +6964,11 @@
         <v>3</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C70&amp;"' =&gt; '"&amp;B70&amp;"',"</f>
         <v>'ªõ£' =&gt; 'வொ',</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B70&amp;"' =&gt; '"&amp;C70&amp;"',"</f>
         <v>'வொ' =&gt; 'ªõ£',</v>
       </c>
     </row>
@@ -6978,11 +6987,11 @@
         <v>3</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C71&amp;"' =&gt; '"&amp;B71&amp;"',"</f>
         <v>'ªø£' =&gt; 'றொ',</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B71&amp;"' =&gt; '"&amp;C71&amp;"',"</f>
         <v>'றொ' =&gt; 'ªø£',</v>
       </c>
     </row>
@@ -7001,11 +7010,11 @@
         <v>3</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C72&amp;"' =&gt; '"&amp;B72&amp;"',"</f>
         <v>'ªú÷' =&gt; 'ஸௌ',</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B72&amp;"' =&gt; '"&amp;C72&amp;"',"</f>
         <v>'ஸௌ' =&gt; 'ªú÷',</v>
       </c>
     </row>
@@ -7024,11 +7033,11 @@
         <v>3</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C73&amp;"' =&gt; '"&amp;B73&amp;"',"</f>
         <v>'ªù÷' =&gt; 'னௌ',</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B73&amp;"' =&gt; '"&amp;C73&amp;"',"</f>
         <v>'னௌ' =&gt; 'ªù÷',</v>
       </c>
     </row>
@@ -7047,11 +7056,11 @@
         <v>3</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C74&amp;"' =&gt; '"&amp;B74&amp;"',"</f>
         <v>'ªû÷' =&gt; 'ஷௌ',</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B74&amp;"' =&gt; '"&amp;C74&amp;"',"</f>
         <v>'ஷௌ' =&gt; 'ªû÷',</v>
       </c>
     </row>
@@ -7070,11 +7079,11 @@
         <v>3</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C75&amp;"' =&gt; '"&amp;B75&amp;"',"</f>
         <v>'ªü÷' =&gt; 'ஜௌ',</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B75&amp;"' =&gt; '"&amp;C75&amp;"',"</f>
         <v>'ஜௌ' =&gt; 'ªü÷',</v>
       </c>
     </row>
@@ -7093,11 +7102,11 @@
         <v>3</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C76&amp;"' =&gt; '"&amp;B76&amp;"',"</f>
         <v>'ªú£' =&gt; 'ஸொ',</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B76&amp;"' =&gt; '"&amp;C76&amp;"',"</f>
         <v>'ஸொ' =&gt; 'ªú£',</v>
       </c>
     </row>
@@ -7116,11 +7125,11 @@
         <v>3</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C77&amp;"' =&gt; '"&amp;B77&amp;"',"</f>
         <v>'ªù£' =&gt; 'னொ',</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B77&amp;"' =&gt; '"&amp;C77&amp;"',"</f>
         <v>'னொ' =&gt; 'ªù£',</v>
       </c>
     </row>
@@ -7139,11 +7148,11 @@
         <v>3</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C78&amp;"' =&gt; '"&amp;B78&amp;"',"</f>
         <v>'ªû£' =&gt; 'ஷொ',</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B78&amp;"' =&gt; '"&amp;C78&amp;"',"</f>
         <v>'ஷொ' =&gt; 'ªû£',</v>
       </c>
     </row>
@@ -7162,11 +7171,11 @@
         <v>3</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C79&amp;"' =&gt; '"&amp;B79&amp;"',"</f>
         <v>'ªü£' =&gt; 'ஜொ',</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B79&amp;"' =&gt; '"&amp;C79&amp;"',"</f>
         <v>'ஜொ' =&gt; 'ªü£',</v>
       </c>
     </row>
@@ -7185,11 +7194,11 @@
         <v>3</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C80&amp;"' =&gt; '"&amp;B80&amp;"',"</f>
         <v>'ªý÷' =&gt; 'ஹௌ',</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B80&amp;"' =&gt; '"&amp;C80&amp;"',"</f>
         <v>'ஹௌ' =&gt; 'ªý÷',</v>
       </c>
     </row>
@@ -7208,11 +7217,11 @@
         <v>3</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C81&amp;"' =&gt; '"&amp;B81&amp;"',"</f>
         <v>'ªý£' =&gt; 'ஹொ',</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B81&amp;"' =&gt; '"&amp;C81&amp;"',"</f>
         <v>'ஹொ' =&gt; 'ªý£',</v>
       </c>
     </row>
@@ -7231,11 +7240,11 @@
         <v>3</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C82&amp;"' =&gt; '"&amp;B82&amp;"',"</f>
         <v>'è¢û' =&gt; 'க்ஷ',</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B82&amp;"' =&gt; '"&amp;C82&amp;"',"</f>
         <v>'க்ஷ' =&gt; 'è¢û',</v>
       </c>
     </row>
@@ -7254,11 +7263,11 @@
         <v>2</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C83&amp;"' =&gt; '"&amp;B83&amp;"',"</f>
         <v>'«÷' =&gt; 'ளே',</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B83&amp;"' =&gt; '"&amp;C83&amp;"',"</f>
         <v>'ளே' =&gt; '«÷',</v>
       </c>
     </row>
@@ -7277,11 +7286,11 @@
         <v>2</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C84&amp;"' =&gt; '"&amp;B84&amp;"',"</f>
         <v>'«ð' =&gt; 'பே',</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B84&amp;"' =&gt; '"&amp;C84&amp;"',"</f>
         <v>'பே' =&gt; '«ð',</v>
       </c>
     </row>
@@ -7300,11 +7309,11 @@
         <v>2</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C85&amp;"' =&gt; '"&amp;B85&amp;"',"</f>
         <v>'«é' =&gt; 'ஙே',</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B85&amp;"' =&gt; '"&amp;C85&amp;"',"</f>
         <v>'ஙே' =&gt; '«é',</v>
       </c>
     </row>
@@ -7323,11 +7332,11 @@
         <v>2</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C86&amp;"' =&gt; '"&amp;B86&amp;"',"</f>
         <v>'«è' =&gt; 'கே',</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B86&amp;"' =&gt; '"&amp;C86&amp;"',"</f>
         <v>'கே' =&gt; '«è',</v>
       </c>
     </row>
@@ -7346,11 +7355,11 @@
         <v>2</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C87&amp;"' =&gt; '"&amp;B87&amp;"',"</f>
         <v>'«ê' =&gt; 'சே',</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B87&amp;"' =&gt; '"&amp;C87&amp;"',"</f>
         <v>'சே' =&gt; '«ê',</v>
       </c>
     </row>
@@ -7369,11 +7378,11 @@
         <v>2</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C88&amp;"' =&gt; '"&amp;B88&amp;"',"</f>
         <v>'«ë' =&gt; 'ஞே',</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B88&amp;"' =&gt; '"&amp;C88&amp;"',"</f>
         <v>'ஞே' =&gt; '«ë',</v>
       </c>
     </row>
@@ -7392,11 +7401,11 @@
         <v>2</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C89&amp;"' =&gt; '"&amp;B89&amp;"',"</f>
         <v>'«í' =&gt; 'ணே',</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B89&amp;"' =&gt; '"&amp;C89&amp;"',"</f>
         <v>'ணே' =&gt; '«í',</v>
       </c>
     </row>
@@ -7415,11 +7424,11 @@
         <v>2</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C90&amp;"' =&gt; '"&amp;B90&amp;"',"</f>
         <v>'«ì' =&gt; 'டே',</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B90&amp;"' =&gt; '"&amp;C90&amp;"',"</f>
         <v>'டே' =&gt; '«ì',</v>
       </c>
     </row>
@@ -7438,11 +7447,11 @@
         <v>2</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C91&amp;"' =&gt; '"&amp;B91&amp;"',"</f>
         <v>'«î' =&gt; 'தே',</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B91&amp;"' =&gt; '"&amp;C91&amp;"',"</f>
         <v>'தே' =&gt; '«î',</v>
       </c>
     </row>
@@ -7461,11 +7470,11 @@
         <v>2</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C92&amp;"' =&gt; '"&amp;B92&amp;"',"</f>
         <v>'«ï' =&gt; 'நே',</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B92&amp;"' =&gt; '"&amp;C92&amp;"',"</f>
         <v>'நே' =&gt; '«ï',</v>
       </c>
     </row>
@@ -7484,11 +7493,11 @@
         <v>2</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C93&amp;"' =&gt; '"&amp;B93&amp;"',"</f>
         <v>'«ñ' =&gt; 'மே',</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B93&amp;"' =&gt; '"&amp;C93&amp;"',"</f>
         <v>'மே' =&gt; '«ñ',</v>
       </c>
     </row>
@@ -7507,11 +7516,11 @@
         <v>2</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C94&amp;"' =&gt; '"&amp;B94&amp;"',"</f>
         <v>'«ó' =&gt; 'ரே',</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B94&amp;"' =&gt; '"&amp;C94&amp;"',"</f>
         <v>'ரே' =&gt; '«ó',</v>
       </c>
     </row>
@@ -7530,11 +7539,11 @@
         <v>2</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C95&amp;"' =&gt; '"&amp;B95&amp;"',"</f>
         <v>'«ò' =&gt; 'யே',</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B95&amp;"' =&gt; '"&amp;C95&amp;"',"</f>
         <v>'யே' =&gt; '«ò',</v>
       </c>
     </row>
@@ -7553,11 +7562,11 @@
         <v>2</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C96&amp;"' =&gt; '"&amp;B96&amp;"',"</f>
         <v>'«ô' =&gt; 'லே',</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B96&amp;"' =&gt; '"&amp;C96&amp;"',"</f>
         <v>'லே' =&gt; '«ô',</v>
       </c>
     </row>
@@ -7576,11 +7585,11 @@
         <v>2</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C97&amp;"' =&gt; '"&amp;B97&amp;"',"</f>
         <v>'«ö' =&gt; 'ழே',</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B97&amp;"' =&gt; '"&amp;C97&amp;"',"</f>
         <v>'ழே' =&gt; '«ö',</v>
       </c>
     </row>
@@ -7599,11 +7608,11 @@
         <v>2</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C98&amp;"' =&gt; '"&amp;B98&amp;"',"</f>
         <v>'«õ' =&gt; 'வே',</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B98&amp;"' =&gt; '"&amp;C98&amp;"',"</f>
         <v>'வே' =&gt; '«õ',</v>
       </c>
     </row>
@@ -7622,11 +7631,11 @@
         <v>2</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C99&amp;"' =&gt; '"&amp;B99&amp;"',"</f>
         <v>'«ø' =&gt; 'றே',</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B99&amp;"' =&gt; '"&amp;C99&amp;"',"</f>
         <v>'றே' =&gt; '«ø',</v>
       </c>
     </row>
@@ -7645,11 +7654,11 @@
         <v>2</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C100&amp;"' =&gt; '"&amp;B100&amp;"',"</f>
         <v>'«ú' =&gt; 'ஸே',</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B100&amp;"' =&gt; '"&amp;C100&amp;"',"</f>
         <v>'ஸே' =&gt; '«ú',</v>
       </c>
     </row>
@@ -7668,11 +7677,11 @@
         <v>2</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C101&amp;"' =&gt; '"&amp;B101&amp;"',"</f>
         <v>'«ù' =&gt; 'னே',</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B101&amp;"' =&gt; '"&amp;C101&amp;"',"</f>
         <v>'னே' =&gt; '«ù',</v>
       </c>
     </row>
@@ -7691,11 +7700,11 @@
         <v>2</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C102&amp;"' =&gt; '"&amp;B102&amp;"',"</f>
         <v>'«û' =&gt; 'ஷே',</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B102&amp;"' =&gt; '"&amp;C102&amp;"',"</f>
         <v>'ஷே' =&gt; '«û',</v>
       </c>
     </row>
@@ -7714,11 +7723,11 @@
         <v>2</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C103&amp;"' =&gt; '"&amp;B103&amp;"',"</f>
         <v>'«ü' =&gt; 'ஜே',</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B103&amp;"' =&gt; '"&amp;C103&amp;"',"</f>
         <v>'ஜே' =&gt; '«ü',</v>
       </c>
     </row>
@@ -7737,11 +7746,11 @@
         <v>2</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C104&amp;"' =&gt; '"&amp;B104&amp;"',"</f>
         <v>'«ý' =&gt; 'ஹே',</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B104&amp;"' =&gt; '"&amp;C104&amp;"',"</f>
         <v>'ஹே' =&gt; '«ý',</v>
       </c>
     </row>
@@ -7760,11 +7769,11 @@
         <v>2</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C105&amp;"' =&gt; '"&amp;B105&amp;"',"</f>
         <v>'÷¦' =&gt; 'ளீ',</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B105&amp;"' =&gt; '"&amp;C105&amp;"',"</f>
         <v>'ளீ' =&gt; '÷¦',</v>
       </c>
     </row>
@@ -7783,11 +7792,11 @@
         <v>2</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C106&amp;"' =&gt; '"&amp;B106&amp;"',"</f>
         <v>'÷¢' =&gt; 'ள்',</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B106&amp;"' =&gt; '"&amp;C106&amp;"',"</f>
         <v>'ள்' =&gt; '÷¢',</v>
       </c>
     </row>
@@ -7806,11 +7815,11 @@
         <v>2</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C107&amp;"' =&gt; '"&amp;B107&amp;"',"</f>
         <v>'÷£' =&gt; 'ளா',</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B107&amp;"' =&gt; '"&amp;C107&amp;"',"</f>
         <v>'ளா' =&gt; '÷£',</v>
       </c>
     </row>
@@ -7829,11 +7838,11 @@
         <v>2</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C108&amp;"' =&gt; '"&amp;B108&amp;"',"</f>
         <v>'÷¤' =&gt; 'ளி',</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B108&amp;"' =&gt; '"&amp;C108&amp;"',"</f>
         <v>'ளி' =&gt; '÷¤',</v>
       </c>
     </row>
@@ -7852,11 +7861,11 @@
         <v>2</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C109&amp;"' =&gt; '"&amp;B109&amp;"',"</f>
         <v>'¬÷' =&gt; 'ளை',</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B109&amp;"' =&gt; '"&amp;C109&amp;"',"</f>
         <v>'ளை' =&gt; '¬÷',</v>
       </c>
     </row>
@@ -7875,11 +7884,11 @@
         <v>2</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C110&amp;"' =&gt; '"&amp;B110&amp;"',"</f>
         <v>'¬ð' =&gt; 'பை',</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B110&amp;"' =&gt; '"&amp;C110&amp;"',"</f>
         <v>'பை' =&gt; '¬ð',</v>
       </c>
     </row>
@@ -7898,11 +7907,11 @@
         <v>2</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C111&amp;"' =&gt; '"&amp;B111&amp;"',"</f>
         <v>'¬é' =&gt; 'ஙை',</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B111&amp;"' =&gt; '"&amp;C111&amp;"',"</f>
         <v>'ஙை' =&gt; '¬é',</v>
       </c>
     </row>
@@ -7921,11 +7930,11 @@
         <v>2</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C112&amp;"' =&gt; '"&amp;B112&amp;"',"</f>
         <v>'¬è' =&gt; 'கை',</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B112&amp;"' =&gt; '"&amp;C112&amp;"',"</f>
         <v>'கை' =&gt; '¬è',</v>
       </c>
     </row>
@@ -7944,11 +7953,11 @@
         <v>2</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C113&amp;"' =&gt; '"&amp;B113&amp;"',"</f>
         <v>'¬ê' =&gt; 'சை',</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B113&amp;"' =&gt; '"&amp;C113&amp;"',"</f>
         <v>'சை' =&gt; '¬ê',</v>
       </c>
     </row>
@@ -7967,11 +7976,11 @@
         <v>2</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C114&amp;"' =&gt; '"&amp;B114&amp;"',"</f>
         <v>'¬ë' =&gt; 'ஞை',</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B114&amp;"' =&gt; '"&amp;C114&amp;"',"</f>
         <v>'ஞை' =&gt; '¬ë',</v>
       </c>
     </row>
@@ -7990,11 +7999,11 @@
         <v>2</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C115&amp;"' =&gt; '"&amp;B115&amp;"',"</f>
         <v>'¬í' =&gt; 'ணை',</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B115&amp;"' =&gt; '"&amp;C115&amp;"',"</f>
         <v>'ணை' =&gt; '¬í',</v>
       </c>
     </row>
@@ -8013,11 +8022,11 @@
         <v>2</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C116&amp;"' =&gt; '"&amp;B116&amp;"',"</f>
         <v>'¬ì' =&gt; 'டை',</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B116&amp;"' =&gt; '"&amp;C116&amp;"',"</f>
         <v>'டை' =&gt; '¬ì',</v>
       </c>
     </row>
@@ -8036,11 +8045,11 @@
         <v>2</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C117&amp;"' =&gt; '"&amp;B117&amp;"',"</f>
         <v>'¬î' =&gt; 'தை',</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B117&amp;"' =&gt; '"&amp;C117&amp;"',"</f>
         <v>'தை' =&gt; '¬î',</v>
       </c>
     </row>
@@ -8059,11 +8068,11 @@
         <v>2</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C118&amp;"' =&gt; '"&amp;B118&amp;"',"</f>
         <v>'¬ï' =&gt; 'நை',</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B118&amp;"' =&gt; '"&amp;C118&amp;"',"</f>
         <v>'நை' =&gt; '¬ï',</v>
       </c>
     </row>
@@ -8082,11 +8091,11 @@
         <v>2</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C119&amp;"' =&gt; '"&amp;B119&amp;"',"</f>
         <v>'¬ñ' =&gt; 'மை',</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B119&amp;"' =&gt; '"&amp;C119&amp;"',"</f>
         <v>'மை' =&gt; '¬ñ',</v>
       </c>
     </row>
@@ -8105,11 +8114,11 @@
         <v>2</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C120&amp;"' =&gt; '"&amp;B120&amp;"',"</f>
         <v>'¬ó' =&gt; 'ரை',</v>
       </c>
       <c r="F120" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B120&amp;"' =&gt; '"&amp;C120&amp;"',"</f>
         <v>'ரை' =&gt; '¬ó',</v>
       </c>
     </row>
@@ -8128,11 +8137,11 @@
         <v>2</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C121&amp;"' =&gt; '"&amp;B121&amp;"',"</f>
         <v>'¬ò' =&gt; 'யை',</v>
       </c>
       <c r="F121" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B121&amp;"' =&gt; '"&amp;C121&amp;"',"</f>
         <v>'யை' =&gt; '¬ò',</v>
       </c>
     </row>
@@ -8151,11 +8160,11 @@
         <v>2</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C122&amp;"' =&gt; '"&amp;B122&amp;"',"</f>
         <v>'¬ô' =&gt; 'லை',</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B122&amp;"' =&gt; '"&amp;C122&amp;"',"</f>
         <v>'லை' =&gt; '¬ô',</v>
       </c>
     </row>
@@ -8174,11 +8183,11 @@
         <v>2</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C123&amp;"' =&gt; '"&amp;B123&amp;"',"</f>
         <v>'¬ö' =&gt; 'ழை',</v>
       </c>
       <c r="F123" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B123&amp;"' =&gt; '"&amp;C123&amp;"',"</f>
         <v>'ழை' =&gt; '¬ö',</v>
       </c>
     </row>
@@ -8197,11 +8206,11 @@
         <v>2</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C124&amp;"' =&gt; '"&amp;B124&amp;"',"</f>
         <v>'¬õ' =&gt; 'வை',</v>
       </c>
       <c r="F124" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B124&amp;"' =&gt; '"&amp;C124&amp;"',"</f>
         <v>'வை' =&gt; '¬õ',</v>
       </c>
     </row>
@@ -8220,11 +8229,11 @@
         <v>2</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C125&amp;"' =&gt; '"&amp;B125&amp;"',"</f>
         <v>'¬ø' =&gt; 'றை',</v>
       </c>
       <c r="F125" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B125&amp;"' =&gt; '"&amp;C125&amp;"',"</f>
         <v>'றை' =&gt; '¬ø',</v>
       </c>
     </row>
@@ -8243,11 +8252,11 @@
         <v>2</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C126&amp;"' =&gt; '"&amp;B126&amp;"',"</f>
         <v>'¬ú' =&gt; 'ஸை',</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B126&amp;"' =&gt; '"&amp;C126&amp;"',"</f>
         <v>'ஸை' =&gt; '¬ú',</v>
       </c>
     </row>
@@ -8266,11 +8275,11 @@
         <v>2</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C127&amp;"' =&gt; '"&amp;B127&amp;"',"</f>
         <v>'¬ù' =&gt; 'னை',</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B127&amp;"' =&gt; '"&amp;C127&amp;"',"</f>
         <v>'னை' =&gt; '¬ù',</v>
       </c>
     </row>
@@ -8289,11 +8298,11 @@
         <v>2</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C128&amp;"' =&gt; '"&amp;B128&amp;"',"</f>
         <v>'¬û' =&gt; 'ஷை',</v>
       </c>
       <c r="F128" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B128&amp;"' =&gt; '"&amp;C128&amp;"',"</f>
         <v>'ஷை' =&gt; '¬û',</v>
       </c>
     </row>
@@ -8312,11 +8321,11 @@
         <v>2</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C129&amp;"' =&gt; '"&amp;B129&amp;"',"</f>
         <v>'¬ü' =&gt; 'ஜை',</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B129&amp;"' =&gt; '"&amp;C129&amp;"',"</f>
         <v>'ஜை' =&gt; '¬ü',</v>
       </c>
     </row>
@@ -8335,11 +8344,11 @@
         <v>2</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C130&amp;"' =&gt; '"&amp;B130&amp;"',"</f>
         <v>'¬ý' =&gt; 'ஹை',</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B130&amp;"' =&gt; '"&amp;C130&amp;"',"</f>
         <v>'ஹை' =&gt; '¬ý',</v>
       </c>
     </row>
@@ -8358,11 +8367,11 @@
         <v>2</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C131&amp;"' =&gt; '"&amp;B131&amp;"',"</f>
         <v>'ª÷' =&gt; 'ளெ',</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B131&amp;"' =&gt; '"&amp;C131&amp;"',"</f>
         <v>'ளெ' =&gt; 'ª÷',</v>
       </c>
     </row>
@@ -8381,11 +8390,11 @@
         <v>2</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;C132&amp;"' =&gt; '"&amp;B132&amp;"',"</f>
         <v>'å÷' =&gt; 'ஔ',</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" si="3"/>
+        <f>"'"&amp;B132&amp;"' =&gt; '"&amp;C132&amp;"',"</f>
         <v>'ஔ' =&gt; 'å÷',</v>
       </c>
     </row>
@@ -8404,11 +8413,11 @@
         <v>2</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" ref="E133:E196" si="4">"'"&amp;C133&amp;"' =&gt; '"&amp;B133&amp;"',"</f>
+        <f>"'"&amp;C133&amp;"' =&gt; '"&amp;B133&amp;"',"</f>
         <v>'ªð' =&gt; 'பெ',</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" ref="F133:F186" si="5">"'"&amp;B133&amp;"' =&gt; '"&amp;C133&amp;"',"</f>
+        <f>"'"&amp;B133&amp;"' =&gt; '"&amp;C133&amp;"',"</f>
         <v>'பெ' =&gt; 'ªð',</v>
       </c>
     </row>
@@ -8427,11 +8436,11 @@
         <v>2</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C134&amp;"' =&gt; '"&amp;B134&amp;"',"</f>
         <v>'ªé' =&gt; 'ஙெ',</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B134&amp;"' =&gt; '"&amp;C134&amp;"',"</f>
         <v>'ஙெ' =&gt; 'ªé',</v>
       </c>
     </row>
@@ -8450,11 +8459,11 @@
         <v>2</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C135&amp;"' =&gt; '"&amp;B135&amp;"',"</f>
         <v>'ªè' =&gt; 'கெ',</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B135&amp;"' =&gt; '"&amp;C135&amp;"',"</f>
         <v>'கெ' =&gt; 'ªè',</v>
       </c>
     </row>
@@ -8473,11 +8482,11 @@
         <v>2</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C136&amp;"' =&gt; '"&amp;B136&amp;"',"</f>
         <v>'ªê' =&gt; 'செ',</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B136&amp;"' =&gt; '"&amp;C136&amp;"',"</f>
         <v>'செ' =&gt; 'ªê',</v>
       </c>
     </row>
@@ -8496,11 +8505,11 @@
         <v>2</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C137&amp;"' =&gt; '"&amp;B137&amp;"',"</f>
         <v>'ªë' =&gt; 'ஞெ',</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B137&amp;"' =&gt; '"&amp;C137&amp;"',"</f>
         <v>'ஞெ' =&gt; 'ªë',</v>
       </c>
     </row>
@@ -8519,11 +8528,11 @@
         <v>2</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C138&amp;"' =&gt; '"&amp;B138&amp;"',"</f>
         <v>'ªí' =&gt; 'ணெ',</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B138&amp;"' =&gt; '"&amp;C138&amp;"',"</f>
         <v>'ணெ' =&gt; 'ªí',</v>
       </c>
     </row>
@@ -8542,11 +8551,11 @@
         <v>2</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C139&amp;"' =&gt; '"&amp;B139&amp;"',"</f>
         <v>'ªì' =&gt; 'டெ',</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B139&amp;"' =&gt; '"&amp;C139&amp;"',"</f>
         <v>'டெ' =&gt; 'ªì',</v>
       </c>
     </row>
@@ -8565,11 +8574,11 @@
         <v>2</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C140&amp;"' =&gt; '"&amp;B140&amp;"',"</f>
         <v>'ªî' =&gt; 'தெ',</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B140&amp;"' =&gt; '"&amp;C140&amp;"',"</f>
         <v>'தெ' =&gt; 'ªî',</v>
       </c>
     </row>
@@ -8588,11 +8597,11 @@
         <v>2</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C141&amp;"' =&gt; '"&amp;B141&amp;"',"</f>
         <v>'ªï' =&gt; 'நெ',</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B141&amp;"' =&gt; '"&amp;C141&amp;"',"</f>
         <v>'நெ' =&gt; 'ªï',</v>
       </c>
     </row>
@@ -8611,11 +8620,11 @@
         <v>2</v>
       </c>
       <c r="E142" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C142&amp;"' =&gt; '"&amp;B142&amp;"',"</f>
         <v>'ªñ' =&gt; 'மெ',</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B142&amp;"' =&gt; '"&amp;C142&amp;"',"</f>
         <v>'மெ' =&gt; 'ªñ',</v>
       </c>
     </row>
@@ -8634,11 +8643,11 @@
         <v>2</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C143&amp;"' =&gt; '"&amp;B143&amp;"',"</f>
         <v>'ªó' =&gt; 'ரெ',</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B143&amp;"' =&gt; '"&amp;C143&amp;"',"</f>
         <v>'ரெ' =&gt; 'ªó',</v>
       </c>
     </row>
@@ -8657,11 +8666,11 @@
         <v>2</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C144&amp;"' =&gt; '"&amp;B144&amp;"',"</f>
         <v>'ªò' =&gt; 'யெ',</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B144&amp;"' =&gt; '"&amp;C144&amp;"',"</f>
         <v>'யெ' =&gt; 'ªò',</v>
       </c>
     </row>
@@ -8680,11 +8689,11 @@
         <v>2</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C145&amp;"' =&gt; '"&amp;B145&amp;"',"</f>
         <v>'ªô' =&gt; 'லெ',</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B145&amp;"' =&gt; '"&amp;C145&amp;"',"</f>
         <v>'லெ' =&gt; 'ªô',</v>
       </c>
     </row>
@@ -8703,11 +8712,11 @@
         <v>2</v>
       </c>
       <c r="E146" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C146&amp;"' =&gt; '"&amp;B146&amp;"',"</f>
         <v>'ªö' =&gt; 'ழெ',</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B146&amp;"' =&gt; '"&amp;C146&amp;"',"</f>
         <v>'ழெ' =&gt; 'ªö',</v>
       </c>
     </row>
@@ -8726,11 +8735,11 @@
         <v>2</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C147&amp;"' =&gt; '"&amp;B147&amp;"',"</f>
         <v>'ªõ' =&gt; 'வெ',</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B147&amp;"' =&gt; '"&amp;C147&amp;"',"</f>
         <v>'வெ' =&gt; 'ªõ',</v>
       </c>
     </row>
@@ -8749,11 +8758,11 @@
         <v>2</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C148&amp;"' =&gt; '"&amp;B148&amp;"',"</f>
         <v>'ªø' =&gt; 'றெ',</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B148&amp;"' =&gt; '"&amp;C148&amp;"',"</f>
         <v>'றெ' =&gt; 'ªø',</v>
       </c>
     </row>
@@ -8772,11 +8781,11 @@
         <v>2</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C149&amp;"' =&gt; '"&amp;B149&amp;"',"</f>
         <v>'ªú' =&gt; 'ஸெ',</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B149&amp;"' =&gt; '"&amp;C149&amp;"',"</f>
         <v>'ஸெ' =&gt; 'ªú',</v>
       </c>
     </row>
@@ -8795,11 +8804,11 @@
         <v>2</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C150&amp;"' =&gt; '"&amp;B150&amp;"',"</f>
         <v>'ªù' =&gt; 'னெ',</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B150&amp;"' =&gt; '"&amp;C150&amp;"',"</f>
         <v>'னெ' =&gt; 'ªù',</v>
       </c>
     </row>
@@ -8818,11 +8827,11 @@
         <v>2</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C151&amp;"' =&gt; '"&amp;B151&amp;"',"</f>
         <v>'ªû' =&gt; 'ஷெ',</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B151&amp;"' =&gt; '"&amp;C151&amp;"',"</f>
         <v>'ஷெ' =&gt; 'ªû',</v>
       </c>
     </row>
@@ -8841,11 +8850,11 @@
         <v>2</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C152&amp;"' =&gt; '"&amp;B152&amp;"',"</f>
         <v>'ªü' =&gt; 'ஜெ',</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B152&amp;"' =&gt; '"&amp;C152&amp;"',"</f>
         <v>'ஜெ' =&gt; 'ªü',</v>
       </c>
     </row>
@@ -8864,11 +8873,11 @@
         <v>2</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C153&amp;"' =&gt; '"&amp;B153&amp;"',"</f>
         <v>'ªý' =&gt; 'ஹெ',</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B153&amp;"' =&gt; '"&amp;C153&amp;"',"</f>
         <v>'ஹெ' =&gt; 'ªý',</v>
       </c>
     </row>
@@ -8887,11 +8896,11 @@
         <v>2</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C154&amp;"' =&gt; '"&amp;B154&amp;"',"</f>
         <v>'ð¦' =&gt; 'பீ',</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B154&amp;"' =&gt; '"&amp;C154&amp;"',"</f>
         <v>'பீ' =&gt; 'ð¦',</v>
       </c>
     </row>
@@ -8910,11 +8919,11 @@
         <v>2</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C155&amp;"' =&gt; '"&amp;B155&amp;"',"</f>
         <v>'ð¢' =&gt; 'ப்',</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B155&amp;"' =&gt; '"&amp;C155&amp;"',"</f>
         <v>'ப்' =&gt; 'ð¢',</v>
       </c>
     </row>
@@ -8933,11 +8942,11 @@
         <v>2</v>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C156&amp;"' =&gt; '"&amp;B156&amp;"',"</f>
         <v>'ð£' =&gt; 'பா',</v>
       </c>
       <c r="F156" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B156&amp;"' =&gt; '"&amp;C156&amp;"',"</f>
         <v>'பா' =&gt; 'ð£',</v>
       </c>
     </row>
@@ -8956,11 +8965,11 @@
         <v>2</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C157&amp;"' =&gt; '"&amp;B157&amp;"',"</f>
         <v>'ð¤' =&gt; 'பி',</v>
       </c>
       <c r="F157" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B157&amp;"' =&gt; '"&amp;C157&amp;"',"</f>
         <v>'பி' =&gt; 'ð¤',</v>
       </c>
     </row>
@@ -8979,11 +8988,11 @@
         <v>2</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C158&amp;"' =&gt; '"&amp;B158&amp;"',"</f>
         <v>'é¦' =&gt; 'ஙீ',</v>
       </c>
       <c r="F158" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B158&amp;"' =&gt; '"&amp;C158&amp;"',"</f>
         <v>'ஙீ' =&gt; 'é¦',</v>
       </c>
     </row>
@@ -9002,11 +9011,11 @@
         <v>2</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C159&amp;"' =&gt; '"&amp;B159&amp;"',"</f>
         <v>'è¦' =&gt; 'கீ',</v>
       </c>
       <c r="F159" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B159&amp;"' =&gt; '"&amp;C159&amp;"',"</f>
         <v>'கீ' =&gt; 'è¦',</v>
       </c>
     </row>
@@ -9025,11 +9034,11 @@
         <v>2</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C160&amp;"' =&gt; '"&amp;B160&amp;"',"</f>
         <v>'ê¦' =&gt; 'சீ',</v>
       </c>
       <c r="F160" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B160&amp;"' =&gt; '"&amp;C160&amp;"',"</f>
         <v>'சீ' =&gt; 'ê¦',</v>
       </c>
     </row>
@@ -9048,11 +9057,11 @@
         <v>2</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C161&amp;"' =&gt; '"&amp;B161&amp;"',"</f>
         <v>'ë¦' =&gt; 'ஞீ',</v>
       </c>
       <c r="F161" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B161&amp;"' =&gt; '"&amp;C161&amp;"',"</f>
         <v>'ஞீ' =&gt; 'ë¦',</v>
       </c>
     </row>
@@ -9071,11 +9080,11 @@
         <v>2</v>
       </c>
       <c r="E162" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C162&amp;"' =&gt; '"&amp;B162&amp;"',"</f>
         <v>'é¢' =&gt; 'ங்',</v>
       </c>
       <c r="F162" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B162&amp;"' =&gt; '"&amp;C162&amp;"',"</f>
         <v>'ங்' =&gt; 'é¢',</v>
       </c>
     </row>
@@ -9094,11 +9103,11 @@
         <v>2</v>
       </c>
       <c r="E163" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C163&amp;"' =&gt; '"&amp;B163&amp;"',"</f>
         <v>'è¢' =&gt; 'க்',</v>
       </c>
       <c r="F163" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B163&amp;"' =&gt; '"&amp;C163&amp;"',"</f>
         <v>'க்' =&gt; 'è¢',</v>
       </c>
     </row>
@@ -9117,11 +9126,11 @@
         <v>2</v>
       </c>
       <c r="E164" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C164&amp;"' =&gt; '"&amp;B164&amp;"',"</f>
         <v>'ê¢' =&gt; 'ச்',</v>
       </c>
       <c r="F164" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B164&amp;"' =&gt; '"&amp;C164&amp;"',"</f>
         <v>'ச்' =&gt; 'ê¢',</v>
       </c>
     </row>
@@ -9140,11 +9149,11 @@
         <v>2</v>
       </c>
       <c r="E165" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C165&amp;"' =&gt; '"&amp;B165&amp;"',"</f>
         <v>'ë¢' =&gt; 'ஞ்',</v>
       </c>
       <c r="F165" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B165&amp;"' =&gt; '"&amp;C165&amp;"',"</f>
         <v>'ஞ்' =&gt; 'ë¢',</v>
       </c>
     </row>
@@ -9163,11 +9172,11 @@
         <v>2</v>
       </c>
       <c r="E166" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C166&amp;"' =&gt; '"&amp;B166&amp;"',"</f>
         <v>'é£' =&gt; 'ஙா',</v>
       </c>
       <c r="F166" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B166&amp;"' =&gt; '"&amp;C166&amp;"',"</f>
         <v>'ஙா' =&gt; 'é£',</v>
       </c>
     </row>
@@ -9186,11 +9195,11 @@
         <v>2</v>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C167&amp;"' =&gt; '"&amp;B167&amp;"',"</f>
         <v>'è£' =&gt; 'கா',</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B167&amp;"' =&gt; '"&amp;C167&amp;"',"</f>
         <v>'கா' =&gt; 'è£',</v>
       </c>
     </row>
@@ -9209,11 +9218,11 @@
         <v>2</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C168&amp;"' =&gt; '"&amp;B168&amp;"',"</f>
         <v>'ê£' =&gt; 'சா',</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B168&amp;"' =&gt; '"&amp;C168&amp;"',"</f>
         <v>'சா' =&gt; 'ê£',</v>
       </c>
     </row>
@@ -9232,11 +9241,11 @@
         <v>2</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C169&amp;"' =&gt; '"&amp;B169&amp;"',"</f>
         <v>'ë£' =&gt; 'ஞா',</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B169&amp;"' =&gt; '"&amp;C169&amp;"',"</f>
         <v>'ஞா' =&gt; 'ë£',</v>
       </c>
     </row>
@@ -9255,11 +9264,11 @@
         <v>2</v>
       </c>
       <c r="E170" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C170&amp;"' =&gt; '"&amp;B170&amp;"',"</f>
         <v>'é¤' =&gt; 'ஙி',</v>
       </c>
       <c r="F170" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B170&amp;"' =&gt; '"&amp;C170&amp;"',"</f>
         <v>'ஙி' =&gt; 'é¤',</v>
       </c>
     </row>
@@ -9278,11 +9287,11 @@
         <v>2</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C171&amp;"' =&gt; '"&amp;B171&amp;"',"</f>
         <v>'è¤' =&gt; 'கி',</v>
       </c>
       <c r="F171" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B171&amp;"' =&gt; '"&amp;C171&amp;"',"</f>
         <v>'கி' =&gt; 'è¤',</v>
       </c>
     </row>
@@ -9301,11 +9310,11 @@
         <v>2</v>
       </c>
       <c r="E172" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C172&amp;"' =&gt; '"&amp;B172&amp;"',"</f>
         <v>'ê¤' =&gt; 'சி',</v>
       </c>
       <c r="F172" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B172&amp;"' =&gt; '"&amp;C172&amp;"',"</f>
         <v>'சி' =&gt; 'ê¤',</v>
       </c>
     </row>
@@ -9324,11 +9333,11 @@
         <v>2</v>
       </c>
       <c r="E173" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C173&amp;"' =&gt; '"&amp;B173&amp;"',"</f>
         <v>'ë¤' =&gt; 'ஞி',</v>
       </c>
       <c r="F173" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B173&amp;"' =&gt; '"&amp;C173&amp;"',"</f>
         <v>'ஞி' =&gt; 'ë¤',</v>
       </c>
     </row>
@@ -9347,11 +9356,11 @@
         <v>2</v>
       </c>
       <c r="E174" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C174&amp;"' =&gt; '"&amp;B174&amp;"',"</f>
         <v>'í¦' =&gt; 'ணீ',</v>
       </c>
       <c r="F174" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B174&amp;"' =&gt; '"&amp;C174&amp;"',"</f>
         <v>'ணீ' =&gt; 'í¦',</v>
       </c>
     </row>
@@ -9370,11 +9379,11 @@
         <v>2</v>
       </c>
       <c r="E175" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C175&amp;"' =&gt; '"&amp;B175&amp;"',"</f>
         <v>'ì¦' =&gt; 'டீ',</v>
       </c>
       <c r="F175" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B175&amp;"' =&gt; '"&amp;C175&amp;"',"</f>
         <v>'டீ' =&gt; 'ì¦',</v>
       </c>
     </row>
@@ -9393,11 +9402,11 @@
         <v>2</v>
       </c>
       <c r="E176" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C176&amp;"' =&gt; '"&amp;B176&amp;"',"</f>
         <v>'î¦' =&gt; 'தீ',</v>
       </c>
       <c r="F176" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B176&amp;"' =&gt; '"&amp;C176&amp;"',"</f>
         <v>'தீ' =&gt; 'î¦',</v>
       </c>
     </row>
@@ -9416,11 +9425,11 @@
         <v>2</v>
       </c>
       <c r="E177" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C177&amp;"' =&gt; '"&amp;B177&amp;"',"</f>
         <v>'ï¦' =&gt; 'நீ',</v>
       </c>
       <c r="F177" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B177&amp;"' =&gt; '"&amp;C177&amp;"',"</f>
         <v>'நீ' =&gt; 'ï¦',</v>
       </c>
     </row>
@@ -9439,11 +9448,11 @@
         <v>2</v>
       </c>
       <c r="E178" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C178&amp;"' =&gt; '"&amp;B178&amp;"',"</f>
         <v>'í¢' =&gt; 'ண்',</v>
       </c>
       <c r="F178" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B178&amp;"' =&gt; '"&amp;C178&amp;"',"</f>
         <v>'ண்' =&gt; 'í¢',</v>
       </c>
     </row>
@@ -9462,11 +9471,11 @@
         <v>2</v>
       </c>
       <c r="E179" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C179&amp;"' =&gt; '"&amp;B179&amp;"',"</f>
         <v>'ì¢' =&gt; 'ட்',</v>
       </c>
       <c r="F179" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B179&amp;"' =&gt; '"&amp;C179&amp;"',"</f>
         <v>'ட்' =&gt; 'ì¢',</v>
       </c>
     </row>
@@ -9485,11 +9494,11 @@
         <v>2</v>
       </c>
       <c r="E180" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C180&amp;"' =&gt; '"&amp;B180&amp;"',"</f>
         <v>'î¢' =&gt; 'த்',</v>
       </c>
       <c r="F180" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B180&amp;"' =&gt; '"&amp;C180&amp;"',"</f>
         <v>'த்' =&gt; 'î¢',</v>
       </c>
     </row>
@@ -9508,11 +9517,11 @@
         <v>2</v>
       </c>
       <c r="E181" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C181&amp;"' =&gt; '"&amp;B181&amp;"',"</f>
         <v>'ï¢' =&gt; 'ந்',</v>
       </c>
       <c r="F181" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B181&amp;"' =&gt; '"&amp;C181&amp;"',"</f>
         <v>'ந்' =&gt; 'ï¢',</v>
       </c>
     </row>
@@ -9531,11 +9540,11 @@
         <v>2</v>
       </c>
       <c r="E182" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C182&amp;"' =&gt; '"&amp;B182&amp;"',"</f>
         <v>'í£' =&gt; 'ணா',</v>
       </c>
       <c r="F182" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B182&amp;"' =&gt; '"&amp;C182&amp;"',"</f>
         <v>'ணா' =&gt; 'í£',</v>
       </c>
     </row>
@@ -9554,11 +9563,11 @@
         <v>2</v>
       </c>
       <c r="E183" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C183&amp;"' =&gt; '"&amp;B183&amp;"',"</f>
         <v>'ì£' =&gt; 'டா',</v>
       </c>
       <c r="F183" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B183&amp;"' =&gt; '"&amp;C183&amp;"',"</f>
         <v>'டா' =&gt; 'ì£',</v>
       </c>
     </row>
@@ -9577,11 +9586,11 @@
         <v>2</v>
       </c>
       <c r="E184" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C184&amp;"' =&gt; '"&amp;B184&amp;"',"</f>
         <v>'î£' =&gt; 'தா',</v>
       </c>
       <c r="F184" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B184&amp;"' =&gt; '"&amp;C184&amp;"',"</f>
         <v>'தா' =&gt; 'î£',</v>
       </c>
     </row>
@@ -9600,11 +9609,11 @@
         <v>2</v>
       </c>
       <c r="E185" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C185&amp;"' =&gt; '"&amp;B185&amp;"',"</f>
         <v>'ï£' =&gt; 'நா',</v>
       </c>
       <c r="F185" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B185&amp;"' =&gt; '"&amp;C185&amp;"',"</f>
         <v>'நா' =&gt; 'ï£',</v>
       </c>
     </row>
@@ -9623,11 +9632,11 @@
         <v>2</v>
       </c>
       <c r="E186" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C186&amp;"' =&gt; '"&amp;B186&amp;"',"</f>
         <v>'í¤' =&gt; 'ணி',</v>
       </c>
       <c r="F186" t="str">
-        <f t="shared" si="5"/>
+        <f>"'"&amp;B186&amp;"' =&gt; '"&amp;C186&amp;"',"</f>
         <v>'ணி' =&gt; 'í¤',</v>
       </c>
     </row>
@@ -9638,12 +9647,12 @@
       <c r="C187" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="D187" s="31">
+      <c r="D187">
         <f>LEN(C187)</f>
         <v>2</v>
       </c>
       <c r="E187" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C187&amp;"' =&gt; '"&amp;B187&amp;"',"</f>
         <v>'ì¤' =&gt; 'டி',</v>
       </c>
       <c r="F187" s="31"/>
@@ -9663,7 +9672,7 @@
         <v>2</v>
       </c>
       <c r="E188" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C188&amp;"' =&gt; '"&amp;B188&amp;"',"</f>
         <v>'î¤' =&gt; 'தி',</v>
       </c>
       <c r="F188" t="str">
@@ -9686,7 +9695,7 @@
         <v>2</v>
       </c>
       <c r="E189" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C189&amp;"' =&gt; '"&amp;B189&amp;"',"</f>
         <v>'ï¤' =&gt; 'நி',</v>
       </c>
       <c r="F189" t="str">
@@ -9709,7 +9718,7 @@
         <v>2</v>
       </c>
       <c r="E190" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C190&amp;"' =&gt; '"&amp;B190&amp;"',"</f>
         <v>'ñ¦' =&gt; 'மீ',</v>
       </c>
       <c r="F190" t="str">
@@ -9732,7 +9741,7 @@
         <v>2</v>
       </c>
       <c r="E191" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C191&amp;"' =&gt; '"&amp;B191&amp;"',"</f>
         <v>'ñ¢' =&gt; 'ம்',</v>
       </c>
       <c r="F191" t="str">
@@ -9755,7 +9764,7 @@
         <v>2</v>
       </c>
       <c r="E192" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C192&amp;"' =&gt; '"&amp;B192&amp;"',"</f>
         <v>'ñ£' =&gt; 'மா',</v>
       </c>
       <c r="F192" t="str">
@@ -9778,7 +9787,7 @@
         <v>2</v>
       </c>
       <c r="E193" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C193&amp;"' =&gt; '"&amp;B193&amp;"',"</f>
         <v>'ñ¤' =&gt; 'மி',</v>
       </c>
       <c r="F193" t="str">
@@ -9801,7 +9810,7 @@
         <v>2</v>
       </c>
       <c r="E194" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C194&amp;"' =&gt; '"&amp;B194&amp;"',"</f>
         <v>'ó¦' =&gt; 'ரீ',</v>
       </c>
       <c r="F194" t="str">
@@ -9824,7 +9833,7 @@
         <v>2</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C195&amp;"' =&gt; '"&amp;B195&amp;"',"</f>
         <v>'ò¦' =&gt; 'யீ',</v>
       </c>
       <c r="F195" t="str">
@@ -9847,7 +9856,7 @@
         <v>2</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" si="4"/>
+        <f>"'"&amp;C196&amp;"' =&gt; '"&amp;B196&amp;"',"</f>
         <v>'ô¦' =&gt; 'லீ',</v>
       </c>
       <c r="F196" t="str">
@@ -9870,7 +9879,7 @@
         <v>2</v>
       </c>
       <c r="E197" t="str">
-        <f t="shared" ref="E197:E260" si="6">"'"&amp;C197&amp;"' =&gt; '"&amp;B197&amp;"',"</f>
+        <f>"'"&amp;C197&amp;"' =&gt; '"&amp;B197&amp;"',"</f>
         <v>'ö¦' =&gt; 'ழீ',</v>
       </c>
       <c r="F197" t="str">
@@ -9893,7 +9902,7 @@
         <v>2</v>
       </c>
       <c r="E198" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C198&amp;"' =&gt; '"&amp;B198&amp;"',"</f>
         <v>'õ¦' =&gt; 'வீ',</v>
       </c>
       <c r="F198" t="str">
@@ -9916,7 +9925,7 @@
         <v>2</v>
       </c>
       <c r="E199" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C199&amp;"' =&gt; '"&amp;B199&amp;"',"</f>
         <v>'ø¦' =&gt; 'றீ',</v>
       </c>
       <c r="F199" t="str">
@@ -9939,7 +9948,7 @@
         <v>2</v>
       </c>
       <c r="E200" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C200&amp;"' =&gt; '"&amp;B200&amp;"',"</f>
         <v>'ó¢' =&gt; 'ர்',</v>
       </c>
       <c r="F200" t="str">
@@ -9962,7 +9971,7 @@
         <v>2</v>
       </c>
       <c r="E201" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C201&amp;"' =&gt; '"&amp;B201&amp;"',"</f>
         <v>'ò¢' =&gt; 'ய்',</v>
       </c>
       <c r="F201" t="str">
@@ -9985,7 +9994,7 @@
         <v>2</v>
       </c>
       <c r="E202" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C202&amp;"' =&gt; '"&amp;B202&amp;"',"</f>
         <v>'ô¢' =&gt; 'ல்',</v>
       </c>
       <c r="F202" t="str">
@@ -10008,7 +10017,7 @@
         <v>2</v>
       </c>
       <c r="E203" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C203&amp;"' =&gt; '"&amp;B203&amp;"',"</f>
         <v>'ö¢' =&gt; 'ழ்',</v>
       </c>
       <c r="F203" t="str">
@@ -10031,7 +10040,7 @@
         <v>2</v>
       </c>
       <c r="E204" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C204&amp;"' =&gt; '"&amp;B204&amp;"',"</f>
         <v>'õ¢' =&gt; 'வ்',</v>
       </c>
       <c r="F204" t="str">
@@ -10054,7 +10063,7 @@
         <v>2</v>
       </c>
       <c r="E205" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C205&amp;"' =&gt; '"&amp;B205&amp;"',"</f>
         <v>'ø¢' =&gt; 'ற்',</v>
       </c>
       <c r="F205" t="str">
@@ -10077,7 +10086,7 @@
         <v>2</v>
       </c>
       <c r="E206" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C206&amp;"' =&gt; '"&amp;B206&amp;"',"</f>
         <v>'ó£' =&gt; 'ரா',</v>
       </c>
       <c r="F206" t="str">
@@ -10100,7 +10109,7 @@
         <v>2</v>
       </c>
       <c r="E207" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C207&amp;"' =&gt; '"&amp;B207&amp;"',"</f>
         <v>'ò£' =&gt; 'யா',</v>
       </c>
       <c r="F207" t="str">
@@ -10123,7 +10132,7 @@
         <v>2</v>
       </c>
       <c r="E208" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C208&amp;"' =&gt; '"&amp;B208&amp;"',"</f>
         <v>'ô£' =&gt; 'லா',</v>
       </c>
       <c r="F208" t="str">
@@ -10146,7 +10155,7 @@
         <v>2</v>
       </c>
       <c r="E209" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C209&amp;"' =&gt; '"&amp;B209&amp;"',"</f>
         <v>'ö£' =&gt; 'ழா',</v>
       </c>
       <c r="F209" t="str">
@@ -10169,7 +10178,7 @@
         <v>2</v>
       </c>
       <c r="E210" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C210&amp;"' =&gt; '"&amp;B210&amp;"',"</f>
         <v>'õ£' =&gt; 'வா',</v>
       </c>
       <c r="F210" t="str">
@@ -10192,7 +10201,7 @@
         <v>2</v>
       </c>
       <c r="E211" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C211&amp;"' =&gt; '"&amp;B211&amp;"',"</f>
         <v>'ø£' =&gt; 'றா',</v>
       </c>
       <c r="F211" t="str">
@@ -10215,7 +10224,7 @@
         <v>2</v>
       </c>
       <c r="E212" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C212&amp;"' =&gt; '"&amp;B212&amp;"',"</f>
         <v>'ó¤' =&gt; 'ரி',</v>
       </c>
       <c r="F212" t="str">
@@ -10238,7 +10247,7 @@
         <v>2</v>
       </c>
       <c r="E213" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C213&amp;"' =&gt; '"&amp;B213&amp;"',"</f>
         <v>'ò¤' =&gt; 'யி',</v>
       </c>
       <c r="F213" t="str">
@@ -10261,7 +10270,7 @@
         <v>2</v>
       </c>
       <c r="E214" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C214&amp;"' =&gt; '"&amp;B214&amp;"',"</f>
         <v>'ô¤' =&gt; 'லி',</v>
       </c>
       <c r="F214" t="str">
@@ -10284,7 +10293,7 @@
         <v>2</v>
       </c>
       <c r="E215" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C215&amp;"' =&gt; '"&amp;B215&amp;"',"</f>
         <v>'ö¤' =&gt; 'ழி',</v>
       </c>
       <c r="F215" t="str">
@@ -10307,7 +10316,7 @@
         <v>2</v>
       </c>
       <c r="E216" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C216&amp;"' =&gt; '"&amp;B216&amp;"',"</f>
         <v>'õ¤' =&gt; 'வி',</v>
       </c>
       <c r="F216" t="str">
@@ -10330,7 +10339,7 @@
         <v>2</v>
       </c>
       <c r="E217" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C217&amp;"' =&gt; '"&amp;B217&amp;"',"</f>
         <v>'ø¤' =&gt; 'றி',</v>
       </c>
       <c r="F217" t="str">
@@ -10353,7 +10362,7 @@
         <v>2</v>
       </c>
       <c r="E218" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C218&amp;"' =&gt; '"&amp;B218&amp;"',"</f>
         <v>'ú¦' =&gt; 'ஸீ',</v>
       </c>
       <c r="F218" t="str">
@@ -10376,7 +10385,7 @@
         <v>2</v>
       </c>
       <c r="E219" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C219&amp;"' =&gt; '"&amp;B219&amp;"',"</f>
         <v>'ù¦' =&gt; 'னீ',</v>
       </c>
       <c r="F219" t="str">
@@ -10399,7 +10408,7 @@
         <v>2</v>
       </c>
       <c r="E220" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C220&amp;"' =&gt; '"&amp;B220&amp;"',"</f>
         <v>'û¦' =&gt; 'ஷீ',</v>
       </c>
       <c r="F220" t="str">
@@ -10422,7 +10431,7 @@
         <v>2</v>
       </c>
       <c r="E221" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C221&amp;"' =&gt; '"&amp;B221&amp;"',"</f>
         <v>'ü¦' =&gt; 'ஜீ',</v>
       </c>
       <c r="F221" t="str">
@@ -10445,7 +10454,7 @@
         <v>2</v>
       </c>
       <c r="E222" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C222&amp;"' =&gt; '"&amp;B222&amp;"',"</f>
         <v>'ú¨' =&gt; 'ஸூ',</v>
       </c>
       <c r="F222" t="str">
@@ -10468,7 +10477,7 @@
         <v>2</v>
       </c>
       <c r="E223" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C223&amp;"' =&gt; '"&amp;B223&amp;"',"</f>
         <v>'û¨' =&gt; 'ஷூ',</v>
       </c>
       <c r="F223" t="str">
@@ -10491,7 +10500,7 @@
         <v>2</v>
       </c>
       <c r="E224" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C224&amp;"' =&gt; '"&amp;B224&amp;"',"</f>
         <v>'ü¨' =&gt; 'ஜூ',</v>
       </c>
       <c r="F224" t="str">
@@ -10514,7 +10523,7 @@
         <v>2</v>
       </c>
       <c r="E225" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C225&amp;"' =&gt; '"&amp;B225&amp;"',"</f>
         <v>'ú¢' =&gt; 'ஸ்',</v>
       </c>
       <c r="F225" t="str">
@@ -10537,7 +10546,7 @@
         <v>2</v>
       </c>
       <c r="E226" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C226&amp;"' =&gt; '"&amp;B226&amp;"',"</f>
         <v>'ù¢' =&gt; 'ன்',</v>
       </c>
       <c r="F226" t="str">
@@ -10560,7 +10569,7 @@
         <v>2</v>
       </c>
       <c r="E227" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C227&amp;"' =&gt; '"&amp;B227&amp;"',"</f>
         <v>'û¢' =&gt; 'ஷ்',</v>
       </c>
       <c r="F227" t="str">
@@ -10583,7 +10592,7 @@
         <v>2</v>
       </c>
       <c r="E228" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C228&amp;"' =&gt; '"&amp;B228&amp;"',"</f>
         <v>'ü¢' =&gt; 'ஜ்',</v>
       </c>
       <c r="F228" t="str">
@@ -10606,7 +10615,7 @@
         <v>2</v>
       </c>
       <c r="E229" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C229&amp;"' =&gt; '"&amp;B229&amp;"',"</f>
         <v>'ú£' =&gt; 'ஸா',</v>
       </c>
       <c r="F229" t="str">
@@ -10629,7 +10638,7 @@
         <v>2</v>
       </c>
       <c r="E230" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C230&amp;"' =&gt; '"&amp;B230&amp;"',"</f>
         <v>'ù£' =&gt; 'னா',</v>
       </c>
       <c r="F230" t="str">
@@ -10652,7 +10661,7 @@
         <v>2</v>
       </c>
       <c r="E231" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C231&amp;"' =&gt; '"&amp;B231&amp;"',"</f>
         <v>'û£' =&gt; 'ஷா',</v>
       </c>
       <c r="F231" t="str">
@@ -10675,7 +10684,7 @@
         <v>2</v>
       </c>
       <c r="E232" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C232&amp;"' =&gt; '"&amp;B232&amp;"',"</f>
         <v>'ü£' =&gt; 'ஜா',</v>
       </c>
       <c r="F232" t="str">
@@ -10698,7 +10707,7 @@
         <v>2</v>
       </c>
       <c r="E233" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C233&amp;"' =&gt; '"&amp;B233&amp;"',"</f>
         <v>'ú¤' =&gt; 'ஸி',</v>
       </c>
       <c r="F233" t="str">
@@ -10721,7 +10730,7 @@
         <v>2</v>
       </c>
       <c r="E234" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C234&amp;"' =&gt; '"&amp;B234&amp;"',"</f>
         <v>'ù¤' =&gt; 'னி',</v>
       </c>
       <c r="F234" t="str">
@@ -10744,7 +10753,7 @@
         <v>2</v>
       </c>
       <c r="E235" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C235&amp;"' =&gt; '"&amp;B235&amp;"',"</f>
         <v>'û¤' =&gt; 'ஷி',</v>
       </c>
       <c r="F235" t="str">
@@ -10767,7 +10776,7 @@
         <v>2</v>
       </c>
       <c r="E236" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C236&amp;"' =&gt; '"&amp;B236&amp;"',"</f>
         <v>'ü¤' =&gt; 'ஜி',</v>
       </c>
       <c r="F236" t="str">
@@ -10790,7 +10799,7 @@
         <v>2</v>
       </c>
       <c r="E237" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C237&amp;"' =&gt; '"&amp;B237&amp;"',"</f>
         <v>'ú§' =&gt; 'ஸு',</v>
       </c>
       <c r="F237" t="str">
@@ -10813,7 +10822,7 @@
         <v>2</v>
       </c>
       <c r="E238" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C238&amp;"' =&gt; '"&amp;B238&amp;"',"</f>
         <v>'û§' =&gt; 'ஷு',</v>
       </c>
       <c r="F238" t="str">
@@ -10836,7 +10845,7 @@
         <v>2</v>
       </c>
       <c r="E239" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C239&amp;"' =&gt; '"&amp;B239&amp;"',"</f>
         <v>'ü§' =&gt; 'ஜு',</v>
       </c>
       <c r="F239" t="str">
@@ -10859,7 +10868,7 @@
         <v>2</v>
       </c>
       <c r="E240" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C240&amp;"' =&gt; '"&amp;B240&amp;"',"</f>
         <v>'ý¦' =&gt; 'ஹீ',</v>
       </c>
       <c r="F240" t="str">
@@ -10882,7 +10891,7 @@
         <v>2</v>
       </c>
       <c r="E241" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C241&amp;"' =&gt; '"&amp;B241&amp;"',"</f>
         <v>'ý¨' =&gt; 'ஹூ',</v>
       </c>
       <c r="F241" t="str">
@@ -10905,7 +10914,7 @@
         <v>2</v>
       </c>
       <c r="E242" t="str">
-        <f t="shared" si="6"/>
+        <f>"'"&amp;C242&amp;"' =&gt; '"&amp;B242&amp;"',"</f>
         <v>'ý¢' =&gt; 'ஹ்',</v>
       </c>
       <c r="F242" t="str">
@@ -10914,1720 +10923,1757 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243">
-        <v>302</v>
-      </c>
-      <c r="B243" t="s">
-        <v>591</v>
+      <c r="B243" s="31" t="s">
+        <v>668</v>
       </c>
       <c r="C243" t="s">
-        <v>592</v>
+        <v>669</v>
       </c>
       <c r="D243">
         <f>LEN(C243)</f>
         <v>2</v>
       </c>
       <c r="E243" t="str">
-        <f t="shared" si="6"/>
-        <v>'ý£' =&gt; 'ஹா',</v>
+        <f>"'"&amp;C243&amp;"' =&gt; '"&amp;B243&amp;"',"</f>
+        <v>'ÿ¢' =&gt; 'ஸ்ரீ',</v>
       </c>
       <c r="F243" t="str">
         <f>"'"&amp;B243&amp;"' =&gt; '"&amp;C243&amp;"',"</f>
-        <v>'ஹா' =&gt; 'ý£',</v>
+        <v>'ஸ்ரீ' =&gt; 'ÿ¢',</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B244" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C244" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D244">
         <f>LEN(C244)</f>
         <v>2</v>
       </c>
       <c r="E244" t="str">
-        <f t="shared" si="6"/>
-        <v>'ý¤' =&gt; 'ஹி',</v>
+        <f>"'"&amp;C244&amp;"' =&gt; '"&amp;B244&amp;"',"</f>
+        <v>'ý£' =&gt; 'ஹா',</v>
       </c>
       <c r="F244" t="str">
         <f>"'"&amp;B244&amp;"' =&gt; '"&amp;C244&amp;"',"</f>
-        <v>'ஹி' =&gt; 'ý¤',</v>
+        <v>'ஹா' =&gt; 'ý£',</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B245" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C245" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="D245">
         <f>LEN(C245)</f>
         <v>2</v>
       </c>
       <c r="E245" t="str">
-        <f t="shared" si="6"/>
-        <v>'ý§' =&gt; 'ஹு',</v>
+        <f>"'"&amp;C245&amp;"' =&gt; '"&amp;B245&amp;"',"</f>
+        <v>'ý¤' =&gt; 'ஹி',</v>
       </c>
       <c r="F245" t="str">
         <f>"'"&amp;B245&amp;"' =&gt; '"&amp;C245&amp;"',"</f>
-        <v>'ஹு' =&gt; 'ý§',</v>
+        <v>'ஹி' =&gt; 'ý¤',</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>84</v>
+        <v>305</v>
       </c>
       <c r="B246" t="s">
-        <v>249</v>
+        <v>597</v>
       </c>
       <c r="C246" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="D246">
         <f>LEN(C246)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E246" t="str">
-        <f t="shared" si="6"/>
-        <v>'´' =&gt; 'டு',</v>
+        <f>"'"&amp;C246&amp;"' =&gt; '"&amp;B246&amp;"',"</f>
+        <v>'ý§' =&gt; 'ஹு',</v>
       </c>
       <c r="F246" t="str">
         <f>"'"&amp;B246&amp;"' =&gt; '"&amp;C246&amp;"',"</f>
-        <v>'டு' =&gt; '´',</v>
+        <v>'ஹு' =&gt; 'ý§',</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="B247" t="s">
-        <v>315</v>
+        <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D247">
         <f>LEN(C247)</f>
         <v>1</v>
       </c>
       <c r="E247" t="str">
-        <f t="shared" si="6"/>
-        <v>'¸' =&gt; 'நு',</v>
+        <f>"'"&amp;C247&amp;"' =&gt; '"&amp;B247&amp;"',"</f>
+        <v>'´' =&gt; 'டு',</v>
       </c>
       <c r="F247" t="str">
         <f>"'"&amp;B247&amp;"' =&gt; '"&amp;C247&amp;"',"</f>
-        <v>'நு' =&gt; '¸',</v>
+        <v>'டு' =&gt; '´',</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="B248" t="s">
-        <v>509</v>
+        <v>315</v>
       </c>
       <c r="C248" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="D248">
         <f>LEN(C248)</f>
         <v>1</v>
       </c>
       <c r="E248" t="str">
-        <f t="shared" si="6"/>
-        <v>'¿' =&gt; 'ழு',</v>
+        <f>"'"&amp;C248&amp;"' =&gt; '"&amp;B248&amp;"',"</f>
+        <v>'¸' =&gt; 'நு',</v>
       </c>
       <c r="F248" t="str">
         <f>"'"&amp;B248&amp;"' =&gt; '"&amp;C248&amp;"',"</f>
-        <v>'ழு' =&gt; '¿',</v>
+        <v>'நு' =&gt; '¸',</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="B249" t="s">
-        <v>161</v>
+        <v>509</v>
       </c>
       <c r="C249" t="s">
-        <v>102</v>
+        <v>654</v>
       </c>
       <c r="D249">
         <f>LEN(C249)</f>
         <v>1</v>
       </c>
       <c r="E249" t="str">
-        <f t="shared" si="6"/>
-        <v>'±' =&gt; 'ஙு',</v>
+        <f>"'"&amp;C249&amp;"' =&gt; '"&amp;B249&amp;"',"</f>
+        <v>'¿' =&gt; 'ழு',</v>
       </c>
       <c r="F249" t="str">
         <f>"'"&amp;B249&amp;"' =&gt; '"&amp;C249&amp;"',"</f>
-        <v>'ஙு' =&gt; '±',</v>
+        <v>'ழு' =&gt; '¿',</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="B250" t="s">
-        <v>401</v>
+        <v>161</v>
       </c>
       <c r="C250" t="s">
-        <v>649</v>
+        <v>102</v>
       </c>
       <c r="D250">
         <f>LEN(C250)</f>
         <v>1</v>
       </c>
       <c r="E250" t="str">
-        <f t="shared" si="6"/>
-        <v>'»' =&gt; 'யு',</v>
+        <f>"'"&amp;C250&amp;"' =&gt; '"&amp;B250&amp;"',"</f>
+        <v>'±' =&gt; 'ஙு',</v>
       </c>
       <c r="F250" t="str">
         <f>"'"&amp;B250&amp;"' =&gt; '"&amp;C250&amp;"',"</f>
-        <v>'யு' =&gt; '»',</v>
+        <v>'ஙு' =&gt; '±',</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="B251" t="s">
-        <v>532</v>
+        <v>401</v>
       </c>
       <c r="C251" t="s">
-        <v>118</v>
+        <v>649</v>
       </c>
       <c r="D251">
         <f>LEN(C251)</f>
         <v>1</v>
       </c>
       <c r="E251" t="str">
-        <f t="shared" si="6"/>
-        <v>'×' =&gt; 'வூ',</v>
+        <f>"'"&amp;C251&amp;"' =&gt; '"&amp;B251&amp;"',"</f>
+        <v>'»' =&gt; 'யு',</v>
       </c>
       <c r="F251" t="str">
         <f>"'"&amp;B251&amp;"' =&gt; '"&amp;C251&amp;"',"</f>
-        <v>'வூ' =&gt; '×',</v>
+        <v>'யு' =&gt; '»',</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B252" t="s">
-        <v>38</v>
+        <v>532</v>
       </c>
       <c r="C252" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="D252">
         <f>LEN(C252)</f>
         <v>1</v>
       </c>
       <c r="E252" t="str">
-        <f t="shared" si="6"/>
-        <v>'÷' =&gt; 'ள',</v>
+        <f>"'"&amp;C252&amp;"' =&gt; '"&amp;B252&amp;"',"</f>
+        <v>'×' =&gt; 'வூ',</v>
       </c>
       <c r="F252" t="str">
         <f>"'"&amp;B252&amp;"' =&gt; '"&amp;C252&amp;"',"</f>
-        <v>'ள' =&gt; '÷',</v>
+        <v>'வூ' =&gt; '×',</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>82</v>
-      </c>
-      <c r="B253" s="31" t="s">
-        <v>245</v>
+        <v>222</v>
+      </c>
+      <c r="B253" t="s">
+        <v>38</v>
       </c>
       <c r="C253" t="s">
-        <v>660</v>
+        <v>90</v>
       </c>
       <c r="D253">
         <f>LEN(C253)</f>
         <v>1</v>
       </c>
       <c r="E253" t="str">
-        <f t="shared" si="6"/>
-        <v>'®' =&gt; 'டி',</v>
+        <f>"'"&amp;C253&amp;"' =&gt; '"&amp;B253&amp;"',"</f>
+        <v>'÷' =&gt; 'ள',</v>
       </c>
       <c r="F253" t="str">
         <f>"'"&amp;B253&amp;"' =&gt; '"&amp;C253&amp;"',"</f>
-        <v>'டி' =&gt; '®',</v>
+        <v>'ள' =&gt; '÷',</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>19</v>
-      </c>
-      <c r="B254" t="s">
-        <v>141</v>
+        <v>82</v>
+      </c>
+      <c r="B254" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="C254" t="s">
-        <v>101</v>
+        <v>660</v>
       </c>
       <c r="D254">
         <f>LEN(C254)</f>
         <v>1</v>
       </c>
       <c r="E254" t="str">
-        <f t="shared" si="6"/>
-        <v>'°' =&gt; 'கு',</v>
+        <f>"'"&amp;C254&amp;"' =&gt; '"&amp;B254&amp;"',"</f>
+        <v>'®' =&gt; 'டி',</v>
       </c>
       <c r="F254" t="str">
         <f>"'"&amp;B254&amp;"' =&gt; '"&amp;C254&amp;"',"</f>
-        <v>'கு' =&gt; '°',</v>
+        <v>'டி' =&gt; '®',</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B255" t="s">
-        <v>271</v>
+        <v>141</v>
       </c>
       <c r="C255" t="s">
-        <v>644</v>
+        <v>101</v>
       </c>
       <c r="D255">
         <f>LEN(C255)</f>
         <v>1</v>
       </c>
       <c r="E255" t="str">
-        <f t="shared" si="6"/>
-        <v>'µ' =&gt; 'ணு',</v>
+        <f>"'"&amp;C255&amp;"' =&gt; '"&amp;B255&amp;"',"</f>
+        <v>'°' =&gt; 'கு',</v>
       </c>
       <c r="F255" t="str">
         <f>"'"&amp;B255&amp;"' =&gt; '"&amp;C255&amp;"',"</f>
-        <v>'ணு' =&gt; 'µ',</v>
+        <v>'கு' =&gt; '°',</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B256" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C256" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D256">
         <f>LEN(C256)</f>
         <v>1</v>
       </c>
       <c r="E256" t="str">
-        <f t="shared" si="6"/>
-        <v>'¶' =&gt; 'து',</v>
+        <f>"'"&amp;C256&amp;"' =&gt; '"&amp;B256&amp;"',"</f>
+        <v>'µ' =&gt; 'ணு',</v>
       </c>
       <c r="F256" t="str">
         <f>"'"&amp;B256&amp;"' =&gt; '"&amp;C256&amp;"',"</f>
-        <v>'து' =&gt; '¶',</v>
+        <v>'ணு' =&gt; 'µ',</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="B257" t="s">
-        <v>423</v>
+        <v>293</v>
       </c>
       <c r="C257" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D257">
         <f>LEN(C257)</f>
         <v>1</v>
       </c>
       <c r="E257" t="str">
-        <f t="shared" si="6"/>
-        <v>'¼' =&gt; 'ரு',</v>
+        <f>"'"&amp;C257&amp;"' =&gt; '"&amp;B257&amp;"',"</f>
+        <v>'¶' =&gt; 'து',</v>
       </c>
       <c r="F257" t="str">
         <f>"'"&amp;B257&amp;"' =&gt; '"&amp;C257&amp;"',"</f>
-        <v>'ரு' =&gt; '¼',</v>
+        <v>'து' =&gt; '¶',</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B258" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="C258" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D258">
         <f>LEN(C258)</f>
         <v>1</v>
       </c>
       <c r="E258" t="str">
-        <f t="shared" si="6"/>
-        <v>'½' =&gt; 'லு',</v>
+        <f>"'"&amp;C258&amp;"' =&gt; '"&amp;B258&amp;"',"</f>
+        <v>'¼' =&gt; 'ரு',</v>
       </c>
       <c r="F258" t="str">
         <f>"'"&amp;B258&amp;"' =&gt; '"&amp;C258&amp;"',"</f>
-        <v>'லு' =&gt; '½',</v>
+        <v>'ரு' =&gt; '¼',</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B259" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="C259" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D259">
         <f>LEN(C259)</f>
         <v>1</v>
       </c>
       <c r="E259" t="str">
-        <f t="shared" si="6"/>
-        <v>'¾' =&gt; 'வு',</v>
+        <f>"'"&amp;C259&amp;"' =&gt; '"&amp;B259&amp;"',"</f>
+        <v>'½' =&gt; 'லு',</v>
       </c>
       <c r="F259" t="str">
         <f>"'"&amp;B259&amp;"' =&gt; '"&amp;C259&amp;"',"</f>
-        <v>'வு' =&gt; '¾',</v>
+        <v>'லு' =&gt; '½',</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="B260" t="s">
-        <v>359</v>
+        <v>531</v>
       </c>
       <c r="C260" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="D260">
         <f>LEN(C260)</f>
         <v>1</v>
       </c>
       <c r="E260" t="str">
-        <f t="shared" si="6"/>
-        <v>'¹' =&gt; 'பு',</v>
+        <f>"'"&amp;C260&amp;"' =&gt; '"&amp;B260&amp;"',"</f>
+        <v>'¾' =&gt; 'வு',</v>
       </c>
       <c r="F260" t="str">
         <f>"'"&amp;B260&amp;"' =&gt; '"&amp;C260&amp;"',"</f>
-        <v>'பு' =&gt; '¹',</v>
+        <v>'வு' =&gt; '¾',</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="B261" t="s">
-        <v>183</v>
+        <v>359</v>
       </c>
       <c r="C261" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D261">
         <f>LEN(C261)</f>
         <v>1</v>
       </c>
       <c r="E261" t="str">
-        <f t="shared" ref="E261:E317" si="7">"'"&amp;C261&amp;"' =&gt; '"&amp;B261&amp;"',"</f>
-        <v>'²' =&gt; 'சு',</v>
+        <f>"'"&amp;C261&amp;"' =&gt; '"&amp;B261&amp;"',"</f>
+        <v>'¹' =&gt; 'பு',</v>
       </c>
       <c r="F261" t="str">
         <f>"'"&amp;B261&amp;"' =&gt; '"&amp;C261&amp;"',"</f>
-        <v>'சு' =&gt; '²',</v>
+        <v>'பு' =&gt; '¹',</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B262" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="C262" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D262">
         <f>LEN(C262)</f>
         <v>1</v>
       </c>
       <c r="E262" t="str">
-        <f t="shared" si="7"/>
-        <v>'³' =&gt; 'ஞு',</v>
+        <f>"'"&amp;C262&amp;"' =&gt; '"&amp;B262&amp;"',"</f>
+        <v>'²' =&gt; 'சு',</v>
       </c>
       <c r="F262" t="str">
         <f>"'"&amp;B262&amp;"' =&gt; '"&amp;C262&amp;"',"</f>
-        <v>'ஞு' =&gt; '³',</v>
+        <v>'சு' =&gt; '²',</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B263" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="C263" t="s">
-        <v>68</v>
+        <v>642</v>
       </c>
       <c r="D263">
         <f>LEN(C263)</f>
         <v>1</v>
       </c>
       <c r="E263" t="str">
-        <f t="shared" si="7"/>
-        <v>'á' =&gt; 'ஊ',</v>
+        <f>"'"&amp;C263&amp;"' =&gt; '"&amp;B263&amp;"',"</f>
+        <v>'³' =&gt; 'ஞு',</v>
       </c>
       <c r="F263" t="str">
         <f>"'"&amp;B263&amp;"' =&gt; '"&amp;C263&amp;"',"</f>
-        <v>'ஊ' =&gt; 'á',</v>
+        <v>'ஞு' =&gt; '³',</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="B264" t="s">
-        <v>443</v>
+        <v>16</v>
       </c>
       <c r="C264" t="s">
-        <v>651</v>
+        <v>68</v>
       </c>
       <c r="D264">
         <f>LEN(C264)</f>
         <v>1</v>
       </c>
       <c r="E264" t="str">
-        <f t="shared" si="7"/>
-        <v>'Á' =&gt; 'று',</v>
+        <f>"'"&amp;C264&amp;"' =&gt; '"&amp;B264&amp;"',"</f>
+        <v>'á' =&gt; 'ஊ',</v>
       </c>
       <c r="F264" t="str">
         <f>"'"&amp;B264&amp;"' =&gt; '"&amp;C264&amp;"',"</f>
-        <v>'று' =&gt; 'Á',</v>
+        <v>'ஊ' =&gt; 'á',</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>443</v>
       </c>
       <c r="C265" t="s">
-        <v>67</v>
+        <v>651</v>
       </c>
       <c r="D265">
         <f>LEN(C265)</f>
         <v>1</v>
       </c>
       <c r="E265" t="str">
-        <f t="shared" si="7"/>
-        <v>'à' =&gt; 'உ',</v>
+        <f>"'"&amp;C265&amp;"' =&gt; '"&amp;B265&amp;"',"</f>
+        <v>'Á' =&gt; 'று',</v>
       </c>
       <c r="F265" t="str">
         <f>"'"&amp;B265&amp;"' =&gt; '"&amp;C265&amp;"',"</f>
-        <v>'உ' =&gt; 'à',</v>
+        <v>'று' =&gt; 'Á',</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>227</v>
+        <v>6</v>
       </c>
       <c r="B266" t="s">
-        <v>487</v>
+        <v>15</v>
       </c>
       <c r="C266" t="s">
-        <v>653</v>
+        <v>67</v>
       </c>
       <c r="D266">
         <f>LEN(C266)</f>
         <v>1</v>
       </c>
       <c r="E266" t="str">
-        <f t="shared" si="7"/>
-        <v>'À' =&gt; 'ளு',</v>
+        <f>"'"&amp;C266&amp;"' =&gt; '"&amp;B266&amp;"',"</f>
+        <v>'à' =&gt; 'உ',</v>
       </c>
       <c r="F266" t="str">
         <f>"'"&amp;B266&amp;"' =&gt; '"&amp;C266&amp;"',"</f>
-        <v>'ளு' =&gt; 'À',</v>
+        <v>'உ' =&gt; 'à',</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="B267" t="s">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="C267" t="s">
-        <v>69</v>
+        <v>653</v>
       </c>
       <c r="D267">
         <f>LEN(C267)</f>
         <v>1</v>
       </c>
       <c r="E267" t="str">
-        <f t="shared" si="7"/>
-        <v>'â' =&gt; 'எ',</v>
+        <f>"'"&amp;C267&amp;"' =&gt; '"&amp;B267&amp;"',"</f>
+        <v>'À' =&gt; 'ளு',</v>
       </c>
       <c r="F267" t="str">
         <f>"'"&amp;B267&amp;"' =&gt; '"&amp;C267&amp;"',"</f>
-        <v>'எ' =&gt; 'â',</v>
+        <v>'ளு' =&gt; 'À',</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>253</v>
+        <v>8</v>
       </c>
       <c r="B268" t="s">
-        <v>337</v>
+        <v>17</v>
       </c>
       <c r="C268" t="s">
-        <v>647</v>
+        <v>69</v>
       </c>
       <c r="D268">
         <f>LEN(C268)</f>
         <v>1</v>
       </c>
       <c r="E268" t="str">
-        <f t="shared" si="7"/>
-        <v>'Â' =&gt; 'னு',</v>
+        <f>"'"&amp;C268&amp;"' =&gt; '"&amp;B268&amp;"',"</f>
+        <v>'â' =&gt; 'எ',</v>
       </c>
       <c r="F268" t="str">
         <f>"'"&amp;B268&amp;"' =&gt; '"&amp;C268&amp;"',"</f>
-        <v>'னு' =&gt; 'Â',</v>
+        <v>'எ' =&gt; 'â',</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="B269" t="s">
-        <v>19</v>
+        <v>337</v>
       </c>
       <c r="C269" t="s">
-        <v>71</v>
+        <v>647</v>
       </c>
       <c r="D269">
         <f>LEN(C269)</f>
         <v>1</v>
       </c>
       <c r="E269" t="str">
-        <f t="shared" si="7"/>
-        <v>'ä' =&gt; 'ஐ',</v>
+        <f>"'"&amp;C269&amp;"' =&gt; '"&amp;B269&amp;"',"</f>
+        <v>'Â' =&gt; 'னு',</v>
       </c>
       <c r="F269" t="str">
         <f>"'"&amp;B269&amp;"' =&gt; '"&amp;C269&amp;"',"</f>
-        <v>'ஐ' =&gt; 'ä',</v>
+        <v>'னு' =&gt; 'Â',</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>46</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>663</v>
+        <v>10</v>
+      </c>
+      <c r="B270" t="s">
+        <v>19</v>
+      </c>
+      <c r="C270" t="s">
+        <v>71</v>
       </c>
       <c r="D270">
         <f>LEN(C270)</f>
         <v>1</v>
       </c>
       <c r="E270" t="str">
-        <f t="shared" si="7"/>
-        <v>'Ä' =&gt; 'ஙூ',</v>
+        <f>"'"&amp;C270&amp;"' =&gt; '"&amp;B270&amp;"',"</f>
+        <v>'ä' =&gt; 'ஐ',</v>
       </c>
       <c r="F270" t="str">
         <f>"'"&amp;B270&amp;"' =&gt; '"&amp;C270&amp;"',"</f>
-        <v>'ஙூ' =&gt; 'Ä',</v>
+        <v>'ஐ' =&gt; 'ä',</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>9</v>
-      </c>
-      <c r="B271" t="s">
-        <v>18</v>
-      </c>
-      <c r="C271" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>663</v>
       </c>
       <c r="D271">
         <f>LEN(C271)</f>
         <v>1</v>
       </c>
       <c r="E271" t="str">
-        <f t="shared" si="7"/>
-        <v>'ã' =&gt; 'ஏ',</v>
+        <f>"'"&amp;C271&amp;"' =&gt; '"&amp;B271&amp;"',"</f>
+        <v>'Ä' =&gt; 'ஙூ',</v>
       </c>
       <c r="F271" t="str">
         <f>"'"&amp;B271&amp;"' =&gt; '"&amp;C271&amp;"',"</f>
-        <v>'ஏ' =&gt; 'ã',</v>
+        <v>'ஙூ' =&gt; 'Ä',</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="C272" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D272">
         <f>LEN(C272)</f>
         <v>1</v>
       </c>
       <c r="E272" t="str">
-        <f t="shared" si="7"/>
-        <v>'Ã' =&gt; 'கூ',</v>
+        <f>"'"&amp;C272&amp;"' =&gt; '"&amp;B272&amp;"',"</f>
+        <v>'ã' =&gt; 'ஏ',</v>
       </c>
       <c r="F272" t="str">
         <f>"'"&amp;B272&amp;"' =&gt; '"&amp;C272&amp;"',"</f>
-        <v>'கூ' =&gt; 'Ã',</v>
+        <v>'ஏ' =&gt; 'ã',</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B273" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="C273" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D273">
         <f>LEN(C273)</f>
         <v>1</v>
       </c>
       <c r="E273" t="str">
-        <f t="shared" si="7"/>
-        <v>'å' =&gt; 'ஒ',</v>
+        <f>"'"&amp;C273&amp;"' =&gt; '"&amp;B273&amp;"',"</f>
+        <v>'Ã' =&gt; 'கூ',</v>
       </c>
       <c r="F273" t="str">
         <f>"'"&amp;B273&amp;"' =&gt; '"&amp;C273&amp;"',"</f>
-        <v>'ஒ' =&gt; 'å',</v>
+        <v>'கூ' =&gt; 'Ã',</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274">
-        <v>59</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>664</v>
+        <v>11</v>
+      </c>
+      <c r="B274" t="s">
+        <v>20</v>
+      </c>
+      <c r="C274" t="s">
+        <v>72</v>
       </c>
       <c r="D274">
         <f>LEN(C274)</f>
         <v>1</v>
       </c>
       <c r="E274" t="str">
-        <f t="shared" si="7"/>
-        <v>'Å' =&gt; 'சூ',</v>
+        <f>"'"&amp;C274&amp;"' =&gt; '"&amp;B274&amp;"',"</f>
+        <v>'å' =&gt; 'ஒ',</v>
       </c>
       <c r="F274" t="str">
         <f>"'"&amp;B274&amp;"' =&gt; '"&amp;C274&amp;"',"</f>
-        <v>'சூ' =&gt; 'Å',</v>
+        <v>'ஒ' =&gt; 'å',</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275">
-        <v>12</v>
-      </c>
-      <c r="B275" t="s">
-        <v>21</v>
-      </c>
-      <c r="C275" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>664</v>
       </c>
       <c r="D275">
         <f>LEN(C275)</f>
         <v>1</v>
       </c>
       <c r="E275" t="str">
-        <f t="shared" si="7"/>
-        <v>'æ' =&gt; 'ஓ',</v>
+        <f>"'"&amp;C275&amp;"' =&gt; '"&amp;B275&amp;"',"</f>
+        <v>'Å' =&gt; 'சூ',</v>
       </c>
       <c r="F275" t="str">
         <f>"'"&amp;B275&amp;"' =&gt; '"&amp;C275&amp;"',"</f>
-        <v>'ஓ' =&gt; 'æ',</v>
+        <v>'சூ' =&gt; 'Å',</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276">
-        <v>72</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>661</v>
+        <v>12</v>
+      </c>
+      <c r="B276" t="s">
+        <v>21</v>
+      </c>
+      <c r="C276" t="s">
+        <v>73</v>
       </c>
       <c r="D276">
         <f>LEN(C276)</f>
         <v>1</v>
       </c>
       <c r="E276" t="str">
-        <f t="shared" si="7"/>
-        <v>'Æ' =&gt; 'ஞூ',</v>
+        <f>"'"&amp;C276&amp;"' =&gt; '"&amp;B276&amp;"',"</f>
+        <v>'æ' =&gt; 'ஓ',</v>
       </c>
       <c r="F276" t="str">
         <f>"'"&amp;B276&amp;"' =&gt; '"&amp;C276&amp;"',"</f>
-        <v>'ஞூ' =&gt; 'Æ',</v>
+        <v>'ஓ' =&gt; 'æ',</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277">
-        <v>1</v>
-      </c>
-      <c r="B277" t="s">
-        <v>10</v>
-      </c>
-      <c r="C277" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>661</v>
       </c>
       <c r="D277">
         <f>LEN(C277)</f>
         <v>1</v>
       </c>
       <c r="E277" t="str">
-        <f t="shared" si="7"/>
-        <v>'ç' =&gt; 'ஃ',</v>
+        <f>"'"&amp;C277&amp;"' =&gt; '"&amp;B277&amp;"',"</f>
+        <v>'Æ' =&gt; 'ஞூ',</v>
       </c>
       <c r="F277" t="str">
         <f>"'"&amp;B277&amp;"' =&gt; '"&amp;C277&amp;"',"</f>
-        <v>'ஃ' =&gt; 'ç',</v>
+        <v>'ஞூ' =&gt; 'Æ',</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278">
-        <v>85</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>665</v>
+        <v>1</v>
+      </c>
+      <c r="B278" t="s">
+        <v>10</v>
+      </c>
+      <c r="C278" t="s">
+        <v>62</v>
       </c>
       <c r="D278">
         <f>LEN(C278)</f>
         <v>1</v>
       </c>
       <c r="E278" t="str">
-        <f t="shared" si="7"/>
-        <v>'Ç' =&gt; 'டூ',</v>
+        <f>"'"&amp;C278&amp;"' =&gt; '"&amp;B278&amp;"',"</f>
+        <v>'ç' =&gt; 'ஃ',</v>
       </c>
       <c r="F278" t="str">
         <f>"'"&amp;B278&amp;"' =&gt; '"&amp;C278&amp;"',"</f>
-        <v>'டூ' =&gt; 'Ç',</v>
+        <v>'ஃ' =&gt; 'ç',</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279">
-        <v>131</v>
-      </c>
-      <c r="B279" t="s">
-        <v>32</v>
-      </c>
-      <c r="C279" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>665</v>
       </c>
       <c r="D279">
         <f>LEN(C279)</f>
         <v>1</v>
       </c>
       <c r="E279" t="str">
-        <f t="shared" si="7"/>
-        <v>'ð' =&gt; 'ப',</v>
+        <f>"'"&amp;C279&amp;"' =&gt; '"&amp;B279&amp;"',"</f>
+        <v>'Ç' =&gt; 'டூ',</v>
       </c>
       <c r="F279" t="str">
         <f>"'"&amp;B279&amp;"' =&gt; '"&amp;C279&amp;"',"</f>
-        <v>'ப' =&gt; 'ð',</v>
+        <v>'டூ' =&gt; 'Ç',</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="B280" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C280" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D280">
         <f>LEN(C280)</f>
         <v>1</v>
       </c>
       <c r="E280" t="str">
-        <f t="shared" si="7"/>
-        <v>'é' =&gt; 'ங',</v>
+        <f>"'"&amp;C280&amp;"' =&gt; '"&amp;B280&amp;"',"</f>
+        <v>'ð' =&gt; 'ப',</v>
       </c>
       <c r="F280" t="str">
         <f>"'"&amp;B280&amp;"' =&gt; '"&amp;C280&amp;"',"</f>
-        <v>'ங' =&gt; 'é',</v>
+        <v>'ப' =&gt; 'ð',</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281">
-        <v>111</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>662</v>
+        <v>40</v>
+      </c>
+      <c r="B281" t="s">
+        <v>23</v>
+      </c>
+      <c r="C281" t="s">
+        <v>75</v>
       </c>
       <c r="D281">
         <f>LEN(C281)</f>
         <v>1</v>
       </c>
       <c r="E281" t="str">
-        <f t="shared" si="7"/>
-        <v>'É' =&gt; 'தூ',</v>
+        <f>"'"&amp;C281&amp;"' =&gt; '"&amp;B281&amp;"',"</f>
+        <v>'é' =&gt; 'ங',</v>
       </c>
       <c r="F281" t="str">
         <f>"'"&amp;B281&amp;"' =&gt; '"&amp;C281&amp;"',"</f>
-        <v>'தூ' =&gt; 'É',</v>
+        <v>'ங' =&gt; 'é',</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282">
-        <v>14</v>
-      </c>
-      <c r="B282" t="s">
-        <v>5</v>
-      </c>
-      <c r="C282" t="s">
-        <v>4</v>
+        <v>111</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>662</v>
       </c>
       <c r="D282">
         <f>LEN(C282)</f>
         <v>1</v>
       </c>
       <c r="E282" t="str">
-        <f t="shared" si="7"/>
-        <v>'è' =&gt; 'க',</v>
+        <f>"'"&amp;C282&amp;"' =&gt; '"&amp;B282&amp;"',"</f>
+        <v>'É' =&gt; 'தூ',</v>
       </c>
       <c r="F282" t="str">
         <f>"'"&amp;B282&amp;"' =&gt; '"&amp;C282&amp;"',"</f>
-        <v>'க' =&gt; 'è',</v>
+        <v>'தூ' =&gt; 'É',</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="B283" t="s">
-        <v>272</v>
+        <v>5</v>
       </c>
       <c r="C283" t="s">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="D283">
         <f>LEN(C283)</f>
         <v>1</v>
       </c>
       <c r="E283" t="str">
-        <f t="shared" si="7"/>
-        <v>'È' =&gt; 'ணூ',</v>
+        <f>"'"&amp;C283&amp;"' =&gt; '"&amp;B283&amp;"',"</f>
+        <v>'è' =&gt; 'க',</v>
       </c>
       <c r="F283" t="str">
         <f>"'"&amp;B283&amp;"' =&gt; '"&amp;C283&amp;"',"</f>
-        <v>'ணூ' =&gt; 'È',</v>
+        <v>'க' =&gt; 'è',</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B284" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="C284" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D284">
         <f>LEN(C284)</f>
         <v>1</v>
       </c>
       <c r="E284" t="str">
-        <f t="shared" si="7"/>
-        <v>'ê' =&gt; 'ச',</v>
+        <f>"'"&amp;C284&amp;"' =&gt; '"&amp;B284&amp;"',"</f>
+        <v>'È' =&gt; 'ணூ',</v>
       </c>
       <c r="F284" t="str">
         <f>"'"&amp;B284&amp;"' =&gt; '"&amp;C284&amp;"',"</f>
-        <v>'ச' =&gt; 'ê',</v>
+        <v>'ணூ' =&gt; 'È',</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B285" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C285" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D285">
         <f>LEN(C285)</f>
         <v>1</v>
       </c>
       <c r="E285" t="str">
-        <f t="shared" si="7"/>
-        <v>'ë' =&gt; 'ஞ',</v>
+        <f>"'"&amp;C285&amp;"' =&gt; '"&amp;B285&amp;"',"</f>
+        <v>'ê' =&gt; 'ச',</v>
       </c>
       <c r="F285" t="str">
         <f>"'"&amp;B285&amp;"' =&gt; '"&amp;C285&amp;"',"</f>
-        <v>'ஞ' =&gt; 'ë',</v>
+        <v>'ச' =&gt; 'ê',</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="B286" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="C286" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D286">
         <f>LEN(C286)</f>
         <v>1</v>
       </c>
       <c r="E286" t="str">
-        <f t="shared" si="7"/>
-        <v>'Ë' =&gt; 'நூ',</v>
+        <f>"'"&amp;C286&amp;"' =&gt; '"&amp;B286&amp;"',"</f>
+        <v>'ë' =&gt; 'ஞ',</v>
       </c>
       <c r="F286" t="str">
         <f>"'"&amp;B286&amp;"' =&gt; '"&amp;C286&amp;"',"</f>
-        <v>'நூ' =&gt; 'Ë',</v>
+        <v>'ஞ' =&gt; 'ë',</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B287" t="s">
-        <v>28</v>
+        <v>316</v>
       </c>
       <c r="C287" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D287">
         <f>LEN(C287)</f>
         <v>1</v>
       </c>
       <c r="E287" t="str">
-        <f t="shared" si="7"/>
-        <v>'í' =&gt; 'ண',</v>
+        <f>"'"&amp;C287&amp;"' =&gt; '"&amp;B287&amp;"',"</f>
+        <v>'Ë' =&gt; 'நூ',</v>
       </c>
       <c r="F287" t="str">
         <f>"'"&amp;B287&amp;"' =&gt; '"&amp;C287&amp;"',"</f>
-        <v>'ண' =&gt; 'í',</v>
+        <v>'நூ' =&gt; 'Ë',</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B288" t="s">
-        <v>380</v>
+        <v>28</v>
       </c>
       <c r="C288" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="D288">
         <f>LEN(C288)</f>
         <v>1</v>
       </c>
       <c r="E288" t="str">
-        <f t="shared" si="7"/>
-        <v>'Í' =&gt; 'மூ',</v>
+        <f>"'"&amp;C288&amp;"' =&gt; '"&amp;B288&amp;"',"</f>
+        <v>'í' =&gt; 'ண',</v>
       </c>
       <c r="F288" t="str">
         <f>"'"&amp;B288&amp;"' =&gt; '"&amp;C288&amp;"',"</f>
-        <v>'மூ' =&gt; 'Í',</v>
+        <v>'ண' =&gt; 'í',</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="B289" t="s">
-        <v>27</v>
+        <v>380</v>
       </c>
       <c r="C289" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D289">
         <f>LEN(C289)</f>
         <v>1</v>
       </c>
       <c r="E289" t="str">
-        <f t="shared" si="7"/>
-        <v>'ì' =&gt; 'ட',</v>
+        <f>"'"&amp;C289&amp;"' =&gt; '"&amp;B289&amp;"',"</f>
+        <v>'Í' =&gt; 'மூ',</v>
       </c>
       <c r="F289" t="str">
         <f>"'"&amp;B289&amp;"' =&gt; '"&amp;C289&amp;"',"</f>
-        <v>'ட' =&gt; 'ì',</v>
+        <v>'மூ' =&gt; 'Í',</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="B290" t="s">
-        <v>360</v>
+        <v>27</v>
       </c>
       <c r="C290" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="D290">
         <f>LEN(C290)</f>
         <v>1</v>
       </c>
       <c r="E290" t="str">
-        <f t="shared" si="7"/>
-        <v>'Ì' =&gt; 'பூ',</v>
+        <f>"'"&amp;C290&amp;"' =&gt; '"&amp;B290&amp;"',"</f>
+        <v>'ì' =&gt; 'ட',</v>
       </c>
       <c r="F290" t="str">
         <f>"'"&amp;B290&amp;"' =&gt; '"&amp;C290&amp;"',"</f>
-        <v>'பூ' =&gt; 'Ì',</v>
+        <v>'ட' =&gt; 'ì',</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="B291" t="s">
-        <v>29</v>
+        <v>360</v>
       </c>
       <c r="C291" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D291">
         <f>LEN(C291)</f>
         <v>1</v>
       </c>
       <c r="E291" t="str">
-        <f t="shared" si="7"/>
-        <v>'î' =&gt; 'த',</v>
+        <f>"'"&amp;C291&amp;"' =&gt; '"&amp;B291&amp;"',"</f>
+        <v>'Ì' =&gt; 'பூ',</v>
       </c>
       <c r="F291" t="str">
         <f>"'"&amp;B291&amp;"' =&gt; '"&amp;C291&amp;"',"</f>
-        <v>'த' =&gt; 'î',</v>
+        <v>'பூ' =&gt; 'Ì',</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="B292" t="s">
-        <v>402</v>
+        <v>29</v>
       </c>
       <c r="C292" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D292">
         <f>LEN(C292)</f>
         <v>1</v>
       </c>
       <c r="E292" t="str">
-        <f t="shared" si="7"/>
-        <v>'Î' =&gt; 'யூ',</v>
+        <f>"'"&amp;C292&amp;"' =&gt; '"&amp;B292&amp;"',"</f>
+        <v>'î' =&gt; 'த',</v>
       </c>
       <c r="F292" t="str">
         <f>"'"&amp;B292&amp;"' =&gt; '"&amp;C292&amp;"',"</f>
-        <v>'யூ' =&gt; 'Î',</v>
+        <v>'த' =&gt; 'î',</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="B293" t="s">
-        <v>30</v>
+        <v>402</v>
       </c>
       <c r="C293" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D293">
         <f>LEN(C293)</f>
         <v>1</v>
       </c>
       <c r="E293" t="str">
-        <f t="shared" si="7"/>
-        <v>'ï' =&gt; 'ந',</v>
+        <f>"'"&amp;C293&amp;"' =&gt; '"&amp;B293&amp;"',"</f>
+        <v>'Î' =&gt; 'யூ',</v>
       </c>
       <c r="F293" t="str">
         <f>"'"&amp;B293&amp;"' =&gt; '"&amp;C293&amp;"',"</f>
-        <v>'ந' =&gt; 'ï',</v>
+        <v>'யூ' =&gt; 'Î',</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="B294" t="s">
-        <v>424</v>
+        <v>30</v>
       </c>
       <c r="C294" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="D294">
         <f>LEN(C294)</f>
         <v>1</v>
       </c>
       <c r="E294" t="str">
-        <f t="shared" si="7"/>
-        <v>'Ï' =&gt; 'ரூ',</v>
+        <f>"'"&amp;C294&amp;"' =&gt; '"&amp;B294&amp;"',"</f>
+        <v>'ï' =&gt; 'ந',</v>
       </c>
       <c r="F294" t="str">
         <f>"'"&amp;B294&amp;"' =&gt; '"&amp;C294&amp;"',"</f>
-        <v>'ரூ' =&gt; 'Ï',</v>
+        <v>'ந' =&gt; 'ï',</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B295" t="s">
-        <v>33</v>
+        <v>424</v>
       </c>
       <c r="C295" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D295">
         <f>LEN(C295)</f>
         <v>1</v>
       </c>
       <c r="E295" t="str">
-        <f t="shared" si="7"/>
-        <v>'ñ' =&gt; 'ம',</v>
+        <f>"'"&amp;C295&amp;"' =&gt; '"&amp;B295&amp;"',"</f>
+        <v>'Ï' =&gt; 'ரூ',</v>
       </c>
       <c r="F295" t="str">
         <f>"'"&amp;B295&amp;"' =&gt; '"&amp;C295&amp;"',"</f>
-        <v>'ம' =&gt; 'ñ',</v>
+        <v>'ரூ' =&gt; 'Ï',</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B296" t="s">
-        <v>379</v>
+        <v>33</v>
       </c>
       <c r="C296" t="s">
-        <v>648</v>
+        <v>85</v>
       </c>
       <c r="D296">
         <f>LEN(C296)</f>
         <v>1</v>
       </c>
       <c r="E296" t="str">
-        <f t="shared" si="7"/>
-        <v>'º' =&gt; 'மு',</v>
+        <f>"'"&amp;C296&amp;"' =&gt; '"&amp;B296&amp;"',"</f>
+        <v>'ñ' =&gt; 'ம',</v>
       </c>
       <c r="F296" t="str">
         <f>"'"&amp;B296&amp;"' =&gt; '"&amp;C296&amp;"',"</f>
-        <v>'மு' =&gt; 'º',</v>
+        <v>'ம' =&gt; 'ñ',</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B297" t="s">
-        <v>35</v>
+        <v>379</v>
       </c>
       <c r="C297" t="s">
-        <v>87</v>
+        <v>648</v>
       </c>
       <c r="D297">
         <f>LEN(C297)</f>
         <v>1</v>
       </c>
       <c r="E297" t="str">
-        <f t="shared" si="7"/>
-        <v>'ó' =&gt; 'ர',</v>
+        <f>"'"&amp;C297&amp;"' =&gt; '"&amp;B297&amp;"',"</f>
+        <v>'º' =&gt; 'மு',</v>
       </c>
       <c r="F297" t="str">
         <f>"'"&amp;B297&amp;"' =&gt; '"&amp;C297&amp;"',"</f>
-        <v>'ர' =&gt; 'ó',</v>
+        <v>'மு' =&gt; 'º',</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B298" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C298" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D298">
         <f>LEN(C298)</f>
         <v>1</v>
       </c>
       <c r="E298" t="str">
-        <f t="shared" si="7"/>
-        <v>'ò' =&gt; 'ய',</v>
+        <f>"'"&amp;C298&amp;"' =&gt; '"&amp;B298&amp;"',"</f>
+        <v>'ó' =&gt; 'ர',</v>
       </c>
       <c r="F298" t="str">
         <f>"'"&amp;B298&amp;"' =&gt; '"&amp;C298&amp;"',"</f>
-        <v>'ய' =&gt; 'ò',</v>
+        <v>'ர' =&gt; 'ó',</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B299" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C299" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D299">
         <f>LEN(C299)</f>
         <v>1</v>
       </c>
       <c r="E299" t="str">
-        <f t="shared" si="7"/>
-        <v>'ô' =&gt; 'ல',</v>
+        <f>"'"&amp;C299&amp;"' =&gt; '"&amp;B299&amp;"',"</f>
+        <v>'ò' =&gt; 'ய',</v>
       </c>
       <c r="F299" t="str">
         <f>"'"&amp;B299&amp;"' =&gt; '"&amp;C299&amp;"',"</f>
-        <v>'ல' =&gt; 'ô',</v>
+        <v>'ய' =&gt; 'ò',</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B300" t="s">
-        <v>466</v>
+        <v>37</v>
       </c>
       <c r="C300" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D300">
         <f>LEN(C300)</f>
         <v>1</v>
       </c>
       <c r="E300" t="str">
-        <f t="shared" si="7"/>
-        <v>'Ö' =&gt; 'லூ',</v>
+        <f>"'"&amp;C300&amp;"' =&gt; '"&amp;B300&amp;"',"</f>
+        <v>'ô' =&gt; 'ல',</v>
       </c>
       <c r="F300" t="str">
         <f>"'"&amp;B300&amp;"' =&gt; '"&amp;C300&amp;"',"</f>
-        <v>'லூ' =&gt; 'Ö',</v>
+        <v>'ல' =&gt; 'ô',</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B301" t="s">
-        <v>39</v>
+        <v>466</v>
       </c>
       <c r="C301" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D301">
         <f>LEN(C301)</f>
         <v>1</v>
       </c>
       <c r="E301" t="str">
-        <f t="shared" si="7"/>
-        <v>'ö' =&gt; 'ழ',</v>
+        <f>"'"&amp;C301&amp;"' =&gt; '"&amp;B301&amp;"',"</f>
+        <v>'Ö' =&gt; 'லூ',</v>
       </c>
       <c r="F301" t="str">
         <f>"'"&amp;B301&amp;"' =&gt; '"&amp;C301&amp;"',"</f>
-        <v>'ழ' =&gt; 'ö',</v>
+        <v>'லூ' =&gt; 'Ö',</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B302" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C302" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D302">
         <f>LEN(C302)</f>
         <v>1</v>
       </c>
       <c r="E302" t="str">
-        <f t="shared" si="7"/>
-        <v>'õ' =&gt; 'வ',</v>
+        <f>"'"&amp;C302&amp;"' =&gt; '"&amp;B302&amp;"',"</f>
+        <v>'ö' =&gt; 'ழ',</v>
       </c>
       <c r="F302" t="str">
         <f>"'"&amp;B302&amp;"' =&gt; '"&amp;C302&amp;"',"</f>
-        <v>'வ' =&gt; 'õ',</v>
+        <v>'ழ' =&gt; 'ö',</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B303" t="s">
-        <v>510</v>
+        <v>40</v>
       </c>
       <c r="C303" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D303">
         <f>LEN(C303)</f>
         <v>1</v>
       </c>
       <c r="E303" t="str">
-        <f t="shared" si="7"/>
-        <v>'Ø' =&gt; 'ழூ',</v>
+        <f>"'"&amp;C303&amp;"' =&gt; '"&amp;B303&amp;"',"</f>
+        <v>'õ' =&gt; 'வ',</v>
       </c>
       <c r="F303" t="str">
         <f>"'"&amp;B303&amp;"' =&gt; '"&amp;C303&amp;"',"</f>
-        <v>'ழூ' =&gt; 'Ø',</v>
+        <v>'வ' =&gt; 'õ',</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B304" t="s">
-        <v>36</v>
+        <v>510</v>
       </c>
       <c r="C304" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D304">
         <f>LEN(C304)</f>
         <v>1</v>
       </c>
       <c r="E304" t="str">
-        <f t="shared" si="7"/>
-        <v>'ø' =&gt; 'ற',</v>
+        <f>"'"&amp;C304&amp;"' =&gt; '"&amp;B304&amp;"',"</f>
+        <v>'Ø' =&gt; 'ழூ',</v>
       </c>
       <c r="F304" t="str">
         <f>"'"&amp;B304&amp;"' =&gt; '"&amp;C304&amp;"',"</f>
-        <v>'ற' =&gt; 'ø',</v>
+        <v>'ழூ' =&gt; 'Ø',</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305">
-        <v>5</v>
+        <v>235</v>
       </c>
       <c r="B305" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C305" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D305">
         <f>LEN(C305)</f>
         <v>1</v>
       </c>
       <c r="E305" t="str">
-        <f t="shared" si="7"/>
-        <v>'ß' =&gt; 'ஈ',</v>
+        <f>"'"&amp;C305&amp;"' =&gt; '"&amp;B305&amp;"',"</f>
+        <v>'ø' =&gt; 'ற',</v>
       </c>
       <c r="F305" t="str">
         <f>"'"&amp;B305&amp;"' =&gt; '"&amp;C305&amp;"',"</f>
-        <v>'ஈ' =&gt; 'ß',</v>
+        <v>'ற' =&gt; 'ø',</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B306" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C306" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D306">
         <f>LEN(C306)</f>
         <v>1</v>
       </c>
       <c r="E306" t="str">
-        <f t="shared" si="7"/>
-        <v>'Þ' =&gt; 'இ',</v>
+        <f>"'"&amp;C306&amp;"' =&gt; '"&amp;B306&amp;"',"</f>
+        <v>'ß' =&gt; 'ஈ',</v>
       </c>
       <c r="F306" t="str">
         <f>"'"&amp;B306&amp;"' =&gt; '"&amp;C306&amp;"',"</f>
-        <v>'இ' =&gt; 'Þ',</v>
+        <v>'ஈ' =&gt; 'ß',</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="B307" t="s">
-        <v>444</v>
+        <v>13</v>
       </c>
       <c r="C307" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D307">
         <f>LEN(C307)</f>
         <v>1</v>
       </c>
       <c r="E307" t="str">
-        <f t="shared" si="7"/>
-        <v>'Ú' =&gt; 'றூ',</v>
+        <f>"'"&amp;C307&amp;"' =&gt; '"&amp;B307&amp;"',"</f>
+        <v>'Þ' =&gt; 'இ',</v>
       </c>
       <c r="F307" t="str">
         <f>"'"&amp;B307&amp;"' =&gt; '"&amp;C307&amp;"',"</f>
-        <v>'றூ' =&gt; 'Ú',</v>
+        <v>'இ' =&gt; 'Þ',</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="B308" t="s">
-        <v>42</v>
+        <v>444</v>
       </c>
       <c r="C308" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D308">
         <f>LEN(C308)</f>
         <v>1</v>
       </c>
       <c r="E308" t="str">
-        <f t="shared" si="7"/>
-        <v>'ú' =&gt; 'ஸ',</v>
+        <f>"'"&amp;C308&amp;"' =&gt; '"&amp;B308&amp;"',"</f>
+        <v>'Ú' =&gt; 'றூ',</v>
       </c>
       <c r="F308" t="str">
         <f>"'"&amp;B308&amp;"' =&gt; '"&amp;C308&amp;"',"</f>
-        <v>'ஸ' =&gt; 'ú',</v>
+        <v>'றூ' =&gt; 'Ú',</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="B309" t="s">
-        <v>488</v>
+        <v>42</v>
       </c>
       <c r="C309" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D309">
         <f>LEN(C309)</f>
         <v>1</v>
       </c>
       <c r="E309" t="str">
-        <f t="shared" si="7"/>
-        <v>'Ù' =&gt; 'ளூ',</v>
+        <f>"'"&amp;C309&amp;"' =&gt; '"&amp;B309&amp;"',"</f>
+        <v>'ú' =&gt; 'ஸ',</v>
       </c>
       <c r="F309" t="str">
         <f>"'"&amp;B309&amp;"' =&gt; '"&amp;C309&amp;"',"</f>
-        <v>'ளூ' =&gt; 'Ù',</v>
+        <v>'ஸ' =&gt; 'ú',</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B310" t="s">
-        <v>31</v>
+        <v>488</v>
       </c>
       <c r="C310" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="D310">
         <f>LEN(C310)</f>
         <v>1</v>
       </c>
       <c r="E310" t="str">
-        <f t="shared" si="7"/>
-        <v>'ù' =&gt; 'ன',</v>
+        <f>"'"&amp;C310&amp;"' =&gt; '"&amp;B310&amp;"',"</f>
+        <v>'Ù' =&gt; 'ளூ',</v>
       </c>
       <c r="F310" t="str">
         <f>"'"&amp;B310&amp;"' =&gt; '"&amp;C310&amp;"',"</f>
-        <v>'ன' =&gt; 'ù',</v>
+        <v>'ளூ' =&gt; 'Ù',</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B311" t="s">
-        <v>338</v>
+        <v>31</v>
       </c>
       <c r="C311" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D311">
         <f>LEN(C311)</f>
         <v>1</v>
       </c>
       <c r="E311" t="str">
-        <f t="shared" si="7"/>
-        <v>'Û' =&gt; 'னூ',</v>
+        <f>"'"&amp;C311&amp;"' =&gt; '"&amp;B311&amp;"',"</f>
+        <v>'ù' =&gt; 'ன',</v>
       </c>
       <c r="F311" t="str">
         <f>"'"&amp;B311&amp;"' =&gt; '"&amp;C311&amp;"',"</f>
-        <v>'னூ' =&gt; 'Û',</v>
+        <v>'ன' =&gt; 'ù',</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="B312" t="s">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="C312" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D312">
         <f>LEN(C312)</f>
         <v>1</v>
       </c>
       <c r="E312" t="str">
-        <f t="shared" si="7"/>
-        <v>'û' =&gt; 'ஷ',</v>
+        <f>"'"&amp;C312&amp;"' =&gt; '"&amp;B312&amp;"',"</f>
+        <v>'Û' =&gt; 'னூ',</v>
       </c>
       <c r="F312" t="str">
         <f>"'"&amp;B312&amp;"' =&gt; '"&amp;C312&amp;"',"</f>
-        <v>'ஷ' =&gt; 'û',</v>
+        <v>'னூ' =&gt; 'Û',</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313">
-        <v>2</v>
+        <v>287</v>
       </c>
       <c r="B313" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C313" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D313">
         <f>LEN(C313)</f>
         <v>1</v>
       </c>
       <c r="E313" t="str">
-        <f t="shared" si="7"/>
-        <v>'Ü' =&gt; 'அ',</v>
+        <f>"'"&amp;C313&amp;"' =&gt; '"&amp;B313&amp;"',"</f>
+        <v>'û' =&gt; 'ஷ',</v>
       </c>
       <c r="F313" t="str">
         <f>"'"&amp;B313&amp;"' =&gt; '"&amp;C313&amp;"',"</f>
-        <v>'அ' =&gt; 'Ü',</v>
+        <v>'ஷ' =&gt; 'û',</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314">
-        <v>261</v>
+        <v>2</v>
       </c>
       <c r="B314" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C314" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D314">
         <f>LEN(C314)</f>
         <v>1</v>
       </c>
       <c r="E314" t="str">
-        <f t="shared" si="7"/>
-        <v>'ü' =&gt; 'ஜ',</v>
+        <f>"'"&amp;C314&amp;"' =&gt; '"&amp;B314&amp;"',"</f>
+        <v>'Ü' =&gt; 'அ',</v>
       </c>
       <c r="F314" t="str">
         <f>"'"&amp;B314&amp;"' =&gt; '"&amp;C314&amp;"',"</f>
-        <v>'ஜ' =&gt; 'ü',</v>
+        <v>'அ' =&gt; 'Ü',</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="B315" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C315" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D315">
         <f>LEN(C315)</f>
         <v>1</v>
       </c>
       <c r="E315" t="str">
-        <f t="shared" si="7"/>
-        <v>'Ý' =&gt; 'ஆ',</v>
+        <f>"'"&amp;C315&amp;"' =&gt; '"&amp;B315&amp;"',"</f>
+        <v>'ü' =&gt; 'ஜ',</v>
       </c>
       <c r="F315" t="str">
         <f>"'"&amp;B315&amp;"' =&gt; '"&amp;C315&amp;"',"</f>
-        <v>'ஆ' =&gt; 'Ý',</v>
+        <v>'ஜ' =&gt; 'ü',</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="B316" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C316" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D316">
         <f>LEN(C316)</f>
         <v>1</v>
       </c>
       <c r="E316" t="str">
-        <f>"'"&amp;C316&amp;"' =&gt; '"&amp;B316&amp;"'"</f>
-        <v>'ý' =&gt; 'ஹ'</v>
+        <f>"'"&amp;C316&amp;"' =&gt; '"&amp;B316&amp;"',"</f>
+        <v>'Ý' =&gt; 'ஆ',</v>
       </c>
       <c r="F316" t="str">
-        <f>"'"&amp;B316&amp;"' =&gt; '"&amp;C316&amp;"'"</f>
+        <f>"'"&amp;B316&amp;"' =&gt; '"&amp;C316&amp;"',"</f>
+        <v>'ஆ' =&gt; 'Ý',</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317">
+        <v>300</v>
+      </c>
+      <c r="B317" t="s">
+        <v>43</v>
+      </c>
+      <c r="C317" t="s">
+        <v>95</v>
+      </c>
+      <c r="D317">
+        <f>LEN(C317)</f>
+        <v>1</v>
+      </c>
+      <c r="E317" t="str">
+        <f>"'"&amp;C317&amp;"' =&gt; '"&amp;B317&amp;"',"</f>
+        <v>'ý' =&gt; 'ஹ',</v>
+      </c>
+      <c r="F317" t="str">
+        <f>"'"&amp;B317&amp;"' =&gt; '"&amp;C317&amp;"'"</f>
         <v>'ஹ' =&gt; 'ý'</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
-      <c r="E317" t="s">
+    <row r="318" spans="1:6">
+      <c r="B318" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="C318" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="D318">
+        <f>LEN(C318)</f>
+        <v>1</v>
+      </c>
+      <c r="E318" t="str">
+        <f>"'"&amp;C318&amp;"' =&gt; '"&amp;B318&amp;"'"</f>
+        <v>'ÿ' =&gt; 'ஸ்ரீ'</v>
+      </c>
+      <c r="F318" s="31"/>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="E319" t="s">
         <v>666</v>
       </c>
-      <c r="F317" t="str">
+      <c r="F319" t="str">
         <f>");"</f>
         <v>);</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:F317">
-    <sortCondition descending="1" ref="D4:D317"/>
-    <sortCondition ref="C4:C317"/>
+  <sortState ref="A4:F319">
+    <sortCondition descending="1" ref="D4:D319"/>
+    <sortCondition ref="C4:C319"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/phpTamilTabUniFont/TAB to Unicode Tamil Character Mapping.xlsx
+++ b/phpTamilTabUniFont/TAB to Unicode Tamil Character Mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="671">
   <si>
     <t>ªó£</t>
   </si>
@@ -2030,6 +2030,9 @@
   </si>
   <si>
     <t>ÿ¢</t>
+  </si>
+  <si>
+    <t>The ow character should be after 1 less size.</t>
   </si>
 </sst>
 </file>
@@ -2564,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE192"/>
   <sheetViews>
-    <sheetView topLeftCell="K13" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5385,7 +5388,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F319"/>
+  <dimension ref="A1:I319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5400,7 +5403,7 @@
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>633</v>
       </c>
@@ -5411,7 +5414,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>628</v>
       </c>
@@ -5430,8 +5433,11 @@
       <c r="F3" s="28" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="I3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>38</v>
       </c>
@@ -5442,272 +5448,272 @@
         <v>133</v>
       </c>
       <c r="D4">
-        <f>LEN(C4)</f>
+        <f t="shared" ref="D4:D50" si="0">LEN(C4)</f>
         <v>5</v>
       </c>
       <c r="E4" t="str">
-        <f>"'"&amp;C4&amp;"' =&gt; '"&amp;B4&amp;"',"</f>
+        <f t="shared" ref="E4:E50" si="1">"'"&amp;C4&amp;"' =&gt; '"&amp;B4&amp;"',"</f>
         <v>'è¢«û£' =&gt; 'க்ஷோ',</v>
       </c>
       <c r="F4" t="str">
-        <f>"'"&amp;B4&amp;"' =&gt; '"&amp;C4&amp;"',"</f>
+        <f t="shared" ref="F4:F35" si="2">"'"&amp;B4&amp;"' =&gt; '"&amp;C4&amp;"',"</f>
         <v>'க்ஷோ' =&gt; 'è¢«û£',</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>'è¢ªû£' =&gt; 'க்ஷொ',</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>'க்ஷொ' =&gt; 'è¢ªû£',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>'è¢«û' =&gt; 'க்ஷே',</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>'க்ஷே' =&gt; 'è¢«û',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>'è¢¬û' =&gt; 'க்ஷை',</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>'க்ஷை' =&gt; 'è¢¬û',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>'è¢ªû' =&gt; 'க்ஷெ',</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>'க்ஷெ' =&gt; 'è¢ªû',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C9" t="s">
+        <v>616</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>'è¢û¦' =&gt; 'க்ஷீ',</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>'க்ஷீ' =&gt; 'è¢û¦',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>618</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>'è¢û¨' =&gt; 'க்ஷூ',</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>'க்ஷூ' =&gt; 'è¢û¨',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>'è¢û¢' =&gt; 'க்ஷ்',</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>'க்ஷ்' =&gt; 'è¢û¢',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>611</v>
+      </c>
+      <c r="C12" t="s">
+        <v>612</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>'è¢û£' =&gt; 'க்ஷா',</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>'க்ஷா' =&gt; 'è¢û£',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>613</v>
+      </c>
+      <c r="C13" t="s">
+        <v>614</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>'è¢û¤' =&gt; 'க்ஷி',</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>'க்ஷி' =&gt; 'è¢û¤',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>617</v>
+      </c>
+      <c r="C14" t="s">
+        <v>659</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>'è¢û§' =&gt; 'க்ஷு',</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>'க்ஷு' =&gt; 'è¢û§',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B15" t="s">
         <v>624</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C15" t="s">
         <v>134</v>
-      </c>
-      <c r="D5">
-        <f>LEN(C5)</f>
-        <v>5</v>
-      </c>
-      <c r="E5" t="str">
-        <f>"'"&amp;C5&amp;"' =&gt; '"&amp;B5&amp;"',"</f>
-        <v>'è¢ªû÷' =&gt; 'க்ஷௌ',</v>
-      </c>
-      <c r="F5" t="str">
-        <f>"'"&amp;B5&amp;"' =&gt; '"&amp;C5&amp;"',"</f>
-        <v>'க்ஷௌ' =&gt; 'è¢ªû÷',</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>622</v>
-      </c>
-      <c r="C6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6">
-        <f>LEN(C6)</f>
-        <v>5</v>
-      </c>
-      <c r="E6" t="str">
-        <f>"'"&amp;C6&amp;"' =&gt; '"&amp;B6&amp;"',"</f>
-        <v>'è¢ªû£' =&gt; 'க்ஷொ',</v>
-      </c>
-      <c r="F6" t="str">
-        <f>"'"&amp;B6&amp;"' =&gt; '"&amp;C6&amp;"',"</f>
-        <v>'க்ஷொ' =&gt; 'è¢ªû£',</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>620</v>
-      </c>
-      <c r="C7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7">
-        <f>LEN(C7)</f>
-        <v>4</v>
-      </c>
-      <c r="E7" t="str">
-        <f>"'"&amp;C7&amp;"' =&gt; '"&amp;B7&amp;"',"</f>
-        <v>'è¢«û' =&gt; 'க்ஷே',</v>
-      </c>
-      <c r="F7" t="str">
-        <f>"'"&amp;B7&amp;"' =&gt; '"&amp;C7&amp;"',"</f>
-        <v>'க்ஷே' =&gt; 'è¢«û',</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>621</v>
-      </c>
-      <c r="C8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8">
-        <f>LEN(C8)</f>
-        <v>4</v>
-      </c>
-      <c r="E8" t="str">
-        <f>"'"&amp;C8&amp;"' =&gt; '"&amp;B8&amp;"',"</f>
-        <v>'è¢¬û' =&gt; 'க்ஷை',</v>
-      </c>
-      <c r="F8" t="str">
-        <f>"'"&amp;B8&amp;"' =&gt; '"&amp;C8&amp;"',"</f>
-        <v>'க்ஷை' =&gt; 'è¢¬û',</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>619</v>
-      </c>
-      <c r="C9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9">
-        <f>LEN(C9)</f>
-        <v>4</v>
-      </c>
-      <c r="E9" t="str">
-        <f>"'"&amp;C9&amp;"' =&gt; '"&amp;B9&amp;"',"</f>
-        <v>'è¢ªû' =&gt; 'க்ஷெ',</v>
-      </c>
-      <c r="F9" t="str">
-        <f>"'"&amp;B9&amp;"' =&gt; '"&amp;C9&amp;"',"</f>
-        <v>'க்ஷெ' =&gt; 'è¢ªû',</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>615</v>
-      </c>
-      <c r="C10" t="s">
-        <v>616</v>
-      </c>
-      <c r="D10">
-        <f>LEN(C10)</f>
-        <v>4</v>
-      </c>
-      <c r="E10" t="str">
-        <f>"'"&amp;C10&amp;"' =&gt; '"&amp;B10&amp;"',"</f>
-        <v>'è¢û¦' =&gt; 'க்ஷீ',</v>
-      </c>
-      <c r="F10" t="str">
-        <f>"'"&amp;B10&amp;"' =&gt; '"&amp;C10&amp;"',"</f>
-        <v>'க்ஷீ' =&gt; 'è¢û¦',</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>618</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11">
-        <f>LEN(C11)</f>
-        <v>4</v>
-      </c>
-      <c r="E11" t="str">
-        <f>"'"&amp;C11&amp;"' =&gt; '"&amp;B11&amp;"',"</f>
-        <v>'è¢û¨' =&gt; 'க்ஷூ',</v>
-      </c>
-      <c r="F11" t="str">
-        <f>"'"&amp;B11&amp;"' =&gt; '"&amp;C11&amp;"',"</f>
-        <v>'க்ஷூ' =&gt; 'è¢û¨',</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12">
-        <f>LEN(C12)</f>
-        <v>4</v>
-      </c>
-      <c r="E12" t="str">
-        <f>"'"&amp;C12&amp;"' =&gt; '"&amp;B12&amp;"',"</f>
-        <v>'è¢û¢' =&gt; 'க்ஷ்',</v>
-      </c>
-      <c r="F12" t="str">
-        <f>"'"&amp;B12&amp;"' =&gt; '"&amp;C12&amp;"',"</f>
-        <v>'க்ஷ்' =&gt; 'è¢û¢',</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>611</v>
-      </c>
-      <c r="C13" t="s">
-        <v>612</v>
-      </c>
-      <c r="D13">
-        <f>LEN(C13)</f>
-        <v>4</v>
-      </c>
-      <c r="E13" t="str">
-        <f>"'"&amp;C13&amp;"' =&gt; '"&amp;B13&amp;"',"</f>
-        <v>'è¢û£' =&gt; 'க்ஷா',</v>
-      </c>
-      <c r="F13" t="str">
-        <f>"'"&amp;B13&amp;"' =&gt; '"&amp;C13&amp;"',"</f>
-        <v>'க்ஷா' =&gt; 'è¢û£',</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>613</v>
-      </c>
-      <c r="C14" t="s">
-        <v>614</v>
-      </c>
-      <c r="D14">
-        <f>LEN(C14)</f>
-        <v>4</v>
-      </c>
-      <c r="E14" t="str">
-        <f>"'"&amp;C14&amp;"' =&gt; '"&amp;B14&amp;"',"</f>
-        <v>'è¢û¤' =&gt; 'க்ஷி',</v>
-      </c>
-      <c r="F14" t="str">
-        <f>"'"&amp;B14&amp;"' =&gt; '"&amp;C14&amp;"',"</f>
-        <v>'க்ஷி' =&gt; 'è¢û¤',</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>617</v>
-      </c>
-      <c r="C15" t="s">
-        <v>659</v>
       </c>
       <c r="D15">
         <f>LEN(C15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" t="str">
         <f>"'"&amp;C15&amp;"' =&gt; '"&amp;B15&amp;"',"</f>
-        <v>'è¢û§' =&gt; 'க்ஷு',</v>
+        <v>'è¢ªû÷' =&gt; 'க்ஷௌ',</v>
       </c>
       <c r="F15" t="str">
         <f>"'"&amp;B15&amp;"' =&gt; '"&amp;C15&amp;"',"</f>
-        <v>'க்ஷு' =&gt; 'è¢û§',</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>'க்ஷௌ' =&gt; 'è¢ªû÷',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>233</v>
       </c>
@@ -5718,15 +5724,15 @@
         <v>498</v>
       </c>
       <c r="D16">
-        <f>LEN(C16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E16" t="str">
-        <f>"'"&amp;C16&amp;"' =&gt; '"&amp;B16&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«÷£' =&gt; 'ளோ',</v>
       </c>
       <c r="F16" t="str">
-        <f>"'"&amp;B16&amp;"' =&gt; '"&amp;C16&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'ளோ' =&gt; '«÷£',</v>
       </c>
     </row>
@@ -5741,15 +5747,15 @@
         <v>370</v>
       </c>
       <c r="D17">
-        <f>LEN(C17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E17" t="str">
-        <f>"'"&amp;C17&amp;"' =&gt; '"&amp;B17&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ð£' =&gt; 'போ',</v>
       </c>
       <c r="F17" t="str">
-        <f>"'"&amp;B17&amp;"' =&gt; '"&amp;C17&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'போ' =&gt; '«ð£',</v>
       </c>
     </row>
@@ -5764,15 +5770,15 @@
         <v>172</v>
       </c>
       <c r="D18">
-        <f>LEN(C18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E18" t="str">
-        <f>"'"&amp;C18&amp;"' =&gt; '"&amp;B18&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«é£' =&gt; 'ஙோ',</v>
       </c>
       <c r="F18" t="str">
-        <f>"'"&amp;B18&amp;"' =&gt; '"&amp;C18&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'ஙோ' =&gt; '«é£',</v>
       </c>
     </row>
@@ -5787,15 +5793,15 @@
         <v>150</v>
       </c>
       <c r="D19">
-        <f>LEN(C19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E19" t="str">
-        <f>"'"&amp;C19&amp;"' =&gt; '"&amp;B19&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«è£' =&gt; 'கோ',</v>
       </c>
       <c r="F19" t="str">
-        <f>"'"&amp;B19&amp;"' =&gt; '"&amp;C19&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'கோ' =&gt; '«è£',</v>
       </c>
     </row>
@@ -5810,15 +5816,15 @@
         <v>194</v>
       </c>
       <c r="D20">
-        <f>LEN(C20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E20" t="str">
-        <f>"'"&amp;C20&amp;"' =&gt; '"&amp;B20&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ê£' =&gt; 'சோ',</v>
       </c>
       <c r="F20" t="str">
-        <f>"'"&amp;B20&amp;"' =&gt; '"&amp;C20&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'சோ' =&gt; '«ê£',</v>
       </c>
     </row>
@@ -5833,15 +5839,15 @@
         <v>238</v>
       </c>
       <c r="D21">
-        <f>LEN(C21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E21" t="str">
-        <f>"'"&amp;C21&amp;"' =&gt; '"&amp;B21&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ë£' =&gt; 'ஞோ',</v>
       </c>
       <c r="F21" t="str">
-        <f>"'"&amp;B21&amp;"' =&gt; '"&amp;C21&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'ஞோ' =&gt; '«ë£',</v>
       </c>
     </row>
@@ -5856,15 +5862,15 @@
         <v>282</v>
       </c>
       <c r="D22">
-        <f>LEN(C22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E22" t="str">
-        <f>"'"&amp;C22&amp;"' =&gt; '"&amp;B22&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«í£' =&gt; 'ணோ',</v>
       </c>
       <c r="F22" t="str">
-        <f>"'"&amp;B22&amp;"' =&gt; '"&amp;C22&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'ணோ' =&gt; '«í£',</v>
       </c>
     </row>
@@ -5879,15 +5885,15 @@
         <v>260</v>
       </c>
       <c r="D23">
-        <f>LEN(C23)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E23" t="str">
-        <f>"'"&amp;C23&amp;"' =&gt; '"&amp;B23&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ì£' =&gt; 'டோ',</v>
       </c>
       <c r="F23" t="str">
-        <f>"'"&amp;B23&amp;"' =&gt; '"&amp;C23&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'டோ' =&gt; '«ì£',</v>
       </c>
     </row>
@@ -5902,15 +5908,15 @@
         <v>304</v>
       </c>
       <c r="D24">
-        <f>LEN(C24)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E24" t="str">
-        <f>"'"&amp;C24&amp;"' =&gt; '"&amp;B24&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«î£' =&gt; 'தோ',</v>
       </c>
       <c r="F24" t="str">
-        <f>"'"&amp;B24&amp;"' =&gt; '"&amp;C24&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'தோ' =&gt; '«î£',</v>
       </c>
     </row>
@@ -5925,15 +5931,15 @@
         <v>326</v>
       </c>
       <c r="D25">
-        <f>LEN(C25)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E25" t="str">
-        <f>"'"&amp;C25&amp;"' =&gt; '"&amp;B25&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ï£' =&gt; 'நோ',</v>
       </c>
       <c r="F25" t="str">
-        <f>"'"&amp;B25&amp;"' =&gt; '"&amp;C25&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'நோ' =&gt; '«ï£',</v>
       </c>
     </row>
@@ -5948,15 +5954,15 @@
         <v>390</v>
       </c>
       <c r="D26">
-        <f>LEN(C26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E26" t="str">
-        <f>"'"&amp;C26&amp;"' =&gt; '"&amp;B26&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ñ£' =&gt; 'மோ',</v>
       </c>
       <c r="F26" t="str">
-        <f>"'"&amp;B26&amp;"' =&gt; '"&amp;C26&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'மோ' =&gt; '«ñ£',</v>
       </c>
     </row>
@@ -5971,15 +5977,15 @@
         <v>432</v>
       </c>
       <c r="D27">
-        <f>LEN(C27)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E27" t="str">
-        <f>"'"&amp;C27&amp;"' =&gt; '"&amp;B27&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ó£' =&gt; 'ரோ',</v>
       </c>
       <c r="F27" t="str">
-        <f>"'"&amp;B27&amp;"' =&gt; '"&amp;C27&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'ரோ' =&gt; '«ó£',</v>
       </c>
     </row>
@@ -5994,15 +6000,15 @@
         <v>412</v>
       </c>
       <c r="D28">
-        <f>LEN(C28)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E28" t="str">
-        <f>"'"&amp;C28&amp;"' =&gt; '"&amp;B28&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ò£' =&gt; 'யோ',</v>
       </c>
       <c r="F28" t="str">
-        <f>"'"&amp;B28&amp;"' =&gt; '"&amp;C28&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'யோ' =&gt; '«ò£',</v>
       </c>
     </row>
@@ -6017,15 +6023,15 @@
         <v>476</v>
       </c>
       <c r="D29">
-        <f>LEN(C29)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E29" t="str">
-        <f>"'"&amp;C29&amp;"' =&gt; '"&amp;B29&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ô£' =&gt; 'லோ',</v>
       </c>
       <c r="F29" t="str">
-        <f>"'"&amp;B29&amp;"' =&gt; '"&amp;C29&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'லோ' =&gt; '«ô£',</v>
       </c>
     </row>
@@ -6040,15 +6046,15 @@
         <v>520</v>
       </c>
       <c r="D30">
-        <f>LEN(C30)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E30" t="str">
-        <f>"'"&amp;C30&amp;"' =&gt; '"&amp;B30&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ö£' =&gt; 'ழோ',</v>
       </c>
       <c r="F30" t="str">
-        <f>"'"&amp;B30&amp;"' =&gt; '"&amp;C30&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'ழோ' =&gt; '«ö£',</v>
       </c>
     </row>
@@ -6063,15 +6069,15 @@
         <v>542</v>
       </c>
       <c r="D31">
-        <f>LEN(C31)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E31" t="str">
-        <f>"'"&amp;C31&amp;"' =&gt; '"&amp;B31&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«õ£' =&gt; 'வோ',</v>
       </c>
       <c r="F31" t="str">
-        <f>"'"&amp;B31&amp;"' =&gt; '"&amp;C31&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'வோ' =&gt; '«õ£',</v>
       </c>
     </row>
@@ -6086,15 +6092,15 @@
         <v>454</v>
       </c>
       <c r="D32">
-        <f>LEN(C32)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E32" t="str">
-        <f>"'"&amp;C32&amp;"' =&gt; '"&amp;B32&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ø£' =&gt; 'றோ',</v>
       </c>
       <c r="F32" t="str">
-        <f>"'"&amp;B32&amp;"' =&gt; '"&amp;C32&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'றோ' =&gt; '«ø£',</v>
       </c>
     </row>
@@ -6109,15 +6115,15 @@
         <v>586</v>
       </c>
       <c r="D33">
-        <f>LEN(C33)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E33" t="str">
-        <f>"'"&amp;C33&amp;"' =&gt; '"&amp;B33&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ú£' =&gt; 'ஸோ',</v>
       </c>
       <c r="F33" t="str">
-        <f>"'"&amp;B33&amp;"' =&gt; '"&amp;C33&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'ஸோ' =&gt; '«ú£',</v>
       </c>
     </row>
@@ -6132,15 +6138,15 @@
         <v>348</v>
       </c>
       <c r="D34">
-        <f>LEN(C34)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E34" t="str">
-        <f>"'"&amp;C34&amp;"' =&gt; '"&amp;B34&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ù£' =&gt; 'னோ',</v>
       </c>
       <c r="F34" t="str">
-        <f>"'"&amp;B34&amp;"' =&gt; '"&amp;C34&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'னோ' =&gt; '«ù£',</v>
       </c>
     </row>
@@ -6155,15 +6161,15 @@
         <v>564</v>
       </c>
       <c r="D35">
-        <f>LEN(C35)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E35" t="str">
-        <f>"'"&amp;C35&amp;"' =&gt; '"&amp;B35&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«û£' =&gt; 'ஷோ',</v>
       </c>
       <c r="F35" t="str">
-        <f>"'"&amp;B35&amp;"' =&gt; '"&amp;C35&amp;"',"</f>
+        <f t="shared" si="2"/>
         <v>'ஷோ' =&gt; '«û£',</v>
       </c>
     </row>
@@ -6178,15 +6184,15 @@
         <v>216</v>
       </c>
       <c r="D36">
-        <f>LEN(C36)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E36" t="str">
-        <f>"'"&amp;C36&amp;"' =&gt; '"&amp;B36&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ü£' =&gt; 'ஜோ',</v>
       </c>
       <c r="F36" t="str">
-        <f>"'"&amp;B36&amp;"' =&gt; '"&amp;C36&amp;"',"</f>
+        <f t="shared" ref="F36:F50" si="3">"'"&amp;B36&amp;"' =&gt; '"&amp;C36&amp;"',"</f>
         <v>'ஜோ' =&gt; '«ü£',</v>
       </c>
     </row>
@@ -6201,6465 +6207,6465 @@
         <v>608</v>
       </c>
       <c r="D37">
-        <f>LEN(C37)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E37" t="str">
-        <f>"'"&amp;C37&amp;"' =&gt; '"&amp;B37&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'«ý£' =&gt; 'ஹோ',</v>
       </c>
       <c r="F37" t="str">
-        <f>"'"&amp;B37&amp;"' =&gt; '"&amp;C37&amp;"',"</f>
+        <f t="shared" si="3"/>
         <v>'ஹோ' =&gt; '«ý£',</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B38" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C38" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D38">
-        <f>LEN(C38)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E38" t="str">
-        <f>"'"&amp;C38&amp;"' =&gt; '"&amp;B38&amp;"',"</f>
-        <v>'ª÷÷' =&gt; 'ளௌ',</v>
+        <f t="shared" si="1"/>
+        <v>'ª÷£' =&gt; 'ளொ',</v>
       </c>
       <c r="F38" t="str">
-        <f>"'"&amp;B38&amp;"' =&gt; '"&amp;C38&amp;"',"</f>
-        <v>'ளௌ' =&gt; 'ª÷÷',</v>
+        <f t="shared" si="3"/>
+        <v>'ளொ' =&gt; 'ª÷£',</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>495</v>
+        <v>367</v>
       </c>
       <c r="C39" t="s">
-        <v>496</v>
+        <v>368</v>
       </c>
       <c r="D39">
-        <f>LEN(C39)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E39" t="str">
-        <f>"'"&amp;C39&amp;"' =&gt; '"&amp;B39&amp;"',"</f>
-        <v>'ª÷£' =&gt; 'ளொ',</v>
+        <f t="shared" si="1"/>
+        <v>'ªð£' =&gt; 'பொ',</v>
       </c>
       <c r="F39" t="str">
-        <f>"'"&amp;B39&amp;"' =&gt; '"&amp;C39&amp;"',"</f>
-        <v>'ளொ' =&gt; 'ª÷£',</v>
+        <f t="shared" si="3"/>
+        <v>'பொ' =&gt; 'ªð£',</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>371</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>372</v>
+        <v>170</v>
       </c>
       <c r="D40">
-        <f>LEN(C40)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E40" t="str">
-        <f>"'"&amp;C40&amp;"' =&gt; '"&amp;B40&amp;"',"</f>
-        <v>'ªð÷' =&gt; 'பௌ',</v>
+        <f t="shared" si="1"/>
+        <v>'ªé£' =&gt; 'ஙொ',</v>
       </c>
       <c r="F40" t="str">
-        <f>"'"&amp;B40&amp;"' =&gt; '"&amp;C40&amp;"',"</f>
-        <v>'பௌ' =&gt; 'ªð÷',</v>
+        <f t="shared" si="3"/>
+        <v>'ஙொ' =&gt; 'ªé£',</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>367</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>368</v>
+        <v>124</v>
       </c>
       <c r="D41">
-        <f>LEN(C41)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E41" t="str">
-        <f>"'"&amp;C41&amp;"' =&gt; '"&amp;B41&amp;"',"</f>
-        <v>'ªð£' =&gt; 'பொ',</v>
+        <f t="shared" si="1"/>
+        <v>'ªè£' =&gt; 'கொ',</v>
       </c>
       <c r="F41" t="str">
-        <f>"'"&amp;B41&amp;"' =&gt; '"&amp;C41&amp;"',"</f>
-        <v>'பொ' =&gt; 'ªð£',</v>
+        <f t="shared" si="3"/>
+        <v>'கொ' =&gt; 'ªè£',</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C42" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D42">
-        <f>LEN(C42)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E42" t="str">
-        <f>"'"&amp;C42&amp;"' =&gt; '"&amp;B42&amp;"',"</f>
-        <v>'ªé÷' =&gt; 'ஙௌ',</v>
+        <f t="shared" si="1"/>
+        <v>'ªê£' =&gt; 'சொ',</v>
       </c>
       <c r="F42" t="str">
-        <f>"'"&amp;B42&amp;"' =&gt; '"&amp;C42&amp;"',"</f>
-        <v>'ஙௌ' =&gt; 'ªé÷',</v>
+        <f t="shared" si="3"/>
+        <v>'சொ' =&gt; 'ªê£',</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="D43">
-        <f>LEN(C43)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E43" t="str">
-        <f>"'"&amp;C43&amp;"' =&gt; '"&amp;B43&amp;"',"</f>
-        <v>'ªè÷' =&gt; 'கௌ',</v>
+        <f t="shared" si="1"/>
+        <v>'ªë£' =&gt; 'ஞொ',</v>
       </c>
       <c r="F43" t="str">
-        <f>"'"&amp;B43&amp;"' =&gt; '"&amp;C43&amp;"',"</f>
-        <v>'கௌ' =&gt; 'ªè÷',</v>
+        <f t="shared" si="3"/>
+        <v>'ஞொ' =&gt; 'ªë£',</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="D44">
-        <f>LEN(C44)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E44" t="str">
-        <f>"'"&amp;C44&amp;"' =&gt; '"&amp;B44&amp;"',"</f>
-        <v>'ªê÷' =&gt; 'சௌ',</v>
+        <f t="shared" si="1"/>
+        <v>'ªí£' =&gt; 'ணொ',</v>
       </c>
       <c r="F44" t="str">
-        <f>"'"&amp;B44&amp;"' =&gt; '"&amp;C44&amp;"',"</f>
-        <v>'சௌ' =&gt; 'ªê÷',</v>
+        <f t="shared" si="3"/>
+        <v>'ணொ' =&gt; 'ªí£',</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="D45">
-        <f>LEN(C45)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E45" t="str">
-        <f>"'"&amp;C45&amp;"' =&gt; '"&amp;B45&amp;"',"</f>
-        <v>'ªë÷' =&gt; 'ஞௌ',</v>
+        <f t="shared" si="1"/>
+        <v>'ªì£' =&gt; 'டொ',</v>
       </c>
       <c r="F45" t="str">
-        <f>"'"&amp;B45&amp;"' =&gt; '"&amp;C45&amp;"',"</f>
-        <v>'ஞௌ' =&gt; 'ªë÷',</v>
+        <f t="shared" si="3"/>
+        <v>'டொ' =&gt; 'ªì£',</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>301</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>302</v>
       </c>
       <c r="D46">
-        <f>LEN(C46)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E46" t="str">
-        <f>"'"&amp;C46&amp;"' =&gt; '"&amp;B46&amp;"',"</f>
-        <v>'ªé£' =&gt; 'ஙொ',</v>
+        <f t="shared" si="1"/>
+        <v>'ªî£' =&gt; 'தொ',</v>
       </c>
       <c r="F46" t="str">
-        <f>"'"&amp;B46&amp;"' =&gt; '"&amp;C46&amp;"',"</f>
-        <v>'ஙொ' =&gt; 'ªé£',</v>
+        <f t="shared" si="3"/>
+        <v>'தொ' =&gt; 'ªî£',</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>323</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>324</v>
       </c>
       <c r="D47">
-        <f>LEN(C47)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E47" t="str">
-        <f>"'"&amp;C47&amp;"' =&gt; '"&amp;B47&amp;"',"</f>
-        <v>'ªè£' =&gt; 'கொ',</v>
+        <f t="shared" si="1"/>
+        <v>'ªï£' =&gt; 'நொ',</v>
       </c>
       <c r="F47" t="str">
-        <f>"'"&amp;B47&amp;"' =&gt; '"&amp;C47&amp;"',"</f>
-        <v>'கொ' =&gt; 'ªè£',</v>
+        <f t="shared" si="3"/>
+        <v>'நொ' =&gt; 'ªï£',</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>387</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>388</v>
       </c>
       <c r="D48">
-        <f>LEN(C48)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E48" t="str">
-        <f>"'"&amp;C48&amp;"' =&gt; '"&amp;B48&amp;"',"</f>
-        <v>'ªê£' =&gt; 'சொ',</v>
+        <f t="shared" si="1"/>
+        <v>'ªñ£' =&gt; 'மொ',</v>
       </c>
       <c r="F48" t="str">
-        <f>"'"&amp;B48&amp;"' =&gt; '"&amp;C48&amp;"',"</f>
-        <v>'சொ' =&gt; 'ªê£',</v>
+        <f t="shared" si="3"/>
+        <v>'மொ' =&gt; 'ªñ£',</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <f>LEN(C49)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E49" t="str">
-        <f>"'"&amp;C49&amp;"' =&gt; '"&amp;B49&amp;"',"</f>
-        <v>'ªë£' =&gt; 'ஞொ',</v>
+        <f t="shared" si="1"/>
+        <v>'ªó£' =&gt; 'ரொ',</v>
       </c>
       <c r="F49" t="str">
-        <f>"'"&amp;B49&amp;"' =&gt; '"&amp;C49&amp;"',"</f>
-        <v>'ஞொ' =&gt; 'ªë£',</v>
+        <f t="shared" si="3"/>
+        <v>'ரொ' =&gt; 'ªó£',</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
-        <v>283</v>
+        <v>409</v>
       </c>
       <c r="C50" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="D50">
-        <f>LEN(C50)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E50" t="str">
-        <f>"'"&amp;C50&amp;"' =&gt; '"&amp;B50&amp;"',"</f>
-        <v>'ªí÷' =&gt; 'ணௌ',</v>
+        <f t="shared" si="1"/>
+        <v>'ªò£' =&gt; 'யொ',</v>
       </c>
       <c r="F50" t="str">
-        <f>"'"&amp;B50&amp;"' =&gt; '"&amp;C50&amp;"',"</f>
-        <v>'ணௌ' =&gt; 'ªí÷',</v>
+        <f t="shared" si="3"/>
+        <v>'யொ' =&gt; 'ªò£',</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="B51" t="s">
-        <v>261</v>
+        <v>473</v>
       </c>
       <c r="C51" t="s">
-        <v>262</v>
+        <v>474</v>
       </c>
       <c r="D51">
-        <f>LEN(C51)</f>
+        <f t="shared" ref="D51:D109" si="4">LEN(C51)</f>
         <v>3</v>
       </c>
       <c r="E51" t="str">
-        <f>"'"&amp;C51&amp;"' =&gt; '"&amp;B51&amp;"',"</f>
-        <v>'ªì÷' =&gt; 'டௌ',</v>
+        <f t="shared" ref="E51:E109" si="5">"'"&amp;C51&amp;"' =&gt; '"&amp;B51&amp;"',"</f>
+        <v>'ªô£' =&gt; 'லொ',</v>
       </c>
       <c r="F51" t="str">
-        <f>"'"&amp;B51&amp;"' =&gt; '"&amp;C51&amp;"',"</f>
-        <v>'டௌ' =&gt; 'ªì÷',</v>
+        <f t="shared" ref="F51:F77" si="6">"'"&amp;B51&amp;"' =&gt; '"&amp;C51&amp;"',"</f>
+        <v>'லொ' =&gt; 'ªô£',</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s">
-        <v>305</v>
+        <v>517</v>
       </c>
       <c r="C52" t="s">
-        <v>306</v>
+        <v>518</v>
       </c>
       <c r="D52">
-        <f>LEN(C52)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E52" t="str">
-        <f>"'"&amp;C52&amp;"' =&gt; '"&amp;B52&amp;"',"</f>
-        <v>'ªî÷' =&gt; 'தௌ',</v>
+        <f t="shared" si="5"/>
+        <v>'ªö£' =&gt; 'ழொ',</v>
       </c>
       <c r="F52" t="str">
-        <f>"'"&amp;B52&amp;"' =&gt; '"&amp;C52&amp;"',"</f>
-        <v>'தௌ' =&gt; 'ªî÷',</v>
+        <f t="shared" si="6"/>
+        <v>'ழொ' =&gt; 'ªö£',</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="B53" t="s">
-        <v>327</v>
+        <v>539</v>
       </c>
       <c r="C53" t="s">
-        <v>328</v>
+        <v>540</v>
       </c>
       <c r="D53">
-        <f>LEN(C53)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E53" t="str">
-        <f>"'"&amp;C53&amp;"' =&gt; '"&amp;B53&amp;"',"</f>
-        <v>'ªï÷' =&gt; 'நௌ',</v>
+        <f t="shared" si="5"/>
+        <v>'ªõ£' =&gt; 'வொ',</v>
       </c>
       <c r="F53" t="str">
-        <f>"'"&amp;B53&amp;"' =&gt; '"&amp;C53&amp;"',"</f>
-        <v>'நௌ' =&gt; 'ªï÷',</v>
+        <f t="shared" si="6"/>
+        <v>'வொ' =&gt; 'ªõ£',</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="B54" t="s">
-        <v>279</v>
+        <v>451</v>
       </c>
       <c r="C54" t="s">
-        <v>280</v>
+        <v>452</v>
       </c>
       <c r="D54">
-        <f>LEN(C54)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E54" t="str">
-        <f>"'"&amp;C54&amp;"' =&gt; '"&amp;B54&amp;"',"</f>
-        <v>'ªí£' =&gt; 'ணொ',</v>
+        <f t="shared" si="5"/>
+        <v>'ªø£' =&gt; 'றொ',</v>
       </c>
       <c r="F54" t="str">
-        <f>"'"&amp;B54&amp;"' =&gt; '"&amp;C54&amp;"',"</f>
-        <v>'ணொ' =&gt; 'ªí£',</v>
+        <f t="shared" si="6"/>
+        <v>'றொ' =&gt; 'ªø£',</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="B55" t="s">
-        <v>257</v>
+        <v>583</v>
       </c>
       <c r="C55" t="s">
-        <v>258</v>
+        <v>584</v>
       </c>
       <c r="D55">
-        <f>LEN(C55)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E55" t="str">
-        <f>"'"&amp;C55&amp;"' =&gt; '"&amp;B55&amp;"',"</f>
-        <v>'ªì£' =&gt; 'டொ',</v>
+        <f t="shared" si="5"/>
+        <v>'ªú£' =&gt; 'ஸொ',</v>
       </c>
       <c r="F55" t="str">
-        <f>"'"&amp;B55&amp;"' =&gt; '"&amp;C55&amp;"',"</f>
-        <v>'டொ' =&gt; 'ªì£',</v>
+        <f t="shared" si="6"/>
+        <v>'ஸொ' =&gt; 'ªú£',</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="B56" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="C56" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="D56">
-        <f>LEN(C56)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E56" t="str">
-        <f>"'"&amp;C56&amp;"' =&gt; '"&amp;B56&amp;"',"</f>
-        <v>'ªî£' =&gt; 'தொ',</v>
+        <f t="shared" si="5"/>
+        <v>'ªù£' =&gt; 'னொ',</v>
       </c>
       <c r="F56" t="str">
-        <f>"'"&amp;B56&amp;"' =&gt; '"&amp;C56&amp;"',"</f>
-        <v>'தொ' =&gt; 'ªî£',</v>
+        <f t="shared" si="6"/>
+        <v>'னொ' =&gt; 'ªù£',</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>128</v>
+        <v>297</v>
       </c>
       <c r="B57" t="s">
-        <v>323</v>
+        <v>561</v>
       </c>
       <c r="C57" t="s">
-        <v>324</v>
+        <v>562</v>
       </c>
       <c r="D57">
-        <f>LEN(C57)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E57" t="str">
-        <f>"'"&amp;C57&amp;"' =&gt; '"&amp;B57&amp;"',"</f>
-        <v>'ªï£' =&gt; 'நொ',</v>
+        <f t="shared" si="5"/>
+        <v>'ªû£' =&gt; 'ஷொ',</v>
       </c>
       <c r="F57" t="str">
-        <f>"'"&amp;B57&amp;"' =&gt; '"&amp;C57&amp;"',"</f>
-        <v>'நொ' =&gt; 'ªï£',</v>
+        <f t="shared" si="6"/>
+        <v>'ஷொ' =&gt; 'ªû£',</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>156</v>
+        <v>271</v>
       </c>
       <c r="B58" t="s">
-        <v>391</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>392</v>
+        <v>214</v>
       </c>
       <c r="D58">
-        <f>LEN(C58)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E58" t="str">
-        <f>"'"&amp;C58&amp;"' =&gt; '"&amp;B58&amp;"',"</f>
-        <v>'ªñ÷' =&gt; 'மௌ',</v>
+        <f t="shared" si="5"/>
+        <v>'ªü£' =&gt; 'ஜொ',</v>
       </c>
       <c r="F58" t="str">
-        <f>"'"&amp;B58&amp;"' =&gt; '"&amp;C58&amp;"',"</f>
-        <v>'மௌ' =&gt; 'ªñ÷',</v>
+        <f t="shared" si="6"/>
+        <v>'ஜொ' =&gt; 'ªü£',</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>154</v>
+        <v>310</v>
       </c>
       <c r="B59" t="s">
-        <v>387</v>
+        <v>605</v>
       </c>
       <c r="C59" t="s">
-        <v>388</v>
+        <v>606</v>
       </c>
       <c r="D59">
-        <f>LEN(C59)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E59" t="str">
-        <f>"'"&amp;C59&amp;"' =&gt; '"&amp;B59&amp;"',"</f>
-        <v>'ªñ£' =&gt; 'மொ',</v>
+        <f t="shared" si="5"/>
+        <v>'ªý£' =&gt; 'ஹொ',</v>
       </c>
       <c r="F59" t="str">
-        <f>"'"&amp;B59&amp;"' =&gt; '"&amp;C59&amp;"',"</f>
-        <v>'மொ' =&gt; 'ªñ£',</v>
+        <f t="shared" si="6"/>
+        <v>'ஹொ' =&gt; 'ªý£',</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>433</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>434</v>
+        <v>127</v>
       </c>
       <c r="D60">
-        <f>LEN(C60)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E60" t="str">
-        <f>"'"&amp;C60&amp;"' =&gt; '"&amp;B60&amp;"',"</f>
-        <v>'ªó÷' =&gt; 'ரௌ',</v>
+        <f t="shared" si="5"/>
+        <v>'è¢û' =&gt; 'க்ஷ',</v>
       </c>
       <c r="F60" t="str">
-        <f>"'"&amp;B60&amp;"' =&gt; '"&amp;C60&amp;"',"</f>
-        <v>'ரௌ' =&gt; 'ªó÷',</v>
+        <f t="shared" si="6"/>
+        <v>'க்ஷ' =&gt; 'è¢û',</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="B61" t="s">
-        <v>413</v>
+        <v>491</v>
       </c>
       <c r="C61" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
       <c r="D61">
-        <f>LEN(C61)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E61" t="str">
-        <f>"'"&amp;C61&amp;"' =&gt; '"&amp;B61&amp;"',"</f>
-        <v>'ªò÷' =&gt; 'யௌ',</v>
+        <f t="shared" si="5"/>
+        <v>'«÷' =&gt; 'ளே',</v>
       </c>
       <c r="F61" t="str">
-        <f>"'"&amp;B61&amp;"' =&gt; '"&amp;C61&amp;"',"</f>
-        <v>'யௌ' =&gt; 'ªò÷',</v>
+        <f t="shared" si="6"/>
+        <v>'ளே' =&gt; '«÷',</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="B62" t="s">
-        <v>477</v>
+        <v>363</v>
       </c>
       <c r="C62" t="s">
-        <v>478</v>
+        <v>364</v>
       </c>
       <c r="D62">
-        <f>LEN(C62)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E62" t="str">
-        <f>"'"&amp;C62&amp;"' =&gt; '"&amp;B62&amp;"',"</f>
-        <v>'ªô÷' =&gt; 'லௌ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ð' =&gt; 'பே',</v>
       </c>
       <c r="F62" t="str">
-        <f>"'"&amp;B62&amp;"' =&gt; '"&amp;C62&amp;"',"</f>
-        <v>'லௌ' =&gt; 'ªô÷',</v>
+        <f t="shared" si="6"/>
+        <v>'பே' =&gt; '«ð',</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>221</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>521</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>522</v>
+        <v>166</v>
       </c>
       <c r="D63">
-        <f>LEN(C63)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E63" t="str">
-        <f>"'"&amp;C63&amp;"' =&gt; '"&amp;B63&amp;"',"</f>
-        <v>'ªö÷' =&gt; 'ழௌ',</v>
+        <f t="shared" si="5"/>
+        <v>'«é' =&gt; 'ஙே',</v>
       </c>
       <c r="F63" t="str">
-        <f>"'"&amp;B63&amp;"' =&gt; '"&amp;C63&amp;"',"</f>
-        <v>'ழௌ' =&gt; 'ªö÷',</v>
+        <f t="shared" si="6"/>
+        <v>'ஙே' =&gt; '«é',</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>543</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>544</v>
+        <v>145</v>
       </c>
       <c r="D64">
-        <f>LEN(C64)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E64" t="str">
-        <f>"'"&amp;C64&amp;"' =&gt; '"&amp;B64&amp;"',"</f>
-        <v>'ªõ÷' =&gt; 'வௌ',</v>
+        <f t="shared" si="5"/>
+        <v>'«è' =&gt; 'கே',</v>
       </c>
       <c r="F64" t="str">
-        <f>"'"&amp;B64&amp;"' =&gt; '"&amp;C64&amp;"',"</f>
-        <v>'வௌ' =&gt; 'ªõ÷',</v>
+        <f t="shared" si="6"/>
+        <v>'கே' =&gt; '«è',</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>247</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>455</v>
+        <v>187</v>
       </c>
       <c r="C65" t="s">
-        <v>456</v>
+        <v>188</v>
       </c>
       <c r="D65">
-        <f>LEN(C65)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E65" t="str">
-        <f>"'"&amp;C65&amp;"' =&gt; '"&amp;B65&amp;"',"</f>
-        <v>'ªø÷' =&gt; 'றௌ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ê' =&gt; 'சே',</v>
       </c>
       <c r="F65" t="str">
-        <f>"'"&amp;B65&amp;"' =&gt; '"&amp;C65&amp;"',"</f>
-        <v>'றௌ' =&gt; 'ªø÷',</v>
+        <f t="shared" si="6"/>
+        <v>'சே' =&gt; '«ê',</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="C66" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="D66">
-        <f>LEN(C66)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E66" t="str">
-        <f>"'"&amp;C66&amp;"' =&gt; '"&amp;B66&amp;"',"</f>
-        <v>'ªó£' =&gt; 'ரொ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ë' =&gt; 'ஞே',</v>
       </c>
       <c r="F66" t="str">
-        <f>"'"&amp;B66&amp;"' =&gt; '"&amp;C66&amp;"',"</f>
-        <v>'ரொ' =&gt; 'ªó£',</v>
+        <f t="shared" si="6"/>
+        <v>'ஞே' =&gt; '«ë',</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>409</v>
+        <v>275</v>
       </c>
       <c r="C67" t="s">
-        <v>410</v>
+        <v>276</v>
       </c>
       <c r="D67">
-        <f>LEN(C67)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E67" t="str">
-        <f>"'"&amp;C67&amp;"' =&gt; '"&amp;B67&amp;"',"</f>
-        <v>'ªò£' =&gt; 'யொ',</v>
+        <f t="shared" si="5"/>
+        <v>'«í' =&gt; 'ணே',</v>
       </c>
       <c r="F67" t="str">
-        <f>"'"&amp;B67&amp;"' =&gt; '"&amp;C67&amp;"',"</f>
-        <v>'யொ' =&gt; 'ªò£',</v>
+        <f t="shared" si="6"/>
+        <v>'ணே' =&gt; '«í',</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>473</v>
+        <v>253</v>
       </c>
       <c r="C68" t="s">
-        <v>474</v>
+        <v>254</v>
       </c>
       <c r="D68">
-        <f>LEN(C68)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E68" t="str">
-        <f>"'"&amp;C68&amp;"' =&gt; '"&amp;B68&amp;"',"</f>
-        <v>'ªô£' =&gt; 'லொ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ì' =&gt; 'டே',</v>
       </c>
       <c r="F68" t="str">
-        <f>"'"&amp;B68&amp;"' =&gt; '"&amp;C68&amp;"',"</f>
-        <v>'லொ' =&gt; 'ªô£',</v>
+        <f t="shared" si="6"/>
+        <v>'டே' =&gt; '«ì',</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="B69" t="s">
-        <v>517</v>
+        <v>297</v>
       </c>
       <c r="C69" t="s">
-        <v>518</v>
+        <v>298</v>
       </c>
       <c r="D69">
-        <f>LEN(C69)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E69" t="str">
-        <f>"'"&amp;C69&amp;"' =&gt; '"&amp;B69&amp;"',"</f>
-        <v>'ªö£' =&gt; 'ழொ',</v>
+        <f t="shared" si="5"/>
+        <v>'«î' =&gt; 'தே',</v>
       </c>
       <c r="F69" t="str">
-        <f>"'"&amp;B69&amp;"' =&gt; '"&amp;C69&amp;"',"</f>
-        <v>'ழொ' =&gt; 'ªö£',</v>
+        <f t="shared" si="6"/>
+        <v>'தே' =&gt; '«î',</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>539</v>
+        <v>319</v>
       </c>
       <c r="C70" t="s">
-        <v>540</v>
+        <v>320</v>
       </c>
       <c r="D70">
-        <f>LEN(C70)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E70" t="str">
-        <f>"'"&amp;C70&amp;"' =&gt; '"&amp;B70&amp;"',"</f>
-        <v>'ªõ£' =&gt; 'வொ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ï' =&gt; 'நே',</v>
       </c>
       <c r="F70" t="str">
-        <f>"'"&amp;B70&amp;"' =&gt; '"&amp;C70&amp;"',"</f>
-        <v>'வொ' =&gt; 'ªõ£',</v>
+        <f t="shared" si="6"/>
+        <v>'நே' =&gt; '«ï',</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>245</v>
+        <v>152</v>
       </c>
       <c r="B71" t="s">
-        <v>451</v>
+        <v>383</v>
       </c>
       <c r="C71" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="D71">
-        <f>LEN(C71)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E71" t="str">
-        <f>"'"&amp;C71&amp;"' =&gt; '"&amp;B71&amp;"',"</f>
-        <v>'ªø£' =&gt; 'றொ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ñ' =&gt; 'மே',</v>
       </c>
       <c r="F71" t="str">
-        <f>"'"&amp;B71&amp;"' =&gt; '"&amp;C71&amp;"',"</f>
-        <v>'றொ' =&gt; 'ªø£',</v>
+        <f t="shared" si="6"/>
+        <v>'மே' =&gt; '«ñ',</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="B72" t="s">
-        <v>587</v>
+        <v>427</v>
       </c>
       <c r="C72" t="s">
-        <v>588</v>
+        <v>428</v>
       </c>
       <c r="D72">
-        <f>LEN(C72)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E72" t="str">
-        <f>"'"&amp;C72&amp;"' =&gt; '"&amp;B72&amp;"',"</f>
-        <v>'ªú÷' =&gt; 'ஸௌ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ó' =&gt; 'ரே',</v>
       </c>
       <c r="F72" t="str">
-        <f>"'"&amp;B72&amp;"' =&gt; '"&amp;C72&amp;"',"</f>
-        <v>'ஸௌ' =&gt; 'ªú÷',</v>
+        <f t="shared" si="6"/>
+        <v>'ரே' =&gt; '«ó',</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="C73" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="D73">
-        <f>LEN(C73)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E73" t="str">
-        <f>"'"&amp;C73&amp;"' =&gt; '"&amp;B73&amp;"',"</f>
-        <v>'ªù÷' =&gt; 'னௌ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ò' =&gt; 'யே',</v>
       </c>
       <c r="F73" t="str">
-        <f>"'"&amp;B73&amp;"' =&gt; '"&amp;C73&amp;"',"</f>
-        <v>'னௌ' =&gt; 'ªù÷',</v>
+        <f t="shared" si="6"/>
+        <v>'யே' =&gt; '«ò',</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="B74" t="s">
-        <v>565</v>
+        <v>469</v>
       </c>
       <c r="C74" t="s">
-        <v>566</v>
+        <v>470</v>
       </c>
       <c r="D74">
-        <f>LEN(C74)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E74" t="str">
-        <f>"'"&amp;C74&amp;"' =&gt; '"&amp;B74&amp;"',"</f>
-        <v>'ªû÷' =&gt; 'ஷௌ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ô' =&gt; 'லே',</v>
       </c>
       <c r="F74" t="str">
-        <f>"'"&amp;B74&amp;"' =&gt; '"&amp;C74&amp;"',"</f>
-        <v>'ஷௌ' =&gt; 'ªû÷',</v>
+        <f t="shared" si="6"/>
+        <v>'லே' =&gt; '«ô',</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>513</v>
       </c>
       <c r="C75" t="s">
-        <v>218</v>
+        <v>514</v>
       </c>
       <c r="D75">
-        <f>LEN(C75)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E75" t="str">
-        <f>"'"&amp;C75&amp;"' =&gt; '"&amp;B75&amp;"',"</f>
-        <v>'ªü÷' =&gt; 'ஜௌ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ö' =&gt; 'ழே',</v>
       </c>
       <c r="F75" t="str">
-        <f>"'"&amp;B75&amp;"' =&gt; '"&amp;C75&amp;"',"</f>
-        <v>'ஜௌ' =&gt; 'ªü÷',</v>
+        <f t="shared" si="6"/>
+        <v>'ழே' =&gt; '«ö',</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>284</v>
+        <v>204</v>
       </c>
       <c r="B76" t="s">
-        <v>583</v>
+        <v>535</v>
       </c>
       <c r="C76" t="s">
-        <v>584</v>
+        <v>536</v>
       </c>
       <c r="D76">
-        <f>LEN(C76)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E76" t="str">
-        <f>"'"&amp;C76&amp;"' =&gt; '"&amp;B76&amp;"',"</f>
-        <v>'ªú£' =&gt; 'ஸொ',</v>
+        <f t="shared" si="5"/>
+        <v>'«õ' =&gt; 'வே',</v>
       </c>
       <c r="F76" t="str">
-        <f>"'"&amp;B76&amp;"' =&gt; '"&amp;C76&amp;"',"</f>
-        <v>'ஸொ' =&gt; 'ªú£',</v>
+        <f t="shared" si="6"/>
+        <v>'வே' =&gt; '«õ',</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B77" t="s">
-        <v>345</v>
+        <v>447</v>
       </c>
       <c r="C77" t="s">
-        <v>346</v>
+        <v>448</v>
       </c>
       <c r="D77">
-        <f>LEN(C77)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E77" t="str">
-        <f>"'"&amp;C77&amp;"' =&gt; '"&amp;B77&amp;"',"</f>
-        <v>'ªù£' =&gt; 'னொ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ø' =&gt; 'றே',</v>
       </c>
       <c r="F77" t="str">
-        <f>"'"&amp;B77&amp;"' =&gt; '"&amp;C77&amp;"',"</f>
-        <v>'னொ' =&gt; 'ªù£',</v>
+        <f t="shared" si="6"/>
+        <v>'றே' =&gt; '«ø',</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B78" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="C78" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="D78">
-        <f>LEN(C78)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E78" t="str">
-        <f>"'"&amp;C78&amp;"' =&gt; '"&amp;B78&amp;"',"</f>
-        <v>'ªû£' =&gt; 'ஷொ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ú' =&gt; 'ஸே',</v>
       </c>
       <c r="F78" t="str">
-        <f>"'"&amp;B78&amp;"' =&gt; '"&amp;C78&amp;"',"</f>
-        <v>'ஷொ' =&gt; 'ªû£',</v>
+        <f t="shared" ref="F78:F109" si="7">"'"&amp;B78&amp;"' =&gt; '"&amp;C78&amp;"',"</f>
+        <v>'ஸே' =&gt; '«ú',</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>342</v>
       </c>
       <c r="D79">
-        <f>LEN(C79)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E79" t="str">
-        <f>"'"&amp;C79&amp;"' =&gt; '"&amp;B79&amp;"',"</f>
-        <v>'ªü£' =&gt; 'ஜொ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ù' =&gt; 'னே',</v>
       </c>
       <c r="F79" t="str">
-        <f>"'"&amp;B79&amp;"' =&gt; '"&amp;C79&amp;"',"</f>
-        <v>'ஜொ' =&gt; 'ªü£',</v>
+        <f t="shared" si="7"/>
+        <v>'னே' =&gt; '«ù',</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B80" t="s">
-        <v>609</v>
+        <v>557</v>
       </c>
       <c r="C80" t="s">
-        <v>610</v>
+        <v>558</v>
       </c>
       <c r="D80">
-        <f>LEN(C80)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E80" t="str">
-        <f>"'"&amp;C80&amp;"' =&gt; '"&amp;B80&amp;"',"</f>
-        <v>'ªý÷' =&gt; 'ஹௌ',</v>
+        <f t="shared" si="5"/>
+        <v>'«û' =&gt; 'ஷே',</v>
       </c>
       <c r="F80" t="str">
-        <f>"'"&amp;B80&amp;"' =&gt; '"&amp;C80&amp;"',"</f>
-        <v>'ஹௌ' =&gt; 'ªý÷',</v>
+        <f t="shared" si="7"/>
+        <v>'ஷே' =&gt; '«û',</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="B81" t="s">
-        <v>605</v>
+        <v>209</v>
       </c>
       <c r="C81" t="s">
-        <v>606</v>
+        <v>210</v>
       </c>
       <c r="D81">
-        <f>LEN(C81)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E81" t="str">
-        <f>"'"&amp;C81&amp;"' =&gt; '"&amp;B81&amp;"',"</f>
-        <v>'ªý£' =&gt; 'ஹொ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ü' =&gt; 'ஜே',</v>
       </c>
       <c r="F81" t="str">
-        <f>"'"&amp;B81&amp;"' =&gt; '"&amp;C81&amp;"',"</f>
-        <v>'ஹொ' =&gt; 'ªý£',</v>
+        <f t="shared" si="7"/>
+        <v>'ஜே' =&gt; '«ü',</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>601</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>602</v>
       </c>
       <c r="D82">
-        <f>LEN(C82)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E82" t="str">
-        <f>"'"&amp;C82&amp;"' =&gt; '"&amp;B82&amp;"',"</f>
-        <v>'è¢û' =&gt; 'க்ஷ',</v>
+        <f t="shared" si="5"/>
+        <v>'«ý' =&gt; 'ஹே',</v>
       </c>
       <c r="F82" t="str">
-        <f>"'"&amp;B82&amp;"' =&gt; '"&amp;C82&amp;"',"</f>
-        <v>'க்ஷ' =&gt; 'è¢û',</v>
+        <f t="shared" si="7"/>
+        <v>'ஹே' =&gt; '«ý',</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C83" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D83">
-        <f>LEN(C83)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E83" t="str">
-        <f>"'"&amp;C83&amp;"' =&gt; '"&amp;B83&amp;"',"</f>
-        <v>'«÷' =&gt; 'ளே',</v>
+        <f t="shared" si="5"/>
+        <v>'÷¦' =&gt; 'ளீ',</v>
       </c>
       <c r="F83" t="str">
-        <f>"'"&amp;B83&amp;"' =&gt; '"&amp;C83&amp;"',"</f>
-        <v>'ளே' =&gt; '«÷',</v>
+        <f t="shared" si="7"/>
+        <v>'ளீ' =&gt; '÷¦',</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="B84" t="s">
-        <v>363</v>
+        <v>479</v>
       </c>
       <c r="C84" t="s">
-        <v>364</v>
+        <v>480</v>
       </c>
       <c r="D84">
-        <f>LEN(C84)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E84" t="str">
-        <f>"'"&amp;C84&amp;"' =&gt; '"&amp;B84&amp;"',"</f>
-        <v>'«ð' =&gt; 'பே',</v>
+        <f t="shared" si="5"/>
+        <v>'÷¢' =&gt; 'ள்',</v>
       </c>
       <c r="F84" t="str">
-        <f>"'"&amp;B84&amp;"' =&gt; '"&amp;C84&amp;"',"</f>
-        <v>'பே' =&gt; '«ð',</v>
+        <f t="shared" si="7"/>
+        <v>'ள்' =&gt; '÷¢',</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>481</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>482</v>
       </c>
       <c r="D85">
-        <f>LEN(C85)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E85" t="str">
-        <f>"'"&amp;C85&amp;"' =&gt; '"&amp;B85&amp;"',"</f>
-        <v>'«é' =&gt; 'ஙே',</v>
+        <f t="shared" si="5"/>
+        <v>'÷£' =&gt; 'ளா',</v>
       </c>
       <c r="F85" t="str">
-        <f>"'"&amp;B85&amp;"' =&gt; '"&amp;C85&amp;"',"</f>
-        <v>'ஙே' =&gt; '«é',</v>
+        <f t="shared" si="7"/>
+        <v>'ளா' =&gt; '÷£',</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>483</v>
       </c>
       <c r="C86" t="s">
-        <v>145</v>
+        <v>484</v>
       </c>
       <c r="D86">
-        <f>LEN(C86)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E86" t="str">
-        <f>"'"&amp;C86&amp;"' =&gt; '"&amp;B86&amp;"',"</f>
-        <v>'«è' =&gt; 'கே',</v>
+        <f t="shared" si="5"/>
+        <v>'÷¤' =&gt; 'ளி',</v>
       </c>
       <c r="F86" t="str">
-        <f>"'"&amp;B86&amp;"' =&gt; '"&amp;C86&amp;"',"</f>
-        <v>'கே' =&gt; '«è',</v>
+        <f t="shared" si="7"/>
+        <v>'ளி' =&gt; '÷¤',</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>493</v>
       </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>494</v>
       </c>
       <c r="D87">
-        <f>LEN(C87)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E87" t="str">
-        <f>"'"&amp;C87&amp;"' =&gt; '"&amp;B87&amp;"',"</f>
-        <v>'«ê' =&gt; 'சே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬÷' =&gt; 'ளை',</v>
       </c>
       <c r="F87" t="str">
-        <f>"'"&amp;B87&amp;"' =&gt; '"&amp;C87&amp;"',"</f>
-        <v>'சே' =&gt; '«ê',</v>
+        <f t="shared" si="7"/>
+        <v>'ளை' =&gt; '¬÷',</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
-        <v>231</v>
+        <v>365</v>
       </c>
       <c r="C88" t="s">
-        <v>232</v>
+        <v>366</v>
       </c>
       <c r="D88">
-        <f>LEN(C88)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E88" t="str">
-        <f>"'"&amp;C88&amp;"' =&gt; '"&amp;B88&amp;"',"</f>
-        <v>'«ë' =&gt; 'ஞே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ð' =&gt; 'பை',</v>
       </c>
       <c r="F88" t="str">
-        <f>"'"&amp;B88&amp;"' =&gt; '"&amp;C88&amp;"',"</f>
-        <v>'ஞே' =&gt; '«ë',</v>
+        <f t="shared" si="7"/>
+        <v>'பை' =&gt; '¬ð',</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="B89" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="C89" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="D89">
-        <f>LEN(C89)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E89" t="str">
-        <f>"'"&amp;C89&amp;"' =&gt; '"&amp;B89&amp;"',"</f>
-        <v>'«í' =&gt; 'ணே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬é' =&gt; 'ஙை',</v>
       </c>
       <c r="F89" t="str">
-        <f>"'"&amp;B89&amp;"' =&gt; '"&amp;C89&amp;"',"</f>
-        <v>'ணே' =&gt; '«í',</v>
+        <f t="shared" si="7"/>
+        <v>'ஙை' =&gt; '¬é',</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>253</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c r="D90">
-        <f>LEN(C90)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E90" t="str">
-        <f>"'"&amp;C90&amp;"' =&gt; '"&amp;B90&amp;"',"</f>
-        <v>'«ì' =&gt; 'டே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬è' =&gt; 'கை',</v>
       </c>
       <c r="F90" t="str">
-        <f>"'"&amp;B90&amp;"' =&gt; '"&amp;C90&amp;"',"</f>
-        <v>'டே' =&gt; '«ì',</v>
+        <f t="shared" si="7"/>
+        <v>'கை' =&gt; '¬è',</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B91" t="s">
-        <v>297</v>
+        <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>298</v>
+        <v>190</v>
       </c>
       <c r="D91">
-        <f>LEN(C91)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E91" t="str">
-        <f>"'"&amp;C91&amp;"' =&gt; '"&amp;B91&amp;"',"</f>
-        <v>'«î' =&gt; 'தே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ê' =&gt; 'சை',</v>
       </c>
       <c r="F91" t="str">
-        <f>"'"&amp;B91&amp;"' =&gt; '"&amp;C91&amp;"',"</f>
-        <v>'தே' =&gt; '«î',</v>
+        <f t="shared" si="7"/>
+        <v>'சை' =&gt; '¬ê',</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="B92" t="s">
-        <v>319</v>
+        <v>233</v>
       </c>
       <c r="C92" t="s">
-        <v>320</v>
+        <v>234</v>
       </c>
       <c r="D92">
-        <f>LEN(C92)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E92" t="str">
-        <f>"'"&amp;C92&amp;"' =&gt; '"&amp;B92&amp;"',"</f>
-        <v>'«ï' =&gt; 'நே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ë' =&gt; 'ஞை',</v>
       </c>
       <c r="F92" t="str">
-        <f>"'"&amp;B92&amp;"' =&gt; '"&amp;C92&amp;"',"</f>
-        <v>'நே' =&gt; '«ï',</v>
+        <f t="shared" si="7"/>
+        <v>'ஞை' =&gt; '¬ë',</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>383</v>
+        <v>277</v>
       </c>
       <c r="C93" t="s">
-        <v>384</v>
+        <v>278</v>
       </c>
       <c r="D93">
-        <f>LEN(C93)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E93" t="str">
-        <f>"'"&amp;C93&amp;"' =&gt; '"&amp;B93&amp;"',"</f>
-        <v>'«ñ' =&gt; 'மே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬í' =&gt; 'ணை',</v>
       </c>
       <c r="F93" t="str">
-        <f>"'"&amp;B93&amp;"' =&gt; '"&amp;C93&amp;"',"</f>
-        <v>'மே' =&gt; '«ñ',</v>
+        <f t="shared" si="7"/>
+        <v>'ணை' =&gt; '¬í',</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="B94" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C94" t="s">
-        <v>428</v>
+        <v>256</v>
       </c>
       <c r="D94">
-        <f>LEN(C94)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E94" t="str">
-        <f>"'"&amp;C94&amp;"' =&gt; '"&amp;B94&amp;"',"</f>
-        <v>'«ó' =&gt; 'ரே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ì' =&gt; 'டை',</v>
       </c>
       <c r="F94" t="str">
-        <f>"'"&amp;B94&amp;"' =&gt; '"&amp;C94&amp;"',"</f>
-        <v>'ரே' =&gt; '«ó',</v>
+        <f t="shared" si="7"/>
+        <v>'டை' =&gt; '¬ì',</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>405</v>
+        <v>299</v>
       </c>
       <c r="C95" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="D95">
-        <f>LEN(C95)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E95" t="str">
-        <f>"'"&amp;C95&amp;"' =&gt; '"&amp;B95&amp;"',"</f>
-        <v>'«ò' =&gt; 'யே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬î' =&gt; 'தை',</v>
       </c>
       <c r="F95" t="str">
-        <f>"'"&amp;B95&amp;"' =&gt; '"&amp;C95&amp;"',"</f>
-        <v>'யே' =&gt; '«ò',</v>
+        <f t="shared" si="7"/>
+        <v>'தை' =&gt; '¬î',</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="C96" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="D96">
-        <f>LEN(C96)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E96" t="str">
-        <f>"'"&amp;C96&amp;"' =&gt; '"&amp;B96&amp;"',"</f>
-        <v>'«ô' =&gt; 'லே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ï' =&gt; 'நை',</v>
       </c>
       <c r="F96" t="str">
-        <f>"'"&amp;B96&amp;"' =&gt; '"&amp;C96&amp;"',"</f>
-        <v>'லே' =&gt; '«ô',</v>
+        <f t="shared" si="7"/>
+        <v>'நை' =&gt; '¬ï',</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="B97" t="s">
-        <v>513</v>
+        <v>385</v>
       </c>
       <c r="C97" t="s">
-        <v>514</v>
+        <v>386</v>
       </c>
       <c r="D97">
-        <f>LEN(C97)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E97" t="str">
-        <f>"'"&amp;C97&amp;"' =&gt; '"&amp;B97&amp;"',"</f>
-        <v>'«ö' =&gt; 'ழே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ñ' =&gt; 'மை',</v>
       </c>
       <c r="F97" t="str">
-        <f>"'"&amp;B97&amp;"' =&gt; '"&amp;C97&amp;"',"</f>
-        <v>'ழே' =&gt; '«ö',</v>
+        <f t="shared" si="7"/>
+        <v>'மை' =&gt; '¬ñ',</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B98" t="s">
-        <v>535</v>
+        <v>429</v>
       </c>
       <c r="C98" t="s">
-        <v>536</v>
+        <v>430</v>
       </c>
       <c r="D98">
-        <f>LEN(C98)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E98" t="str">
-        <f>"'"&amp;C98&amp;"' =&gt; '"&amp;B98&amp;"',"</f>
-        <v>'«õ' =&gt; 'வே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ó' =&gt; 'ரை',</v>
       </c>
       <c r="F98" t="str">
-        <f>"'"&amp;B98&amp;"' =&gt; '"&amp;C98&amp;"',"</f>
-        <v>'வே' =&gt; '«õ',</v>
+        <f t="shared" si="7"/>
+        <v>'ரை' =&gt; '¬ó',</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="B99" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="C99" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="D99">
-        <f>LEN(C99)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E99" t="str">
-        <f>"'"&amp;C99&amp;"' =&gt; '"&amp;B99&amp;"',"</f>
-        <v>'«ø' =&gt; 'றே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ò' =&gt; 'யை',</v>
       </c>
       <c r="F99" t="str">
-        <f>"'"&amp;B99&amp;"' =&gt; '"&amp;C99&amp;"',"</f>
-        <v>'றே' =&gt; '«ø',</v>
+        <f t="shared" si="7"/>
+        <v>'யை' =&gt; '¬ò',</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="B100" t="s">
-        <v>579</v>
+        <v>471</v>
       </c>
       <c r="C100" t="s">
-        <v>580</v>
+        <v>472</v>
       </c>
       <c r="D100">
-        <f>LEN(C100)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E100" t="str">
-        <f>"'"&amp;C100&amp;"' =&gt; '"&amp;B100&amp;"',"</f>
-        <v>'«ú' =&gt; 'ஸே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ô' =&gt; 'லை',</v>
       </c>
       <c r="F100" t="str">
-        <f>"'"&amp;B100&amp;"' =&gt; '"&amp;C100&amp;"',"</f>
-        <v>'ஸே' =&gt; '«ú',</v>
+        <f t="shared" si="7"/>
+        <v>'லை' =&gt; '¬ô',</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="B101" t="s">
-        <v>341</v>
+        <v>515</v>
       </c>
       <c r="C101" t="s">
-        <v>342</v>
+        <v>516</v>
       </c>
       <c r="D101">
-        <f>LEN(C101)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E101" t="str">
-        <f>"'"&amp;C101&amp;"' =&gt; '"&amp;B101&amp;"',"</f>
-        <v>'«ù' =&gt; 'னே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ö' =&gt; 'ழை',</v>
       </c>
       <c r="F101" t="str">
-        <f>"'"&amp;B101&amp;"' =&gt; '"&amp;C101&amp;"',"</f>
-        <v>'னே' =&gt; '«ù',</v>
+        <f t="shared" si="7"/>
+        <v>'ழை' =&gt; '¬ö',</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="C102" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="D102">
-        <f>LEN(C102)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E102" t="str">
-        <f>"'"&amp;C102&amp;"' =&gt; '"&amp;B102&amp;"',"</f>
-        <v>'«û' =&gt; 'ஷே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬õ' =&gt; 'வை',</v>
       </c>
       <c r="F102" t="str">
-        <f>"'"&amp;B102&amp;"' =&gt; '"&amp;C102&amp;"',"</f>
-        <v>'ஷே' =&gt; '«û',</v>
+        <f t="shared" si="7"/>
+        <v>'வை' =&gt; '¬õ',</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B103" t="s">
-        <v>209</v>
+        <v>449</v>
       </c>
       <c r="C103" t="s">
-        <v>210</v>
+        <v>450</v>
       </c>
       <c r="D103">
-        <f>LEN(C103)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E103" t="str">
-        <f>"'"&amp;C103&amp;"' =&gt; '"&amp;B103&amp;"',"</f>
-        <v>'«ü' =&gt; 'ஜே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ø' =&gt; 'றை',</v>
       </c>
       <c r="F103" t="str">
-        <f>"'"&amp;B103&amp;"' =&gt; '"&amp;C103&amp;"',"</f>
-        <v>'ஜே' =&gt; '«ü',</v>
+        <f t="shared" si="7"/>
+        <v>'றை' =&gt; '¬ø',</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="B104" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="C104" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="D104">
-        <f>LEN(C104)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E104" t="str">
-        <f>"'"&amp;C104&amp;"' =&gt; '"&amp;B104&amp;"',"</f>
-        <v>'«ý' =&gt; 'ஹே',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ú' =&gt; 'ஸை',</v>
       </c>
       <c r="F104" t="str">
-        <f>"'"&amp;B104&amp;"' =&gt; '"&amp;C104&amp;"',"</f>
-        <v>'ஹே' =&gt; '«ý',</v>
+        <f t="shared" si="7"/>
+        <v>'ஸை' =&gt; '¬ú',</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="B105" t="s">
-        <v>485</v>
+        <v>343</v>
       </c>
       <c r="C105" t="s">
-        <v>486</v>
+        <v>344</v>
       </c>
       <c r="D105">
-        <f>LEN(C105)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E105" t="str">
-        <f>"'"&amp;C105&amp;"' =&gt; '"&amp;B105&amp;"',"</f>
-        <v>'÷¦' =&gt; 'ளீ',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ù' =&gt; 'னை',</v>
       </c>
       <c r="F105" t="str">
-        <f>"'"&amp;B105&amp;"' =&gt; '"&amp;C105&amp;"',"</f>
-        <v>'ளீ' =&gt; '÷¦',</v>
+        <f t="shared" si="7"/>
+        <v>'னை' =&gt; '¬ù',</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="B106" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="C106" t="s">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="D106">
-        <f>LEN(C106)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E106" t="str">
-        <f>"'"&amp;C106&amp;"' =&gt; '"&amp;B106&amp;"',"</f>
-        <v>'÷¢' =&gt; 'ள்',</v>
+        <f t="shared" si="5"/>
+        <v>'¬û' =&gt; 'ஷை',</v>
       </c>
       <c r="F106" t="str">
-        <f>"'"&amp;B106&amp;"' =&gt; '"&amp;C106&amp;"',"</f>
-        <v>'ள்' =&gt; '÷¢',</v>
+        <f t="shared" si="7"/>
+        <v>'ஷை' =&gt; '¬û',</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="B107" t="s">
-        <v>481</v>
+        <v>211</v>
       </c>
       <c r="C107" t="s">
-        <v>482</v>
+        <v>212</v>
       </c>
       <c r="D107">
-        <f>LEN(C107)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E107" t="str">
-        <f>"'"&amp;C107&amp;"' =&gt; '"&amp;B107&amp;"',"</f>
-        <v>'÷£' =&gt; 'ளா',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ü' =&gt; 'ஜை',</v>
       </c>
       <c r="F107" t="str">
-        <f>"'"&amp;B107&amp;"' =&gt; '"&amp;C107&amp;"',"</f>
-        <v>'ளா' =&gt; '÷£',</v>
+        <f t="shared" si="7"/>
+        <v>'ஜை' =&gt; '¬ü',</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="B108" t="s">
-        <v>483</v>
+        <v>603</v>
       </c>
       <c r="C108" t="s">
-        <v>484</v>
+        <v>604</v>
       </c>
       <c r="D108">
-        <f>LEN(C108)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E108" t="str">
-        <f>"'"&amp;C108&amp;"' =&gt; '"&amp;B108&amp;"',"</f>
-        <v>'÷¤' =&gt; 'ளி',</v>
+        <f t="shared" si="5"/>
+        <v>'¬ý' =&gt; 'ஹை',</v>
       </c>
       <c r="F108" t="str">
-        <f>"'"&amp;B108&amp;"' =&gt; '"&amp;C108&amp;"',"</f>
-        <v>'ளி' =&gt; '÷¤',</v>
+        <f t="shared" si="7"/>
+        <v>'ஹை' =&gt; '¬ý',</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B109" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C109" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D109">
-        <f>LEN(C109)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E109" t="str">
-        <f>"'"&amp;C109&amp;"' =&gt; '"&amp;B109&amp;"',"</f>
-        <v>'¬÷' =&gt; 'ளை',</v>
+        <f t="shared" si="5"/>
+        <v>'ª÷' =&gt; 'ளெ',</v>
       </c>
       <c r="F109" t="str">
-        <f>"'"&amp;B109&amp;"' =&gt; '"&amp;C109&amp;"',"</f>
-        <v>'ளை' =&gt; '¬÷',</v>
+        <f t="shared" si="7"/>
+        <v>'ளெ' =&gt; 'ª÷',</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B110" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C110" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D110">
-        <f>LEN(C110)</f>
+        <f t="shared" ref="D110:D172" si="8">LEN(C110)</f>
         <v>2</v>
       </c>
       <c r="E110" t="str">
-        <f>"'"&amp;C110&amp;"' =&gt; '"&amp;B110&amp;"',"</f>
-        <v>'¬ð' =&gt; 'பை',</v>
+        <f t="shared" ref="E110:E172" si="9">"'"&amp;C110&amp;"' =&gt; '"&amp;B110&amp;"',"</f>
+        <v>'ªð' =&gt; 'பெ',</v>
       </c>
       <c r="F110" t="str">
-        <f>"'"&amp;B110&amp;"' =&gt; '"&amp;C110&amp;"',"</f>
-        <v>'பை' =&gt; '¬ð',</v>
+        <f t="shared" ref="F110:F140" si="10">"'"&amp;B110&amp;"' =&gt; '"&amp;C110&amp;"',"</f>
+        <v>'பெ' =&gt; 'ªð',</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C111" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D111">
-        <f>LEN(C111)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E111" t="str">
-        <f>"'"&amp;C111&amp;"' =&gt; '"&amp;B111&amp;"',"</f>
-        <v>'¬é' =&gt; 'ஙை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªé' =&gt; 'ஙெ',</v>
       </c>
       <c r="F111" t="str">
-        <f>"'"&amp;B111&amp;"' =&gt; '"&amp;C111&amp;"',"</f>
-        <v>'ஙை' =&gt; '¬é',</v>
+        <f t="shared" si="10"/>
+        <v>'ஙெ' =&gt; 'ªé',</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C112" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D112">
-        <f>LEN(C112)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E112" t="str">
-        <f>"'"&amp;C112&amp;"' =&gt; '"&amp;B112&amp;"',"</f>
-        <v>'¬è' =&gt; 'கை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªè' =&gt; 'கெ',</v>
       </c>
       <c r="F112" t="str">
-        <f>"'"&amp;B112&amp;"' =&gt; '"&amp;C112&amp;"',"</f>
-        <v>'கை' =&gt; '¬è',</v>
+        <f t="shared" si="10"/>
+        <v>'கெ' =&gt; 'ªè',</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B113" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C113" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D113">
-        <f>LEN(C113)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E113" t="str">
-        <f>"'"&amp;C113&amp;"' =&gt; '"&amp;B113&amp;"',"</f>
-        <v>'¬ê' =&gt; 'சை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªê' =&gt; 'செ',</v>
       </c>
       <c r="F113" t="str">
-        <f>"'"&amp;B113&amp;"' =&gt; '"&amp;C113&amp;"',"</f>
-        <v>'சை' =&gt; '¬ê',</v>
+        <f t="shared" si="10"/>
+        <v>'செ' =&gt; 'ªê',</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B114" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C114" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D114">
-        <f>LEN(C114)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E114" t="str">
-        <f>"'"&amp;C114&amp;"' =&gt; '"&amp;B114&amp;"',"</f>
-        <v>'¬ë' =&gt; 'ஞை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªë' =&gt; 'ஞெ',</v>
       </c>
       <c r="F114" t="str">
-        <f>"'"&amp;B114&amp;"' =&gt; '"&amp;C114&amp;"',"</f>
-        <v>'ஞை' =&gt; '¬ë',</v>
+        <f t="shared" si="10"/>
+        <v>'ஞெ' =&gt; 'ªë',</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B115" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C115" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D115">
-        <f>LEN(C115)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E115" t="str">
-        <f>"'"&amp;C115&amp;"' =&gt; '"&amp;B115&amp;"',"</f>
-        <v>'¬í' =&gt; 'ணை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªí' =&gt; 'ணெ',</v>
       </c>
       <c r="F115" t="str">
-        <f>"'"&amp;B115&amp;"' =&gt; '"&amp;C115&amp;"',"</f>
-        <v>'ணை' =&gt; '¬í',</v>
+        <f t="shared" si="10"/>
+        <v>'ணெ' =&gt; 'ªí',</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C116" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D116">
-        <f>LEN(C116)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E116" t="str">
-        <f>"'"&amp;C116&amp;"' =&gt; '"&amp;B116&amp;"',"</f>
-        <v>'¬ì' =&gt; 'டை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªì' =&gt; 'டெ',</v>
       </c>
       <c r="F116" t="str">
-        <f>"'"&amp;B116&amp;"' =&gt; '"&amp;C116&amp;"',"</f>
-        <v>'டை' =&gt; '¬ì',</v>
+        <f t="shared" si="10"/>
+        <v>'டெ' =&gt; 'ªì',</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B117" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C117" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D117">
-        <f>LEN(C117)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E117" t="str">
-        <f>"'"&amp;C117&amp;"' =&gt; '"&amp;B117&amp;"',"</f>
-        <v>'¬î' =&gt; 'தை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªî' =&gt; 'தெ',</v>
       </c>
       <c r="F117" t="str">
-        <f>"'"&amp;B117&amp;"' =&gt; '"&amp;C117&amp;"',"</f>
-        <v>'தை' =&gt; '¬î',</v>
+        <f t="shared" si="10"/>
+        <v>'தெ' =&gt; 'ªî',</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C118" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D118">
-        <f>LEN(C118)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E118" t="str">
-        <f>"'"&amp;C118&amp;"' =&gt; '"&amp;B118&amp;"',"</f>
-        <v>'¬ï' =&gt; 'நை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªï' =&gt; 'நெ',</v>
       </c>
       <c r="F118" t="str">
-        <f>"'"&amp;B118&amp;"' =&gt; '"&amp;C118&amp;"',"</f>
-        <v>'நை' =&gt; '¬ï',</v>
+        <f t="shared" si="10"/>
+        <v>'நெ' =&gt; 'ªï',</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B119" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C119" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D119">
-        <f>LEN(C119)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E119" t="str">
-        <f>"'"&amp;C119&amp;"' =&gt; '"&amp;B119&amp;"',"</f>
-        <v>'¬ñ' =&gt; 'மை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªñ' =&gt; 'மெ',</v>
       </c>
       <c r="F119" t="str">
-        <f>"'"&amp;B119&amp;"' =&gt; '"&amp;C119&amp;"',"</f>
-        <v>'மை' =&gt; '¬ñ',</v>
+        <f t="shared" si="10"/>
+        <v>'மெ' =&gt; 'ªñ',</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B120" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C120" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D120">
-        <f>LEN(C120)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E120" t="str">
-        <f>"'"&amp;C120&amp;"' =&gt; '"&amp;B120&amp;"',"</f>
-        <v>'¬ó' =&gt; 'ரை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªó' =&gt; 'ரெ',</v>
       </c>
       <c r="F120" t="str">
-        <f>"'"&amp;B120&amp;"' =&gt; '"&amp;C120&amp;"',"</f>
-        <v>'ரை' =&gt; '¬ó',</v>
+        <f t="shared" si="10"/>
+        <v>'ரெ' =&gt; 'ªó',</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B121" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C121" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D121">
-        <f>LEN(C121)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E121" t="str">
-        <f>"'"&amp;C121&amp;"' =&gt; '"&amp;B121&amp;"',"</f>
-        <v>'¬ò' =&gt; 'யை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªò' =&gt; 'யெ',</v>
       </c>
       <c r="F121" t="str">
-        <f>"'"&amp;B121&amp;"' =&gt; '"&amp;C121&amp;"',"</f>
-        <v>'யை' =&gt; '¬ò',</v>
+        <f t="shared" si="10"/>
+        <v>'யெ' =&gt; 'ªò',</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B122" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C122" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D122">
-        <f>LEN(C122)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E122" t="str">
-        <f>"'"&amp;C122&amp;"' =&gt; '"&amp;B122&amp;"',"</f>
-        <v>'¬ô' =&gt; 'லை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªô' =&gt; 'லெ',</v>
       </c>
       <c r="F122" t="str">
-        <f>"'"&amp;B122&amp;"' =&gt; '"&amp;C122&amp;"',"</f>
-        <v>'லை' =&gt; '¬ô',</v>
+        <f t="shared" si="10"/>
+        <v>'லெ' =&gt; 'ªô',</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B123" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C123" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D123">
-        <f>LEN(C123)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E123" t="str">
-        <f>"'"&amp;C123&amp;"' =&gt; '"&amp;B123&amp;"',"</f>
-        <v>'¬ö' =&gt; 'ழை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªö' =&gt; 'ழெ',</v>
       </c>
       <c r="F123" t="str">
-        <f>"'"&amp;B123&amp;"' =&gt; '"&amp;C123&amp;"',"</f>
-        <v>'ழை' =&gt; '¬ö',</v>
+        <f t="shared" si="10"/>
+        <v>'ழெ' =&gt; 'ªö',</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B124" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C124" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D124">
-        <f>LEN(C124)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E124" t="str">
-        <f>"'"&amp;C124&amp;"' =&gt; '"&amp;B124&amp;"',"</f>
-        <v>'¬õ' =&gt; 'வை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªõ' =&gt; 'வெ',</v>
       </c>
       <c r="F124" t="str">
-        <f>"'"&amp;B124&amp;"' =&gt; '"&amp;C124&amp;"',"</f>
-        <v>'வை' =&gt; '¬õ',</v>
+        <f t="shared" si="10"/>
+        <v>'வெ' =&gt; 'ªõ',</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B125" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C125" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D125">
-        <f>LEN(C125)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E125" t="str">
-        <f>"'"&amp;C125&amp;"' =&gt; '"&amp;B125&amp;"',"</f>
-        <v>'¬ø' =&gt; 'றை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªø' =&gt; 'றெ',</v>
       </c>
       <c r="F125" t="str">
-        <f>"'"&amp;B125&amp;"' =&gt; '"&amp;C125&amp;"',"</f>
-        <v>'றை' =&gt; '¬ø',</v>
+        <f t="shared" si="10"/>
+        <v>'றெ' =&gt; 'ªø',</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B126" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C126" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D126">
-        <f>LEN(C126)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E126" t="str">
-        <f>"'"&amp;C126&amp;"' =&gt; '"&amp;B126&amp;"',"</f>
-        <v>'¬ú' =&gt; 'ஸை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªú' =&gt; 'ஸெ',</v>
       </c>
       <c r="F126" t="str">
-        <f>"'"&amp;B126&amp;"' =&gt; '"&amp;C126&amp;"',"</f>
-        <v>'ஸை' =&gt; '¬ú',</v>
+        <f t="shared" si="10"/>
+        <v>'ஸெ' =&gt; 'ªú',</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B127" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C127" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D127">
-        <f>LEN(C127)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E127" t="str">
-        <f>"'"&amp;C127&amp;"' =&gt; '"&amp;B127&amp;"',"</f>
-        <v>'¬ù' =&gt; 'னை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªù' =&gt; 'னெ',</v>
       </c>
       <c r="F127" t="str">
-        <f>"'"&amp;B127&amp;"' =&gt; '"&amp;C127&amp;"',"</f>
-        <v>'னை' =&gt; '¬ù',</v>
+        <f t="shared" si="10"/>
+        <v>'னெ' =&gt; 'ªù',</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B128" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C128" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D128">
-        <f>LEN(C128)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E128" t="str">
-        <f>"'"&amp;C128&amp;"' =&gt; '"&amp;B128&amp;"',"</f>
-        <v>'¬û' =&gt; 'ஷை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªû' =&gt; 'ஷெ',</v>
       </c>
       <c r="F128" t="str">
-        <f>"'"&amp;B128&amp;"' =&gt; '"&amp;C128&amp;"',"</f>
-        <v>'ஷை' =&gt; '¬û',</v>
+        <f t="shared" si="10"/>
+        <v>'ஷெ' =&gt; 'ªû',</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B129" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C129" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D129">
-        <f>LEN(C129)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E129" t="str">
-        <f>"'"&amp;C129&amp;"' =&gt; '"&amp;B129&amp;"',"</f>
-        <v>'¬ü' =&gt; 'ஜை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªü' =&gt; 'ஜெ',</v>
       </c>
       <c r="F129" t="str">
-        <f>"'"&amp;B129&amp;"' =&gt; '"&amp;C129&amp;"',"</f>
-        <v>'ஜை' =&gt; '¬ü',</v>
+        <f t="shared" si="10"/>
+        <v>'ஜெ' =&gt; 'ªü',</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B130" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C130" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D130">
-        <f>LEN(C130)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E130" t="str">
-        <f>"'"&amp;C130&amp;"' =&gt; '"&amp;B130&amp;"',"</f>
-        <v>'¬ý' =&gt; 'ஹை',</v>
+        <f t="shared" si="9"/>
+        <v>'ªý' =&gt; 'ஹெ',</v>
       </c>
       <c r="F130" t="str">
-        <f>"'"&amp;B130&amp;"' =&gt; '"&amp;C130&amp;"',"</f>
-        <v>'ஹை' =&gt; '¬ý',</v>
+        <f t="shared" si="10"/>
+        <v>'ஹெ' =&gt; 'ªý',</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="B131" t="s">
-        <v>489</v>
+        <v>357</v>
       </c>
       <c r="C131" t="s">
-        <v>490</v>
+        <v>358</v>
       </c>
       <c r="D131">
-        <f>LEN(C131)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E131" t="str">
-        <f>"'"&amp;C131&amp;"' =&gt; '"&amp;B131&amp;"',"</f>
-        <v>'ª÷' =&gt; 'ளெ',</v>
+        <f t="shared" si="9"/>
+        <v>'ð¦' =&gt; 'பீ',</v>
       </c>
       <c r="F131" t="str">
-        <f>"'"&amp;B131&amp;"' =&gt; '"&amp;C131&amp;"',"</f>
-        <v>'ளெ' =&gt; 'ª÷',</v>
+        <f t="shared" si="10"/>
+        <v>'பீ' =&gt; 'ð¦',</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>351</v>
       </c>
       <c r="C132" t="s">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="D132">
-        <f>LEN(C132)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E132" t="str">
-        <f>"'"&amp;C132&amp;"' =&gt; '"&amp;B132&amp;"',"</f>
-        <v>'å÷' =&gt; 'ஔ',</v>
+        <f t="shared" si="9"/>
+        <v>'ð¢' =&gt; 'ப்',</v>
       </c>
       <c r="F132" t="str">
-        <f>"'"&amp;B132&amp;"' =&gt; '"&amp;C132&amp;"',"</f>
-        <v>'ஔ' =&gt; 'å÷',</v>
+        <f t="shared" si="10"/>
+        <v>'ப்' =&gt; 'ð¢',</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C133" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D133">
-        <f>LEN(C133)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E133" t="str">
-        <f>"'"&amp;C133&amp;"' =&gt; '"&amp;B133&amp;"',"</f>
-        <v>'ªð' =&gt; 'பெ',</v>
+        <f t="shared" si="9"/>
+        <v>'ð£' =&gt; 'பா',</v>
       </c>
       <c r="F133" t="str">
-        <f>"'"&amp;B133&amp;"' =&gt; '"&amp;C133&amp;"',"</f>
-        <v>'பெ' =&gt; 'ªð',</v>
+        <f t="shared" si="10"/>
+        <v>'பா' =&gt; 'ð£',</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>163</v>
+        <v>355</v>
       </c>
       <c r="C134" t="s">
-        <v>164</v>
+        <v>356</v>
       </c>
       <c r="D134">
-        <f>LEN(C134)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E134" t="str">
-        <f>"'"&amp;C134&amp;"' =&gt; '"&amp;B134&amp;"',"</f>
-        <v>'ªé' =&gt; 'ஙெ',</v>
+        <f t="shared" si="9"/>
+        <v>'ð¤' =&gt; 'பி',</v>
       </c>
       <c r="F134" t="str">
-        <f>"'"&amp;B134&amp;"' =&gt; '"&amp;C134&amp;"',"</f>
-        <v>'ஙெ' =&gt; 'ªé',</v>
+        <f t="shared" si="10"/>
+        <v>'பி' =&gt; 'ð¤',</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B135" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C135" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="D135">
-        <f>LEN(C135)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E135" t="str">
-        <f>"'"&amp;C135&amp;"' =&gt; '"&amp;B135&amp;"',"</f>
-        <v>'ªè' =&gt; 'கெ',</v>
+        <f t="shared" si="9"/>
+        <v>'é¦' =&gt; 'ஙீ',</v>
       </c>
       <c r="F135" t="str">
-        <f>"'"&amp;B135&amp;"' =&gt; '"&amp;C135&amp;"',"</f>
-        <v>'கெ' =&gt; 'ªè',</v>
+        <f t="shared" si="10"/>
+        <v>'ஙீ' =&gt; 'é¦',</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B136" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="D136">
-        <f>LEN(C136)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E136" t="str">
-        <f>"'"&amp;C136&amp;"' =&gt; '"&amp;B136&amp;"',"</f>
-        <v>'ªê' =&gt; 'செ',</v>
+        <f t="shared" si="9"/>
+        <v>'è¦' =&gt; 'கீ',</v>
       </c>
       <c r="F136" t="str">
-        <f>"'"&amp;B136&amp;"' =&gt; '"&amp;C136&amp;"',"</f>
-        <v>'செ' =&gt; 'ªê',</v>
+        <f t="shared" si="10"/>
+        <v>'கீ' =&gt; 'è¦',</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="C137" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="D137">
-        <f>LEN(C137)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E137" t="str">
-        <f>"'"&amp;C137&amp;"' =&gt; '"&amp;B137&amp;"',"</f>
-        <v>'ªë' =&gt; 'ஞெ',</v>
+        <f t="shared" si="9"/>
+        <v>'ê¦' =&gt; 'சீ',</v>
       </c>
       <c r="F137" t="str">
-        <f>"'"&amp;B137&amp;"' =&gt; '"&amp;C137&amp;"',"</f>
-        <v>'ஞெ' =&gt; 'ªë',</v>
+        <f t="shared" si="10"/>
+        <v>'சீ' =&gt; 'ê¦',</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="C138" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D138">
-        <f>LEN(C138)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E138" t="str">
-        <f>"'"&amp;C138&amp;"' =&gt; '"&amp;B138&amp;"',"</f>
-        <v>'ªí' =&gt; 'ணெ',</v>
+        <f t="shared" si="9"/>
+        <v>'ë¦' =&gt; 'ஞீ',</v>
       </c>
       <c r="F138" t="str">
-        <f>"'"&amp;B138&amp;"' =&gt; '"&amp;C138&amp;"',"</f>
-        <v>'ணெ' =&gt; 'ªí',</v>
+        <f t="shared" si="10"/>
+        <v>'ஞீ' =&gt; 'ë¦',</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B139" t="s">
-        <v>251</v>
+        <v>153</v>
       </c>
       <c r="C139" t="s">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="D139">
-        <f>LEN(C139)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E139" t="str">
-        <f>"'"&amp;C139&amp;"' =&gt; '"&amp;B139&amp;"',"</f>
-        <v>'ªì' =&gt; 'டெ',</v>
+        <f t="shared" si="9"/>
+        <v>'é¢' =&gt; 'ங்',</v>
       </c>
       <c r="F139" t="str">
-        <f>"'"&amp;B139&amp;"' =&gt; '"&amp;C139&amp;"',"</f>
-        <v>'டெ' =&gt; 'ªì',</v>
+        <f t="shared" si="10"/>
+        <v>'ங்' =&gt; 'é¢',</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>295</v>
+        <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>296</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <f>LEN(C140)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E140" t="str">
-        <f>"'"&amp;C140&amp;"' =&gt; '"&amp;B140&amp;"',"</f>
-        <v>'ªî' =&gt; 'தெ',</v>
+        <f t="shared" si="9"/>
+        <v>'è¢' =&gt; 'க்',</v>
       </c>
       <c r="F140" t="str">
-        <f>"'"&amp;B140&amp;"' =&gt; '"&amp;C140&amp;"',"</f>
-        <v>'தெ' =&gt; 'ªî',</v>
+        <f t="shared" si="10"/>
+        <v>'க்' =&gt; 'è¢',</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="B141" t="s">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c r="C141" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="D141">
-        <f>LEN(C141)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E141" t="str">
-        <f>"'"&amp;C141&amp;"' =&gt; '"&amp;B141&amp;"',"</f>
-        <v>'ªï' =&gt; 'நெ',</v>
+        <f t="shared" si="9"/>
+        <v>'ê¢' =&gt; 'ச்',</v>
       </c>
       <c r="F141" t="str">
-        <f>"'"&amp;B141&amp;"' =&gt; '"&amp;C141&amp;"',"</f>
-        <v>'நெ' =&gt; 'ªï',</v>
+        <f t="shared" ref="F141:F163" si="11">"'"&amp;B141&amp;"' =&gt; '"&amp;C141&amp;"',"</f>
+        <v>'ச்' =&gt; 'ê¢',</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="B142" t="s">
-        <v>381</v>
+        <v>219</v>
       </c>
       <c r="C142" t="s">
-        <v>382</v>
+        <v>220</v>
       </c>
       <c r="D142">
-        <f>LEN(C142)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E142" t="str">
-        <f>"'"&amp;C142&amp;"' =&gt; '"&amp;B142&amp;"',"</f>
-        <v>'ªñ' =&gt; 'மெ',</v>
+        <f t="shared" si="9"/>
+        <v>'ë¢' =&gt; 'ஞ்',</v>
       </c>
       <c r="F142" t="str">
-        <f>"'"&amp;B142&amp;"' =&gt; '"&amp;C142&amp;"',"</f>
-        <v>'மெ' =&gt; 'ªñ',</v>
+        <f t="shared" si="11"/>
+        <v>'ஞ்' =&gt; 'ë¢',</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="B143" t="s">
-        <v>425</v>
+        <v>155</v>
       </c>
       <c r="C143" t="s">
-        <v>426</v>
+        <v>156</v>
       </c>
       <c r="D143">
-        <f>LEN(C143)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E143" t="str">
-        <f>"'"&amp;C143&amp;"' =&gt; '"&amp;B143&amp;"',"</f>
-        <v>'ªó' =&gt; 'ரெ',</v>
+        <f t="shared" si="9"/>
+        <v>'é£' =&gt; 'ஙா',</v>
       </c>
       <c r="F143" t="str">
-        <f>"'"&amp;B143&amp;"' =&gt; '"&amp;C143&amp;"',"</f>
-        <v>'ரெ' =&gt; 'ªó',</v>
+        <f t="shared" si="11"/>
+        <v>'ஙா' =&gt; 'é£',</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="B144" t="s">
-        <v>403</v>
+        <v>136</v>
       </c>
       <c r="C144" t="s">
-        <v>404</v>
+        <v>97</v>
       </c>
       <c r="D144">
-        <f>LEN(C144)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E144" t="str">
-        <f>"'"&amp;C144&amp;"' =&gt; '"&amp;B144&amp;"',"</f>
-        <v>'ªò' =&gt; 'யெ',</v>
+        <f t="shared" si="9"/>
+        <v>'è£' =&gt; 'கா',</v>
       </c>
       <c r="F144" t="str">
-        <f>"'"&amp;B144&amp;"' =&gt; '"&amp;C144&amp;"',"</f>
-        <v>'யெ' =&gt; 'ªò',</v>
+        <f t="shared" si="11"/>
+        <v>'கா' =&gt; 'è£',</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="B145" t="s">
-        <v>467</v>
+        <v>177</v>
       </c>
       <c r="C145" t="s">
-        <v>468</v>
+        <v>178</v>
       </c>
       <c r="D145">
-        <f>LEN(C145)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E145" t="str">
-        <f>"'"&amp;C145&amp;"' =&gt; '"&amp;B145&amp;"',"</f>
-        <v>'ªô' =&gt; 'லெ',</v>
+        <f t="shared" si="9"/>
+        <v>'ê£' =&gt; 'சா',</v>
       </c>
       <c r="F145" t="str">
-        <f>"'"&amp;B145&amp;"' =&gt; '"&amp;C145&amp;"',"</f>
-        <v>'லெ' =&gt; 'ªô',</v>
+        <f t="shared" si="11"/>
+        <v>'சா' =&gt; 'ê£',</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="B146" t="s">
-        <v>511</v>
+        <v>221</v>
       </c>
       <c r="C146" t="s">
-        <v>512</v>
+        <v>222</v>
       </c>
       <c r="D146">
-        <f>LEN(C146)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E146" t="str">
-        <f>"'"&amp;C146&amp;"' =&gt; '"&amp;B146&amp;"',"</f>
-        <v>'ªö' =&gt; 'ழெ',</v>
+        <f t="shared" si="9"/>
+        <v>'ë£' =&gt; 'ஞா',</v>
       </c>
       <c r="F146" t="str">
-        <f>"'"&amp;B146&amp;"' =&gt; '"&amp;C146&amp;"',"</f>
-        <v>'ழெ' =&gt; 'ªö',</v>
+        <f t="shared" si="11"/>
+        <v>'ஞா' =&gt; 'ë£',</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="B147" t="s">
-        <v>533</v>
+        <v>157</v>
       </c>
       <c r="C147" t="s">
-        <v>534</v>
+        <v>158</v>
       </c>
       <c r="D147">
-        <f>LEN(C147)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E147" t="str">
-        <f>"'"&amp;C147&amp;"' =&gt; '"&amp;B147&amp;"',"</f>
-        <v>'ªõ' =&gt; 'வெ',</v>
+        <f t="shared" si="9"/>
+        <v>'é¤' =&gt; 'ஙி',</v>
       </c>
       <c r="F147" t="str">
-        <f>"'"&amp;B147&amp;"' =&gt; '"&amp;C147&amp;"',"</f>
-        <v>'வெ' =&gt; 'ªõ',</v>
+        <f t="shared" si="11"/>
+        <v>'ஙி' =&gt; 'é¤',</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>445</v>
+        <v>137</v>
       </c>
       <c r="C148" t="s">
-        <v>446</v>
+        <v>138</v>
       </c>
       <c r="D148">
-        <f>LEN(C148)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E148" t="str">
-        <f>"'"&amp;C148&amp;"' =&gt; '"&amp;B148&amp;"',"</f>
-        <v>'ªø' =&gt; 'றெ',</v>
+        <f t="shared" si="9"/>
+        <v>'è¤' =&gt; 'கி',</v>
       </c>
       <c r="F148" t="str">
-        <f>"'"&amp;B148&amp;"' =&gt; '"&amp;C148&amp;"',"</f>
-        <v>'றெ' =&gt; 'ªø',</v>
+        <f t="shared" si="11"/>
+        <v>'கி' =&gt; 'è¤',</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>281</v>
+        <v>56</v>
       </c>
       <c r="B149" t="s">
-        <v>577</v>
+        <v>179</v>
       </c>
       <c r="C149" t="s">
-        <v>578</v>
+        <v>180</v>
       </c>
       <c r="D149">
-        <f>LEN(C149)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E149" t="str">
-        <f>"'"&amp;C149&amp;"' =&gt; '"&amp;B149&amp;"',"</f>
-        <v>'ªú' =&gt; 'ஸெ',</v>
+        <f t="shared" si="9"/>
+        <v>'ê¤' =&gt; 'சி',</v>
       </c>
       <c r="F149" t="str">
-        <f>"'"&amp;B149&amp;"' =&gt; '"&amp;C149&amp;"',"</f>
-        <v>'ஸெ' =&gt; 'ªú',</v>
+        <f t="shared" si="11"/>
+        <v>'சி' =&gt; 'ê¤',</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>255</v>
+        <v>69</v>
       </c>
       <c r="B150" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="C150" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="D150">
-        <f>LEN(C150)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E150" t="str">
-        <f>"'"&amp;C150&amp;"' =&gt; '"&amp;B150&amp;"',"</f>
-        <v>'ªù' =&gt; 'னெ',</v>
+        <f t="shared" si="9"/>
+        <v>'ë¤' =&gt; 'ஞி',</v>
       </c>
       <c r="F150" t="str">
-        <f>"'"&amp;B150&amp;"' =&gt; '"&amp;C150&amp;"',"</f>
-        <v>'னெ' =&gt; 'ªù',</v>
+        <f t="shared" si="11"/>
+        <v>'ஞி' =&gt; 'ë¤',</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>294</v>
+        <v>96</v>
       </c>
       <c r="B151" t="s">
-        <v>555</v>
+        <v>269</v>
       </c>
       <c r="C151" t="s">
-        <v>556</v>
+        <v>270</v>
       </c>
       <c r="D151">
-        <f>LEN(C151)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E151" t="str">
-        <f>"'"&amp;C151&amp;"' =&gt; '"&amp;B151&amp;"',"</f>
-        <v>'ªû' =&gt; 'ஷெ',</v>
+        <f t="shared" si="9"/>
+        <v>'í¦' =&gt; 'ணீ',</v>
       </c>
       <c r="F151" t="str">
-        <f>"'"&amp;B151&amp;"' =&gt; '"&amp;C151&amp;"',"</f>
-        <v>'ஷெ' =&gt; 'ªû',</v>
+        <f t="shared" si="11"/>
+        <v>'ணீ' =&gt; 'í¦',</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>268</v>
+        <v>83</v>
       </c>
       <c r="B152" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="C152" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="D152">
-        <f>LEN(C152)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E152" t="str">
-        <f>"'"&amp;C152&amp;"' =&gt; '"&amp;B152&amp;"',"</f>
-        <v>'ªü' =&gt; 'ஜெ',</v>
+        <f t="shared" si="9"/>
+        <v>'ì¦' =&gt; 'டீ',</v>
       </c>
       <c r="F152" t="str">
-        <f>"'"&amp;B152&amp;"' =&gt; '"&amp;C152&amp;"',"</f>
-        <v>'ஜெ' =&gt; 'ªü',</v>
+        <f t="shared" si="11"/>
+        <v>'டீ' =&gt; 'ì¦',</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>307</v>
+        <v>109</v>
       </c>
       <c r="B153" t="s">
-        <v>599</v>
+        <v>291</v>
       </c>
       <c r="C153" t="s">
-        <v>600</v>
+        <v>292</v>
       </c>
       <c r="D153">
-        <f>LEN(C153)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E153" t="str">
-        <f>"'"&amp;C153&amp;"' =&gt; '"&amp;B153&amp;"',"</f>
-        <v>'ªý' =&gt; 'ஹெ',</v>
+        <f t="shared" si="9"/>
+        <v>'î¦' =&gt; 'தீ',</v>
       </c>
       <c r="F153" t="str">
-        <f>"'"&amp;B153&amp;"' =&gt; '"&amp;C153&amp;"',"</f>
-        <v>'ஹெ' =&gt; 'ªý',</v>
+        <f t="shared" si="11"/>
+        <v>'தீ' =&gt; 'î¦',</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B154" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="C154" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="D154">
-        <f>LEN(C154)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E154" t="str">
-        <f>"'"&amp;C154&amp;"' =&gt; '"&amp;B154&amp;"',"</f>
-        <v>'ð¦' =&gt; 'பீ',</v>
+        <f t="shared" si="9"/>
+        <v>'ï¦' =&gt; 'நீ',</v>
       </c>
       <c r="F154" t="str">
-        <f>"'"&amp;B154&amp;"' =&gt; '"&amp;C154&amp;"',"</f>
-        <v>'பீ' =&gt; 'ð¦',</v>
+        <f t="shared" si="11"/>
+        <v>'நீ' =&gt; 'ï¦',</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B155" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="C155" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="D155">
-        <f>LEN(C155)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E155" t="str">
-        <f>"'"&amp;C155&amp;"' =&gt; '"&amp;B155&amp;"',"</f>
-        <v>'ð¢' =&gt; 'ப்',</v>
+        <f t="shared" si="9"/>
+        <v>'í¢' =&gt; 'ண்',</v>
       </c>
       <c r="F155" t="str">
-        <f>"'"&amp;B155&amp;"' =&gt; '"&amp;C155&amp;"',"</f>
-        <v>'ப்' =&gt; 'ð¢',</v>
+        <f t="shared" si="11"/>
+        <v>'ண்' =&gt; 'í¢',</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="B156" t="s">
-        <v>353</v>
+        <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>354</v>
+        <v>242</v>
       </c>
       <c r="D156">
-        <f>LEN(C156)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E156" t="str">
-        <f>"'"&amp;C156&amp;"' =&gt; '"&amp;B156&amp;"',"</f>
-        <v>'ð£' =&gt; 'பா',</v>
+        <f t="shared" si="9"/>
+        <v>'ì¢' =&gt; 'ட்',</v>
       </c>
       <c r="F156" t="str">
-        <f>"'"&amp;B156&amp;"' =&gt; '"&amp;C156&amp;"',"</f>
-        <v>'பா' =&gt; 'ð£',</v>
+        <f t="shared" si="11"/>
+        <v>'ட்' =&gt; 'ì¢',</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="B157" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="C157" t="s">
-        <v>356</v>
+        <v>286</v>
       </c>
       <c r="D157">
-        <f>LEN(C157)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E157" t="str">
-        <f>"'"&amp;C157&amp;"' =&gt; '"&amp;B157&amp;"',"</f>
-        <v>'ð¤' =&gt; 'பி',</v>
+        <f t="shared" si="9"/>
+        <v>'î¢' =&gt; 'த்',</v>
       </c>
       <c r="F157" t="str">
-        <f>"'"&amp;B157&amp;"' =&gt; '"&amp;C157&amp;"',"</f>
-        <v>'பி' =&gt; 'ð¤',</v>
+        <f t="shared" si="11"/>
+        <v>'த்' =&gt; 'î¢',</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="C158" t="s">
-        <v>160</v>
+        <v>308</v>
       </c>
       <c r="D158">
-        <f>LEN(C158)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E158" t="str">
-        <f>"'"&amp;C158&amp;"' =&gt; '"&amp;B158&amp;"',"</f>
-        <v>'é¦' =&gt; 'ஙீ',</v>
+        <f t="shared" si="9"/>
+        <v>'ï¢' =&gt; 'ந்',</v>
       </c>
       <c r="F158" t="str">
-        <f>"'"&amp;B158&amp;"' =&gt; '"&amp;C158&amp;"',"</f>
-        <v>'ஙீ' =&gt; 'é¦',</v>
+        <f t="shared" si="11"/>
+        <v>'ந்' =&gt; 'ï¢',</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B159" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="C159" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="D159">
-        <f>LEN(C159)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E159" t="str">
-        <f>"'"&amp;C159&amp;"' =&gt; '"&amp;B159&amp;"',"</f>
-        <v>'è¦' =&gt; 'கீ',</v>
+        <f t="shared" si="9"/>
+        <v>'í£' =&gt; 'ணா',</v>
       </c>
       <c r="F159" t="str">
-        <f>"'"&amp;B159&amp;"' =&gt; '"&amp;C159&amp;"',"</f>
-        <v>'கீ' =&gt; 'è¦',</v>
+        <f t="shared" si="11"/>
+        <v>'ணா' =&gt; 'í£',</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B160" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="C160" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="D160">
-        <f>LEN(C160)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E160" t="str">
-        <f>"'"&amp;C160&amp;"' =&gt; '"&amp;B160&amp;"',"</f>
-        <v>'ê¦' =&gt; 'சீ',</v>
+        <f t="shared" si="9"/>
+        <v>'ì£' =&gt; 'டா',</v>
       </c>
       <c r="F160" t="str">
-        <f>"'"&amp;B160&amp;"' =&gt; '"&amp;C160&amp;"',"</f>
-        <v>'சீ' =&gt; 'ê¦',</v>
+        <f t="shared" si="11"/>
+        <v>'டா' =&gt; 'ì£',</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="B161" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="C161" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="D161">
-        <f>LEN(C161)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E161" t="str">
-        <f>"'"&amp;C161&amp;"' =&gt; '"&amp;B161&amp;"',"</f>
-        <v>'ë¦' =&gt; 'ஞீ',</v>
+        <f t="shared" si="9"/>
+        <v>'î£' =&gt; 'தா',</v>
       </c>
       <c r="F161" t="str">
-        <f>"'"&amp;B161&amp;"' =&gt; '"&amp;C161&amp;"',"</f>
-        <v>'ஞீ' =&gt; 'ë¦',</v>
+        <f t="shared" si="11"/>
+        <v>'தா' =&gt; 'î£',</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="B162" t="s">
-        <v>153</v>
+        <v>309</v>
       </c>
       <c r="C162" t="s">
-        <v>154</v>
+        <v>310</v>
       </c>
       <c r="D162">
-        <f>LEN(C162)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E162" t="str">
-        <f>"'"&amp;C162&amp;"' =&gt; '"&amp;B162&amp;"',"</f>
-        <v>'é¢' =&gt; 'ங்',</v>
+        <f t="shared" si="9"/>
+        <v>'ï£' =&gt; 'நா',</v>
       </c>
       <c r="F162" t="str">
-        <f>"'"&amp;B162&amp;"' =&gt; '"&amp;C162&amp;"',"</f>
-        <v>'ங்' =&gt; 'é¢',</v>
+        <f t="shared" si="11"/>
+        <v>'நா' =&gt; 'ï£',</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="B163" t="s">
-        <v>3</v>
+        <v>267</v>
       </c>
       <c r="C163" t="s">
-        <v>2</v>
+        <v>268</v>
       </c>
       <c r="D163">
-        <f>LEN(C163)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E163" t="str">
-        <f>"'"&amp;C163&amp;"' =&gt; '"&amp;B163&amp;"',"</f>
-        <v>'è¢' =&gt; 'க்',</v>
+        <f t="shared" si="9"/>
+        <v>'í¤' =&gt; 'ணி',</v>
       </c>
       <c r="F163" t="str">
-        <f>"'"&amp;B163&amp;"' =&gt; '"&amp;C163&amp;"',"</f>
-        <v>'க்' =&gt; 'è¢',</v>
+        <f t="shared" si="11"/>
+        <v>'ணி' =&gt; 'í¤',</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164">
-        <v>54</v>
-      </c>
-      <c r="B164" t="s">
-        <v>175</v>
-      </c>
-      <c r="C164" t="s">
-        <v>176</v>
+      <c r="B164" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C164" s="31" t="s">
+        <v>246</v>
       </c>
       <c r="D164">
-        <f>LEN(C164)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E164" t="str">
-        <f>"'"&amp;C164&amp;"' =&gt; '"&amp;B164&amp;"',"</f>
-        <v>'ê¢' =&gt; 'ச்',</v>
-      </c>
-      <c r="F164" t="str">
-        <f>"'"&amp;B164&amp;"' =&gt; '"&amp;C164&amp;"',"</f>
-        <v>'ச்' =&gt; 'ê¢',</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>'ì¤' =&gt; 'டி',</v>
+      </c>
+      <c r="F164" s="31"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B165" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="C165" t="s">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="D165">
-        <f>LEN(C165)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E165" t="str">
-        <f>"'"&amp;C165&amp;"' =&gt; '"&amp;B165&amp;"',"</f>
-        <v>'ë¢' =&gt; 'ஞ்',</v>
+        <f t="shared" si="9"/>
+        <v>'î¤' =&gt; 'தி',</v>
       </c>
       <c r="F165" t="str">
-        <f>"'"&amp;B165&amp;"' =&gt; '"&amp;C165&amp;"',"</f>
-        <v>'ஞ்' =&gt; 'ë¢',</v>
+        <f t="shared" ref="F165:F196" si="12">"'"&amp;B165&amp;"' =&gt; '"&amp;C165&amp;"',"</f>
+        <v>'தி' =&gt; 'î¤',</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B166" t="s">
-        <v>155</v>
+        <v>311</v>
       </c>
       <c r="C166" t="s">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="D166">
-        <f>LEN(C166)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E166" t="str">
-        <f>"'"&amp;C166&amp;"' =&gt; '"&amp;B166&amp;"',"</f>
-        <v>'é£' =&gt; 'ஙா',</v>
+        <f t="shared" si="9"/>
+        <v>'ï¤' =&gt; 'நி',</v>
       </c>
       <c r="F166" t="str">
-        <f>"'"&amp;B166&amp;"' =&gt; '"&amp;C166&amp;"',"</f>
-        <v>'ஙா' =&gt; 'é£',</v>
+        <f t="shared" si="12"/>
+        <v>'நி' =&gt; 'ï¤',</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="B167" t="s">
-        <v>136</v>
+        <v>377</v>
       </c>
       <c r="C167" t="s">
-        <v>97</v>
+        <v>378</v>
       </c>
       <c r="D167">
-        <f>LEN(C167)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E167" t="str">
-        <f>"'"&amp;C167&amp;"' =&gt; '"&amp;B167&amp;"',"</f>
-        <v>'è£' =&gt; 'கா',</v>
+        <f t="shared" si="9"/>
+        <v>'ñ¦' =&gt; 'மீ',</v>
       </c>
       <c r="F167" t="str">
-        <f>"'"&amp;B167&amp;"' =&gt; '"&amp;C167&amp;"',"</f>
-        <v>'கா' =&gt; 'è£',</v>
+        <f t="shared" si="12"/>
+        <v>'மீ' =&gt; 'ñ¦',</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="B168" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="D168">
-        <f>LEN(C168)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E168" t="str">
-        <f>"'"&amp;C168&amp;"' =&gt; '"&amp;B168&amp;"',"</f>
-        <v>'ê£' =&gt; 'சா',</v>
+        <f t="shared" si="9"/>
+        <v>'ñ¢' =&gt; 'ம்',</v>
       </c>
       <c r="F168" t="str">
-        <f>"'"&amp;B168&amp;"' =&gt; '"&amp;C168&amp;"',"</f>
-        <v>'சா' =&gt; 'ê£',</v>
+        <f t="shared" si="12"/>
+        <v>'ம்' =&gt; 'ñ¢',</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="B169" t="s">
-        <v>221</v>
+        <v>373</v>
       </c>
       <c r="C169" t="s">
-        <v>222</v>
+        <v>374</v>
       </c>
       <c r="D169">
-        <f>LEN(C169)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E169" t="str">
-        <f>"'"&amp;C169&amp;"' =&gt; '"&amp;B169&amp;"',"</f>
-        <v>'ë£' =&gt; 'ஞா',</v>
+        <f t="shared" si="9"/>
+        <v>'ñ£' =&gt; 'மா',</v>
       </c>
       <c r="F169" t="str">
-        <f>"'"&amp;B169&amp;"' =&gt; '"&amp;C169&amp;"',"</f>
-        <v>'ஞா' =&gt; 'ë£',</v>
+        <f t="shared" si="12"/>
+        <v>'மா' =&gt; 'ñ£',</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B170" t="s">
-        <v>157</v>
+        <v>375</v>
       </c>
       <c r="C170" t="s">
-        <v>158</v>
+        <v>376</v>
       </c>
       <c r="D170">
-        <f>LEN(C170)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E170" t="str">
-        <f>"'"&amp;C170&amp;"' =&gt; '"&amp;B170&amp;"',"</f>
-        <v>'é¤' =&gt; 'ஙி',</v>
+        <f t="shared" si="9"/>
+        <v>'ñ¤' =&gt; 'மி',</v>
       </c>
       <c r="F170" t="str">
-        <f>"'"&amp;B170&amp;"' =&gt; '"&amp;C170&amp;"',"</f>
-        <v>'ஙி' =&gt; 'é¤',</v>
+        <f t="shared" si="12"/>
+        <v>'மி' =&gt; 'ñ¤',</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="C171" t="s">
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="D171">
-        <f>LEN(C171)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E171" t="str">
-        <f>"'"&amp;C171&amp;"' =&gt; '"&amp;B171&amp;"',"</f>
-        <v>'è¤' =&gt; 'கி',</v>
+        <f t="shared" si="9"/>
+        <v>'ó¦' =&gt; 'ரீ',</v>
       </c>
       <c r="F171" t="str">
-        <f>"'"&amp;B171&amp;"' =&gt; '"&amp;C171&amp;"',"</f>
-        <v>'கி' =&gt; 'è¤',</v>
+        <f t="shared" si="12"/>
+        <v>'ரீ' =&gt; 'ó¦',</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="B172" t="s">
-        <v>179</v>
+        <v>399</v>
       </c>
       <c r="C172" t="s">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="D172">
-        <f>LEN(C172)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E172" t="str">
-        <f>"'"&amp;C172&amp;"' =&gt; '"&amp;B172&amp;"',"</f>
-        <v>'ê¤' =&gt; 'சி',</v>
+        <f t="shared" si="9"/>
+        <v>'ò¦' =&gt; 'யீ',</v>
       </c>
       <c r="F172" t="str">
-        <f>"'"&amp;B172&amp;"' =&gt; '"&amp;C172&amp;"',"</f>
-        <v>'சி' =&gt; 'ê¤',</v>
+        <f t="shared" si="12"/>
+        <v>'யீ' =&gt; 'ò¦',</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="B173" t="s">
-        <v>223</v>
+        <v>463</v>
       </c>
       <c r="C173" t="s">
-        <v>224</v>
+        <v>464</v>
       </c>
       <c r="D173">
-        <f>LEN(C173)</f>
+        <f t="shared" ref="D173:D258" si="13">LEN(C173)</f>
         <v>2</v>
       </c>
       <c r="E173" t="str">
-        <f>"'"&amp;C173&amp;"' =&gt; '"&amp;B173&amp;"',"</f>
-        <v>'ë¤' =&gt; 'ஞி',</v>
+        <f t="shared" ref="E173:E258" si="14">"'"&amp;C173&amp;"' =&gt; '"&amp;B173&amp;"',"</f>
+        <v>'ô¦' =&gt; 'லீ',</v>
       </c>
       <c r="F173" t="str">
-        <f>"'"&amp;B173&amp;"' =&gt; '"&amp;C173&amp;"',"</f>
-        <v>'ஞி' =&gt; 'ë¤',</v>
+        <f t="shared" si="12"/>
+        <v>'லீ' =&gt; 'ô¦',</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="B174" t="s">
-        <v>269</v>
+        <v>507</v>
       </c>
       <c r="C174" t="s">
-        <v>270</v>
+        <v>508</v>
       </c>
       <c r="D174">
-        <f>LEN(C174)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E174" t="str">
-        <f>"'"&amp;C174&amp;"' =&gt; '"&amp;B174&amp;"',"</f>
-        <v>'í¦' =&gt; 'ணீ',</v>
+        <f t="shared" si="14"/>
+        <v>'ö¦' =&gt; 'ழீ',</v>
       </c>
       <c r="F174" t="str">
-        <f>"'"&amp;B174&amp;"' =&gt; '"&amp;C174&amp;"',"</f>
-        <v>'ணீ' =&gt; 'í¦',</v>
+        <f t="shared" si="12"/>
+        <v>'ழீ' =&gt; 'ö¦',</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="B175" t="s">
-        <v>247</v>
+        <v>529</v>
       </c>
       <c r="C175" t="s">
-        <v>248</v>
+        <v>530</v>
       </c>
       <c r="D175">
-        <f>LEN(C175)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E175" t="str">
-        <f>"'"&amp;C175&amp;"' =&gt; '"&amp;B175&amp;"',"</f>
-        <v>'ì¦' =&gt; 'டீ',</v>
+        <f t="shared" si="14"/>
+        <v>'õ¦' =&gt; 'வீ',</v>
       </c>
       <c r="F175" t="str">
-        <f>"'"&amp;B175&amp;"' =&gt; '"&amp;C175&amp;"',"</f>
-        <v>'டீ' =&gt; 'ì¦',</v>
+        <f t="shared" si="12"/>
+        <v>'வீ' =&gt; 'õ¦',</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="B176" t="s">
-        <v>291</v>
+        <v>441</v>
       </c>
       <c r="C176" t="s">
-        <v>292</v>
+        <v>442</v>
       </c>
       <c r="D176">
-        <f>LEN(C176)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E176" t="str">
-        <f>"'"&amp;C176&amp;"' =&gt; '"&amp;B176&amp;"',"</f>
-        <v>'î¦' =&gt; 'தீ',</v>
+        <f t="shared" si="14"/>
+        <v>'ø¦' =&gt; 'றீ',</v>
       </c>
       <c r="F176" t="str">
-        <f>"'"&amp;B176&amp;"' =&gt; '"&amp;C176&amp;"',"</f>
-        <v>'தீ' =&gt; 'î¦',</v>
+        <f t="shared" si="12"/>
+        <v>'றீ' =&gt; 'ø¦',</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="B177" t="s">
-        <v>313</v>
+        <v>415</v>
       </c>
       <c r="C177" t="s">
-        <v>314</v>
+        <v>416</v>
       </c>
       <c r="D177">
-        <f>LEN(C177)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E177" t="str">
-        <f>"'"&amp;C177&amp;"' =&gt; '"&amp;B177&amp;"',"</f>
-        <v>'ï¦' =&gt; 'நீ',</v>
+        <f t="shared" si="14"/>
+        <v>'ó¢' =&gt; 'ர்',</v>
       </c>
       <c r="F177" t="str">
-        <f>"'"&amp;B177&amp;"' =&gt; '"&amp;C177&amp;"',"</f>
-        <v>'நீ' =&gt; 'ï¦',</v>
+        <f t="shared" si="12"/>
+        <v>'ர்' =&gt; 'ó¢',</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="B178" t="s">
-        <v>263</v>
+        <v>393</v>
       </c>
       <c r="C178" t="s">
-        <v>264</v>
+        <v>394</v>
       </c>
       <c r="D178">
-        <f>LEN(C178)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E178" t="str">
-        <f>"'"&amp;C178&amp;"' =&gt; '"&amp;B178&amp;"',"</f>
-        <v>'í¢' =&gt; 'ண்',</v>
+        <f t="shared" si="14"/>
+        <v>'ò¢' =&gt; 'ய்',</v>
       </c>
       <c r="F178" t="str">
-        <f>"'"&amp;B178&amp;"' =&gt; '"&amp;C178&amp;"',"</f>
-        <v>'ண்' =&gt; 'í¢',</v>
+        <f t="shared" si="12"/>
+        <v>'ய்' =&gt; 'ò¢',</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="B179" t="s">
-        <v>241</v>
+        <v>457</v>
       </c>
       <c r="C179" t="s">
-        <v>242</v>
+        <v>458</v>
       </c>
       <c r="D179">
-        <f>LEN(C179)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E179" t="str">
-        <f>"'"&amp;C179&amp;"' =&gt; '"&amp;B179&amp;"',"</f>
-        <v>'ì¢' =&gt; 'ட்',</v>
+        <f t="shared" si="14"/>
+        <v>'ô¢' =&gt; 'ல்',</v>
       </c>
       <c r="F179" t="str">
-        <f>"'"&amp;B179&amp;"' =&gt; '"&amp;C179&amp;"',"</f>
-        <v>'ட்' =&gt; 'ì¢',</v>
+        <f t="shared" si="12"/>
+        <v>'ல்' =&gt; 'ô¢',</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="B180" t="s">
-        <v>285</v>
+        <v>501</v>
       </c>
       <c r="C180" t="s">
-        <v>286</v>
+        <v>502</v>
       </c>
       <c r="D180">
-        <f>LEN(C180)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E180" t="str">
-        <f>"'"&amp;C180&amp;"' =&gt; '"&amp;B180&amp;"',"</f>
-        <v>'î¢' =&gt; 'த்',</v>
+        <f t="shared" si="14"/>
+        <v>'ö¢' =&gt; 'ழ்',</v>
       </c>
       <c r="F180" t="str">
-        <f>"'"&amp;B180&amp;"' =&gt; '"&amp;C180&amp;"',"</f>
-        <v>'த்' =&gt; 'î¢',</v>
+        <f t="shared" si="12"/>
+        <v>'ழ்' =&gt; 'ö¢',</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="B181" t="s">
-        <v>307</v>
+        <v>523</v>
       </c>
       <c r="C181" t="s">
-        <v>308</v>
+        <v>524</v>
       </c>
       <c r="D181">
-        <f>LEN(C181)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E181" t="str">
-        <f>"'"&amp;C181&amp;"' =&gt; '"&amp;B181&amp;"',"</f>
-        <v>'ï¢' =&gt; 'ந்',</v>
+        <f t="shared" si="14"/>
+        <v>'õ¢' =&gt; 'வ்',</v>
       </c>
       <c r="F181" t="str">
-        <f>"'"&amp;B181&amp;"' =&gt; '"&amp;C181&amp;"',"</f>
-        <v>'ந்' =&gt; 'ï¢',</v>
+        <f t="shared" si="12"/>
+        <v>'வ்' =&gt; 'õ¢',</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="B182" t="s">
-        <v>265</v>
+        <v>435</v>
       </c>
       <c r="C182" t="s">
-        <v>266</v>
+        <v>436</v>
       </c>
       <c r="D182">
-        <f>LEN(C182)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E182" t="str">
-        <f>"'"&amp;C182&amp;"' =&gt; '"&amp;B182&amp;"',"</f>
-        <v>'í£' =&gt; 'ணா',</v>
+        <f t="shared" si="14"/>
+        <v>'ø¢' =&gt; 'ற்',</v>
       </c>
       <c r="F182" t="str">
-        <f>"'"&amp;B182&amp;"' =&gt; '"&amp;C182&amp;"',"</f>
-        <v>'ணா' =&gt; 'í£',</v>
+        <f t="shared" si="12"/>
+        <v>'ற்' =&gt; 'ø¢',</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="B183" t="s">
-        <v>243</v>
+        <v>417</v>
       </c>
       <c r="C183" t="s">
-        <v>244</v>
+        <v>418</v>
       </c>
       <c r="D183">
-        <f>LEN(C183)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E183" t="str">
-        <f>"'"&amp;C183&amp;"' =&gt; '"&amp;B183&amp;"',"</f>
-        <v>'ì£' =&gt; 'டா',</v>
+        <f t="shared" si="14"/>
+        <v>'ó£' =&gt; 'ரா',</v>
       </c>
       <c r="F183" t="str">
-        <f>"'"&amp;B183&amp;"' =&gt; '"&amp;C183&amp;"',"</f>
-        <v>'டா' =&gt; 'ì£',</v>
+        <f t="shared" si="12"/>
+        <v>'ரா' =&gt; 'ó£',</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B184" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="C184" t="s">
-        <v>288</v>
+        <v>396</v>
       </c>
       <c r="D184">
-        <f>LEN(C184)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E184" t="str">
-        <f>"'"&amp;C184&amp;"' =&gt; '"&amp;B184&amp;"',"</f>
-        <v>'î£' =&gt; 'தா',</v>
+        <f t="shared" si="14"/>
+        <v>'ò£' =&gt; 'யா',</v>
       </c>
       <c r="F184" t="str">
-        <f>"'"&amp;B184&amp;"' =&gt; '"&amp;C184&amp;"',"</f>
-        <v>'தா' =&gt; 'î£',</v>
+        <f t="shared" si="12"/>
+        <v>'யா' =&gt; 'ò£',</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>309</v>
+        <v>459</v>
       </c>
       <c r="C185" t="s">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="D185">
-        <f>LEN(C185)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E185" t="str">
-        <f>"'"&amp;C185&amp;"' =&gt; '"&amp;B185&amp;"',"</f>
-        <v>'ï£' =&gt; 'நா',</v>
+        <f t="shared" si="14"/>
+        <v>'ô£' =&gt; 'லா',</v>
       </c>
       <c r="F185" t="str">
-        <f>"'"&amp;B185&amp;"' =&gt; '"&amp;C185&amp;"',"</f>
-        <v>'நா' =&gt; 'ï£',</v>
+        <f t="shared" si="12"/>
+        <v>'லா' =&gt; 'ô£',</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="B186" t="s">
-        <v>267</v>
+        <v>503</v>
       </c>
       <c r="C186" t="s">
-        <v>268</v>
+        <v>504</v>
       </c>
       <c r="D186">
-        <f>LEN(C186)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E186" t="str">
-        <f>"'"&amp;C186&amp;"' =&gt; '"&amp;B186&amp;"',"</f>
-        <v>'í¤' =&gt; 'ணி',</v>
+        <f t="shared" si="14"/>
+        <v>'ö£' =&gt; 'ழா',</v>
       </c>
       <c r="F186" t="str">
-        <f>"'"&amp;B186&amp;"' =&gt; '"&amp;C186&amp;"',"</f>
-        <v>'ணி' =&gt; 'í¤',</v>
+        <f t="shared" si="12"/>
+        <v>'ழா' =&gt; 'ö£',</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="B187" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="C187" s="31" t="s">
-        <v>246</v>
+      <c r="A187">
+        <v>198</v>
+      </c>
+      <c r="B187" t="s">
+        <v>525</v>
+      </c>
+      <c r="C187" t="s">
+        <v>526</v>
       </c>
       <c r="D187">
-        <f>LEN(C187)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E187" t="str">
-        <f>"'"&amp;C187&amp;"' =&gt; '"&amp;B187&amp;"',"</f>
-        <v>'ì¤' =&gt; 'டி',</v>
-      </c>
-      <c r="F187" s="31"/>
+        <f t="shared" si="14"/>
+        <v>'õ£' =&gt; 'வா',</v>
+      </c>
+      <c r="F187" t="str">
+        <f t="shared" si="12"/>
+        <v>'வா' =&gt; 'õ£',</v>
+      </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="B188" t="s">
-        <v>289</v>
+        <v>437</v>
       </c>
       <c r="C188" t="s">
-        <v>290</v>
+        <v>438</v>
       </c>
       <c r="D188">
-        <f>LEN(C188)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E188" t="str">
-        <f>"'"&amp;C188&amp;"' =&gt; '"&amp;B188&amp;"',"</f>
-        <v>'î¤' =&gt; 'தி',</v>
+        <f t="shared" si="14"/>
+        <v>'ø£' =&gt; 'றா',</v>
       </c>
       <c r="F188" t="str">
-        <f>"'"&amp;B188&amp;"' =&gt; '"&amp;C188&amp;"',"</f>
-        <v>'தி' =&gt; 'î¤',</v>
+        <f t="shared" si="12"/>
+        <v>'றா' =&gt; 'ø£',</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="B189" t="s">
-        <v>311</v>
+        <v>419</v>
       </c>
       <c r="C189" t="s">
-        <v>312</v>
+        <v>420</v>
       </c>
       <c r="D189">
-        <f>LEN(C189)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E189" t="str">
-        <f>"'"&amp;C189&amp;"' =&gt; '"&amp;B189&amp;"',"</f>
-        <v>'ï¤' =&gt; 'நி',</v>
+        <f t="shared" si="14"/>
+        <v>'ó¤' =&gt; 'ரி',</v>
       </c>
       <c r="F189" t="str">
-        <f>"'"&amp;B189&amp;"' =&gt; '"&amp;C189&amp;"',"</f>
-        <v>'நி' =&gt; 'ï¤',</v>
+        <f t="shared" si="12"/>
+        <v>'ரி' =&gt; 'ó¤',</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B190" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="C190" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="D190">
-        <f>LEN(C190)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E190" t="str">
-        <f>"'"&amp;C190&amp;"' =&gt; '"&amp;B190&amp;"',"</f>
-        <v>'ñ¦' =&gt; 'மீ',</v>
+        <f t="shared" si="14"/>
+        <v>'ò¤' =&gt; 'யி',</v>
       </c>
       <c r="F190" t="str">
-        <f>"'"&amp;B190&amp;"' =&gt; '"&amp;C190&amp;"',"</f>
-        <v>'மீ' =&gt; 'ñ¦',</v>
+        <f t="shared" si="12"/>
+        <v>'யி' =&gt; 'ò¤',</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>461</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>462</v>
       </c>
       <c r="D191">
-        <f>LEN(C191)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E191" t="str">
-        <f>"'"&amp;C191&amp;"' =&gt; '"&amp;B191&amp;"',"</f>
-        <v>'ñ¢' =&gt; 'ம்',</v>
+        <f t="shared" si="14"/>
+        <v>'ô¤' =&gt; 'லி',</v>
       </c>
       <c r="F191" t="str">
-        <f>"'"&amp;B191&amp;"' =&gt; '"&amp;C191&amp;"',"</f>
-        <v>'ம்' =&gt; 'ñ¢',</v>
+        <f t="shared" si="12"/>
+        <v>'லி' =&gt; 'ô¤',</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="B192" t="s">
-        <v>373</v>
+        <v>505</v>
       </c>
       <c r="C192" t="s">
-        <v>374</v>
+        <v>506</v>
       </c>
       <c r="D192">
-        <f>LEN(C192)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E192" t="str">
-        <f>"'"&amp;C192&amp;"' =&gt; '"&amp;B192&amp;"',"</f>
-        <v>'ñ£' =&gt; 'மா',</v>
+        <f t="shared" si="14"/>
+        <v>'ö¤' =&gt; 'ழி',</v>
       </c>
       <c r="F192" t="str">
-        <f>"'"&amp;B192&amp;"' =&gt; '"&amp;C192&amp;"',"</f>
-        <v>'மா' =&gt; 'ñ£',</v>
+        <f t="shared" si="12"/>
+        <v>'ழி' =&gt; 'ö¤',</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B193" t="s">
-        <v>375</v>
+        <v>527</v>
       </c>
       <c r="C193" t="s">
-        <v>376</v>
+        <v>528</v>
       </c>
       <c r="D193">
-        <f>LEN(C193)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E193" t="str">
-        <f>"'"&amp;C193&amp;"' =&gt; '"&amp;B193&amp;"',"</f>
-        <v>'ñ¤' =&gt; 'மி',</v>
+        <f t="shared" si="14"/>
+        <v>'õ¤' =&gt; 'வி',</v>
       </c>
       <c r="F193" t="str">
-        <f>"'"&amp;B193&amp;"' =&gt; '"&amp;C193&amp;"',"</f>
-        <v>'மி' =&gt; 'ñ¤',</v>
+        <f t="shared" si="12"/>
+        <v>'வி' =&gt; 'õ¤',</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="B194" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="C194" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="D194">
-        <f>LEN(C194)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E194" t="str">
-        <f>"'"&amp;C194&amp;"' =&gt; '"&amp;B194&amp;"',"</f>
-        <v>'ó¦' =&gt; 'ரீ',</v>
+        <f t="shared" si="14"/>
+        <v>'ø¤' =&gt; 'றி',</v>
       </c>
       <c r="F194" t="str">
-        <f>"'"&amp;B194&amp;"' =&gt; '"&amp;C194&amp;"',"</f>
-        <v>'ரீ' =&gt; 'ó¦',</v>
+        <f t="shared" si="12"/>
+        <v>'றி' =&gt; 'ø¤',</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="B195" t="s">
-        <v>399</v>
+        <v>573</v>
       </c>
       <c r="C195" t="s">
-        <v>400</v>
+        <v>574</v>
       </c>
       <c r="D195">
-        <f>LEN(C195)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E195" t="str">
-        <f>"'"&amp;C195&amp;"' =&gt; '"&amp;B195&amp;"',"</f>
-        <v>'ò¦' =&gt; 'யீ',</v>
+        <f t="shared" si="14"/>
+        <v>'ú¦' =&gt; 'ஸீ',</v>
       </c>
       <c r="F195" t="str">
-        <f>"'"&amp;B195&amp;"' =&gt; '"&amp;C195&amp;"',"</f>
-        <v>'யீ' =&gt; 'ò¦',</v>
+        <f t="shared" si="12"/>
+        <v>'ஸீ' =&gt; 'ú¦',</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="B196" t="s">
-        <v>463</v>
+        <v>335</v>
       </c>
       <c r="C196" t="s">
-        <v>464</v>
+        <v>336</v>
       </c>
       <c r="D196">
-        <f>LEN(C196)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E196" t="str">
-        <f>"'"&amp;C196&amp;"' =&gt; '"&amp;B196&amp;"',"</f>
-        <v>'ô¦' =&gt; 'லீ',</v>
+        <f t="shared" si="14"/>
+        <v>'ù¦' =&gt; 'னீ',</v>
       </c>
       <c r="F196" t="str">
-        <f>"'"&amp;B196&amp;"' =&gt; '"&amp;C196&amp;"',"</f>
-        <v>'லீ' =&gt; 'ô¦',</v>
+        <f t="shared" si="12"/>
+        <v>'னீ' =&gt; 'ù¦',</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="B197" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
       <c r="C197" t="s">
-        <v>508</v>
+        <v>552</v>
       </c>
       <c r="D197">
-        <f>LEN(C197)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E197" t="str">
-        <f>"'"&amp;C197&amp;"' =&gt; '"&amp;B197&amp;"',"</f>
-        <v>'ö¦' =&gt; 'ழீ',</v>
+        <f t="shared" si="14"/>
+        <v>'û¦' =&gt; 'ஷீ',</v>
       </c>
       <c r="F197" t="str">
-        <f>"'"&amp;B197&amp;"' =&gt; '"&amp;C197&amp;"',"</f>
-        <v>'ழீ' =&gt; 'ö¦',</v>
+        <f t="shared" ref="F197:F250" si="15">"'"&amp;B197&amp;"' =&gt; '"&amp;C197&amp;"',"</f>
+        <v>'ஷீ' =&gt; 'û¦',</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="B198" t="s">
-        <v>529</v>
+        <v>203</v>
       </c>
       <c r="C198" t="s">
-        <v>530</v>
+        <v>204</v>
       </c>
       <c r="D198">
-        <f>LEN(C198)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E198" t="str">
-        <f>"'"&amp;C198&amp;"' =&gt; '"&amp;B198&amp;"',"</f>
-        <v>'õ¦' =&gt; 'வீ',</v>
+        <f t="shared" si="14"/>
+        <v>'ü¦' =&gt; 'ஜீ',</v>
       </c>
       <c r="F198" t="str">
-        <f>"'"&amp;B198&amp;"' =&gt; '"&amp;C198&amp;"',"</f>
-        <v>'வீ' =&gt; 'õ¦',</v>
+        <f t="shared" si="15"/>
+        <v>'ஜீ' =&gt; 'ü¦',</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="B199" t="s">
-        <v>441</v>
+        <v>576</v>
       </c>
       <c r="C199" t="s">
-        <v>442</v>
+        <v>120</v>
       </c>
       <c r="D199">
-        <f>LEN(C199)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E199" t="str">
-        <f>"'"&amp;C199&amp;"' =&gt; '"&amp;B199&amp;"',"</f>
-        <v>'ø¦' =&gt; 'றீ',</v>
+        <f t="shared" si="14"/>
+        <v>'ú¨' =&gt; 'ஸூ',</v>
       </c>
       <c r="F199" t="str">
-        <f>"'"&amp;B199&amp;"' =&gt; '"&amp;C199&amp;"',"</f>
-        <v>'றீ' =&gt; 'ø¦',</v>
+        <f t="shared" si="15"/>
+        <v>'ஸூ' =&gt; 'ú¨',</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="B200" t="s">
-        <v>415</v>
+        <v>554</v>
       </c>
       <c r="C200" t="s">
-        <v>416</v>
+        <v>119</v>
       </c>
       <c r="D200">
-        <f>LEN(C200)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E200" t="str">
-        <f>"'"&amp;C200&amp;"' =&gt; '"&amp;B200&amp;"',"</f>
-        <v>'ó¢' =&gt; 'ர்',</v>
+        <f t="shared" si="14"/>
+        <v>'û¨' =&gt; 'ஷூ',</v>
       </c>
       <c r="F200" t="str">
-        <f>"'"&amp;B200&amp;"' =&gt; '"&amp;C200&amp;"',"</f>
-        <v>'ர்' =&gt; 'ó¢',</v>
+        <f t="shared" si="15"/>
+        <v>'ஷூ' =&gt; 'û¨',</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="B201" t="s">
-        <v>393</v>
+        <v>206</v>
       </c>
       <c r="C201" t="s">
-        <v>394</v>
+        <v>104</v>
       </c>
       <c r="D201">
-        <f>LEN(C201)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E201" t="str">
-        <f>"'"&amp;C201&amp;"' =&gt; '"&amp;B201&amp;"',"</f>
-        <v>'ò¢' =&gt; 'ய்',</v>
+        <f t="shared" si="14"/>
+        <v>'ü¨' =&gt; 'ஜூ',</v>
       </c>
       <c r="F201" t="str">
-        <f>"'"&amp;B201&amp;"' =&gt; '"&amp;C201&amp;"',"</f>
-        <v>'ய்' =&gt; 'ò¢',</v>
+        <f t="shared" si="15"/>
+        <v>'ஜூ' =&gt; 'ü¨',</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>184</v>
+        <v>275</v>
       </c>
       <c r="B202" t="s">
-        <v>457</v>
+        <v>567</v>
       </c>
       <c r="C202" t="s">
-        <v>458</v>
+        <v>568</v>
       </c>
       <c r="D202">
-        <f>LEN(C202)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E202" t="str">
-        <f>"'"&amp;C202&amp;"' =&gt; '"&amp;B202&amp;"',"</f>
-        <v>'ô¢' =&gt; 'ல்',</v>
+        <f t="shared" si="14"/>
+        <v>'ú¢' =&gt; 'ஸ்',</v>
       </c>
       <c r="F202" t="str">
-        <f>"'"&amp;B202&amp;"' =&gt; '"&amp;C202&amp;"',"</f>
-        <v>'ல்' =&gt; 'ô¢',</v>
+        <f t="shared" si="15"/>
+        <v>'ஸ்' =&gt; 'ú¢',</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="B203" t="s">
-        <v>501</v>
+        <v>329</v>
       </c>
       <c r="C203" t="s">
-        <v>502</v>
+        <v>330</v>
       </c>
       <c r="D203">
-        <f>LEN(C203)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E203" t="str">
-        <f>"'"&amp;C203&amp;"' =&gt; '"&amp;B203&amp;"',"</f>
-        <v>'ö¢' =&gt; 'ழ்',</v>
+        <f t="shared" si="14"/>
+        <v>'ù¢' =&gt; 'ன்',</v>
       </c>
       <c r="F203" t="str">
-        <f>"'"&amp;B203&amp;"' =&gt; '"&amp;C203&amp;"',"</f>
-        <v>'ழ்' =&gt; 'ö¢',</v>
+        <f t="shared" si="15"/>
+        <v>'ன்' =&gt; 'ù¢',</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="B204" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="C204" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="D204">
-        <f>LEN(C204)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E204" t="str">
-        <f>"'"&amp;C204&amp;"' =&gt; '"&amp;B204&amp;"',"</f>
-        <v>'õ¢' =&gt; 'வ்',</v>
+        <f t="shared" si="14"/>
+        <v>'û¢' =&gt; 'ஷ்',</v>
       </c>
       <c r="F204" t="str">
-        <f>"'"&amp;B204&amp;"' =&gt; '"&amp;C204&amp;"',"</f>
-        <v>'வ்' =&gt; 'õ¢',</v>
+        <f t="shared" si="15"/>
+        <v>'ஷ்' =&gt; 'û¢',</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B205" t="s">
-        <v>435</v>
+        <v>197</v>
       </c>
       <c r="C205" t="s">
-        <v>436</v>
+        <v>198</v>
       </c>
       <c r="D205">
-        <f>LEN(C205)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E205" t="str">
-        <f>"'"&amp;C205&amp;"' =&gt; '"&amp;B205&amp;"',"</f>
-        <v>'ø¢' =&gt; 'ற்',</v>
+        <f t="shared" si="14"/>
+        <v>'ü¢' =&gt; 'ஜ்',</v>
       </c>
       <c r="F205" t="str">
-        <f>"'"&amp;B205&amp;"' =&gt; '"&amp;C205&amp;"',"</f>
-        <v>'ற்' =&gt; 'ø¢',</v>
+        <f t="shared" si="15"/>
+        <v>'ஜ்' =&gt; 'ü¢',</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c r="B206" t="s">
-        <v>417</v>
+        <v>569</v>
       </c>
       <c r="C206" t="s">
-        <v>418</v>
+        <v>570</v>
       </c>
       <c r="D206">
-        <f>LEN(C206)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E206" t="str">
-        <f>"'"&amp;C206&amp;"' =&gt; '"&amp;B206&amp;"',"</f>
-        <v>'ó£' =&gt; 'ரா',</v>
+        <f t="shared" si="14"/>
+        <v>'ú£' =&gt; 'ஸா',</v>
       </c>
       <c r="F206" t="str">
-        <f>"'"&amp;B206&amp;"' =&gt; '"&amp;C206&amp;"',"</f>
-        <v>'ரா' =&gt; 'ó£',</v>
+        <f t="shared" si="15"/>
+        <v>'ஸா' =&gt; 'ú£',</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="B207" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="C207" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="D207">
-        <f>LEN(C207)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E207" t="str">
-        <f>"'"&amp;C207&amp;"' =&gt; '"&amp;B207&amp;"',"</f>
-        <v>'ò£' =&gt; 'யா',</v>
+        <f t="shared" si="14"/>
+        <v>'ù£' =&gt; 'னா',</v>
       </c>
       <c r="F207" t="str">
-        <f>"'"&amp;B207&amp;"' =&gt; '"&amp;C207&amp;"',"</f>
-        <v>'யா' =&gt; 'ò£',</v>
+        <f t="shared" si="15"/>
+        <v>'னா' =&gt; 'ù£',</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <v>185</v>
+        <v>289</v>
       </c>
       <c r="B208" t="s">
-        <v>459</v>
+        <v>547</v>
       </c>
       <c r="C208" t="s">
-        <v>460</v>
+        <v>548</v>
       </c>
       <c r="D208">
-        <f>LEN(C208)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E208" t="str">
-        <f>"'"&amp;C208&amp;"' =&gt; '"&amp;B208&amp;"',"</f>
-        <v>'ô£' =&gt; 'லா',</v>
+        <f t="shared" si="14"/>
+        <v>'û£' =&gt; 'ஷா',</v>
       </c>
       <c r="F208" t="str">
-        <f>"'"&amp;B208&amp;"' =&gt; '"&amp;C208&amp;"',"</f>
-        <v>'லா' =&gt; 'ô£',</v>
+        <f t="shared" si="15"/>
+        <v>'ஷா' =&gt; 'û£',</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="B209" t="s">
-        <v>503</v>
+        <v>199</v>
       </c>
       <c r="C209" t="s">
-        <v>504</v>
+        <v>200</v>
       </c>
       <c r="D209">
-        <f>LEN(C209)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E209" t="str">
-        <f>"'"&amp;C209&amp;"' =&gt; '"&amp;B209&amp;"',"</f>
-        <v>'ö£' =&gt; 'ழா',</v>
+        <f t="shared" si="14"/>
+        <v>'ü£' =&gt; 'ஜா',</v>
       </c>
       <c r="F209" t="str">
-        <f>"'"&amp;B209&amp;"' =&gt; '"&amp;C209&amp;"',"</f>
-        <v>'ழா' =&gt; 'ö£',</v>
+        <f t="shared" si="15"/>
+        <v>'ஜா' =&gt; 'ü£',</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="B210" t="s">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="C210" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="D210">
-        <f>LEN(C210)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E210" t="str">
-        <f>"'"&amp;C210&amp;"' =&gt; '"&amp;B210&amp;"',"</f>
-        <v>'õ£' =&gt; 'வா',</v>
+        <f t="shared" si="14"/>
+        <v>'ú¤' =&gt; 'ஸி',</v>
       </c>
       <c r="F210" t="str">
-        <f>"'"&amp;B210&amp;"' =&gt; '"&amp;C210&amp;"',"</f>
-        <v>'வா' =&gt; 'õ£',</v>
+        <f t="shared" si="15"/>
+        <v>'ஸி' =&gt; 'ú¤',</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B211" t="s">
-        <v>437</v>
+        <v>333</v>
       </c>
       <c r="C211" t="s">
-        <v>438</v>
+        <v>334</v>
       </c>
       <c r="D211">
-        <f>LEN(C211)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E211" t="str">
-        <f>"'"&amp;C211&amp;"' =&gt; '"&amp;B211&amp;"',"</f>
-        <v>'ø£' =&gt; 'றா',</v>
+        <f t="shared" si="14"/>
+        <v>'ù¤' =&gt; 'னி',</v>
       </c>
       <c r="F211" t="str">
-        <f>"'"&amp;B211&amp;"' =&gt; '"&amp;C211&amp;"',"</f>
-        <v>'றா' =&gt; 'ø£',</v>
+        <f t="shared" si="15"/>
+        <v>'னி' =&gt; 'ù¤',</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="B212" t="s">
-        <v>419</v>
+        <v>549</v>
       </c>
       <c r="C212" t="s">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="D212">
-        <f>LEN(C212)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E212" t="str">
-        <f>"'"&amp;C212&amp;"' =&gt; '"&amp;B212&amp;"',"</f>
-        <v>'ó¤' =&gt; 'ரி',</v>
+        <f t="shared" si="14"/>
+        <v>'û¤' =&gt; 'ஷி',</v>
       </c>
       <c r="F212" t="str">
-        <f>"'"&amp;B212&amp;"' =&gt; '"&amp;C212&amp;"',"</f>
-        <v>'ரி' =&gt; 'ó¤',</v>
+        <f t="shared" si="15"/>
+        <v>'ஷி' =&gt; 'û¤',</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="B213" t="s">
-        <v>397</v>
+        <v>201</v>
       </c>
       <c r="C213" t="s">
-        <v>398</v>
+        <v>202</v>
       </c>
       <c r="D213">
-        <f>LEN(C213)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E213" t="str">
-        <f>"'"&amp;C213&amp;"' =&gt; '"&amp;B213&amp;"',"</f>
-        <v>'ò¤' =&gt; 'யி',</v>
+        <f t="shared" si="14"/>
+        <v>'ü¤' =&gt; 'ஜி',</v>
       </c>
       <c r="F213" t="str">
-        <f>"'"&amp;B213&amp;"' =&gt; '"&amp;C213&amp;"',"</f>
-        <v>'யி' =&gt; 'ò¤',</v>
+        <f t="shared" si="15"/>
+        <v>'ஜி' =&gt; 'ü¤',</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="B214" t="s">
-        <v>461</v>
+        <v>575</v>
       </c>
       <c r="C214" t="s">
-        <v>462</v>
+        <v>657</v>
       </c>
       <c r="D214">
-        <f>LEN(C214)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E214" t="str">
-        <f>"'"&amp;C214&amp;"' =&gt; '"&amp;B214&amp;"',"</f>
-        <v>'ô¤' =&gt; 'லி',</v>
+        <f t="shared" si="14"/>
+        <v>'ú§' =&gt; 'ஸு',</v>
       </c>
       <c r="F214" t="str">
-        <f>"'"&amp;B214&amp;"' =&gt; '"&amp;C214&amp;"',"</f>
-        <v>'லி' =&gt; 'ô¤',</v>
+        <f t="shared" si="15"/>
+        <v>'ஸு' =&gt; 'ú§',</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="B215" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
       <c r="C215" t="s">
-        <v>506</v>
+        <v>656</v>
       </c>
       <c r="D215">
-        <f>LEN(C215)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E215" t="str">
-        <f>"'"&amp;C215&amp;"' =&gt; '"&amp;B215&amp;"',"</f>
-        <v>'ö¤' =&gt; 'ழி',</v>
+        <f t="shared" si="14"/>
+        <v>'û§' =&gt; 'ஷு',</v>
       </c>
       <c r="F215" t="str">
-        <f>"'"&amp;B215&amp;"' =&gt; '"&amp;C215&amp;"',"</f>
-        <v>'ழி' =&gt; 'ö¤',</v>
+        <f t="shared" si="15"/>
+        <v>'ஷு' =&gt; 'û§',</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="B216" t="s">
-        <v>527</v>
+        <v>205</v>
       </c>
       <c r="C216" t="s">
-        <v>528</v>
+        <v>641</v>
       </c>
       <c r="D216">
-        <f>LEN(C216)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E216" t="str">
-        <f>"'"&amp;C216&amp;"' =&gt; '"&amp;B216&amp;"',"</f>
-        <v>'õ¤' =&gt; 'வி',</v>
+        <f t="shared" si="14"/>
+        <v>'ü§' =&gt; 'ஜு',</v>
       </c>
       <c r="F216" t="str">
-        <f>"'"&amp;B216&amp;"' =&gt; '"&amp;C216&amp;"',"</f>
-        <v>'வி' =&gt; 'õ¤',</v>
+        <f t="shared" si="15"/>
+        <v>'ஜு' =&gt; 'ü§',</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="B217" t="s">
-        <v>439</v>
+        <v>595</v>
       </c>
       <c r="C217" t="s">
-        <v>440</v>
+        <v>596</v>
       </c>
       <c r="D217">
-        <f>LEN(C217)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E217" t="str">
-        <f>"'"&amp;C217&amp;"' =&gt; '"&amp;B217&amp;"',"</f>
-        <v>'ø¤' =&gt; 'றி',</v>
+        <f t="shared" si="14"/>
+        <v>'ý¦' =&gt; 'ஹீ',</v>
       </c>
       <c r="F217" t="str">
-        <f>"'"&amp;B217&amp;"' =&gt; '"&amp;C217&amp;"',"</f>
-        <v>'றி' =&gt; 'ø¤',</v>
+        <f t="shared" si="15"/>
+        <v>'ஹீ' =&gt; 'ý¦',</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="B218" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="C218" t="s">
-        <v>574</v>
+        <v>121</v>
       </c>
       <c r="D218">
-        <f>LEN(C218)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E218" t="str">
-        <f>"'"&amp;C218&amp;"' =&gt; '"&amp;B218&amp;"',"</f>
-        <v>'ú¦' =&gt; 'ஸீ',</v>
+        <f t="shared" si="14"/>
+        <v>'ý¨' =&gt; 'ஹூ',</v>
       </c>
       <c r="F218" t="str">
-        <f>"'"&amp;B218&amp;"' =&gt; '"&amp;C218&amp;"',"</f>
-        <v>'ஸீ' =&gt; 'ú¦',</v>
+        <f t="shared" si="15"/>
+        <v>'ஹூ' =&gt; 'ý¨',</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="B219" t="s">
-        <v>335</v>
+        <v>589</v>
       </c>
       <c r="C219" t="s">
-        <v>336</v>
+        <v>590</v>
       </c>
       <c r="D219">
-        <f>LEN(C219)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E219" t="str">
-        <f>"'"&amp;C219&amp;"' =&gt; '"&amp;B219&amp;"',"</f>
-        <v>'ù¦' =&gt; 'னீ',</v>
+        <f t="shared" si="14"/>
+        <v>'ý¢' =&gt; 'ஹ்',</v>
       </c>
       <c r="F219" t="str">
-        <f>"'"&amp;B219&amp;"' =&gt; '"&amp;C219&amp;"',"</f>
-        <v>'னீ' =&gt; 'ù¦',</v>
+        <f t="shared" si="15"/>
+        <v>'ஹ்' =&gt; 'ý¢',</v>
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220">
-        <v>291</v>
-      </c>
-      <c r="B220" t="s">
-        <v>551</v>
+      <c r="B220" s="31" t="s">
+        <v>668</v>
       </c>
       <c r="C220" t="s">
-        <v>552</v>
+        <v>669</v>
       </c>
       <c r="D220">
-        <f>LEN(C220)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E220" t="str">
-        <f>"'"&amp;C220&amp;"' =&gt; '"&amp;B220&amp;"',"</f>
-        <v>'û¦' =&gt; 'ஷீ',</v>
+        <f t="shared" si="14"/>
+        <v>'ÿ¢' =&gt; 'ஸ்ரீ',</v>
       </c>
       <c r="F220" t="str">
-        <f>"'"&amp;B220&amp;"' =&gt; '"&amp;C220&amp;"',"</f>
-        <v>'ஷீ' =&gt; 'û¦',</v>
+        <f t="shared" si="15"/>
+        <v>'ஸ்ரீ' =&gt; 'ÿ¢',</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="B221" t="s">
-        <v>203</v>
+        <v>591</v>
       </c>
       <c r="C221" t="s">
-        <v>204</v>
+        <v>592</v>
       </c>
       <c r="D221">
-        <f>LEN(C221)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E221" t="str">
-        <f>"'"&amp;C221&amp;"' =&gt; '"&amp;B221&amp;"',"</f>
-        <v>'ü¦' =&gt; 'ஜீ',</v>
+        <f t="shared" si="14"/>
+        <v>'ý£' =&gt; 'ஹா',</v>
       </c>
       <c r="F221" t="str">
-        <f>"'"&amp;B221&amp;"' =&gt; '"&amp;C221&amp;"',"</f>
-        <v>'ஜீ' =&gt; 'ü¦',</v>
+        <f t="shared" si="15"/>
+        <v>'ஹா' =&gt; 'ý£',</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="B222" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="C222" t="s">
-        <v>120</v>
+        <v>594</v>
       </c>
       <c r="D222">
-        <f>LEN(C222)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E222" t="str">
-        <f>"'"&amp;C222&amp;"' =&gt; '"&amp;B222&amp;"',"</f>
-        <v>'ú¨' =&gt; 'ஸூ',</v>
+        <f t="shared" si="14"/>
+        <v>'ý¤' =&gt; 'ஹி',</v>
       </c>
       <c r="F222" t="str">
-        <f>"'"&amp;B222&amp;"' =&gt; '"&amp;C222&amp;"',"</f>
-        <v>'ஸூ' =&gt; 'ú¨',</v>
+        <f t="shared" si="15"/>
+        <v>'ஹி' =&gt; 'ý¤',</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B223" t="s">
-        <v>554</v>
+        <v>597</v>
       </c>
       <c r="C223" t="s">
-        <v>119</v>
+        <v>658</v>
       </c>
       <c r="D223">
-        <f>LEN(C223)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E223" t="str">
-        <f>"'"&amp;C223&amp;"' =&gt; '"&amp;B223&amp;"',"</f>
-        <v>'û¨' =&gt; 'ஷூ',</v>
+        <f t="shared" si="14"/>
+        <v>'ý§' =&gt; 'ஹு',</v>
       </c>
       <c r="F223" t="str">
-        <f>"'"&amp;B223&amp;"' =&gt; '"&amp;C223&amp;"',"</f>
-        <v>'ஷூ' =&gt; 'û¨',</v>
+        <f t="shared" si="15"/>
+        <v>'ஹு' =&gt; 'ý§',</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="B224" t="s">
-        <v>206</v>
+        <v>499</v>
       </c>
       <c r="C224" t="s">
-        <v>104</v>
+        <v>500</v>
       </c>
       <c r="D224">
-        <f>LEN(C224)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E224" t="str">
-        <f>"'"&amp;C224&amp;"' =&gt; '"&amp;B224&amp;"',"</f>
-        <v>'ü¨' =&gt; 'ஜூ',</v>
+        <f t="shared" ref="E224:E244" si="16">"'"&amp;C224&amp;"' =&gt; '"&amp;B224&amp;"',"</f>
+        <v>'ª÷÷' =&gt; 'ளௌ',</v>
       </c>
       <c r="F224" t="str">
-        <f>"'"&amp;B224&amp;"' =&gt; '"&amp;C224&amp;"',"</f>
-        <v>'ஜூ' =&gt; 'ü¨',</v>
+        <f t="shared" ref="F224:F244" si="17">"'"&amp;B224&amp;"' =&gt; '"&amp;C224&amp;"',"</f>
+        <v>'ளௌ' =&gt; 'ª÷÷',</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>275</v>
+        <v>143</v>
       </c>
       <c r="B225" t="s">
-        <v>567</v>
+        <v>371</v>
       </c>
       <c r="C225" t="s">
-        <v>568</v>
+        <v>372</v>
       </c>
       <c r="D225">
-        <f>LEN(C225)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E225" t="str">
-        <f>"'"&amp;C225&amp;"' =&gt; '"&amp;B225&amp;"',"</f>
-        <v>'ú¢' =&gt; 'ஸ்',</v>
+        <f t="shared" si="16"/>
+        <v>'ªð÷' =&gt; 'பௌ',</v>
       </c>
       <c r="F225" t="str">
-        <f>"'"&amp;B225&amp;"' =&gt; '"&amp;C225&amp;"',"</f>
-        <v>'ஸ்' =&gt; 'ú¢',</v>
+        <f t="shared" si="17"/>
+        <v>'பௌ' =&gt; 'ªð÷',</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="B226" t="s">
-        <v>329</v>
+        <v>173</v>
       </c>
       <c r="C226" t="s">
-        <v>330</v>
+        <v>174</v>
       </c>
       <c r="D226">
-        <f>LEN(C226)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E226" t="str">
-        <f>"'"&amp;C226&amp;"' =&gt; '"&amp;B226&amp;"',"</f>
-        <v>'ù¢' =&gt; 'ன்',</v>
+        <f t="shared" si="16"/>
+        <v>'ªé÷' =&gt; 'ஙௌ',</v>
       </c>
       <c r="F226" t="str">
-        <f>"'"&amp;B226&amp;"' =&gt; '"&amp;C226&amp;"',"</f>
-        <v>'ன்' =&gt; 'ù¢',</v>
+        <f t="shared" si="17"/>
+        <v>'ஙௌ' =&gt; 'ªé÷',</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>288</v>
+        <v>26</v>
       </c>
       <c r="B227" t="s">
-        <v>545</v>
+        <v>151</v>
       </c>
       <c r="C227" t="s">
-        <v>546</v>
+        <v>152</v>
       </c>
       <c r="D227">
-        <f>LEN(C227)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E227" t="str">
-        <f>"'"&amp;C227&amp;"' =&gt; '"&amp;B227&amp;"',"</f>
-        <v>'û¢' =&gt; 'ஷ்',</v>
+        <f t="shared" si="16"/>
+        <v>'ªè÷' =&gt; 'கௌ',</v>
       </c>
       <c r="F227" t="str">
-        <f>"'"&amp;B227&amp;"' =&gt; '"&amp;C227&amp;"',"</f>
-        <v>'ஷ்' =&gt; 'û¢',</v>
+        <f t="shared" si="17"/>
+        <v>'கௌ' =&gt; 'ªè÷',</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="B228" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C228" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D228">
-        <f>LEN(C228)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E228" t="str">
-        <f>"'"&amp;C228&amp;"' =&gt; '"&amp;B228&amp;"',"</f>
-        <v>'ü¢' =&gt; 'ஜ்',</v>
+        <f t="shared" si="16"/>
+        <v>'ªê÷' =&gt; 'சௌ',</v>
       </c>
       <c r="F228" t="str">
-        <f>"'"&amp;B228&amp;"' =&gt; '"&amp;C228&amp;"',"</f>
-        <v>'ஜ்' =&gt; 'ü¢',</v>
+        <f t="shared" si="17"/>
+        <v>'சௌ' =&gt; 'ªê÷',</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="B229" t="s">
-        <v>569</v>
+        <v>239</v>
       </c>
       <c r="C229" t="s">
-        <v>570</v>
+        <v>240</v>
       </c>
       <c r="D229">
-        <f>LEN(C229)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E229" t="str">
-        <f>"'"&amp;C229&amp;"' =&gt; '"&amp;B229&amp;"',"</f>
-        <v>'ú£' =&gt; 'ஸா',</v>
+        <f t="shared" si="16"/>
+        <v>'ªë÷' =&gt; 'ஞௌ',</v>
       </c>
       <c r="F229" t="str">
-        <f>"'"&amp;B229&amp;"' =&gt; '"&amp;C229&amp;"',"</f>
-        <v>'ஸா' =&gt; 'ú£',</v>
+        <f t="shared" si="17"/>
+        <v>'ஞௌ' =&gt; 'ªë÷',</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="B230" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="C230" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="D230">
-        <f>LEN(C230)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E230" t="str">
-        <f>"'"&amp;C230&amp;"' =&gt; '"&amp;B230&amp;"',"</f>
-        <v>'ù£' =&gt; 'னா',</v>
+        <f t="shared" si="16"/>
+        <v>'ªí÷' =&gt; 'ணௌ',</v>
       </c>
       <c r="F230" t="str">
-        <f>"'"&amp;B230&amp;"' =&gt; '"&amp;C230&amp;"',"</f>
-        <v>'னா' =&gt; 'ù£',</v>
+        <f t="shared" si="17"/>
+        <v>'ணௌ' =&gt; 'ªí÷',</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231">
-        <v>289</v>
+        <v>91</v>
       </c>
       <c r="B231" t="s">
-        <v>547</v>
+        <v>261</v>
       </c>
       <c r="C231" t="s">
-        <v>548</v>
+        <v>262</v>
       </c>
       <c r="D231">
-        <f>LEN(C231)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E231" t="str">
-        <f>"'"&amp;C231&amp;"' =&gt; '"&amp;B231&amp;"',"</f>
-        <v>'û£' =&gt; 'ஷா',</v>
+        <f t="shared" si="16"/>
+        <v>'ªì÷' =&gt; 'டௌ',</v>
       </c>
       <c r="F231" t="str">
-        <f>"'"&amp;B231&amp;"' =&gt; '"&amp;C231&amp;"',"</f>
-        <v>'ஷா' =&gt; 'û£',</v>
+        <f t="shared" si="17"/>
+        <v>'டௌ' =&gt; 'ªì÷',</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B232" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="C232" t="s">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="D232">
-        <f>LEN(C232)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E232" t="str">
-        <f>"'"&amp;C232&amp;"' =&gt; '"&amp;B232&amp;"',"</f>
-        <v>'ü£' =&gt; 'ஜா',</v>
+        <f t="shared" si="16"/>
+        <v>'ªî÷' =&gt; 'தௌ',</v>
       </c>
       <c r="F232" t="str">
-        <f>"'"&amp;B232&amp;"' =&gt; '"&amp;C232&amp;"',"</f>
-        <v>'ஜா' =&gt; 'ü£',</v>
+        <f t="shared" si="17"/>
+        <v>'தௌ' =&gt; 'ªî÷',</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="B233" t="s">
-        <v>571</v>
+        <v>327</v>
       </c>
       <c r="C233" t="s">
-        <v>572</v>
+        <v>328</v>
       </c>
       <c r="D233">
-        <f>LEN(C233)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E233" t="str">
-        <f>"'"&amp;C233&amp;"' =&gt; '"&amp;B233&amp;"',"</f>
-        <v>'ú¤' =&gt; 'ஸி',</v>
+        <f t="shared" si="16"/>
+        <v>'ªï÷' =&gt; 'நௌ',</v>
       </c>
       <c r="F233" t="str">
-        <f>"'"&amp;B233&amp;"' =&gt; '"&amp;C233&amp;"',"</f>
-        <v>'ஸி' =&gt; 'ú¤',</v>
+        <f t="shared" si="17"/>
+        <v>'நௌ' =&gt; 'ªï÷',</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="B234" t="s">
-        <v>333</v>
+        <v>391</v>
       </c>
       <c r="C234" t="s">
-        <v>334</v>
+        <v>392</v>
       </c>
       <c r="D234">
-        <f>LEN(C234)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E234" t="str">
-        <f>"'"&amp;C234&amp;"' =&gt; '"&amp;B234&amp;"',"</f>
-        <v>'ù¤' =&gt; 'னி',</v>
+        <f t="shared" si="16"/>
+        <v>'ªñ÷' =&gt; 'மௌ',</v>
       </c>
       <c r="F234" t="str">
-        <f>"'"&amp;B234&amp;"' =&gt; '"&amp;C234&amp;"',"</f>
-        <v>'னி' =&gt; 'ù¤',</v>
+        <f t="shared" si="17"/>
+        <v>'மௌ' =&gt; 'ªñ÷',</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="B235" t="s">
-        <v>549</v>
+        <v>433</v>
       </c>
       <c r="C235" t="s">
-        <v>550</v>
+        <v>434</v>
       </c>
       <c r="D235">
-        <f>LEN(C235)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E235" t="str">
-        <f>"'"&amp;C235&amp;"' =&gt; '"&amp;B235&amp;"',"</f>
-        <v>'û¤' =&gt; 'ஷி',</v>
+        <f t="shared" si="16"/>
+        <v>'ªó÷' =&gt; 'ரௌ',</v>
       </c>
       <c r="F235" t="str">
-        <f>"'"&amp;B235&amp;"' =&gt; '"&amp;C235&amp;"',"</f>
-        <v>'ஷி' =&gt; 'û¤',</v>
+        <f t="shared" si="17"/>
+        <v>'ரௌ' =&gt; 'ªó÷',</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>264</v>
+        <v>169</v>
       </c>
       <c r="B236" t="s">
-        <v>201</v>
+        <v>413</v>
       </c>
       <c r="C236" t="s">
-        <v>202</v>
+        <v>414</v>
       </c>
       <c r="D236">
-        <f>LEN(C236)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E236" t="str">
-        <f>"'"&amp;C236&amp;"' =&gt; '"&amp;B236&amp;"',"</f>
-        <v>'ü¤' =&gt; 'ஜி',</v>
+        <f t="shared" si="16"/>
+        <v>'ªò÷' =&gt; 'யௌ',</v>
       </c>
       <c r="F236" t="str">
-        <f>"'"&amp;B236&amp;"' =&gt; '"&amp;C236&amp;"',"</f>
-        <v>'ஜி' =&gt; 'ü¤',</v>
+        <f t="shared" si="17"/>
+        <v>'யௌ' =&gt; 'ªò÷',</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="B237" t="s">
-        <v>575</v>
+        <v>477</v>
       </c>
       <c r="C237" t="s">
-        <v>657</v>
+        <v>478</v>
       </c>
       <c r="D237">
-        <f>LEN(C237)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E237" t="str">
-        <f>"'"&amp;C237&amp;"' =&gt; '"&amp;B237&amp;"',"</f>
-        <v>'ú§' =&gt; 'ஸு',</v>
+        <f t="shared" si="16"/>
+        <v>'ªô÷' =&gt; 'லௌ',</v>
       </c>
       <c r="F237" t="str">
-        <f>"'"&amp;B237&amp;"' =&gt; '"&amp;C237&amp;"',"</f>
-        <v>'ஸு' =&gt; 'ú§',</v>
+        <f t="shared" si="17"/>
+        <v>'லௌ' =&gt; 'ªô÷',</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c r="B238" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="C238" t="s">
-        <v>656</v>
+        <v>522</v>
       </c>
       <c r="D238">
-        <f>LEN(C238)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E238" t="str">
-        <f>"'"&amp;C238&amp;"' =&gt; '"&amp;B238&amp;"',"</f>
-        <v>'û§' =&gt; 'ஷு',</v>
+        <f t="shared" si="16"/>
+        <v>'ªö÷' =&gt; 'ழௌ',</v>
       </c>
       <c r="F238" t="str">
-        <f>"'"&amp;B238&amp;"' =&gt; '"&amp;C238&amp;"',"</f>
-        <v>'ஷு' =&gt; 'û§',</v>
+        <f t="shared" si="17"/>
+        <v>'ழௌ' =&gt; 'ªö÷',</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="B239" t="s">
-        <v>205</v>
+        <v>543</v>
       </c>
       <c r="C239" t="s">
-        <v>641</v>
+        <v>544</v>
       </c>
       <c r="D239">
-        <f>LEN(C239)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E239" t="str">
-        <f>"'"&amp;C239&amp;"' =&gt; '"&amp;B239&amp;"',"</f>
-        <v>'ü§' =&gt; 'ஜு',</v>
+        <f t="shared" si="16"/>
+        <v>'ªõ÷' =&gt; 'வௌ',</v>
       </c>
       <c r="F239" t="str">
-        <f>"'"&amp;B239&amp;"' =&gt; '"&amp;C239&amp;"',"</f>
-        <v>'ஜு' =&gt; 'ü§',</v>
+        <f t="shared" si="17"/>
+        <v>'வௌ' =&gt; 'ªõ÷',</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="B240" t="s">
-        <v>595</v>
+        <v>455</v>
       </c>
       <c r="C240" t="s">
-        <v>596</v>
+        <v>456</v>
       </c>
       <c r="D240">
-        <f>LEN(C240)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E240" t="str">
-        <f>"'"&amp;C240&amp;"' =&gt; '"&amp;B240&amp;"',"</f>
-        <v>'ý¦' =&gt; 'ஹீ',</v>
+        <f t="shared" si="16"/>
+        <v>'ªø÷' =&gt; 'றௌ',</v>
       </c>
       <c r="F240" t="str">
-        <f>"'"&amp;B240&amp;"' =&gt; '"&amp;C240&amp;"',"</f>
-        <v>'ஹீ' =&gt; 'ý¦',</v>
+        <f t="shared" si="17"/>
+        <v>'றௌ' =&gt; 'ªø÷',</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="B241" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="C241" t="s">
-        <v>121</v>
+        <v>588</v>
       </c>
       <c r="D241">
-        <f>LEN(C241)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E241" t="str">
-        <f>"'"&amp;C241&amp;"' =&gt; '"&amp;B241&amp;"',"</f>
-        <v>'ý¨' =&gt; 'ஹூ',</v>
+        <f t="shared" si="16"/>
+        <v>'ªú÷' =&gt; 'ஸௌ',</v>
       </c>
       <c r="F241" t="str">
-        <f>"'"&amp;B241&amp;"' =&gt; '"&amp;C241&amp;"',"</f>
-        <v>'ஹூ' =&gt; 'ý¨',</v>
+        <f t="shared" si="17"/>
+        <v>'ஸௌ' =&gt; 'ªú÷',</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="B242" t="s">
-        <v>589</v>
+        <v>349</v>
       </c>
       <c r="C242" t="s">
-        <v>590</v>
+        <v>350</v>
       </c>
       <c r="D242">
-        <f>LEN(C242)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E242" t="str">
-        <f>"'"&amp;C242&amp;"' =&gt; '"&amp;B242&amp;"',"</f>
-        <v>'ý¢' =&gt; 'ஹ்',</v>
+        <f t="shared" si="16"/>
+        <v>'ªù÷' =&gt; 'னௌ',</v>
       </c>
       <c r="F242" t="str">
-        <f>"'"&amp;B242&amp;"' =&gt; '"&amp;C242&amp;"',"</f>
-        <v>'ஹ்' =&gt; 'ý¢',</v>
+        <f t="shared" si="17"/>
+        <v>'னௌ' =&gt; 'ªù÷',</v>
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="B243" s="31" t="s">
-        <v>668</v>
+      <c r="A243">
+        <v>299</v>
+      </c>
+      <c r="B243" t="s">
+        <v>565</v>
       </c>
       <c r="C243" t="s">
-        <v>669</v>
+        <v>566</v>
       </c>
       <c r="D243">
-        <f>LEN(C243)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E243" t="str">
-        <f>"'"&amp;C243&amp;"' =&gt; '"&amp;B243&amp;"',"</f>
-        <v>'ÿ¢' =&gt; 'ஸ்ரீ',</v>
+        <f t="shared" si="16"/>
+        <v>'ªû÷' =&gt; 'ஷௌ',</v>
       </c>
       <c r="F243" t="str">
-        <f>"'"&amp;B243&amp;"' =&gt; '"&amp;C243&amp;"',"</f>
-        <v>'ஸ்ரீ' =&gt; 'ÿ¢',</v>
+        <f t="shared" si="17"/>
+        <v>'ஷௌ' =&gt; 'ªû÷',</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="B244" t="s">
-        <v>591</v>
+        <v>217</v>
       </c>
       <c r="C244" t="s">
-        <v>592</v>
+        <v>218</v>
       </c>
       <c r="D244">
-        <f>LEN(C244)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E244" t="str">
-        <f>"'"&amp;C244&amp;"' =&gt; '"&amp;B244&amp;"',"</f>
-        <v>'ý£' =&gt; 'ஹா',</v>
+        <f t="shared" si="16"/>
+        <v>'ªü÷' =&gt; 'ஜௌ',</v>
       </c>
       <c r="F244" t="str">
-        <f>"'"&amp;B244&amp;"' =&gt; '"&amp;C244&amp;"',"</f>
-        <v>'ஹா' =&gt; 'ý£',</v>
+        <f t="shared" si="17"/>
+        <v>'ஜௌ' =&gt; 'ªü÷',</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B245" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="C245" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="D245">
-        <f>LEN(C245)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="E245" t="str">
-        <f>"'"&amp;C245&amp;"' =&gt; '"&amp;B245&amp;"',"</f>
-        <v>'ý¤' =&gt; 'ஹி',</v>
+        <f t="shared" ref="E245" si="18">"'"&amp;C245&amp;"' =&gt; '"&amp;B245&amp;"',"</f>
+        <v>'ªý÷' =&gt; 'ஹௌ',</v>
       </c>
       <c r="F245" t="str">
-        <f>"'"&amp;B245&amp;"' =&gt; '"&amp;C245&amp;"',"</f>
-        <v>'ஹி' =&gt; 'ý¤',</v>
+        <f t="shared" ref="F245" si="19">"'"&amp;B245&amp;"' =&gt; '"&amp;C245&amp;"',"</f>
+        <v>'ஹௌ' =&gt; 'ªý÷',</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="B246" t="s">
-        <v>597</v>
+        <v>249</v>
       </c>
       <c r="C246" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="D246">
-        <f>LEN(C246)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E246" t="str">
-        <f>"'"&amp;C246&amp;"' =&gt; '"&amp;B246&amp;"',"</f>
-        <v>'ý§' =&gt; 'ஹு',</v>
+        <f t="shared" si="14"/>
+        <v>'´' =&gt; 'டு',</v>
       </c>
       <c r="F246" t="str">
-        <f>"'"&amp;B246&amp;"' =&gt; '"&amp;C246&amp;"',"</f>
-        <v>'ஹு' =&gt; 'ý§',</v>
+        <f t="shared" si="15"/>
+        <v>'டு' =&gt; '´',</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B247" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="C247" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D247">
-        <f>LEN(C247)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E247" t="str">
-        <f>"'"&amp;C247&amp;"' =&gt; '"&amp;B247&amp;"',"</f>
-        <v>'´' =&gt; 'டு',</v>
+        <f t="shared" si="14"/>
+        <v>'¸' =&gt; 'நு',</v>
       </c>
       <c r="F247" t="str">
-        <f>"'"&amp;B247&amp;"' =&gt; '"&amp;C247&amp;"',"</f>
-        <v>'டு' =&gt; '´',</v>
+        <f t="shared" si="15"/>
+        <v>'நு' =&gt; '¸',</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="B248" t="s">
-        <v>315</v>
+        <v>509</v>
       </c>
       <c r="C248" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="D248">
-        <f>LEN(C248)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E248" t="str">
-        <f>"'"&amp;C248&amp;"' =&gt; '"&amp;B248&amp;"',"</f>
-        <v>'¸' =&gt; 'நு',</v>
+        <f t="shared" si="14"/>
+        <v>'¿' =&gt; 'ழு',</v>
       </c>
       <c r="F248" t="str">
-        <f>"'"&amp;B248&amp;"' =&gt; '"&amp;C248&amp;"',"</f>
-        <v>'நு' =&gt; '¸',</v>
+        <f t="shared" si="15"/>
+        <v>'ழு' =&gt; '¿',</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="B249" t="s">
-        <v>509</v>
+        <v>161</v>
       </c>
       <c r="C249" t="s">
-        <v>654</v>
+        <v>102</v>
       </c>
       <c r="D249">
-        <f>LEN(C249)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E249" t="str">
-        <f>"'"&amp;C249&amp;"' =&gt; '"&amp;B249&amp;"',"</f>
-        <v>'¿' =&gt; 'ழு',</v>
+        <f t="shared" si="14"/>
+        <v>'±' =&gt; 'ஙு',</v>
       </c>
       <c r="F249" t="str">
-        <f>"'"&amp;B249&amp;"' =&gt; '"&amp;C249&amp;"',"</f>
-        <v>'ழு' =&gt; '¿',</v>
+        <f t="shared" si="15"/>
+        <v>'ஙு' =&gt; '±',</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="B250" t="s">
-        <v>161</v>
+        <v>401</v>
       </c>
       <c r="C250" t="s">
-        <v>102</v>
+        <v>649</v>
       </c>
       <c r="D250">
-        <f>LEN(C250)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E250" t="str">
-        <f>"'"&amp;C250&amp;"' =&gt; '"&amp;B250&amp;"',"</f>
-        <v>'±' =&gt; 'ஙு',</v>
+        <f t="shared" si="14"/>
+        <v>'»' =&gt; 'யு',</v>
       </c>
       <c r="F250" t="str">
-        <f>"'"&amp;B250&amp;"' =&gt; '"&amp;C250&amp;"',"</f>
-        <v>'ஙு' =&gt; '±',</v>
+        <f t="shared" si="15"/>
+        <v>'யு' =&gt; '»',</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="B251" t="s">
-        <v>401</v>
+        <v>532</v>
       </c>
       <c r="C251" t="s">
-        <v>649</v>
+        <v>118</v>
       </c>
       <c r="D251">
-        <f>LEN(C251)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E251" t="str">
-        <f>"'"&amp;C251&amp;"' =&gt; '"&amp;B251&amp;"',"</f>
-        <v>'»' =&gt; 'யு',</v>
+        <f t="shared" si="14"/>
+        <v>'×' =&gt; 'வூ',</v>
       </c>
       <c r="F251" t="str">
-        <f>"'"&amp;B251&amp;"' =&gt; '"&amp;C251&amp;"',"</f>
-        <v>'யு' =&gt; '»',</v>
+        <f t="shared" ref="F251:F282" si="20">"'"&amp;B251&amp;"' =&gt; '"&amp;C251&amp;"',"</f>
+        <v>'வூ' =&gt; '×',</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B252" t="s">
-        <v>532</v>
+        <v>38</v>
       </c>
       <c r="C252" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D252">
-        <f>LEN(C252)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E252" t="str">
-        <f>"'"&amp;C252&amp;"' =&gt; '"&amp;B252&amp;"',"</f>
-        <v>'×' =&gt; 'வூ',</v>
+        <f t="shared" si="14"/>
+        <v>'÷' =&gt; 'ள',</v>
       </c>
       <c r="F252" t="str">
-        <f>"'"&amp;B252&amp;"' =&gt; '"&amp;C252&amp;"',"</f>
-        <v>'வூ' =&gt; '×',</v>
+        <f t="shared" si="20"/>
+        <v>'ள' =&gt; '÷',</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>222</v>
-      </c>
-      <c r="B253" t="s">
-        <v>38</v>
+        <v>82</v>
+      </c>
+      <c r="B253" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="C253" t="s">
-        <v>90</v>
+        <v>660</v>
       </c>
       <c r="D253">
-        <f>LEN(C253)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E253" t="str">
-        <f>"'"&amp;C253&amp;"' =&gt; '"&amp;B253&amp;"',"</f>
-        <v>'÷' =&gt; 'ள',</v>
+        <f t="shared" si="14"/>
+        <v>'®' =&gt; 'டி',</v>
       </c>
       <c r="F253" t="str">
-        <f>"'"&amp;B253&amp;"' =&gt; '"&amp;C253&amp;"',"</f>
-        <v>'ள' =&gt; '÷',</v>
+        <f t="shared" si="20"/>
+        <v>'டி' =&gt; '®',</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>82</v>
-      </c>
-      <c r="B254" s="31" t="s">
-        <v>245</v>
+        <v>19</v>
+      </c>
+      <c r="B254" t="s">
+        <v>141</v>
       </c>
       <c r="C254" t="s">
-        <v>660</v>
+        <v>101</v>
       </c>
       <c r="D254">
-        <f>LEN(C254)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E254" t="str">
-        <f>"'"&amp;C254&amp;"' =&gt; '"&amp;B254&amp;"',"</f>
-        <v>'®' =&gt; 'டி',</v>
+        <f t="shared" si="14"/>
+        <v>'°' =&gt; 'கு',</v>
       </c>
       <c r="F254" t="str">
-        <f>"'"&amp;B254&amp;"' =&gt; '"&amp;C254&amp;"',"</f>
-        <v>'டி' =&gt; '®',</v>
+        <f t="shared" si="20"/>
+        <v>'கு' =&gt; '°',</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="B255" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="C255" t="s">
-        <v>101</v>
+        <v>644</v>
       </c>
       <c r="D255">
-        <f>LEN(C255)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E255" t="str">
-        <f>"'"&amp;C255&amp;"' =&gt; '"&amp;B255&amp;"',"</f>
-        <v>'°' =&gt; 'கு',</v>
+        <f t="shared" si="14"/>
+        <v>'µ' =&gt; 'ணு',</v>
       </c>
       <c r="F255" t="str">
-        <f>"'"&amp;B255&amp;"' =&gt; '"&amp;C255&amp;"',"</f>
-        <v>'கு' =&gt; '°',</v>
+        <f t="shared" si="20"/>
+        <v>'ணு' =&gt; 'µ',</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B256" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="C256" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D256">
-        <f>LEN(C256)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E256" t="str">
-        <f>"'"&amp;C256&amp;"' =&gt; '"&amp;B256&amp;"',"</f>
-        <v>'µ' =&gt; 'ணு',</v>
+        <f t="shared" si="14"/>
+        <v>'¶' =&gt; 'து',</v>
       </c>
       <c r="F256" t="str">
-        <f>"'"&amp;B256&amp;"' =&gt; '"&amp;C256&amp;"',"</f>
-        <v>'ணு' =&gt; 'µ',</v>
+        <f t="shared" si="20"/>
+        <v>'து' =&gt; '¶',</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="B257" t="s">
-        <v>293</v>
+        <v>423</v>
       </c>
       <c r="C257" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="D257">
-        <f>LEN(C257)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E257" t="str">
-        <f>"'"&amp;C257&amp;"' =&gt; '"&amp;B257&amp;"',"</f>
-        <v>'¶' =&gt; 'து',</v>
+        <f t="shared" si="14"/>
+        <v>'¼' =&gt; 'ரு',</v>
       </c>
       <c r="F257" t="str">
-        <f>"'"&amp;B257&amp;"' =&gt; '"&amp;C257&amp;"',"</f>
-        <v>'து' =&gt; '¶',</v>
+        <f t="shared" si="20"/>
+        <v>'ரு' =&gt; '¼',</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B258" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="C258" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D258">
-        <f>LEN(C258)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E258" t="str">
-        <f>"'"&amp;C258&amp;"' =&gt; '"&amp;B258&amp;"',"</f>
-        <v>'¼' =&gt; 'ரு',</v>
+        <f t="shared" si="14"/>
+        <v>'½' =&gt; 'லு',</v>
       </c>
       <c r="F258" t="str">
-        <f>"'"&amp;B258&amp;"' =&gt; '"&amp;C258&amp;"',"</f>
-        <v>'ரு' =&gt; '¼',</v>
+        <f t="shared" si="20"/>
+        <v>'லு' =&gt; '½',</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B259" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="C259" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D259">
-        <f>LEN(C259)</f>
+        <f t="shared" ref="D259:D317" si="21">LEN(C259)</f>
         <v>1</v>
       </c>
       <c r="E259" t="str">
-        <f>"'"&amp;C259&amp;"' =&gt; '"&amp;B259&amp;"',"</f>
-        <v>'½' =&gt; 'லு',</v>
+        <f t="shared" ref="E259:E316" si="22">"'"&amp;C259&amp;"' =&gt; '"&amp;B259&amp;"',"</f>
+        <v>'¾' =&gt; 'வு',</v>
       </c>
       <c r="F259" t="str">
-        <f>"'"&amp;B259&amp;"' =&gt; '"&amp;C259&amp;"',"</f>
-        <v>'லு' =&gt; '½',</v>
+        <f t="shared" si="20"/>
+        <v>'வு' =&gt; '¾',</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="B260" t="s">
-        <v>531</v>
+        <v>359</v>
       </c>
       <c r="C260" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="D260">
-        <f>LEN(C260)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E260" t="str">
-        <f>"'"&amp;C260&amp;"' =&gt; '"&amp;B260&amp;"',"</f>
-        <v>'¾' =&gt; 'வு',</v>
+        <f t="shared" si="22"/>
+        <v>'¹' =&gt; 'பு',</v>
       </c>
       <c r="F260" t="str">
-        <f>"'"&amp;B260&amp;"' =&gt; '"&amp;C260&amp;"',"</f>
-        <v>'வு' =&gt; '¾',</v>
+        <f t="shared" si="20"/>
+        <v>'பு' =&gt; '¹',</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="B261" t="s">
-        <v>359</v>
+        <v>183</v>
       </c>
       <c r="C261" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D261">
-        <f>LEN(C261)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E261" t="str">
-        <f>"'"&amp;C261&amp;"' =&gt; '"&amp;B261&amp;"',"</f>
-        <v>'¹' =&gt; 'பு',</v>
+        <f t="shared" si="22"/>
+        <v>'²' =&gt; 'சு',</v>
       </c>
       <c r="F261" t="str">
-        <f>"'"&amp;B261&amp;"' =&gt; '"&amp;C261&amp;"',"</f>
-        <v>'பு' =&gt; '¹',</v>
+        <f t="shared" si="20"/>
+        <v>'சு' =&gt; '²',</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B262" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="C262" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D262">
-        <f>LEN(C262)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E262" t="str">
-        <f>"'"&amp;C262&amp;"' =&gt; '"&amp;B262&amp;"',"</f>
-        <v>'²' =&gt; 'சு',</v>
+        <f t="shared" si="22"/>
+        <v>'³' =&gt; 'ஞு',</v>
       </c>
       <c r="F262" t="str">
-        <f>"'"&amp;B262&amp;"' =&gt; '"&amp;C262&amp;"',"</f>
-        <v>'சு' =&gt; '²',</v>
+        <f t="shared" si="20"/>
+        <v>'ஞு' =&gt; '³',</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="B263" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="C263" t="s">
-        <v>642</v>
+        <v>68</v>
       </c>
       <c r="D263">
-        <f>LEN(C263)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E263" t="str">
-        <f>"'"&amp;C263&amp;"' =&gt; '"&amp;B263&amp;"',"</f>
-        <v>'³' =&gt; 'ஞு',</v>
+        <f t="shared" si="22"/>
+        <v>'á' =&gt; 'ஊ',</v>
       </c>
       <c r="F263" t="str">
-        <f>"'"&amp;B263&amp;"' =&gt; '"&amp;C263&amp;"',"</f>
-        <v>'ஞு' =&gt; '³',</v>
+        <f t="shared" si="20"/>
+        <v>'ஊ' =&gt; 'á',</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="B264" t="s">
-        <v>16</v>
+        <v>443</v>
       </c>
       <c r="C264" t="s">
-        <v>68</v>
+        <v>651</v>
       </c>
       <c r="D264">
-        <f>LEN(C264)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E264" t="str">
-        <f>"'"&amp;C264&amp;"' =&gt; '"&amp;B264&amp;"',"</f>
-        <v>'á' =&gt; 'ஊ',</v>
+        <f t="shared" si="22"/>
+        <v>'Á' =&gt; 'று',</v>
       </c>
       <c r="F264" t="str">
-        <f>"'"&amp;B264&amp;"' =&gt; '"&amp;C264&amp;"',"</f>
-        <v>'ஊ' =&gt; 'á',</v>
+        <f t="shared" si="20"/>
+        <v>'று' =&gt; 'Á',</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>443</v>
+        <v>15</v>
       </c>
       <c r="C265" t="s">
-        <v>651</v>
+        <v>67</v>
       </c>
       <c r="D265">
-        <f>LEN(C265)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E265" t="str">
-        <f>"'"&amp;C265&amp;"' =&gt; '"&amp;B265&amp;"',"</f>
-        <v>'Á' =&gt; 'று',</v>
+        <f t="shared" si="22"/>
+        <v>'à' =&gt; 'உ',</v>
       </c>
       <c r="F265" t="str">
-        <f>"'"&amp;B265&amp;"' =&gt; '"&amp;C265&amp;"',"</f>
-        <v>'று' =&gt; 'Á',</v>
+        <f t="shared" si="20"/>
+        <v>'உ' =&gt; 'à',</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>487</v>
       </c>
       <c r="C266" t="s">
-        <v>67</v>
+        <v>653</v>
       </c>
       <c r="D266">
-        <f>LEN(C266)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E266" t="str">
-        <f>"'"&amp;C266&amp;"' =&gt; '"&amp;B266&amp;"',"</f>
-        <v>'à' =&gt; 'உ',</v>
+        <f t="shared" si="22"/>
+        <v>'À' =&gt; 'ளு',</v>
       </c>
       <c r="F266" t="str">
-        <f>"'"&amp;B266&amp;"' =&gt; '"&amp;C266&amp;"',"</f>
-        <v>'உ' =&gt; 'à',</v>
+        <f t="shared" si="20"/>
+        <v>'ளு' =&gt; 'À',</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>227</v>
+        <v>8</v>
       </c>
       <c r="B267" t="s">
-        <v>487</v>
+        <v>17</v>
       </c>
       <c r="C267" t="s">
-        <v>653</v>
+        <v>69</v>
       </c>
       <c r="D267">
-        <f>LEN(C267)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E267" t="str">
-        <f>"'"&amp;C267&amp;"' =&gt; '"&amp;B267&amp;"',"</f>
-        <v>'À' =&gt; 'ளு',</v>
+        <f t="shared" si="22"/>
+        <v>'â' =&gt; 'எ',</v>
       </c>
       <c r="F267" t="str">
-        <f>"'"&amp;B267&amp;"' =&gt; '"&amp;C267&amp;"',"</f>
-        <v>'ளு' =&gt; 'À',</v>
+        <f t="shared" si="20"/>
+        <v>'எ' =&gt; 'â',</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="B268" t="s">
-        <v>17</v>
+        <v>337</v>
       </c>
       <c r="C268" t="s">
-        <v>69</v>
+        <v>647</v>
       </c>
       <c r="D268">
-        <f>LEN(C268)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E268" t="str">
-        <f>"'"&amp;C268&amp;"' =&gt; '"&amp;B268&amp;"',"</f>
-        <v>'â' =&gt; 'எ',</v>
+        <f t="shared" si="22"/>
+        <v>'Â' =&gt; 'னு',</v>
       </c>
       <c r="F268" t="str">
-        <f>"'"&amp;B268&amp;"' =&gt; '"&amp;C268&amp;"',"</f>
-        <v>'எ' =&gt; 'â',</v>
+        <f t="shared" si="20"/>
+        <v>'னு' =&gt; 'Â',</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>253</v>
+        <v>10</v>
       </c>
       <c r="B269" t="s">
-        <v>337</v>
+        <v>19</v>
       </c>
       <c r="C269" t="s">
-        <v>647</v>
+        <v>71</v>
       </c>
       <c r="D269">
-        <f>LEN(C269)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E269" t="str">
-        <f>"'"&amp;C269&amp;"' =&gt; '"&amp;B269&amp;"',"</f>
-        <v>'Â' =&gt; 'னு',</v>
+        <f t="shared" si="22"/>
+        <v>'ä' =&gt; 'ஐ',</v>
       </c>
       <c r="F269" t="str">
-        <f>"'"&amp;B269&amp;"' =&gt; '"&amp;C269&amp;"',"</f>
-        <v>'னு' =&gt; 'Â',</v>
+        <f t="shared" si="20"/>
+        <v>'ஐ' =&gt; 'ä',</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>10</v>
-      </c>
-      <c r="B270" t="s">
-        <v>19</v>
-      </c>
-      <c r="C270" t="s">
-        <v>71</v>
+        <v>46</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>663</v>
       </c>
       <c r="D270">
-        <f>LEN(C270)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E270" t="str">
-        <f>"'"&amp;C270&amp;"' =&gt; '"&amp;B270&amp;"',"</f>
-        <v>'ä' =&gt; 'ஐ',</v>
+        <f t="shared" si="22"/>
+        <v>'Ä' =&gt; 'ஙூ',</v>
       </c>
       <c r="F270" t="str">
-        <f>"'"&amp;B270&amp;"' =&gt; '"&amp;C270&amp;"',"</f>
-        <v>'ஐ' =&gt; 'ä',</v>
+        <f t="shared" si="20"/>
+        <v>'ஙூ' =&gt; 'Ä',</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>46</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>663</v>
+        <v>9</v>
+      </c>
+      <c r="B271" t="s">
+        <v>18</v>
+      </c>
+      <c r="C271" t="s">
+        <v>70</v>
       </c>
       <c r="D271">
-        <f>LEN(C271)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E271" t="str">
-        <f>"'"&amp;C271&amp;"' =&gt; '"&amp;B271&amp;"',"</f>
-        <v>'Ä' =&gt; 'ஙூ',</v>
+        <f t="shared" si="22"/>
+        <v>'ã' =&gt; 'ஏ',</v>
       </c>
       <c r="F271" t="str">
-        <f>"'"&amp;B271&amp;"' =&gt; '"&amp;C271&amp;"',"</f>
-        <v>'ஙூ' =&gt; 'Ä',</v>
+        <f t="shared" si="20"/>
+        <v>'ஏ' =&gt; 'ã',</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B272" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="C272" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D272">
-        <f>LEN(C272)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E272" t="str">
-        <f>"'"&amp;C272&amp;"' =&gt; '"&amp;B272&amp;"',"</f>
-        <v>'ã' =&gt; 'ஏ',</v>
+        <f t="shared" si="22"/>
+        <v>'Ã' =&gt; 'கூ',</v>
       </c>
       <c r="F272" t="str">
-        <f>"'"&amp;B272&amp;"' =&gt; '"&amp;C272&amp;"',"</f>
-        <v>'ஏ' =&gt; 'ã',</v>
+        <f t="shared" si="20"/>
+        <v>'கூ' =&gt; 'Ã',</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
+        <v>11</v>
+      </c>
+      <c r="B273" t="s">
         <v>20</v>
       </c>
-      <c r="B273" t="s">
-        <v>142</v>
-      </c>
       <c r="C273" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D273">
-        <f>LEN(C273)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E273" t="str">
-        <f>"'"&amp;C273&amp;"' =&gt; '"&amp;B273&amp;"',"</f>
-        <v>'Ã' =&gt; 'கூ',</v>
+        <f t="shared" si="22"/>
+        <v>'å' =&gt; 'ஒ',</v>
       </c>
       <c r="F273" t="str">
-        <f>"'"&amp;B273&amp;"' =&gt; '"&amp;C273&amp;"',"</f>
-        <v>'கூ' =&gt; 'Ã',</v>
+        <f t="shared" si="20"/>
+        <v>'ஒ' =&gt; 'å',</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274">
-        <v>11</v>
-      </c>
-      <c r="B274" t="s">
-        <v>20</v>
-      </c>
-      <c r="C274" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>664</v>
       </c>
       <c r="D274">
-        <f>LEN(C274)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E274" t="str">
-        <f>"'"&amp;C274&amp;"' =&gt; '"&amp;B274&amp;"',"</f>
-        <v>'å' =&gt; 'ஒ',</v>
+        <f t="shared" si="22"/>
+        <v>'Å' =&gt; 'சூ',</v>
       </c>
       <c r="F274" t="str">
-        <f>"'"&amp;B274&amp;"' =&gt; '"&amp;C274&amp;"',"</f>
-        <v>'ஒ' =&gt; 'å',</v>
+        <f t="shared" si="20"/>
+        <v>'சூ' =&gt; 'Å',</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275">
-        <v>59</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>664</v>
+        <v>12</v>
+      </c>
+      <c r="B275" t="s">
+        <v>21</v>
+      </c>
+      <c r="C275" t="s">
+        <v>73</v>
       </c>
       <c r="D275">
-        <f>LEN(C275)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E275" t="str">
-        <f>"'"&amp;C275&amp;"' =&gt; '"&amp;B275&amp;"',"</f>
-        <v>'Å' =&gt; 'சூ',</v>
+        <f t="shared" si="22"/>
+        <v>'æ' =&gt; 'ஓ',</v>
       </c>
       <c r="F275" t="str">
-        <f>"'"&amp;B275&amp;"' =&gt; '"&amp;C275&amp;"',"</f>
-        <v>'சூ' =&gt; 'Å',</v>
+        <f t="shared" si="20"/>
+        <v>'ஓ' =&gt; 'æ',</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276">
-        <v>12</v>
-      </c>
-      <c r="B276" t="s">
-        <v>21</v>
-      </c>
-      <c r="C276" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>661</v>
       </c>
       <c r="D276">
-        <f>LEN(C276)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E276" t="str">
-        <f>"'"&amp;C276&amp;"' =&gt; '"&amp;B276&amp;"',"</f>
-        <v>'æ' =&gt; 'ஓ',</v>
+        <f t="shared" si="22"/>
+        <v>'Æ' =&gt; 'ஞூ',</v>
       </c>
       <c r="F276" t="str">
-        <f>"'"&amp;B276&amp;"' =&gt; '"&amp;C276&amp;"',"</f>
-        <v>'ஓ' =&gt; 'æ',</v>
+        <f t="shared" si="20"/>
+        <v>'ஞூ' =&gt; 'Æ',</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277">
-        <v>72</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>661</v>
+        <v>1</v>
+      </c>
+      <c r="B277" t="s">
+        <v>10</v>
+      </c>
+      <c r="C277" t="s">
+        <v>62</v>
       </c>
       <c r="D277">
-        <f>LEN(C277)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E277" t="str">
-        <f>"'"&amp;C277&amp;"' =&gt; '"&amp;B277&amp;"',"</f>
-        <v>'Æ' =&gt; 'ஞூ',</v>
+        <f t="shared" si="22"/>
+        <v>'ç' =&gt; 'ஃ',</v>
       </c>
       <c r="F277" t="str">
-        <f>"'"&amp;B277&amp;"' =&gt; '"&amp;C277&amp;"',"</f>
-        <v>'ஞூ' =&gt; 'Æ',</v>
+        <f t="shared" si="20"/>
+        <v>'ஃ' =&gt; 'ç',</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278">
+        <v>85</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="B278" t="s">
-        <v>10</v>
-      </c>
-      <c r="C278" t="s">
-        <v>62</v>
-      </c>
-      <c r="D278">
-        <f>LEN(C278)</f>
-        <v>1</v>
-      </c>
       <c r="E278" t="str">
-        <f>"'"&amp;C278&amp;"' =&gt; '"&amp;B278&amp;"',"</f>
-        <v>'ç' =&gt; 'ஃ',</v>
+        <f t="shared" si="22"/>
+        <v>'Ç' =&gt; 'டூ',</v>
       </c>
       <c r="F278" t="str">
-        <f>"'"&amp;B278&amp;"' =&gt; '"&amp;C278&amp;"',"</f>
-        <v>'ஃ' =&gt; 'ç',</v>
+        <f t="shared" si="20"/>
+        <v>'டூ' =&gt; 'Ç',</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279">
-        <v>85</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>665</v>
+        <v>131</v>
+      </c>
+      <c r="B279" t="s">
+        <v>32</v>
+      </c>
+      <c r="C279" t="s">
+        <v>84</v>
       </c>
       <c r="D279">
-        <f>LEN(C279)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E279" t="str">
-        <f>"'"&amp;C279&amp;"' =&gt; '"&amp;B279&amp;"',"</f>
-        <v>'Ç' =&gt; 'டூ',</v>
+        <f t="shared" si="22"/>
+        <v>'ð' =&gt; 'ப',</v>
       </c>
       <c r="F279" t="str">
-        <f>"'"&amp;B279&amp;"' =&gt; '"&amp;C279&amp;"',"</f>
-        <v>'டூ' =&gt; 'Ç',</v>
+        <f t="shared" si="20"/>
+        <v>'ப' =&gt; 'ð',</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="B280" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C280" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D280">
-        <f>LEN(C280)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E280" t="str">
-        <f>"'"&amp;C280&amp;"' =&gt; '"&amp;B280&amp;"',"</f>
-        <v>'ð' =&gt; 'ப',</v>
+        <f t="shared" si="22"/>
+        <v>'é' =&gt; 'ங',</v>
       </c>
       <c r="F280" t="str">
-        <f>"'"&amp;B280&amp;"' =&gt; '"&amp;C280&amp;"',"</f>
-        <v>'ப' =&gt; 'ð',</v>
+        <f t="shared" si="20"/>
+        <v>'ங' =&gt; 'é',</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281">
-        <v>40</v>
-      </c>
-      <c r="B281" t="s">
-        <v>23</v>
-      </c>
-      <c r="C281" t="s">
-        <v>75</v>
+        <v>111</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>662</v>
       </c>
       <c r="D281">
-        <f>LEN(C281)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E281" t="str">
-        <f>"'"&amp;C281&amp;"' =&gt; '"&amp;B281&amp;"',"</f>
-        <v>'é' =&gt; 'ங',</v>
+        <f t="shared" si="22"/>
+        <v>'É' =&gt; 'தூ',</v>
       </c>
       <c r="F281" t="str">
-        <f>"'"&amp;B281&amp;"' =&gt; '"&amp;C281&amp;"',"</f>
-        <v>'ங' =&gt; 'é',</v>
+        <f t="shared" si="20"/>
+        <v>'தூ' =&gt; 'É',</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282">
-        <v>111</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>662</v>
+        <v>14</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>4</v>
       </c>
       <c r="D282">
-        <f>LEN(C282)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E282" t="str">
-        <f>"'"&amp;C282&amp;"' =&gt; '"&amp;B282&amp;"',"</f>
-        <v>'É' =&gt; 'தூ',</v>
+        <f t="shared" si="22"/>
+        <v>'è' =&gt; 'க',</v>
       </c>
       <c r="F282" t="str">
-        <f>"'"&amp;B282&amp;"' =&gt; '"&amp;C282&amp;"',"</f>
-        <v>'தூ' =&gt; 'É',</v>
+        <f t="shared" si="20"/>
+        <v>'க' =&gt; 'è',</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
       <c r="C283" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="D283">
-        <f>LEN(C283)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E283" t="str">
-        <f>"'"&amp;C283&amp;"' =&gt; '"&amp;B283&amp;"',"</f>
-        <v>'è' =&gt; 'க',</v>
+        <f t="shared" si="22"/>
+        <v>'È' =&gt; 'ணூ',</v>
       </c>
       <c r="F283" t="str">
-        <f>"'"&amp;B283&amp;"' =&gt; '"&amp;C283&amp;"',"</f>
-        <v>'க' =&gt; 'è',</v>
+        <f t="shared" ref="F283:F315" si="23">"'"&amp;B283&amp;"' =&gt; '"&amp;C283&amp;"',"</f>
+        <v>'ணூ' =&gt; 'È',</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="B284" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="C284" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D284">
-        <f>LEN(C284)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E284" t="str">
-        <f>"'"&amp;C284&amp;"' =&gt; '"&amp;B284&amp;"',"</f>
-        <v>'È' =&gt; 'ணூ',</v>
+        <f t="shared" si="22"/>
+        <v>'ê' =&gt; 'ச',</v>
       </c>
       <c r="F284" t="str">
-        <f>"'"&amp;B284&amp;"' =&gt; '"&amp;C284&amp;"',"</f>
-        <v>'ணூ' =&gt; 'È',</v>
+        <f t="shared" si="23"/>
+        <v>'ச' =&gt; 'ê',</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B285" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C285" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D285">
-        <f>LEN(C285)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E285" t="str">
-        <f>"'"&amp;C285&amp;"' =&gt; '"&amp;B285&amp;"',"</f>
-        <v>'ê' =&gt; 'ச',</v>
+        <f t="shared" si="22"/>
+        <v>'ë' =&gt; 'ஞ',</v>
       </c>
       <c r="F285" t="str">
-        <f>"'"&amp;B285&amp;"' =&gt; '"&amp;C285&amp;"',"</f>
-        <v>'ச' =&gt; 'ê',</v>
+        <f t="shared" si="23"/>
+        <v>'ஞ' =&gt; 'ë',</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="B286" t="s">
-        <v>26</v>
+        <v>316</v>
       </c>
       <c r="C286" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D286">
-        <f>LEN(C286)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E286" t="str">
-        <f>"'"&amp;C286&amp;"' =&gt; '"&amp;B286&amp;"',"</f>
-        <v>'ë' =&gt; 'ஞ',</v>
+        <f t="shared" si="22"/>
+        <v>'Ë' =&gt; 'நூ',</v>
       </c>
       <c r="F286" t="str">
-        <f>"'"&amp;B286&amp;"' =&gt; '"&amp;C286&amp;"',"</f>
-        <v>'ஞ' =&gt; 'ë',</v>
+        <f t="shared" si="23"/>
+        <v>'நூ' =&gt; 'Ë',</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="B287" t="s">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="C287" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D287">
-        <f>LEN(C287)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E287" t="str">
-        <f>"'"&amp;C287&amp;"' =&gt; '"&amp;B287&amp;"',"</f>
-        <v>'Ë' =&gt; 'நூ',</v>
+        <f t="shared" si="22"/>
+        <v>'í' =&gt; 'ண',</v>
       </c>
       <c r="F287" t="str">
-        <f>"'"&amp;B287&amp;"' =&gt; '"&amp;C287&amp;"',"</f>
-        <v>'நூ' =&gt; 'Ë',</v>
+        <f t="shared" si="23"/>
+        <v>'ண' =&gt; 'í',</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="B288" t="s">
-        <v>28</v>
+        <v>380</v>
       </c>
       <c r="C288" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="D288">
-        <f>LEN(C288)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E288" t="str">
-        <f>"'"&amp;C288&amp;"' =&gt; '"&amp;B288&amp;"',"</f>
-        <v>'í' =&gt; 'ண',</v>
+        <f t="shared" si="22"/>
+        <v>'Í' =&gt; 'மூ',</v>
       </c>
       <c r="F288" t="str">
-        <f>"'"&amp;B288&amp;"' =&gt; '"&amp;C288&amp;"',"</f>
-        <v>'ண' =&gt; 'í',</v>
+        <f t="shared" si="23"/>
+        <v>'மூ' =&gt; 'Í',</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="B289" t="s">
-        <v>380</v>
+        <v>27</v>
       </c>
       <c r="C289" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D289">
-        <f>LEN(C289)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E289" t="str">
-        <f>"'"&amp;C289&amp;"' =&gt; '"&amp;B289&amp;"',"</f>
-        <v>'Í' =&gt; 'மூ',</v>
+        <f t="shared" si="22"/>
+        <v>'ì' =&gt; 'ட',</v>
       </c>
       <c r="F289" t="str">
-        <f>"'"&amp;B289&amp;"' =&gt; '"&amp;C289&amp;"',"</f>
-        <v>'மூ' =&gt; 'Í',</v>
+        <f t="shared" si="23"/>
+        <v>'ட' =&gt; 'ì',</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="B290" t="s">
-        <v>27</v>
+        <v>360</v>
       </c>
       <c r="C290" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D290">
-        <f>LEN(C290)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E290" t="str">
-        <f>"'"&amp;C290&amp;"' =&gt; '"&amp;B290&amp;"',"</f>
-        <v>'ì' =&gt; 'ட',</v>
+        <f t="shared" si="22"/>
+        <v>'Ì' =&gt; 'பூ',</v>
       </c>
       <c r="F290" t="str">
-        <f>"'"&amp;B290&amp;"' =&gt; '"&amp;C290&amp;"',"</f>
-        <v>'ட' =&gt; 'ì',</v>
+        <f t="shared" si="23"/>
+        <v>'பூ' =&gt; 'Ì',</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B291" t="s">
-        <v>360</v>
+        <v>29</v>
       </c>
       <c r="C291" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D291">
-        <f>LEN(C291)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E291" t="str">
-        <f>"'"&amp;C291&amp;"' =&gt; '"&amp;B291&amp;"',"</f>
-        <v>'Ì' =&gt; 'பூ',</v>
+        <f t="shared" si="22"/>
+        <v>'î' =&gt; 'த',</v>
       </c>
       <c r="F291" t="str">
-        <f>"'"&amp;B291&amp;"' =&gt; '"&amp;C291&amp;"',"</f>
-        <v>'பூ' =&gt; 'Ì',</v>
+        <f t="shared" si="23"/>
+        <v>'த' =&gt; 'î',</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="B292" t="s">
-        <v>29</v>
+        <v>402</v>
       </c>
       <c r="C292" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D292">
-        <f>LEN(C292)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E292" t="str">
-        <f>"'"&amp;C292&amp;"' =&gt; '"&amp;B292&amp;"',"</f>
-        <v>'î' =&gt; 'த',</v>
+        <f t="shared" si="22"/>
+        <v>'Î' =&gt; 'யூ',</v>
       </c>
       <c r="F292" t="str">
-        <f>"'"&amp;B292&amp;"' =&gt; '"&amp;C292&amp;"',"</f>
-        <v>'த' =&gt; 'î',</v>
+        <f t="shared" si="23"/>
+        <v>'யூ' =&gt; 'Î',</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B293" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="C293" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D293">
-        <f>LEN(C293)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E293" t="str">
-        <f>"'"&amp;C293&amp;"' =&gt; '"&amp;B293&amp;"',"</f>
-        <v>'Î' =&gt; 'யூ',</v>
+        <f t="shared" si="22"/>
+        <v>'ï' =&gt; 'ந',</v>
       </c>
       <c r="F293" t="str">
-        <f>"'"&amp;B293&amp;"' =&gt; '"&amp;C293&amp;"',"</f>
-        <v>'யூ' =&gt; 'Î',</v>
+        <f t="shared" si="23"/>
+        <v>'ந' =&gt; 'ï',</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B294" t="s">
-        <v>30</v>
+        <v>424</v>
       </c>
       <c r="C294" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D294">
-        <f>LEN(C294)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E294" t="str">
-        <f>"'"&amp;C294&amp;"' =&gt; '"&amp;B294&amp;"',"</f>
-        <v>'ï' =&gt; 'ந',</v>
+        <f t="shared" si="22"/>
+        <v>'Ï' =&gt; 'ரூ',</v>
       </c>
       <c r="F294" t="str">
-        <f>"'"&amp;B294&amp;"' =&gt; '"&amp;C294&amp;"',"</f>
-        <v>'ந' =&gt; 'ï',</v>
+        <f t="shared" si="23"/>
+        <v>'ரூ' =&gt; 'Ï',</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B295" t="s">
-        <v>424</v>
+        <v>33</v>
       </c>
       <c r="C295" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D295">
-        <f>LEN(C295)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E295" t="str">
-        <f>"'"&amp;C295&amp;"' =&gt; '"&amp;B295&amp;"',"</f>
-        <v>'Ï' =&gt; 'ரூ',</v>
+        <f t="shared" si="22"/>
+        <v>'ñ' =&gt; 'ம',</v>
       </c>
       <c r="F295" t="str">
-        <f>"'"&amp;B295&amp;"' =&gt; '"&amp;C295&amp;"',"</f>
-        <v>'ரூ' =&gt; 'Ï',</v>
+        <f t="shared" si="23"/>
+        <v>'ம' =&gt; 'ñ',</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B296" t="s">
-        <v>33</v>
+        <v>379</v>
       </c>
       <c r="C296" t="s">
-        <v>85</v>
+        <v>648</v>
       </c>
       <c r="D296">
-        <f>LEN(C296)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E296" t="str">
-        <f>"'"&amp;C296&amp;"' =&gt; '"&amp;B296&amp;"',"</f>
-        <v>'ñ' =&gt; 'ம',</v>
+        <f t="shared" si="22"/>
+        <v>'º' =&gt; 'மு',</v>
       </c>
       <c r="F296" t="str">
-        <f>"'"&amp;B296&amp;"' =&gt; '"&amp;C296&amp;"',"</f>
-        <v>'ம' =&gt; 'ñ',</v>
+        <f t="shared" si="23"/>
+        <v>'மு' =&gt; 'º',</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B297" t="s">
-        <v>379</v>
+        <v>35</v>
       </c>
       <c r="C297" t="s">
-        <v>648</v>
+        <v>87</v>
       </c>
       <c r="D297">
-        <f>LEN(C297)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E297" t="str">
-        <f>"'"&amp;C297&amp;"' =&gt; '"&amp;B297&amp;"',"</f>
-        <v>'º' =&gt; 'மு',</v>
+        <f t="shared" si="22"/>
+        <v>'ó' =&gt; 'ர',</v>
       </c>
       <c r="F297" t="str">
-        <f>"'"&amp;B297&amp;"' =&gt; '"&amp;C297&amp;"',"</f>
-        <v>'மு' =&gt; 'º',</v>
+        <f t="shared" si="23"/>
+        <v>'ர' =&gt; 'ó',</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B298" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C298" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D298">
-        <f>LEN(C298)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E298" t="str">
-        <f>"'"&amp;C298&amp;"' =&gt; '"&amp;B298&amp;"',"</f>
-        <v>'ó' =&gt; 'ர',</v>
+        <f t="shared" si="22"/>
+        <v>'ò' =&gt; 'ய',</v>
       </c>
       <c r="F298" t="str">
-        <f>"'"&amp;B298&amp;"' =&gt; '"&amp;C298&amp;"',"</f>
-        <v>'ர' =&gt; 'ó',</v>
+        <f t="shared" si="23"/>
+        <v>'ய' =&gt; 'ò',</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B299" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C299" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D299">
-        <f>LEN(C299)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E299" t="str">
-        <f>"'"&amp;C299&amp;"' =&gt; '"&amp;B299&amp;"',"</f>
-        <v>'ò' =&gt; 'ய',</v>
+        <f t="shared" si="22"/>
+        <v>'ô' =&gt; 'ல',</v>
       </c>
       <c r="F299" t="str">
-        <f>"'"&amp;B299&amp;"' =&gt; '"&amp;C299&amp;"',"</f>
-        <v>'ய' =&gt; 'ò',</v>
+        <f t="shared" si="23"/>
+        <v>'ல' =&gt; 'ô',</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B300" t="s">
-        <v>37</v>
+        <v>466</v>
       </c>
       <c r="C300" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D300">
-        <f>LEN(C300)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E300" t="str">
-        <f>"'"&amp;C300&amp;"' =&gt; '"&amp;B300&amp;"',"</f>
-        <v>'ô' =&gt; 'ல',</v>
+        <f t="shared" si="22"/>
+        <v>'Ö' =&gt; 'லூ',</v>
       </c>
       <c r="F300" t="str">
-        <f>"'"&amp;B300&amp;"' =&gt; '"&amp;C300&amp;"',"</f>
-        <v>'ல' =&gt; 'ô',</v>
+        <f t="shared" si="23"/>
+        <v>'லூ' =&gt; 'Ö',</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="B301" t="s">
-        <v>466</v>
+        <v>39</v>
       </c>
       <c r="C301" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D301">
-        <f>LEN(C301)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E301" t="str">
-        <f>"'"&amp;C301&amp;"' =&gt; '"&amp;B301&amp;"',"</f>
-        <v>'Ö' =&gt; 'லூ',</v>
+        <f t="shared" si="22"/>
+        <v>'ö' =&gt; 'ழ',</v>
       </c>
       <c r="F301" t="str">
-        <f>"'"&amp;B301&amp;"' =&gt; '"&amp;C301&amp;"',"</f>
-        <v>'லூ' =&gt; 'Ö',</v>
+        <f t="shared" si="23"/>
+        <v>'ழ' =&gt; 'ö',</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B302" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C302" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D302">
-        <f>LEN(C302)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E302" t="str">
-        <f>"'"&amp;C302&amp;"' =&gt; '"&amp;B302&amp;"',"</f>
-        <v>'ö' =&gt; 'ழ',</v>
+        <f t="shared" si="22"/>
+        <v>'õ' =&gt; 'வ',</v>
       </c>
       <c r="F302" t="str">
-        <f>"'"&amp;B302&amp;"' =&gt; '"&amp;C302&amp;"',"</f>
-        <v>'ழ' =&gt; 'ö',</v>
+        <f t="shared" si="23"/>
+        <v>'வ' =&gt; 'õ',</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B303" t="s">
-        <v>40</v>
+        <v>510</v>
       </c>
       <c r="C303" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D303">
-        <f>LEN(C303)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E303" t="str">
-        <f>"'"&amp;C303&amp;"' =&gt; '"&amp;B303&amp;"',"</f>
-        <v>'õ' =&gt; 'வ',</v>
+        <f t="shared" si="22"/>
+        <v>'Ø' =&gt; 'ழூ',</v>
       </c>
       <c r="F303" t="str">
-        <f>"'"&amp;B303&amp;"' =&gt; '"&amp;C303&amp;"',"</f>
-        <v>'வ' =&gt; 'õ',</v>
+        <f t="shared" si="23"/>
+        <v>'ழூ' =&gt; 'Ø',</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="B304" t="s">
-        <v>510</v>
+        <v>36</v>
       </c>
       <c r="C304" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="D304">
-        <f>LEN(C304)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E304" t="str">
-        <f>"'"&amp;C304&amp;"' =&gt; '"&amp;B304&amp;"',"</f>
-        <v>'Ø' =&gt; 'ழூ',</v>
+        <f t="shared" si="22"/>
+        <v>'ø' =&gt; 'ற',</v>
       </c>
       <c r="F304" t="str">
-        <f>"'"&amp;B304&amp;"' =&gt; '"&amp;C304&amp;"',"</f>
-        <v>'ழூ' =&gt; 'Ø',</v>
+        <f t="shared" si="23"/>
+        <v>'ற' =&gt; 'ø',</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305">
-        <v>235</v>
+        <v>5</v>
       </c>
       <c r="B305" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C305" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D305">
-        <f>LEN(C305)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E305" t="str">
-        <f>"'"&amp;C305&amp;"' =&gt; '"&amp;B305&amp;"',"</f>
-        <v>'ø' =&gt; 'ற',</v>
+        <f t="shared" si="22"/>
+        <v>'ß' =&gt; 'ஈ',</v>
       </c>
       <c r="F305" t="str">
-        <f>"'"&amp;B305&amp;"' =&gt; '"&amp;C305&amp;"',"</f>
-        <v>'ற' =&gt; 'ø',</v>
+        <f t="shared" si="23"/>
+        <v>'ஈ' =&gt; 'ß',</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B306" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C306" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D306">
-        <f>LEN(C306)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E306" t="str">
-        <f>"'"&amp;C306&amp;"' =&gt; '"&amp;B306&amp;"',"</f>
-        <v>'ß' =&gt; 'ஈ',</v>
+        <f t="shared" si="22"/>
+        <v>'Þ' =&gt; 'இ',</v>
       </c>
       <c r="F306" t="str">
-        <f>"'"&amp;B306&amp;"' =&gt; '"&amp;C306&amp;"',"</f>
-        <v>'ஈ' =&gt; 'ß',</v>
+        <f t="shared" si="23"/>
+        <v>'இ' =&gt; 'Þ',</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="B307" t="s">
-        <v>13</v>
+        <v>444</v>
       </c>
       <c r="C307" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="D307">
-        <f>LEN(C307)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E307" t="str">
-        <f>"'"&amp;C307&amp;"' =&gt; '"&amp;B307&amp;"',"</f>
-        <v>'Þ' =&gt; 'இ',</v>
+        <f t="shared" si="22"/>
+        <v>'Ú' =&gt; 'றூ',</v>
       </c>
       <c r="F307" t="str">
-        <f>"'"&amp;B307&amp;"' =&gt; '"&amp;C307&amp;"',"</f>
-        <v>'இ' =&gt; 'Þ',</v>
+        <f t="shared" si="23"/>
+        <v>'றூ' =&gt; 'Ú',</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="B308" t="s">
-        <v>444</v>
+        <v>42</v>
       </c>
       <c r="C308" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D308">
-        <f>LEN(C308)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E308" t="str">
-        <f>"'"&amp;C308&amp;"' =&gt; '"&amp;B308&amp;"',"</f>
-        <v>'Ú' =&gt; 'றூ',</v>
+        <f t="shared" si="22"/>
+        <v>'ú' =&gt; 'ஸ',</v>
       </c>
       <c r="F308" t="str">
-        <f>"'"&amp;B308&amp;"' =&gt; '"&amp;C308&amp;"',"</f>
-        <v>'றூ' =&gt; 'Ú',</v>
+        <f t="shared" si="23"/>
+        <v>'ஸ' =&gt; 'ú',</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="B309" t="s">
-        <v>42</v>
+        <v>488</v>
       </c>
       <c r="C309" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D309">
-        <f>LEN(C309)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E309" t="str">
-        <f>"'"&amp;C309&amp;"' =&gt; '"&amp;B309&amp;"',"</f>
-        <v>'ú' =&gt; 'ஸ',</v>
+        <f t="shared" si="22"/>
+        <v>'Ù' =&gt; 'ளூ',</v>
       </c>
       <c r="F309" t="str">
-        <f>"'"&amp;B309&amp;"' =&gt; '"&amp;C309&amp;"',"</f>
-        <v>'ஸ' =&gt; 'ú',</v>
+        <f t="shared" si="23"/>
+        <v>'ளூ' =&gt; 'Ù',</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="B310" t="s">
-        <v>488</v>
+        <v>31</v>
       </c>
       <c r="C310" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="D310">
-        <f>LEN(C310)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E310" t="str">
-        <f>"'"&amp;C310&amp;"' =&gt; '"&amp;B310&amp;"',"</f>
-        <v>'Ù' =&gt; 'ளூ',</v>
+        <f t="shared" si="22"/>
+        <v>'ù' =&gt; 'ன',</v>
       </c>
       <c r="F310" t="str">
-        <f>"'"&amp;B310&amp;"' =&gt; '"&amp;C310&amp;"',"</f>
-        <v>'ளூ' =&gt; 'Ù',</v>
+        <f t="shared" si="23"/>
+        <v>'ன' =&gt; 'ù',</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B311" t="s">
-        <v>31</v>
+        <v>338</v>
       </c>
       <c r="C311" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D311">
-        <f>LEN(C311)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E311" t="str">
-        <f>"'"&amp;C311&amp;"' =&gt; '"&amp;B311&amp;"',"</f>
-        <v>'ù' =&gt; 'ன',</v>
+        <f t="shared" si="22"/>
+        <v>'Û' =&gt; 'னூ',</v>
       </c>
       <c r="F311" t="str">
-        <f>"'"&amp;B311&amp;"' =&gt; '"&amp;C311&amp;"',"</f>
-        <v>'ன' =&gt; 'ù',</v>
+        <f t="shared" si="23"/>
+        <v>'னூ' =&gt; 'Û',</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="B312" t="s">
-        <v>338</v>
+        <v>41</v>
       </c>
       <c r="C312" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D312">
-        <f>LEN(C312)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E312" t="str">
-        <f>"'"&amp;C312&amp;"' =&gt; '"&amp;B312&amp;"',"</f>
-        <v>'Û' =&gt; 'னூ',</v>
+        <f t="shared" si="22"/>
+        <v>'û' =&gt; 'ஷ',</v>
       </c>
       <c r="F312" t="str">
-        <f>"'"&amp;B312&amp;"' =&gt; '"&amp;C312&amp;"',"</f>
-        <v>'னூ' =&gt; 'Û',</v>
+        <f t="shared" si="23"/>
+        <v>'ஷ' =&gt; 'û',</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313">
-        <v>287</v>
+        <v>2</v>
       </c>
       <c r="B313" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C313" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D313">
-        <f>LEN(C313)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E313" t="str">
-        <f>"'"&amp;C313&amp;"' =&gt; '"&amp;B313&amp;"',"</f>
-        <v>'û' =&gt; 'ஷ',</v>
+        <f t="shared" si="22"/>
+        <v>'Ü' =&gt; 'அ',</v>
       </c>
       <c r="F313" t="str">
-        <f>"'"&amp;B313&amp;"' =&gt; '"&amp;C313&amp;"',"</f>
-        <v>'ஷ' =&gt; 'û',</v>
+        <f t="shared" si="23"/>
+        <v>'அ' =&gt; 'Ü',</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="B314" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C314" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D314">
-        <f>LEN(C314)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E314" t="str">
-        <f>"'"&amp;C314&amp;"' =&gt; '"&amp;B314&amp;"',"</f>
-        <v>'Ü' =&gt; 'அ',</v>
+        <f t="shared" si="22"/>
+        <v>'ü' =&gt; 'ஜ',</v>
       </c>
       <c r="F314" t="str">
-        <f>"'"&amp;B314&amp;"' =&gt; '"&amp;C314&amp;"',"</f>
-        <v>'அ' =&gt; 'Ü',</v>
+        <f t="shared" si="23"/>
+        <v>'ஜ' =&gt; 'ü',</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315">
-        <v>261</v>
+        <v>3</v>
       </c>
       <c r="B315" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C315" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D315">
-        <f>LEN(C315)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E315" t="str">
-        <f>"'"&amp;C315&amp;"' =&gt; '"&amp;B315&amp;"',"</f>
-        <v>'ü' =&gt; 'ஜ',</v>
+        <f t="shared" si="22"/>
+        <v>'Ý' =&gt; 'ஆ',</v>
       </c>
       <c r="F315" t="str">
-        <f>"'"&amp;B315&amp;"' =&gt; '"&amp;C315&amp;"',"</f>
-        <v>'ஜ' =&gt; 'ü',</v>
+        <f t="shared" si="23"/>
+        <v>'ஆ' =&gt; 'Ý',</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="B316" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C316" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D316">
-        <f>LEN(C316)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E316" t="str">
-        <f>"'"&amp;C316&amp;"' =&gt; '"&amp;B316&amp;"',"</f>
-        <v>'Ý' =&gt; 'ஆ',</v>
+        <f t="shared" si="22"/>
+        <v>'ý' =&gt; 'ஹ',</v>
       </c>
       <c r="F316" t="str">
         <f>"'"&amp;B316&amp;"' =&gt; '"&amp;C316&amp;"',"</f>
-        <v>'ஆ' =&gt; 'Ý',</v>
+        <v>'ஹ' =&gt; 'ý',</v>
       </c>
     </row>
     <row r="317" spans="1:6">
-      <c r="A317">
-        <v>300</v>
-      </c>
-      <c r="B317" t="s">
-        <v>43</v>
-      </c>
-      <c r="C317" t="s">
-        <v>95</v>
+      <c r="B317" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="C317" s="31" t="s">
+        <v>667</v>
       </c>
       <c r="D317">
-        <f>LEN(C317)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E317" t="str">
         <f>"'"&amp;C317&amp;"' =&gt; '"&amp;B317&amp;"',"</f>
-        <v>'ý' =&gt; 'ஹ',</v>
-      </c>
-      <c r="F317" t="str">
-        <f>"'"&amp;B317&amp;"' =&gt; '"&amp;C317&amp;"'"</f>
-        <v>'ஹ' =&gt; 'ý'</v>
-      </c>
+        <v>'ÿ' =&gt; 'ஸ்ரீ',</v>
+      </c>
+      <c r="F317" s="31"/>
     </row>
     <row r="318" spans="1:6">
-      <c r="B318" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="C318" s="31" t="s">
-        <v>667</v>
+      <c r="A318">
+        <v>13</v>
+      </c>
+      <c r="B318" t="s">
+        <v>22</v>
+      </c>
+      <c r="C318" t="s">
+        <v>74</v>
       </c>
       <c r="D318">
         <f>LEN(C318)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E318" t="str">
         <f>"'"&amp;C318&amp;"' =&gt; '"&amp;B318&amp;"'"</f>
-        <v>'ÿ' =&gt; 'ஸ்ரீ'</v>
-      </c>
-      <c r="F318" s="31"/>
+        <v>'å÷' =&gt; 'ஔ'</v>
+      </c>
+      <c r="F318" t="str">
+        <f>"'"&amp;B318&amp;"' =&gt; '"&amp;C318&amp;"'"</f>
+        <v>'ஔ' =&gt; 'å÷'</v>
+      </c>
     </row>
     <row r="319" spans="1:6">
       <c r="E319" t="s">
